--- a/HPVData.xlsx
+++ b/HPVData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicktzr\Google Drive\ICRC\CISNET\Model\HHCoM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicktzr\Google Drive\ICRC\CISNET\HHCoM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="7050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="7050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HPV" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="310">
   <si>
     <t>Age</t>
   </si>
@@ -956,6 +956,9 @@
   </si>
   <si>
     <t>Screening Coverage (within last 3 years)</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -9040,7 +9043,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S10" workbookViewId="0">
+    <sheetView topLeftCell="S10" workbookViewId="0">
       <selection activeCell="AD23" sqref="AD23"/>
     </sheetView>
   </sheetViews>
@@ -9629,8 +9632,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9709,17 +9712,17 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="11">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="11">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="11">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="11">
         <v>2.93E-2</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -9757,17 +9760,17 @@
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="11">
         <f>3-2</f>
         <v>1</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="11">
         <v>1.4E-3</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="11">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="11">
         <v>1.95E-2</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -9799,17 +9802,17 @@
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="11">
         <f>20-4</f>
         <v>16</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="11">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="11">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="11">
         <v>7.6E-3</v>
       </c>
       <c r="N5" s="4" t="s">
@@ -9832,17 +9835,17 @@
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="11">
         <f t="shared" ref="B6:B11" si="0">20-4</f>
         <v>16</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="11">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="11">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="11">
         <v>7.6E-3</v>
       </c>
       <c r="N6" s="4" t="s">
@@ -9862,17 +9865,17 @@
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="11">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="11">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="11">
         <v>7.6E-3</v>
       </c>
       <c r="T7" t="s">
@@ -9883,17 +9886,17 @@
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="11">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="11">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="11">
         <v>7.6E-3</v>
       </c>
       <c r="N8" s="3" t="s">
@@ -9910,17 +9913,17 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="11">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="11">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="11">
         <v>7.6E-3</v>
       </c>
       <c r="N9" s="3" t="s">
@@ -9938,17 +9941,17 @@
       <c r="A10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="11">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="11">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="11">
         <v>7.6E-3</v>
       </c>
       <c r="T10" s="20" t="s">
@@ -9963,17 +9966,17 @@
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="11">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="11">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="11">
         <v>7.6E-3</v>
       </c>
     </row>
@@ -9981,7 +9984,21 @@
       <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C13" s="55">
+        <f>AVERAGE(C3:C5)</f>
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D13" s="55">
+        <f>AVERAGE(D3:D5)</f>
+        <v>6.9666666666666661E-3</v>
+      </c>
+      <c r="E13" s="55">
+        <f>AVERAGE(E3:E5)</f>
+        <v>1.8800000000000001E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>

--- a/HPVData.xlsx
+++ b/HPVData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicktzr\Google Drive\ICRC\CISNET\HHCoM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\HHCoM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="HPV" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="332">
   <si>
     <t>Age</t>
   </si>
@@ -1022,6 +1022,9 @@
   </si>
   <si>
     <t>CIN3 to CIN1</t>
+  </si>
+  <si>
+    <t>Weighted</t>
   </si>
 </sst>
 </file>
@@ -1549,7 +1552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1610,8 +1613,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1673,8 +1674,8 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3022,23 +3023,23 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:D24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" customWidth="1"/>
-    <col min="7" max="7" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25" customWidth="1"/>
-    <col min="16" max="16" width="15.54296875" customWidth="1"/>
-    <col min="17" max="18" width="49.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.54296875" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="17" max="18" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>146</v>
       </c>
@@ -3049,7 +3050,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>147</v>
       </c>
@@ -3099,7 +3100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>16</v>
       </c>
@@ -3149,7 +3150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>18</v>
       </c>
@@ -3199,7 +3200,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>31</v>
       </c>
@@ -3247,7 +3248,7 @@
         <v>8.08</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>33</v>
       </c>
@@ -3294,7 +3295,7 @@
         <v>14.04</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3327,7 +3328,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>39</v>
       </c>
@@ -3368,7 +3369,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>51</v>
       </c>
@@ -3382,7 +3383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>56</v>
       </c>
@@ -3399,7 +3400,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G11" s="24" t="s">
         <v>180</v>
       </c>
@@ -3416,7 +3417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>147</v>
       </c>
@@ -3455,7 +3456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>160</v>
       </c>
@@ -3498,7 +3499,7 @@
         <v>0.24271844660194175</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>149</v>
       </c>
@@ -3541,7 +3542,7 @@
         <v>0.12376237623762376</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>234</v>
       </c>
@@ -3573,7 +3574,7 @@
         <v>7.1225071225071226E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G16" s="4" t="s">
         <v>159</v>
       </c>
@@ -3587,7 +3588,7 @@
         <v>1.7130000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G17" s="11" t="s">
         <v>162</v>
       </c>
@@ -3601,7 +3602,7 @@
         <v>1.863</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="11" t="s">
         <v>54</v>
       </c>
@@ -3618,7 +3619,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" s="45" t="s">
         <v>238</v>
@@ -3641,7 +3642,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="7" t="s">
         <v>47</v>
@@ -3652,6 +3653,9 @@
       <c r="D20" s="48" t="s">
         <v>240</v>
       </c>
+      <c r="E20" s="91" t="s">
+        <v>331</v>
+      </c>
       <c r="G20" s="3" t="s">
         <v>167</v>
       </c>
@@ -3668,18 +3672,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="B21" s="95">
+      <c r="B21" s="93">
         <v>1.2823314148397711</v>
       </c>
-      <c r="C21" s="50">
+      <c r="C21" s="93">
         <v>2.2168593054235246</v>
       </c>
-      <c r="D21" s="97">
+      <c r="D21" s="95">
         <v>2.4910309371738526</v>
+      </c>
+      <c r="E21" s="42">
+        <f t="array" ref="E21:E24">0.7*C21:C24+0.3*D21:D24</f>
+        <v>2.2991107949486231</v>
       </c>
       <c r="Q21" s="4" t="s">
         <v>174</v>
@@ -3694,18 +3702,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="B22" s="95">
+      <c r="B22" s="93">
         <v>1.190381294008237</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="93">
         <v>2.0578984637555582</v>
       </c>
-      <c r="D22" s="97">
+      <c r="D22" s="95">
         <v>2.3124105017563474</v>
+      </c>
+      <c r="E22" s="42">
+        <v>2.134252075155795</v>
       </c>
       <c r="G22" s="24" t="s">
         <v>181</v>
@@ -3723,18 +3734,21 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="B23" s="95">
+      <c r="B23" s="93">
         <v>1.0984311731767029</v>
       </c>
-      <c r="C23" s="50">
+      <c r="C23" s="93">
         <v>1.898937622087592</v>
       </c>
-      <c r="D23" s="97">
+      <c r="D23" s="95">
         <v>2.1337900663388423</v>
+      </c>
+      <c r="E23" s="42">
+        <v>1.9693933553629668</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>147</v>
@@ -3757,18 +3771,21 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="B24" s="96">
+      <c r="B24" s="94">
         <v>1.006481052345169</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="94">
         <v>1.7399767804196262</v>
       </c>
-      <c r="D24" s="98">
+      <c r="D24" s="96">
         <v>1.9551696309213371</v>
+      </c>
+      <c r="E24" s="42">
+        <v>1.8045346355701393</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>182</v>
@@ -3783,7 +3800,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G25" s="9" t="s">
         <v>183</v>
       </c>
@@ -3794,7 +3811,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G27" s="24" t="s">
         <v>184</v>
       </c>
@@ -3802,7 +3819,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
         <v>185</v>
       </c>
@@ -3816,7 +3833,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G29" s="4" t="s">
         <v>169</v>
       </c>
@@ -3840,7 +3857,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G30" s="4" t="s">
         <v>170</v>
       </c>
@@ -3864,7 +3881,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G31" s="11" t="s">
         <v>187</v>
       </c>
@@ -3889,7 +3906,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q32" t="s">
         <v>201</v>
       </c>
@@ -3897,7 +3914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G34" s="24" t="s">
         <v>179</v>
       </c>
@@ -3905,7 +3922,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G35" s="13" t="s">
         <v>147</v>
       </c>
@@ -3931,7 +3948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G36" s="4" t="s">
         <v>47</v>
       </c>
@@ -3964,7 +3981,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="37" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G37" s="4" t="s">
         <v>157</v>
       </c>
@@ -3997,7 +4014,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="38" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G38" s="4" t="s">
         <v>158</v>
       </c>
@@ -4018,7 +4035,7 @@
         <v>1.925E-2</v>
       </c>
     </row>
-    <row r="39" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G39" s="4" t="s">
         <v>159</v>
       </c>
@@ -4032,7 +4049,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="40" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G40" s="11" t="s">
         <v>162</v>
       </c>
@@ -4046,7 +4063,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="41" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G41" s="11" t="s">
         <v>54</v>
       </c>
@@ -4060,7 +4077,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G42" s="11" t="s">
         <v>163</v>
       </c>
@@ -4074,12 +4091,12 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="45" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G45" s="24" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="46" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G46" s="4" t="s">
         <v>62</v>
       </c>
@@ -4090,7 +4107,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="47" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G47" s="4">
         <v>0.48</v>
       </c>
@@ -4112,3324 +4129,3324 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BL65"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="17" max="17" width="12.54296875" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="68" t="s">
+    <row r="2" spans="1:64" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="66" t="s">
         <v>262</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="68" t="s">
         <v>264</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="68" t="s">
         <v>265</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="68" t="s">
         <v>266</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="68" t="s">
         <v>269</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="J2" s="68" t="s">
         <v>271</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="69" t="s">
         <v>272</v>
       </c>
-      <c r="L2" s="69" t="s">
+      <c r="L2" s="67" t="s">
         <v>273</v>
       </c>
-      <c r="M2" s="70" t="s">
+      <c r="M2" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="N2" s="70" t="s">
+      <c r="N2" s="68" t="s">
         <v>275</v>
       </c>
-      <c r="O2" s="70" t="s">
+      <c r="O2" s="68" t="s">
         <v>276</v>
       </c>
-      <c r="P2" s="71" t="s">
+      <c r="P2" s="69" t="s">
         <v>277</v>
       </c>
-      <c r="Q2" s="72" t="s">
+      <c r="Q2" s="70" t="s">
         <v>278</v>
       </c>
-      <c r="R2" s="70" t="s">
+      <c r="R2" s="68" t="s">
         <v>279</v>
       </c>
-      <c r="S2" s="70" t="s">
+      <c r="S2" s="68" t="s">
         <v>280</v>
       </c>
-      <c r="T2" s="70" t="s">
+      <c r="T2" s="68" t="s">
         <v>281</v>
       </c>
-      <c r="U2" s="70" t="s">
+      <c r="U2" s="68" t="s">
         <v>282</v>
       </c>
-      <c r="V2" s="71" t="s">
+      <c r="V2" s="69" t="s">
         <v>283</v>
       </c>
-      <c r="W2" s="69" t="s">
+      <c r="W2" s="67" t="s">
         <v>284</v>
       </c>
-      <c r="X2" s="70" t="s">
+      <c r="X2" s="68" t="s">
         <v>285</v>
       </c>
-      <c r="Y2" s="70" t="s">
+      <c r="Y2" s="68" t="s">
         <v>286</v>
       </c>
-      <c r="Z2" s="70" t="s">
+      <c r="Z2" s="68" t="s">
         <v>287</v>
       </c>
-      <c r="AA2" s="71" t="s">
+      <c r="AA2" s="69" t="s">
         <v>288</v>
       </c>
-      <c r="AB2" s="69" t="s">
+      <c r="AB2" s="67" t="s">
         <v>289</v>
       </c>
-      <c r="AC2" s="70" t="s">
+      <c r="AC2" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="AD2" s="70" t="s">
+      <c r="AD2" s="68" t="s">
         <v>291</v>
       </c>
-      <c r="AE2" s="70" t="s">
+      <c r="AE2" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="AF2" s="71" t="s">
+      <c r="AF2" s="69" t="s">
         <v>293</v>
       </c>
-      <c r="AG2" s="69" t="s">
+      <c r="AG2" s="67" t="s">
         <v>294</v>
       </c>
-      <c r="AH2" s="70" t="s">
+      <c r="AH2" s="68" t="s">
         <v>295</v>
       </c>
-      <c r="AI2" s="70" t="s">
+      <c r="AI2" s="68" t="s">
         <v>296</v>
       </c>
-      <c r="AJ2" s="70" t="s">
+      <c r="AJ2" s="68" t="s">
         <v>297</v>
       </c>
-      <c r="AK2" s="71" t="s">
+      <c r="AK2" s="69" t="s">
         <v>298</v>
       </c>
-      <c r="AL2" s="72" t="s">
+      <c r="AL2" s="70" t="s">
         <v>299</v>
       </c>
-      <c r="AM2" s="70" t="s">
+      <c r="AM2" s="68" t="s">
         <v>300</v>
       </c>
-      <c r="AN2" s="70" t="s">
+      <c r="AN2" s="68" t="s">
         <v>301</v>
       </c>
-      <c r="AO2" s="70" t="s">
+      <c r="AO2" s="68" t="s">
         <v>302</v>
       </c>
-      <c r="AP2" s="70" t="s">
+      <c r="AP2" s="68" t="s">
         <v>303</v>
       </c>
-      <c r="AQ2" s="71" t="s">
+      <c r="AQ2" s="69" t="s">
         <v>304</v>
       </c>
-      <c r="AR2" s="69" t="s">
+      <c r="AR2" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="AS2" s="70" t="s">
+      <c r="AS2" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="AT2" s="70" t="s">
+      <c r="AT2" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="AU2" s="70" t="s">
+      <c r="AU2" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="AV2" s="71" t="s">
+      <c r="AV2" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="AW2" s="69" t="s">
+      <c r="AW2" s="67" t="s">
         <v>213</v>
       </c>
-      <c r="AX2" s="70" t="s">
+      <c r="AX2" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="AY2" s="70" t="s">
+      <c r="AY2" s="68" t="s">
         <v>215</v>
       </c>
-      <c r="AZ2" s="70" t="s">
+      <c r="AZ2" s="68" t="s">
         <v>216</v>
       </c>
-      <c r="BA2" s="71" t="s">
+      <c r="BA2" s="69" t="s">
         <v>217</v>
       </c>
-      <c r="BB2" s="69" t="s">
+      <c r="BB2" s="67" t="s">
         <v>218</v>
       </c>
-      <c r="BC2" s="70" t="s">
+      <c r="BC2" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="BD2" s="70" t="s">
+      <c r="BD2" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="BE2" s="70" t="s">
+      <c r="BE2" s="68" t="s">
         <v>221</v>
       </c>
-      <c r="BF2" s="71" t="s">
+      <c r="BF2" s="69" t="s">
         <v>222</v>
       </c>
-      <c r="BG2" s="72" t="s">
+      <c r="BG2" s="70" t="s">
         <v>223</v>
       </c>
-      <c r="BH2" s="70" t="s">
+      <c r="BH2" s="68" t="s">
         <v>224</v>
       </c>
-      <c r="BI2" s="70" t="s">
+      <c r="BI2" s="68" t="s">
         <v>225</v>
       </c>
-      <c r="BJ2" s="70" t="s">
+      <c r="BJ2" s="68" t="s">
         <v>226</v>
       </c>
-      <c r="BK2" s="70" t="s">
+      <c r="BK2" s="68" t="s">
         <v>227</v>
       </c>
-      <c r="BL2" s="71" t="s">
+      <c r="BL2" s="69" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>309</v>
       </c>
-      <c r="B3" s="74">
+      <c r="B3" s="72">
         <v>0.59145199999999998</v>
       </c>
-      <c r="C3" s="75">
+      <c r="C3" s="73">
         <v>0.13264633333333339</v>
       </c>
-      <c r="D3" s="76">
+      <c r="D3" s="74">
         <v>0.20903799999999997</v>
       </c>
-      <c r="E3" s="76">
+      <c r="E3" s="74">
         <v>6.6664000000000001E-2</v>
       </c>
-      <c r="F3" s="77">
-        <v>0</v>
-      </c>
-      <c r="G3" s="74">
+      <c r="F3" s="75">
+        <v>0</v>
+      </c>
+      <c r="G3" s="72">
         <v>0.17660799999999999</v>
       </c>
-      <c r="H3" s="76">
+      <c r="H3" s="74">
         <v>2.2391999999999999E-2</v>
       </c>
-      <c r="I3" s="75">
+      <c r="I3" s="73">
         <v>0.73117633333333332</v>
       </c>
-      <c r="J3" s="76">
+      <c r="J3" s="74">
         <v>3.4812000000000003E-2</v>
       </c>
-      <c r="K3" s="77">
+      <c r="K3" s="75">
         <v>3.4812000000000003E-2</v>
       </c>
-      <c r="L3" s="74">
+      <c r="L3" s="72">
         <v>0.24519100000000002</v>
       </c>
-      <c r="M3" s="76">
+      <c r="M3" s="74">
         <v>2.6141000000000001E-2</v>
       </c>
-      <c r="N3" s="76">
+      <c r="N3" s="74">
         <v>9.1818999999999998E-2</v>
       </c>
-      <c r="O3" s="75">
+      <c r="O3" s="73">
         <v>0.50452233333333341</v>
       </c>
-      <c r="P3" s="77">
+      <c r="P3" s="75">
         <v>0.13212699999999999</v>
       </c>
-      <c r="Q3" s="78">
-        <v>0</v>
-      </c>
-      <c r="R3" s="79">
-        <v>0</v>
-      </c>
-      <c r="S3" s="79">
+      <c r="Q3" s="76">
+        <v>0</v>
+      </c>
+      <c r="R3" s="77">
+        <v>0</v>
+      </c>
+      <c r="S3" s="77">
         <v>5.2525999999999996E-2</v>
       </c>
-      <c r="T3" s="79">
+      <c r="T3" s="77">
         <v>3.7418E-2</v>
       </c>
-      <c r="U3" s="80">
+      <c r="U3" s="78">
         <v>0.90851966666666673</v>
       </c>
-      <c r="V3" s="81">
+      <c r="V3" s="79">
         <v>1.3366666666666666E-3</v>
       </c>
-      <c r="W3" s="74">
+      <c r="W3" s="72">
         <v>0.59281499999999998</v>
       </c>
-      <c r="X3" s="75">
+      <c r="X3" s="73">
         <v>0.13221333333333338</v>
       </c>
-      <c r="Y3" s="76">
+      <c r="Y3" s="74">
         <v>0.20834800000000001</v>
       </c>
-      <c r="Z3" s="76">
+      <c r="Z3" s="74">
         <v>6.6423999999999997E-2</v>
       </c>
-      <c r="AA3" s="77">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="74">
+      <c r="AA3" s="75">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="72">
         <v>0.17720499999999997</v>
       </c>
-      <c r="AC3" s="76">
+      <c r="AC3" s="74">
         <v>2.2474000000000004E-2</v>
       </c>
-      <c r="AD3" s="75">
+      <c r="AD3" s="73">
         <v>0.73075133333333342</v>
       </c>
-      <c r="AE3" s="76">
+      <c r="AE3" s="74">
         <v>3.4685000000000001E-2</v>
       </c>
-      <c r="AF3" s="77">
+      <c r="AF3" s="75">
         <v>3.4685000000000001E-2</v>
       </c>
-      <c r="AG3" s="74">
+      <c r="AG3" s="72">
         <v>0.24598299999999998</v>
       </c>
-      <c r="AH3" s="76">
+      <c r="AH3" s="74">
         <v>2.6237E-2</v>
       </c>
-      <c r="AI3" s="76">
+      <c r="AI3" s="74">
         <v>9.2146000000000006E-2</v>
       </c>
-      <c r="AJ3" s="75">
+      <c r="AJ3" s="73">
         <v>0.50376433333333337</v>
       </c>
-      <c r="AK3" s="77">
+      <c r="AK3" s="75">
         <v>0.13167000000000001</v>
       </c>
-      <c r="AL3" s="78">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="79">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="79">
+      <c r="AL3" s="76">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="77">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="77">
         <v>5.2716999999999993E-2</v>
       </c>
-      <c r="AO3" s="79">
+      <c r="AO3" s="77">
         <v>3.7554999999999998E-2</v>
       </c>
-      <c r="AP3" s="80">
+      <c r="AP3" s="78">
         <v>0.90819666666666665</v>
       </c>
-      <c r="AQ3" s="81">
+      <c r="AQ3" s="79">
         <v>1.3316666666666668E-3</v>
       </c>
-      <c r="AR3" s="74">
+      <c r="AR3" s="72">
         <v>0.78637999999999997</v>
       </c>
-      <c r="AS3" s="75">
+      <c r="AS3" s="73">
         <v>4.7047333333333406E-2</v>
       </c>
-      <c r="AT3" s="76">
+      <c r="AT3" s="74">
         <v>0.12715399999999999</v>
       </c>
-      <c r="AU3" s="76">
+      <c r="AU3" s="74">
         <v>3.9218999999999997E-2</v>
       </c>
-      <c r="AV3" s="77">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="74">
+      <c r="AV3" s="75">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="72">
         <v>0.284721</v>
       </c>
-      <c r="AX3" s="76">
+      <c r="AX3" s="74">
         <v>3.8297999999999999E-2</v>
       </c>
-      <c r="AY3" s="75">
+      <c r="AY3" s="73">
         <v>0.63610333333333335</v>
       </c>
-      <c r="AZ3" s="76">
+      <c r="AZ3" s="74">
         <v>2.0338999999999999E-2</v>
       </c>
-      <c r="BA3" s="77">
+      <c r="BA3" s="75">
         <v>2.0338999999999999E-2</v>
       </c>
-      <c r="BB3" s="74">
+      <c r="BB3" s="72">
         <v>0.38433199999999995</v>
       </c>
-      <c r="BC3" s="76">
+      <c r="BC3" s="74">
         <v>4.4648E-2</v>
       </c>
-      <c r="BD3" s="76">
+      <c r="BD3" s="74">
         <v>0.15301799999999999</v>
       </c>
-      <c r="BE3" s="75">
+      <c r="BE3" s="73">
         <v>0.33890733333333328</v>
       </c>
-      <c r="BF3" s="77">
+      <c r="BF3" s="75">
         <v>7.8895000000000007E-2</v>
       </c>
-      <c r="BG3" s="78">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="79">
-        <v>0</v>
-      </c>
-      <c r="BI3" s="79">
+      <c r="BG3" s="76">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="77">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="77">
         <v>8.8842000000000018E-2</v>
       </c>
-      <c r="BJ3" s="79">
+      <c r="BJ3" s="77">
         <v>6.3644999999999993E-2</v>
       </c>
-      <c r="BK3" s="80">
+      <c r="BK3" s="78">
         <v>0.84655800000000003</v>
       </c>
-      <c r="BL3" s="81">
+      <c r="BL3" s="79">
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B4" s="74">
+      <c r="B4" s="72">
         <v>0.59145199999999998</v>
       </c>
-      <c r="C4" s="75">
+      <c r="C4" s="73">
         <v>0.13264633333333339</v>
       </c>
-      <c r="D4" s="76">
+      <c r="D4" s="74">
         <v>0.20903799999999997</v>
       </c>
-      <c r="E4" s="76">
+      <c r="E4" s="74">
         <v>6.6664000000000001E-2</v>
       </c>
-      <c r="F4" s="77">
-        <v>0</v>
-      </c>
-      <c r="G4" s="74">
+      <c r="F4" s="75">
+        <v>0</v>
+      </c>
+      <c r="G4" s="72">
         <v>0.17660799999999999</v>
       </c>
-      <c r="H4" s="76">
+      <c r="H4" s="74">
         <v>2.2391999999999999E-2</v>
       </c>
-      <c r="I4" s="75">
+      <c r="I4" s="73">
         <v>0.73117633333333332</v>
       </c>
-      <c r="J4" s="76">
+      <c r="J4" s="74">
         <v>3.4812000000000003E-2</v>
       </c>
-      <c r="K4" s="77">
+      <c r="K4" s="75">
         <v>3.4812000000000003E-2</v>
       </c>
-      <c r="L4" s="74">
+      <c r="L4" s="72">
         <v>0.24519100000000002</v>
       </c>
-      <c r="M4" s="76">
+      <c r="M4" s="74">
         <v>2.6141000000000001E-2</v>
       </c>
-      <c r="N4" s="76">
+      <c r="N4" s="74">
         <v>9.1818999999999998E-2</v>
       </c>
-      <c r="O4" s="75">
+      <c r="O4" s="73">
         <v>0.50452233333333341</v>
       </c>
-      <c r="P4" s="77">
+      <c r="P4" s="75">
         <v>0.13212699999999999</v>
       </c>
-      <c r="Q4" s="78">
-        <v>0</v>
-      </c>
-      <c r="R4" s="79">
-        <v>0</v>
-      </c>
-      <c r="S4" s="79">
+      <c r="Q4" s="76">
+        <v>0</v>
+      </c>
+      <c r="R4" s="77">
+        <v>0</v>
+      </c>
+      <c r="S4" s="77">
         <v>5.2525999999999996E-2</v>
       </c>
-      <c r="T4" s="79">
+      <c r="T4" s="77">
         <v>3.7418E-2</v>
       </c>
-      <c r="U4" s="80">
+      <c r="U4" s="78">
         <v>0.90851966666666673</v>
       </c>
-      <c r="V4" s="81">
+      <c r="V4" s="79">
         <v>1.3366666666666666E-3</v>
       </c>
-      <c r="W4" s="74">
+      <c r="W4" s="72">
         <v>0.59281499999999998</v>
       </c>
-      <c r="X4" s="75">
+      <c r="X4" s="73">
         <v>0.13221333333333338</v>
       </c>
-      <c r="Y4" s="76">
+      <c r="Y4" s="74">
         <v>0.20834800000000001</v>
       </c>
-      <c r="Z4" s="76">
+      <c r="Z4" s="74">
         <v>6.6423999999999997E-2</v>
       </c>
-      <c r="AA4" s="77">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="74">
+      <c r="AA4" s="75">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="72">
         <v>0.17720499999999997</v>
       </c>
-      <c r="AC4" s="76">
+      <c r="AC4" s="74">
         <v>2.2474000000000004E-2</v>
       </c>
-      <c r="AD4" s="75">
+      <c r="AD4" s="73">
         <v>0.73075133333333342</v>
       </c>
-      <c r="AE4" s="76">
+      <c r="AE4" s="74">
         <v>3.4685000000000001E-2</v>
       </c>
-      <c r="AF4" s="77">
+      <c r="AF4" s="75">
         <v>3.4685000000000001E-2</v>
       </c>
-      <c r="AG4" s="74">
+      <c r="AG4" s="72">
         <v>0.24598299999999998</v>
       </c>
-      <c r="AH4" s="76">
+      <c r="AH4" s="74">
         <v>2.6237E-2</v>
       </c>
-      <c r="AI4" s="76">
+      <c r="AI4" s="74">
         <v>9.2146000000000006E-2</v>
       </c>
-      <c r="AJ4" s="75">
+      <c r="AJ4" s="73">
         <v>0.50376433333333337</v>
       </c>
-      <c r="AK4" s="77">
+      <c r="AK4" s="75">
         <v>0.13167000000000001</v>
       </c>
-      <c r="AL4" s="78">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="79">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="79">
+      <c r="AL4" s="76">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="77">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="77">
         <v>5.2716999999999993E-2</v>
       </c>
-      <c r="AO4" s="79">
+      <c r="AO4" s="77">
         <v>3.7554999999999998E-2</v>
       </c>
-      <c r="AP4" s="80">
+      <c r="AP4" s="78">
         <v>0.90819666666666665</v>
       </c>
-      <c r="AQ4" s="81">
+      <c r="AQ4" s="79">
         <v>1.3316666666666668E-3</v>
       </c>
-      <c r="AR4" s="74">
+      <c r="AR4" s="72">
         <v>0.78637999999999997</v>
       </c>
-      <c r="AS4" s="75">
+      <c r="AS4" s="73">
         <v>4.7047333333333406E-2</v>
       </c>
-      <c r="AT4" s="76">
+      <c r="AT4" s="74">
         <v>0.12715399999999999</v>
       </c>
-      <c r="AU4" s="76">
+      <c r="AU4" s="74">
         <v>3.9218999999999997E-2</v>
       </c>
-      <c r="AV4" s="77">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="74">
+      <c r="AV4" s="75">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="72">
         <v>0.284721</v>
       </c>
-      <c r="AX4" s="76">
+      <c r="AX4" s="74">
         <v>3.8297999999999999E-2</v>
       </c>
-      <c r="AY4" s="75">
+      <c r="AY4" s="73">
         <v>0.63610333333333335</v>
       </c>
-      <c r="AZ4" s="76">
+      <c r="AZ4" s="74">
         <v>2.0338999999999999E-2</v>
       </c>
-      <c r="BA4" s="77">
+      <c r="BA4" s="75">
         <v>2.0338999999999999E-2</v>
       </c>
-      <c r="BB4" s="74">
+      <c r="BB4" s="72">
         <v>0.38433199999999995</v>
       </c>
-      <c r="BC4" s="76">
+      <c r="BC4" s="74">
         <v>4.4648E-2</v>
       </c>
-      <c r="BD4" s="76">
+      <c r="BD4" s="74">
         <v>0.15301799999999999</v>
       </c>
-      <c r="BE4" s="75">
+      <c r="BE4" s="73">
         <v>0.33890733333333328</v>
       </c>
-      <c r="BF4" s="77">
+      <c r="BF4" s="75">
         <v>7.8895000000000007E-2</v>
       </c>
-      <c r="BG4" s="78">
-        <v>0</v>
-      </c>
-      <c r="BH4" s="79">
-        <v>0</v>
-      </c>
-      <c r="BI4" s="79">
+      <c r="BG4" s="76">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="77">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="77">
         <v>8.8842000000000018E-2</v>
       </c>
-      <c r="BJ4" s="79">
+      <c r="BJ4" s="77">
         <v>6.3644999999999993E-2</v>
       </c>
-      <c r="BK4" s="80">
+      <c r="BK4" s="78">
         <v>0.84655800000000003</v>
       </c>
-      <c r="BL4" s="81">
+      <c r="BL4" s="79">
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="73" t="s">
+    <row r="5" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="71" t="s">
         <v>305</v>
       </c>
-      <c r="B5" s="74">
+      <c r="B5" s="72">
         <v>0.59145199999999998</v>
       </c>
-      <c r="C5" s="75">
+      <c r="C5" s="73">
         <v>0.13264633333333339</v>
       </c>
-      <c r="D5" s="76">
+      <c r="D5" s="74">
         <v>0.20903799999999997</v>
       </c>
-      <c r="E5" s="76">
+      <c r="E5" s="74">
         <v>6.6664000000000001E-2</v>
       </c>
-      <c r="F5" s="77">
-        <v>0</v>
-      </c>
-      <c r="G5" s="74">
+      <c r="F5" s="75">
+        <v>0</v>
+      </c>
+      <c r="G5" s="72">
         <v>0.17660799999999999</v>
       </c>
-      <c r="H5" s="76">
+      <c r="H5" s="74">
         <v>2.2391999999999999E-2</v>
       </c>
-      <c r="I5" s="75">
+      <c r="I5" s="73">
         <v>0.73117633333333332</v>
       </c>
-      <c r="J5" s="76">
+      <c r="J5" s="74">
         <v>3.4812000000000003E-2</v>
       </c>
-      <c r="K5" s="77">
+      <c r="K5" s="75">
         <v>3.4812000000000003E-2</v>
       </c>
-      <c r="L5" s="74">
+      <c r="L5" s="72">
         <v>0.24519100000000002</v>
       </c>
-      <c r="M5" s="76">
+      <c r="M5" s="74">
         <v>2.6141000000000001E-2</v>
       </c>
-      <c r="N5" s="76">
+      <c r="N5" s="74">
         <v>9.1818999999999998E-2</v>
       </c>
-      <c r="O5" s="75">
+      <c r="O5" s="73">
         <v>0.50452233333333341</v>
       </c>
-      <c r="P5" s="77">
+      <c r="P5" s="75">
         <v>0.13212699999999999</v>
       </c>
-      <c r="Q5" s="78">
-        <v>0</v>
-      </c>
-      <c r="R5" s="79">
-        <v>0</v>
-      </c>
-      <c r="S5" s="79">
+      <c r="Q5" s="76">
+        <v>0</v>
+      </c>
+      <c r="R5" s="77">
+        <v>0</v>
+      </c>
+      <c r="S5" s="77">
         <v>5.2525999999999996E-2</v>
       </c>
-      <c r="T5" s="79">
+      <c r="T5" s="77">
         <v>3.7418E-2</v>
       </c>
-      <c r="U5" s="80">
+      <c r="U5" s="78">
         <v>0.90851966666666673</v>
       </c>
-      <c r="V5" s="81">
+      <c r="V5" s="79">
         <v>1.3366666666666666E-3</v>
       </c>
-      <c r="W5" s="74">
+      <c r="W5" s="72">
         <v>0.59281499999999998</v>
       </c>
-      <c r="X5" s="75">
+      <c r="X5" s="73">
         <v>0.13221333333333338</v>
       </c>
-      <c r="Y5" s="76">
+      <c r="Y5" s="74">
         <v>0.20834800000000001</v>
       </c>
-      <c r="Z5" s="76">
+      <c r="Z5" s="74">
         <v>6.6423999999999997E-2</v>
       </c>
-      <c r="AA5" s="77">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="74">
+      <c r="AA5" s="75">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="72">
         <v>0.17720499999999997</v>
       </c>
-      <c r="AC5" s="76">
+      <c r="AC5" s="74">
         <v>2.2474000000000004E-2</v>
       </c>
-      <c r="AD5" s="75">
+      <c r="AD5" s="73">
         <v>0.73075133333333342</v>
       </c>
-      <c r="AE5" s="76">
+      <c r="AE5" s="74">
         <v>3.4685000000000001E-2</v>
       </c>
-      <c r="AF5" s="77">
+      <c r="AF5" s="75">
         <v>3.4685000000000001E-2</v>
       </c>
-      <c r="AG5" s="74">
+      <c r="AG5" s="72">
         <v>0.24598299999999998</v>
       </c>
-      <c r="AH5" s="76">
+      <c r="AH5" s="74">
         <v>2.6237E-2</v>
       </c>
-      <c r="AI5" s="76">
+      <c r="AI5" s="74">
         <v>9.2146000000000006E-2</v>
       </c>
-      <c r="AJ5" s="75">
+      <c r="AJ5" s="73">
         <v>0.50376433333333337</v>
       </c>
-      <c r="AK5" s="77">
+      <c r="AK5" s="75">
         <v>0.13167000000000001</v>
       </c>
-      <c r="AL5" s="78">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="79">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="79">
+      <c r="AL5" s="76">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="77">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="77">
         <v>5.2716999999999993E-2</v>
       </c>
-      <c r="AO5" s="79">
+      <c r="AO5" s="77">
         <v>3.7554999999999998E-2</v>
       </c>
-      <c r="AP5" s="80">
+      <c r="AP5" s="78">
         <v>0.90819666666666665</v>
       </c>
-      <c r="AQ5" s="81">
+      <c r="AQ5" s="79">
         <v>1.3316666666666668E-3</v>
       </c>
-      <c r="AR5" s="74">
+      <c r="AR5" s="72">
         <v>0.78637999999999997</v>
       </c>
-      <c r="AS5" s="75">
+      <c r="AS5" s="73">
         <v>4.7047333333333406E-2</v>
       </c>
-      <c r="AT5" s="76">
+      <c r="AT5" s="74">
         <v>0.12715399999999999</v>
       </c>
-      <c r="AU5" s="76">
+      <c r="AU5" s="74">
         <v>3.9218999999999997E-2</v>
       </c>
-      <c r="AV5" s="77">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="74">
+      <c r="AV5" s="75">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="72">
         <v>0.284721</v>
       </c>
-      <c r="AX5" s="76">
+      <c r="AX5" s="74">
         <v>3.8297999999999999E-2</v>
       </c>
-      <c r="AY5" s="75">
+      <c r="AY5" s="73">
         <v>0.63610333333333335</v>
       </c>
-      <c r="AZ5" s="76">
+      <c r="AZ5" s="74">
         <v>2.0338999999999999E-2</v>
       </c>
-      <c r="BA5" s="77">
+      <c r="BA5" s="75">
         <v>2.0338999999999999E-2</v>
       </c>
-      <c r="BB5" s="74">
+      <c r="BB5" s="72">
         <v>0.38433199999999995</v>
       </c>
-      <c r="BC5" s="76">
+      <c r="BC5" s="74">
         <v>4.4648E-2</v>
       </c>
-      <c r="BD5" s="76">
+      <c r="BD5" s="74">
         <v>0.15301799999999999</v>
       </c>
-      <c r="BE5" s="75">
+      <c r="BE5" s="73">
         <v>0.33890733333333328</v>
       </c>
-      <c r="BF5" s="77">
+      <c r="BF5" s="75">
         <v>7.8895000000000007E-2</v>
       </c>
-      <c r="BG5" s="78">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="79">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="79">
+      <c r="BG5" s="76">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="77">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="77">
         <v>8.8842000000000018E-2</v>
       </c>
-      <c r="BJ5" s="79">
+      <c r="BJ5" s="77">
         <v>6.3644999999999993E-2</v>
       </c>
-      <c r="BK5" s="80">
+      <c r="BK5" s="78">
         <v>0.84655800000000003</v>
       </c>
-      <c r="BL5" s="81">
+      <c r="BL5" s="79">
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>229</v>
       </c>
-      <c r="B6" s="74">
+      <c r="B6" s="72">
         <v>0.59145199999999998</v>
       </c>
-      <c r="C6" s="75">
+      <c r="C6" s="73">
         <v>0.13264633333333339</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="74">
         <v>0.20903799999999997</v>
       </c>
-      <c r="E6" s="76">
+      <c r="E6" s="74">
         <v>6.6664000000000001E-2</v>
       </c>
-      <c r="F6" s="77">
-        <v>0</v>
-      </c>
-      <c r="G6" s="74">
+      <c r="F6" s="75">
+        <v>0</v>
+      </c>
+      <c r="G6" s="72">
         <v>0.17660799999999999</v>
       </c>
-      <c r="H6" s="76">
+      <c r="H6" s="74">
         <v>2.2391999999999999E-2</v>
       </c>
-      <c r="I6" s="75">
+      <c r="I6" s="73">
         <v>0.73117633333333332</v>
       </c>
-      <c r="J6" s="76">
+      <c r="J6" s="74">
         <v>3.4812000000000003E-2</v>
       </c>
-      <c r="K6" s="77">
+      <c r="K6" s="75">
         <v>3.4812000000000003E-2</v>
       </c>
-      <c r="L6" s="74">
+      <c r="L6" s="72">
         <v>0.24519100000000002</v>
       </c>
-      <c r="M6" s="76">
+      <c r="M6" s="74">
         <v>2.6141000000000001E-2</v>
       </c>
-      <c r="N6" s="76">
+      <c r="N6" s="74">
         <v>9.1818999999999998E-2</v>
       </c>
-      <c r="O6" s="75">
+      <c r="O6" s="73">
         <v>0.50452233333333341</v>
       </c>
-      <c r="P6" s="77">
+      <c r="P6" s="75">
         <v>0.13212699999999999</v>
       </c>
-      <c r="Q6" s="78">
-        <v>0</v>
-      </c>
-      <c r="R6" s="79">
-        <v>0</v>
-      </c>
-      <c r="S6" s="79">
+      <c r="Q6" s="76">
+        <v>0</v>
+      </c>
+      <c r="R6" s="77">
+        <v>0</v>
+      </c>
+      <c r="S6" s="77">
         <v>5.2525999999999996E-2</v>
       </c>
-      <c r="T6" s="79">
+      <c r="T6" s="77">
         <v>3.7418E-2</v>
       </c>
-      <c r="U6" s="80">
+      <c r="U6" s="78">
         <v>0.90851966666666673</v>
       </c>
-      <c r="V6" s="81">
+      <c r="V6" s="79">
         <v>1.3366666666666666E-3</v>
       </c>
-      <c r="W6" s="74">
+      <c r="W6" s="72">
         <v>0.59281499999999998</v>
       </c>
-      <c r="X6" s="75">
+      <c r="X6" s="73">
         <v>0.13221333333333338</v>
       </c>
-      <c r="Y6" s="76">
+      <c r="Y6" s="74">
         <v>0.20834800000000001</v>
       </c>
-      <c r="Z6" s="76">
+      <c r="Z6" s="74">
         <v>6.6423999999999997E-2</v>
       </c>
-      <c r="AA6" s="77">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="74">
+      <c r="AA6" s="75">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="72">
         <v>0.17720499999999997</v>
       </c>
-      <c r="AC6" s="76">
+      <c r="AC6" s="74">
         <v>2.2474000000000004E-2</v>
       </c>
-      <c r="AD6" s="75">
+      <c r="AD6" s="73">
         <v>0.73075133333333342</v>
       </c>
-      <c r="AE6" s="76">
+      <c r="AE6" s="74">
         <v>3.4685000000000001E-2</v>
       </c>
-      <c r="AF6" s="77">
+      <c r="AF6" s="75">
         <v>3.4685000000000001E-2</v>
       </c>
-      <c r="AG6" s="74">
+      <c r="AG6" s="72">
         <v>0.24598299999999998</v>
       </c>
-      <c r="AH6" s="76">
+      <c r="AH6" s="74">
         <v>2.6237E-2</v>
       </c>
-      <c r="AI6" s="76">
+      <c r="AI6" s="74">
         <v>9.2146000000000006E-2</v>
       </c>
-      <c r="AJ6" s="75">
+      <c r="AJ6" s="73">
         <v>0.50376433333333337</v>
       </c>
-      <c r="AK6" s="77">
+      <c r="AK6" s="75">
         <v>0.13167000000000001</v>
       </c>
-      <c r="AL6" s="78">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="79">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="79">
+      <c r="AL6" s="76">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="77">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="77">
         <v>5.2716999999999993E-2</v>
       </c>
-      <c r="AO6" s="79">
+      <c r="AO6" s="77">
         <v>3.7554999999999998E-2</v>
       </c>
-      <c r="AP6" s="80">
+      <c r="AP6" s="78">
         <v>0.90819666666666665</v>
       </c>
-      <c r="AQ6" s="81">
+      <c r="AQ6" s="79">
         <v>1.3316666666666668E-3</v>
       </c>
-      <c r="AR6" s="74">
+      <c r="AR6" s="72">
         <v>0.78637999999999997</v>
       </c>
-      <c r="AS6" s="75">
+      <c r="AS6" s="73">
         <v>4.7047333333333406E-2</v>
       </c>
-      <c r="AT6" s="76">
+      <c r="AT6" s="74">
         <v>0.12715399999999999</v>
       </c>
-      <c r="AU6" s="76">
+      <c r="AU6" s="74">
         <v>3.9218999999999997E-2</v>
       </c>
-      <c r="AV6" s="77">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="74">
+      <c r="AV6" s="75">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="72">
         <v>0.284721</v>
       </c>
-      <c r="AX6" s="76">
+      <c r="AX6" s="74">
         <v>3.8297999999999999E-2</v>
       </c>
-      <c r="AY6" s="75">
+      <c r="AY6" s="73">
         <v>0.63610333333333335</v>
       </c>
-      <c r="AZ6" s="76">
+      <c r="AZ6" s="74">
         <v>2.0338999999999999E-2</v>
       </c>
-      <c r="BA6" s="77">
+      <c r="BA6" s="75">
         <v>2.0338999999999999E-2</v>
       </c>
-      <c r="BB6" s="74">
+      <c r="BB6" s="72">
         <v>0.38433199999999995</v>
       </c>
-      <c r="BC6" s="76">
+      <c r="BC6" s="74">
         <v>4.4648E-2</v>
       </c>
-      <c r="BD6" s="76">
+      <c r="BD6" s="74">
         <v>0.15301799999999999</v>
       </c>
-      <c r="BE6" s="75">
+      <c r="BE6" s="73">
         <v>0.33890733333333328</v>
       </c>
-      <c r="BF6" s="77">
+      <c r="BF6" s="75">
         <v>7.8895000000000007E-2</v>
       </c>
-      <c r="BG6" s="78">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="79">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="79">
+      <c r="BG6" s="76">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="77">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="77">
         <v>8.8842000000000018E-2</v>
       </c>
-      <c r="BJ6" s="79">
+      <c r="BJ6" s="77">
         <v>6.3644999999999993E-2</v>
       </c>
-      <c r="BK6" s="80">
+      <c r="BK6" s="78">
         <v>0.84655800000000003</v>
       </c>
-      <c r="BL6" s="81">
+      <c r="BL6" s="79">
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>230</v>
       </c>
-      <c r="B7" s="74">
+      <c r="B7" s="72">
         <v>0.59145199999999998</v>
       </c>
-      <c r="C7" s="75">
+      <c r="C7" s="73">
         <v>0.13264633333333339</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="74">
         <v>0.20903799999999997</v>
       </c>
-      <c r="E7" s="76">
+      <c r="E7" s="74">
         <v>6.6664000000000001E-2</v>
       </c>
-      <c r="F7" s="77">
-        <v>0</v>
-      </c>
-      <c r="G7" s="74">
+      <c r="F7" s="75">
+        <v>0</v>
+      </c>
+      <c r="G7" s="72">
         <v>0.17660799999999999</v>
       </c>
-      <c r="H7" s="76">
+      <c r="H7" s="74">
         <v>2.2391999999999999E-2</v>
       </c>
-      <c r="I7" s="75">
+      <c r="I7" s="73">
         <v>0.73117633333333332</v>
       </c>
-      <c r="J7" s="76">
+      <c r="J7" s="74">
         <v>3.4812000000000003E-2</v>
       </c>
-      <c r="K7" s="77">
+      <c r="K7" s="75">
         <v>3.4812000000000003E-2</v>
       </c>
-      <c r="L7" s="74">
+      <c r="L7" s="72">
         <v>0.24519100000000002</v>
       </c>
-      <c r="M7" s="76">
+      <c r="M7" s="74">
         <v>2.6141000000000001E-2</v>
       </c>
-      <c r="N7" s="76">
+      <c r="N7" s="74">
         <v>9.1818999999999998E-2</v>
       </c>
-      <c r="O7" s="75">
+      <c r="O7" s="73">
         <v>0.50452233333333341</v>
       </c>
-      <c r="P7" s="77">
+      <c r="P7" s="75">
         <v>0.13212699999999999</v>
       </c>
-      <c r="Q7" s="78">
-        <v>0</v>
-      </c>
-      <c r="R7" s="79">
-        <v>0</v>
-      </c>
-      <c r="S7" s="79">
+      <c r="Q7" s="76">
+        <v>0</v>
+      </c>
+      <c r="R7" s="77">
+        <v>0</v>
+      </c>
+      <c r="S7" s="77">
         <v>5.2525999999999996E-2</v>
       </c>
-      <c r="T7" s="79">
+      <c r="T7" s="77">
         <v>3.7418E-2</v>
       </c>
-      <c r="U7" s="80">
+      <c r="U7" s="78">
         <v>0.90851966666666673</v>
       </c>
-      <c r="V7" s="81">
+      <c r="V7" s="79">
         <v>1.3366666666666666E-3</v>
       </c>
-      <c r="W7" s="74">
+      <c r="W7" s="72">
         <v>0.59281499999999998</v>
       </c>
-      <c r="X7" s="75">
+      <c r="X7" s="73">
         <v>0.13221333333333338</v>
       </c>
-      <c r="Y7" s="76">
+      <c r="Y7" s="74">
         <v>0.20834800000000001</v>
       </c>
-      <c r="Z7" s="76">
+      <c r="Z7" s="74">
         <v>6.6423999999999997E-2</v>
       </c>
-      <c r="AA7" s="77">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="74">
+      <c r="AA7" s="75">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="72">
         <v>0.17720499999999997</v>
       </c>
-      <c r="AC7" s="76">
+      <c r="AC7" s="74">
         <v>2.2474000000000004E-2</v>
       </c>
-      <c r="AD7" s="75">
+      <c r="AD7" s="73">
         <v>0.73075133333333342</v>
       </c>
-      <c r="AE7" s="76">
+      <c r="AE7" s="74">
         <v>3.4685000000000001E-2</v>
       </c>
-      <c r="AF7" s="77">
+      <c r="AF7" s="75">
         <v>3.4685000000000001E-2</v>
       </c>
-      <c r="AG7" s="74">
+      <c r="AG7" s="72">
         <v>0.24598299999999998</v>
       </c>
-      <c r="AH7" s="76">
+      <c r="AH7" s="74">
         <v>2.6237E-2</v>
       </c>
-      <c r="AI7" s="76">
+      <c r="AI7" s="74">
         <v>9.2146000000000006E-2</v>
       </c>
-      <c r="AJ7" s="75">
+      <c r="AJ7" s="73">
         <v>0.50376433333333337</v>
       </c>
-      <c r="AK7" s="77">
+      <c r="AK7" s="75">
         <v>0.13167000000000001</v>
       </c>
-      <c r="AL7" s="78">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="79">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="79">
+      <c r="AL7" s="76">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="77">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="77">
         <v>5.2716999999999993E-2</v>
       </c>
-      <c r="AO7" s="79">
+      <c r="AO7" s="77">
         <v>3.7554999999999998E-2</v>
       </c>
-      <c r="AP7" s="80">
+      <c r="AP7" s="78">
         <v>0.90819666666666665</v>
       </c>
-      <c r="AQ7" s="81">
+      <c r="AQ7" s="79">
         <v>1.3316666666666668E-3</v>
       </c>
-      <c r="AR7" s="74">
+      <c r="AR7" s="72">
         <v>0.78637999999999997</v>
       </c>
-      <c r="AS7" s="75">
+      <c r="AS7" s="73">
         <v>4.7047333333333406E-2</v>
       </c>
-      <c r="AT7" s="76">
+      <c r="AT7" s="74">
         <v>0.12715399999999999</v>
       </c>
-      <c r="AU7" s="76">
+      <c r="AU7" s="74">
         <v>3.9218999999999997E-2</v>
       </c>
-      <c r="AV7" s="77">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="74">
+      <c r="AV7" s="75">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="72">
         <v>0.284721</v>
       </c>
-      <c r="AX7" s="76">
+      <c r="AX7" s="74">
         <v>3.8297999999999999E-2</v>
       </c>
-      <c r="AY7" s="75">
+      <c r="AY7" s="73">
         <v>0.63610333333333335</v>
       </c>
-      <c r="AZ7" s="76">
+      <c r="AZ7" s="74">
         <v>2.0338999999999999E-2</v>
       </c>
-      <c r="BA7" s="77">
+      <c r="BA7" s="75">
         <v>2.0338999999999999E-2</v>
       </c>
-      <c r="BB7" s="74">
+      <c r="BB7" s="72">
         <v>0.38433199999999995</v>
       </c>
-      <c r="BC7" s="76">
+      <c r="BC7" s="74">
         <v>4.4648E-2</v>
       </c>
-      <c r="BD7" s="76">
+      <c r="BD7" s="74">
         <v>0.15301799999999999</v>
       </c>
-      <c r="BE7" s="75">
+      <c r="BE7" s="73">
         <v>0.33890733333333328</v>
       </c>
-      <c r="BF7" s="77">
+      <c r="BF7" s="75">
         <v>7.8895000000000007E-2</v>
       </c>
-      <c r="BG7" s="78">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="79">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="79">
+      <c r="BG7" s="76">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="77">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="77">
         <v>8.8842000000000018E-2</v>
       </c>
-      <c r="BJ7" s="79">
+      <c r="BJ7" s="77">
         <v>6.3644999999999993E-2</v>
       </c>
-      <c r="BK7" s="80">
+      <c r="BK7" s="78">
         <v>0.84655800000000003</v>
       </c>
-      <c r="BL7" s="81">
+      <c r="BL7" s="79">
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>306</v>
       </c>
-      <c r="B8" s="82">
+      <c r="B8" s="80">
         <v>0.43646124999999997</v>
       </c>
-      <c r="C8" s="83">
+      <c r="C8" s="81">
         <v>0.41889249999999995</v>
       </c>
-      <c r="D8" s="84">
+      <c r="D8" s="82">
         <v>0.119132</v>
       </c>
-      <c r="E8" s="84">
+      <c r="E8" s="82">
         <v>2.0116999999999999E-2</v>
       </c>
-      <c r="F8" s="85">
-        <v>0</v>
-      </c>
-      <c r="G8" s="82">
+      <c r="F8" s="83">
+        <v>0</v>
+      </c>
+      <c r="G8" s="80">
         <v>0.17660799999999999</v>
       </c>
-      <c r="H8" s="84">
+      <c r="H8" s="82">
         <v>2.2391999999999999E-2</v>
       </c>
-      <c r="I8" s="83">
+      <c r="I8" s="81">
         <v>0.71429199999999993</v>
       </c>
-      <c r="J8" s="84">
+      <c r="J8" s="82">
         <v>4.0140000000000002E-2</v>
       </c>
-      <c r="K8" s="85">
+      <c r="K8" s="83">
         <v>4.1170749999999999E-2</v>
       </c>
-      <c r="L8" s="82">
+      <c r="L8" s="80">
         <v>0.24519099999999999</v>
       </c>
-      <c r="M8" s="84">
+      <c r="M8" s="82">
         <v>2.6141000000000001E-2</v>
       </c>
-      <c r="N8" s="84">
+      <c r="N8" s="82">
         <v>9.1818999999999998E-2</v>
       </c>
-      <c r="O8" s="83">
+      <c r="O8" s="81">
         <v>0.41614674999999995</v>
       </c>
-      <c r="P8" s="85">
+      <c r="P8" s="83">
         <v>0.215305</v>
       </c>
-      <c r="Q8" s="86">
-        <v>0</v>
-      </c>
-      <c r="R8" s="84">
-        <v>0</v>
-      </c>
-      <c r="S8" s="84">
+      <c r="Q8" s="84">
+        <v>0</v>
+      </c>
+      <c r="R8" s="82">
+        <v>0</v>
+      </c>
+      <c r="S8" s="82">
         <v>3.7458999999999999E-2</v>
       </c>
-      <c r="T8" s="84">
+      <c r="T8" s="82">
         <v>3.1790499999999999E-2</v>
       </c>
-      <c r="U8" s="83">
+      <c r="U8" s="81">
         <v>0.91122724999999993</v>
       </c>
-      <c r="V8" s="85">
+      <c r="V8" s="83">
         <v>1.4126E-2</v>
       </c>
-      <c r="W8" s="82">
+      <c r="W8" s="80">
         <v>0.43766475000000005</v>
       </c>
-      <c r="X8" s="83">
+      <c r="X8" s="81">
         <v>0.41817850000000001</v>
       </c>
-      <c r="Y8" s="84">
+      <c r="Y8" s="82">
         <v>0.118717</v>
       </c>
-      <c r="Z8" s="84">
+      <c r="Z8" s="82">
         <v>2.0042499999999998E-2</v>
       </c>
-      <c r="AA8" s="85">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="82">
+      <c r="AA8" s="83">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="80">
         <v>0.177205</v>
       </c>
-      <c r="AC8" s="84">
+      <c r="AC8" s="82">
         <v>2.2474000000000001E-2</v>
       </c>
-      <c r="AD8" s="83">
+      <c r="AD8" s="81">
         <v>0.71390849999999995</v>
       </c>
-      <c r="AE8" s="84">
+      <c r="AE8" s="82">
         <v>3.9994000000000002E-2</v>
       </c>
-      <c r="AF8" s="85">
+      <c r="AF8" s="83">
         <v>4.1021250000000002E-2</v>
       </c>
-      <c r="AG8" s="82">
+      <c r="AG8" s="80">
         <v>0.24598300000000001</v>
       </c>
-      <c r="AH8" s="84">
+      <c r="AH8" s="82">
         <v>2.6237E-2</v>
       </c>
-      <c r="AI8" s="84">
+      <c r="AI8" s="82">
         <v>9.2146000000000006E-2</v>
       </c>
-      <c r="AJ8" s="83">
+      <c r="AJ8" s="81">
         <v>0.41563824999999999</v>
       </c>
-      <c r="AK8" s="85">
+      <c r="AK8" s="83">
         <v>0.2145985</v>
       </c>
-      <c r="AL8" s="86">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="84">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="84">
+      <c r="AL8" s="84">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="82">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="82">
         <v>3.7595499999999997E-2</v>
       </c>
-      <c r="AO8" s="84">
+      <c r="AO8" s="82">
         <v>3.1907249999999998E-2</v>
       </c>
-      <c r="AP8" s="83">
+      <c r="AP8" s="81">
         <v>0.91102624999999993</v>
       </c>
-      <c r="AQ8" s="85">
+      <c r="AQ8" s="83">
         <v>1.4073749999999999E-2</v>
       </c>
-      <c r="AR8" s="82">
+      <c r="AR8" s="80">
         <v>0.62775775</v>
       </c>
-      <c r="AS8" s="83">
+      <c r="AS8" s="81">
         <v>0.28420100000000004</v>
       </c>
-      <c r="AT8" s="84">
+      <c r="AT8" s="82">
         <v>7.0921999999999999E-2</v>
       </c>
-      <c r="AU8" s="84">
+      <c r="AU8" s="82">
         <v>1.1722E-2</v>
       </c>
-      <c r="AV8" s="85">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="82">
+      <c r="AV8" s="83">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="80">
         <v>0.284721</v>
       </c>
-      <c r="AX8" s="84">
+      <c r="AX8" s="82">
         <v>3.8297999999999999E-2</v>
       </c>
-      <c r="AY8" s="83">
+      <c r="AY8" s="81">
         <v>0.62401899999999999</v>
       </c>
-      <c r="AZ8" s="84">
+      <c r="AZ8" s="82">
         <v>2.3477999999999999E-2</v>
       </c>
-      <c r="BA8" s="85">
+      <c r="BA8" s="83">
         <v>2.4086749999999997E-2</v>
       </c>
-      <c r="BB8" s="82">
+      <c r="BB8" s="80">
         <v>0.38433200000000001</v>
       </c>
-      <c r="BC8" s="84">
+      <c r="BC8" s="82">
         <v>4.4648E-2</v>
       </c>
-      <c r="BD8" s="84">
+      <c r="BD8" s="82">
         <v>0.15301799999999999</v>
       </c>
-      <c r="BE8" s="83">
+      <c r="BE8" s="81">
         <v>0.28137224999999993</v>
       </c>
-      <c r="BF8" s="85">
+      <c r="BF8" s="83">
         <v>0.1312325</v>
       </c>
-      <c r="BG8" s="86">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="84">
-        <v>0</v>
-      </c>
-      <c r="BI8" s="84">
+      <c r="BG8" s="84">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="82">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="82">
         <v>6.3570000000000002E-2</v>
       </c>
-      <c r="BJ8" s="84">
+      <c r="BJ8" s="82">
         <v>5.4125749999999993E-2</v>
       </c>
-      <c r="BK8" s="83">
+      <c r="BK8" s="81">
         <v>0.86890174999999992</v>
       </c>
-      <c r="BL8" s="85">
+      <c r="BL8" s="83">
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="82">
+      <c r="B9" s="80">
         <v>0.43646124999999997</v>
       </c>
-      <c r="C9" s="83">
+      <c r="C9" s="81">
         <v>0.41889249999999995</v>
       </c>
-      <c r="D9" s="84">
+      <c r="D9" s="82">
         <v>0.119132</v>
       </c>
-      <c r="E9" s="84">
+      <c r="E9" s="82">
         <v>2.0116999999999999E-2</v>
       </c>
-      <c r="F9" s="85">
-        <v>0</v>
-      </c>
-      <c r="G9" s="82">
+      <c r="F9" s="83">
+        <v>0</v>
+      </c>
+      <c r="G9" s="80">
         <v>0.17660799999999999</v>
       </c>
-      <c r="H9" s="84">
+      <c r="H9" s="82">
         <v>2.2391999999999999E-2</v>
       </c>
-      <c r="I9" s="83">
+      <c r="I9" s="81">
         <v>0.71429199999999993</v>
       </c>
-      <c r="J9" s="84">
+      <c r="J9" s="82">
         <v>4.0140000000000002E-2</v>
       </c>
-      <c r="K9" s="85">
+      <c r="K9" s="83">
         <v>4.1170749999999999E-2</v>
       </c>
-      <c r="L9" s="82">
+      <c r="L9" s="80">
         <v>0.24519099999999999</v>
       </c>
-      <c r="M9" s="84">
+      <c r="M9" s="82">
         <v>2.6141000000000001E-2</v>
       </c>
-      <c r="N9" s="84">
+      <c r="N9" s="82">
         <v>9.1818999999999998E-2</v>
       </c>
-      <c r="O9" s="83">
+      <c r="O9" s="81">
         <v>0.41614674999999995</v>
       </c>
-      <c r="P9" s="85">
+      <c r="P9" s="83">
         <v>0.215305</v>
       </c>
-      <c r="Q9" s="86">
-        <v>0</v>
-      </c>
-      <c r="R9" s="84">
-        <v>0</v>
-      </c>
-      <c r="S9" s="84">
+      <c r="Q9" s="84">
+        <v>0</v>
+      </c>
+      <c r="R9" s="82">
+        <v>0</v>
+      </c>
+      <c r="S9" s="82">
         <v>3.7458999999999999E-2</v>
       </c>
-      <c r="T9" s="84">
+      <c r="T9" s="82">
         <v>3.1790499999999999E-2</v>
       </c>
-      <c r="U9" s="83">
+      <c r="U9" s="81">
         <v>0.91122724999999993</v>
       </c>
-      <c r="V9" s="85">
+      <c r="V9" s="83">
         <v>1.4126E-2</v>
       </c>
-      <c r="W9" s="82">
+      <c r="W9" s="80">
         <v>0.43766475000000005</v>
       </c>
-      <c r="X9" s="83">
+      <c r="X9" s="81">
         <v>0.41817850000000001</v>
       </c>
-      <c r="Y9" s="84">
+      <c r="Y9" s="82">
         <v>0.118717</v>
       </c>
-      <c r="Z9" s="84">
+      <c r="Z9" s="82">
         <v>2.0042499999999998E-2</v>
       </c>
-      <c r="AA9" s="85">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="82">
+      <c r="AA9" s="83">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="80">
         <v>0.177205</v>
       </c>
-      <c r="AC9" s="84">
+      <c r="AC9" s="82">
         <v>2.2474000000000001E-2</v>
       </c>
-      <c r="AD9" s="83">
+      <c r="AD9" s="81">
         <v>0.71390849999999995</v>
       </c>
-      <c r="AE9" s="84">
+      <c r="AE9" s="82">
         <v>3.9994000000000002E-2</v>
       </c>
-      <c r="AF9" s="85">
+      <c r="AF9" s="83">
         <v>4.1021250000000002E-2</v>
       </c>
-      <c r="AG9" s="82">
+      <c r="AG9" s="80">
         <v>0.24598300000000001</v>
       </c>
-      <c r="AH9" s="84">
+      <c r="AH9" s="82">
         <v>2.6237E-2</v>
       </c>
-      <c r="AI9" s="84">
+      <c r="AI9" s="82">
         <v>9.2146000000000006E-2</v>
       </c>
-      <c r="AJ9" s="83">
+      <c r="AJ9" s="81">
         <v>0.41563824999999999</v>
       </c>
-      <c r="AK9" s="85">
+      <c r="AK9" s="83">
         <v>0.2145985</v>
       </c>
-      <c r="AL9" s="86">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="84">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="84">
+      <c r="AL9" s="84">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="82">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="82">
         <v>3.7595499999999997E-2</v>
       </c>
-      <c r="AO9" s="84">
+      <c r="AO9" s="82">
         <v>3.1907249999999998E-2</v>
       </c>
-      <c r="AP9" s="83">
+      <c r="AP9" s="81">
         <v>0.91102624999999993</v>
       </c>
-      <c r="AQ9" s="85">
+      <c r="AQ9" s="83">
         <v>1.4073749999999999E-2</v>
       </c>
-      <c r="AR9" s="82">
+      <c r="AR9" s="80">
         <v>0.62775775</v>
       </c>
-      <c r="AS9" s="83">
+      <c r="AS9" s="81">
         <v>0.28420100000000004</v>
       </c>
-      <c r="AT9" s="84">
+      <c r="AT9" s="82">
         <v>7.0921999999999999E-2</v>
       </c>
-      <c r="AU9" s="84">
+      <c r="AU9" s="82">
         <v>1.1722E-2</v>
       </c>
-      <c r="AV9" s="85">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="82">
+      <c r="AV9" s="83">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="80">
         <v>0.284721</v>
       </c>
-      <c r="AX9" s="84">
+      <c r="AX9" s="82">
         <v>3.8297999999999999E-2</v>
       </c>
-      <c r="AY9" s="83">
+      <c r="AY9" s="81">
         <v>0.62401899999999999</v>
       </c>
-      <c r="AZ9" s="84">
+      <c r="AZ9" s="82">
         <v>2.3477999999999999E-2</v>
       </c>
-      <c r="BA9" s="85">
+      <c r="BA9" s="83">
         <v>2.4086749999999997E-2</v>
       </c>
-      <c r="BB9" s="82">
+      <c r="BB9" s="80">
         <v>0.38433200000000001</v>
       </c>
-      <c r="BC9" s="84">
+      <c r="BC9" s="82">
         <v>4.4648E-2</v>
       </c>
-      <c r="BD9" s="84">
+      <c r="BD9" s="82">
         <v>0.15301799999999999</v>
       </c>
-      <c r="BE9" s="83">
+      <c r="BE9" s="81">
         <v>0.28137224999999993</v>
       </c>
-      <c r="BF9" s="85">
+      <c r="BF9" s="83">
         <v>0.1312325</v>
       </c>
-      <c r="BG9" s="86">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="84">
-        <v>0</v>
-      </c>
-      <c r="BI9" s="84">
+      <c r="BG9" s="84">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="82">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="82">
         <v>6.3570000000000002E-2</v>
       </c>
-      <c r="BJ9" s="84">
+      <c r="BJ9" s="82">
         <v>5.4125749999999993E-2</v>
       </c>
-      <c r="BK9" s="83">
+      <c r="BK9" s="81">
         <v>0.86890174999999992</v>
       </c>
-      <c r="BL9" s="85">
+      <c r="BL9" s="83">
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="82">
+      <c r="B10" s="80">
         <v>0.43646124999999997</v>
       </c>
-      <c r="C10" s="83">
+      <c r="C10" s="81">
         <v>0.41889249999999995</v>
       </c>
-      <c r="D10" s="84">
+      <c r="D10" s="82">
         <v>0.119132</v>
       </c>
-      <c r="E10" s="84">
+      <c r="E10" s="82">
         <v>2.0116999999999999E-2</v>
       </c>
-      <c r="F10" s="85">
-        <v>0</v>
-      </c>
-      <c r="G10" s="82">
+      <c r="F10" s="83">
+        <v>0</v>
+      </c>
+      <c r="G10" s="80">
         <v>0.17660799999999999</v>
       </c>
-      <c r="H10" s="84">
+      <c r="H10" s="82">
         <v>2.2391999999999999E-2</v>
       </c>
-      <c r="I10" s="83">
+      <c r="I10" s="81">
         <v>0.71429199999999993</v>
       </c>
-      <c r="J10" s="84">
+      <c r="J10" s="82">
         <v>4.0140000000000002E-2</v>
       </c>
-      <c r="K10" s="85">
+      <c r="K10" s="83">
         <v>4.1170749999999999E-2</v>
       </c>
-      <c r="L10" s="82">
+      <c r="L10" s="80">
         <v>0.24519099999999999</v>
       </c>
-      <c r="M10" s="84">
+      <c r="M10" s="82">
         <v>2.6141000000000001E-2</v>
       </c>
-      <c r="N10" s="84">
+      <c r="N10" s="82">
         <v>9.1818999999999998E-2</v>
       </c>
-      <c r="O10" s="83">
+      <c r="O10" s="81">
         <v>0.41614674999999995</v>
       </c>
-      <c r="P10" s="85">
+      <c r="P10" s="83">
         <v>0.215305</v>
       </c>
-      <c r="Q10" s="86">
-        <v>0</v>
-      </c>
-      <c r="R10" s="84">
-        <v>0</v>
-      </c>
-      <c r="S10" s="84">
+      <c r="Q10" s="84">
+        <v>0</v>
+      </c>
+      <c r="R10" s="82">
+        <v>0</v>
+      </c>
+      <c r="S10" s="82">
         <v>3.7458999999999999E-2</v>
       </c>
-      <c r="T10" s="84">
+      <c r="T10" s="82">
         <v>3.1790499999999999E-2</v>
       </c>
-      <c r="U10" s="83">
+      <c r="U10" s="81">
         <v>0.91122724999999993</v>
       </c>
-      <c r="V10" s="85">
+      <c r="V10" s="83">
         <v>1.4126E-2</v>
       </c>
-      <c r="W10" s="82">
+      <c r="W10" s="80">
         <v>0.43766475000000005</v>
       </c>
-      <c r="X10" s="83">
+      <c r="X10" s="81">
         <v>0.41817850000000001</v>
       </c>
-      <c r="Y10" s="84">
+      <c r="Y10" s="82">
         <v>0.118717</v>
       </c>
-      <c r="Z10" s="84">
+      <c r="Z10" s="82">
         <v>2.0042499999999998E-2</v>
       </c>
-      <c r="AA10" s="85">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="82">
+      <c r="AA10" s="83">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="80">
         <v>0.177205</v>
       </c>
-      <c r="AC10" s="84">
+      <c r="AC10" s="82">
         <v>2.2474000000000001E-2</v>
       </c>
-      <c r="AD10" s="83">
+      <c r="AD10" s="81">
         <v>0.71390849999999995</v>
       </c>
-      <c r="AE10" s="84">
+      <c r="AE10" s="82">
         <v>3.9994000000000002E-2</v>
       </c>
-      <c r="AF10" s="85">
+      <c r="AF10" s="83">
         <v>4.1021250000000002E-2</v>
       </c>
-      <c r="AG10" s="82">
+      <c r="AG10" s="80">
         <v>0.24598300000000001</v>
       </c>
-      <c r="AH10" s="84">
+      <c r="AH10" s="82">
         <v>2.6237E-2</v>
       </c>
-      <c r="AI10" s="84">
+      <c r="AI10" s="82">
         <v>9.2146000000000006E-2</v>
       </c>
-      <c r="AJ10" s="83">
+      <c r="AJ10" s="81">
         <v>0.41563824999999999</v>
       </c>
-      <c r="AK10" s="85">
+      <c r="AK10" s="83">
         <v>0.2145985</v>
       </c>
-      <c r="AL10" s="86">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="84">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="84">
+      <c r="AL10" s="84">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="82">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="82">
         <v>3.7595499999999997E-2</v>
       </c>
-      <c r="AO10" s="84">
+      <c r="AO10" s="82">
         <v>3.1907249999999998E-2</v>
       </c>
-      <c r="AP10" s="83">
+      <c r="AP10" s="81">
         <v>0.91102624999999993</v>
       </c>
-      <c r="AQ10" s="85">
+      <c r="AQ10" s="83">
         <v>1.4073749999999999E-2</v>
       </c>
-      <c r="AR10" s="82">
+      <c r="AR10" s="80">
         <v>0.62775775</v>
       </c>
-      <c r="AS10" s="83">
+      <c r="AS10" s="81">
         <v>0.28420100000000004</v>
       </c>
-      <c r="AT10" s="84">
+      <c r="AT10" s="82">
         <v>7.0921999999999999E-2</v>
       </c>
-      <c r="AU10" s="84">
+      <c r="AU10" s="82">
         <v>1.1722E-2</v>
       </c>
-      <c r="AV10" s="85">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="82">
+      <c r="AV10" s="83">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="80">
         <v>0.284721</v>
       </c>
-      <c r="AX10" s="84">
+      <c r="AX10" s="82">
         <v>3.8297999999999999E-2</v>
       </c>
-      <c r="AY10" s="83">
+      <c r="AY10" s="81">
         <v>0.62401899999999999</v>
       </c>
-      <c r="AZ10" s="84">
+      <c r="AZ10" s="82">
         <v>2.3477999999999999E-2</v>
       </c>
-      <c r="BA10" s="85">
+      <c r="BA10" s="83">
         <v>2.4086749999999997E-2</v>
       </c>
-      <c r="BB10" s="82">
+      <c r="BB10" s="80">
         <v>0.38433200000000001</v>
       </c>
-      <c r="BC10" s="84">
+      <c r="BC10" s="82">
         <v>4.4648E-2</v>
       </c>
-      <c r="BD10" s="84">
+      <c r="BD10" s="82">
         <v>0.15301799999999999</v>
       </c>
-      <c r="BE10" s="83">
+      <c r="BE10" s="81">
         <v>0.28137224999999993</v>
       </c>
-      <c r="BF10" s="85">
+      <c r="BF10" s="83">
         <v>0.1312325</v>
       </c>
-      <c r="BG10" s="86">
-        <v>0</v>
-      </c>
-      <c r="BH10" s="84">
-        <v>0</v>
-      </c>
-      <c r="BI10" s="84">
+      <c r="BG10" s="84">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="82">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="82">
         <v>6.3570000000000002E-2</v>
       </c>
-      <c r="BJ10" s="84">
+      <c r="BJ10" s="82">
         <v>5.4125749999999993E-2</v>
       </c>
-      <c r="BK10" s="83">
+      <c r="BK10" s="81">
         <v>0.86890174999999992</v>
       </c>
-      <c r="BL10" s="85">
+      <c r="BL10" s="83">
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="82">
+      <c r="B11" s="80">
         <v>0.43646124999999997</v>
       </c>
-      <c r="C11" s="83">
+      <c r="C11" s="81">
         <v>0.41889249999999995</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="82">
         <v>0.119132</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="82">
         <v>2.0116999999999999E-2</v>
       </c>
-      <c r="F11" s="85">
-        <v>0</v>
-      </c>
-      <c r="G11" s="82">
+      <c r="F11" s="83">
+        <v>0</v>
+      </c>
+      <c r="G11" s="80">
         <v>0.17660799999999999</v>
       </c>
-      <c r="H11" s="84">
+      <c r="H11" s="82">
         <v>2.2391999999999999E-2</v>
       </c>
-      <c r="I11" s="83">
+      <c r="I11" s="81">
         <v>0.71429199999999993</v>
       </c>
-      <c r="J11" s="84">
+      <c r="J11" s="82">
         <v>4.0140000000000002E-2</v>
       </c>
-      <c r="K11" s="85">
+      <c r="K11" s="83">
         <v>4.1170749999999999E-2</v>
       </c>
-      <c r="L11" s="82">
+      <c r="L11" s="80">
         <v>0.24519099999999999</v>
       </c>
-      <c r="M11" s="84">
+      <c r="M11" s="82">
         <v>2.6141000000000001E-2</v>
       </c>
-      <c r="N11" s="84">
+      <c r="N11" s="82">
         <v>9.1818999999999998E-2</v>
       </c>
-      <c r="O11" s="83">
+      <c r="O11" s="81">
         <v>0.41614674999999995</v>
       </c>
-      <c r="P11" s="85">
+      <c r="P11" s="83">
         <v>0.215305</v>
       </c>
-      <c r="Q11" s="86">
-        <v>0</v>
-      </c>
-      <c r="R11" s="84">
-        <v>0</v>
-      </c>
-      <c r="S11" s="84">
+      <c r="Q11" s="84">
+        <v>0</v>
+      </c>
+      <c r="R11" s="82">
+        <v>0</v>
+      </c>
+      <c r="S11" s="82">
         <v>3.7458999999999999E-2</v>
       </c>
-      <c r="T11" s="84">
+      <c r="T11" s="82">
         <v>3.1790499999999999E-2</v>
       </c>
-      <c r="U11" s="83">
+      <c r="U11" s="81">
         <v>0.91122724999999993</v>
       </c>
-      <c r="V11" s="85">
+      <c r="V11" s="83">
         <v>1.4126E-2</v>
       </c>
-      <c r="W11" s="82">
+      <c r="W11" s="80">
         <v>0.43766475000000005</v>
       </c>
-      <c r="X11" s="83">
+      <c r="X11" s="81">
         <v>0.41817850000000001</v>
       </c>
-      <c r="Y11" s="84">
+      <c r="Y11" s="82">
         <v>0.118717</v>
       </c>
-      <c r="Z11" s="84">
+      <c r="Z11" s="82">
         <v>2.0042499999999998E-2</v>
       </c>
-      <c r="AA11" s="85">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="82">
+      <c r="AA11" s="83">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="80">
         <v>0.177205</v>
       </c>
-      <c r="AC11" s="84">
+      <c r="AC11" s="82">
         <v>2.2474000000000001E-2</v>
       </c>
-      <c r="AD11" s="83">
+      <c r="AD11" s="81">
         <v>0.71390849999999995</v>
       </c>
-      <c r="AE11" s="84">
+      <c r="AE11" s="82">
         <v>3.9994000000000002E-2</v>
       </c>
-      <c r="AF11" s="85">
+      <c r="AF11" s="83">
         <v>4.1021250000000002E-2</v>
       </c>
-      <c r="AG11" s="82">
+      <c r="AG11" s="80">
         <v>0.24598300000000001</v>
       </c>
-      <c r="AH11" s="84">
+      <c r="AH11" s="82">
         <v>2.6237E-2</v>
       </c>
-      <c r="AI11" s="84">
+      <c r="AI11" s="82">
         <v>9.2146000000000006E-2</v>
       </c>
-      <c r="AJ11" s="83">
+      <c r="AJ11" s="81">
         <v>0.41563824999999999</v>
       </c>
-      <c r="AK11" s="85">
+      <c r="AK11" s="83">
         <v>0.2145985</v>
       </c>
-      <c r="AL11" s="86">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="84">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="84">
+      <c r="AL11" s="84">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="82">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="82">
         <v>3.7595499999999997E-2</v>
       </c>
-      <c r="AO11" s="84">
+      <c r="AO11" s="82">
         <v>3.1907249999999998E-2</v>
       </c>
-      <c r="AP11" s="83">
+      <c r="AP11" s="81">
         <v>0.91102624999999993</v>
       </c>
-      <c r="AQ11" s="85">
+      <c r="AQ11" s="83">
         <v>1.4073749999999999E-2</v>
       </c>
-      <c r="AR11" s="82">
+      <c r="AR11" s="80">
         <v>0.62775775</v>
       </c>
-      <c r="AS11" s="83">
+      <c r="AS11" s="81">
         <v>0.28420100000000004</v>
       </c>
-      <c r="AT11" s="84">
+      <c r="AT11" s="82">
         <v>7.0921999999999999E-2</v>
       </c>
-      <c r="AU11" s="84">
+      <c r="AU11" s="82">
         <v>1.1722E-2</v>
       </c>
-      <c r="AV11" s="85">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="82">
+      <c r="AV11" s="83">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="80">
         <v>0.284721</v>
       </c>
-      <c r="AX11" s="84">
+      <c r="AX11" s="82">
         <v>3.8297999999999999E-2</v>
       </c>
-      <c r="AY11" s="83">
+      <c r="AY11" s="81">
         <v>0.62401899999999999</v>
       </c>
-      <c r="AZ11" s="84">
+      <c r="AZ11" s="82">
         <v>2.3477999999999999E-2</v>
       </c>
-      <c r="BA11" s="85">
+      <c r="BA11" s="83">
         <v>2.4086749999999997E-2</v>
       </c>
-      <c r="BB11" s="82">
+      <c r="BB11" s="80">
         <v>0.38433200000000001</v>
       </c>
-      <c r="BC11" s="84">
+      <c r="BC11" s="82">
         <v>4.4648E-2</v>
       </c>
-      <c r="BD11" s="84">
+      <c r="BD11" s="82">
         <v>0.15301799999999999</v>
       </c>
-      <c r="BE11" s="83">
+      <c r="BE11" s="81">
         <v>0.28137224999999993</v>
       </c>
-      <c r="BF11" s="85">
+      <c r="BF11" s="83">
         <v>0.1312325</v>
       </c>
-      <c r="BG11" s="86">
-        <v>0</v>
-      </c>
-      <c r="BH11" s="84">
-        <v>0</v>
-      </c>
-      <c r="BI11" s="84">
+      <c r="BG11" s="84">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="82">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="82">
         <v>6.3570000000000002E-2</v>
       </c>
-      <c r="BJ11" s="84">
+      <c r="BJ11" s="82">
         <v>5.4125749999999993E-2</v>
       </c>
-      <c r="BK11" s="83">
+      <c r="BK11" s="81">
         <v>0.86890174999999992</v>
       </c>
-      <c r="BL11" s="85">
+      <c r="BL11" s="83">
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="82">
+      <c r="B12" s="80">
         <v>0.43646124999999997</v>
       </c>
-      <c r="C12" s="83">
+      <c r="C12" s="81">
         <v>0.41889249999999995</v>
       </c>
-      <c r="D12" s="84">
+      <c r="D12" s="82">
         <v>0.119132</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="82">
         <v>2.0116999999999999E-2</v>
       </c>
-      <c r="F12" s="85">
-        <v>0</v>
-      </c>
-      <c r="G12" s="82">
+      <c r="F12" s="83">
+        <v>0</v>
+      </c>
+      <c r="G12" s="80">
         <v>0.17660799999999999</v>
       </c>
-      <c r="H12" s="84">
+      <c r="H12" s="82">
         <v>2.2391999999999999E-2</v>
       </c>
-      <c r="I12" s="83">
+      <c r="I12" s="81">
         <v>0.71429199999999993</v>
       </c>
-      <c r="J12" s="84">
+      <c r="J12" s="82">
         <v>4.0140000000000002E-2</v>
       </c>
-      <c r="K12" s="85">
+      <c r="K12" s="83">
         <v>4.1170749999999999E-2</v>
       </c>
-      <c r="L12" s="82">
+      <c r="L12" s="80">
         <v>0.24519099999999999</v>
       </c>
-      <c r="M12" s="84">
+      <c r="M12" s="82">
         <v>2.6141000000000001E-2</v>
       </c>
-      <c r="N12" s="84">
+      <c r="N12" s="82">
         <v>9.1818999999999998E-2</v>
       </c>
-      <c r="O12" s="83">
+      <c r="O12" s="81">
         <v>0.41614674999999995</v>
       </c>
-      <c r="P12" s="85">
+      <c r="P12" s="83">
         <v>0.215305</v>
       </c>
-      <c r="Q12" s="86">
-        <v>0</v>
-      </c>
-      <c r="R12" s="84">
-        <v>0</v>
-      </c>
-      <c r="S12" s="84">
+      <c r="Q12" s="84">
+        <v>0</v>
+      </c>
+      <c r="R12" s="82">
+        <v>0</v>
+      </c>
+      <c r="S12" s="82">
         <v>3.7458999999999999E-2</v>
       </c>
-      <c r="T12" s="84">
+      <c r="T12" s="82">
         <v>3.1790499999999999E-2</v>
       </c>
-      <c r="U12" s="83">
+      <c r="U12" s="81">
         <v>0.91122724999999993</v>
       </c>
-      <c r="V12" s="85">
+      <c r="V12" s="83">
         <v>1.4126E-2</v>
       </c>
-      <c r="W12" s="82">
+      <c r="W12" s="80">
         <v>0.43766475000000005</v>
       </c>
-      <c r="X12" s="83">
+      <c r="X12" s="81">
         <v>0.41817850000000001</v>
       </c>
-      <c r="Y12" s="84">
+      <c r="Y12" s="82">
         <v>0.118717</v>
       </c>
-      <c r="Z12" s="84">
+      <c r="Z12" s="82">
         <v>2.0042499999999998E-2</v>
       </c>
-      <c r="AA12" s="85">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="82">
+      <c r="AA12" s="83">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="80">
         <v>0.177205</v>
       </c>
-      <c r="AC12" s="84">
+      <c r="AC12" s="82">
         <v>2.2474000000000001E-2</v>
       </c>
-      <c r="AD12" s="83">
+      <c r="AD12" s="81">
         <v>0.71390849999999995</v>
       </c>
-      <c r="AE12" s="84">
+      <c r="AE12" s="82">
         <v>3.9994000000000002E-2</v>
       </c>
-      <c r="AF12" s="85">
+      <c r="AF12" s="83">
         <v>4.1021250000000002E-2</v>
       </c>
-      <c r="AG12" s="82">
+      <c r="AG12" s="80">
         <v>0.24598300000000001</v>
       </c>
-      <c r="AH12" s="84">
+      <c r="AH12" s="82">
         <v>2.6237E-2</v>
       </c>
-      <c r="AI12" s="84">
+      <c r="AI12" s="82">
         <v>9.2146000000000006E-2</v>
       </c>
-      <c r="AJ12" s="83">
+      <c r="AJ12" s="81">
         <v>0.41563824999999999</v>
       </c>
-      <c r="AK12" s="85">
+      <c r="AK12" s="83">
         <v>0.2145985</v>
       </c>
-      <c r="AL12" s="86">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="84">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="84">
+      <c r="AL12" s="84">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="82">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="82">
         <v>3.7595499999999997E-2</v>
       </c>
-      <c r="AO12" s="84">
+      <c r="AO12" s="82">
         <v>3.1907249999999998E-2</v>
       </c>
-      <c r="AP12" s="83">
+      <c r="AP12" s="81">
         <v>0.91102624999999993</v>
       </c>
-      <c r="AQ12" s="85">
+      <c r="AQ12" s="83">
         <v>1.4073749999999999E-2</v>
       </c>
-      <c r="AR12" s="82">
+      <c r="AR12" s="80">
         <v>0.62775775</v>
       </c>
-      <c r="AS12" s="83">
+      <c r="AS12" s="81">
         <v>0.28420100000000004</v>
       </c>
-      <c r="AT12" s="84">
+      <c r="AT12" s="82">
         <v>7.0921999999999999E-2</v>
       </c>
-      <c r="AU12" s="84">
+      <c r="AU12" s="82">
         <v>1.1722E-2</v>
       </c>
-      <c r="AV12" s="85">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="82">
+      <c r="AV12" s="83">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="80">
         <v>0.284721</v>
       </c>
-      <c r="AX12" s="84">
+      <c r="AX12" s="82">
         <v>3.8297999999999999E-2</v>
       </c>
-      <c r="AY12" s="83">
+      <c r="AY12" s="81">
         <v>0.62401899999999999</v>
       </c>
-      <c r="AZ12" s="84">
+      <c r="AZ12" s="82">
         <v>2.3477999999999999E-2</v>
       </c>
-      <c r="BA12" s="85">
+      <c r="BA12" s="83">
         <v>2.4086749999999997E-2</v>
       </c>
-      <c r="BB12" s="82">
+      <c r="BB12" s="80">
         <v>0.38433200000000001</v>
       </c>
-      <c r="BC12" s="84">
+      <c r="BC12" s="82">
         <v>4.4648E-2</v>
       </c>
-      <c r="BD12" s="84">
+      <c r="BD12" s="82">
         <v>0.15301799999999999</v>
       </c>
-      <c r="BE12" s="83">
+      <c r="BE12" s="81">
         <v>0.28137224999999993</v>
       </c>
-      <c r="BF12" s="85">
+      <c r="BF12" s="83">
         <v>0.1312325</v>
       </c>
-      <c r="BG12" s="86">
-        <v>0</v>
-      </c>
-      <c r="BH12" s="84">
-        <v>0</v>
-      </c>
-      <c r="BI12" s="84">
+      <c r="BG12" s="84">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="82">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="82">
         <v>6.3570000000000002E-2</v>
       </c>
-      <c r="BJ12" s="84">
+      <c r="BJ12" s="82">
         <v>5.4125749999999993E-2</v>
       </c>
-      <c r="BK12" s="83">
+      <c r="BK12" s="81">
         <v>0.86890174999999992</v>
       </c>
-      <c r="BL12" s="85">
+      <c r="BL12" s="83">
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>232</v>
       </c>
-      <c r="B13" s="82">
+      <c r="B13" s="80">
         <v>0.26398274999999999</v>
       </c>
-      <c r="C13" s="83">
+      <c r="C13" s="81">
         <v>0.62208375000000005</v>
       </c>
-      <c r="D13" s="84">
+      <c r="D13" s="82">
         <v>9.2994999999999994E-2</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="82">
         <v>6.7190000000000001E-3</v>
       </c>
-      <c r="F13" s="85">
-        <v>0</v>
-      </c>
-      <c r="G13" s="82">
+      <c r="F13" s="83">
+        <v>0</v>
+      </c>
+      <c r="G13" s="80">
         <v>0.17660799999999999</v>
       </c>
-      <c r="H13" s="84">
+      <c r="H13" s="82">
         <v>2.2391999999999999E-2</v>
       </c>
-      <c r="I13" s="83">
+      <c r="I13" s="81">
         <v>0.68909249999999989</v>
       </c>
-      <c r="J13" s="84">
+      <c r="J13" s="82">
         <v>5.3425E-2</v>
       </c>
-      <c r="K13" s="85">
+      <c r="K13" s="83">
         <v>4.4262999999999997E-2</v>
       </c>
-      <c r="L13" s="82">
+      <c r="L13" s="80">
         <v>0.24519099999999999</v>
       </c>
-      <c r="M13" s="84">
+      <c r="M13" s="82">
         <v>2.6141000000000001E-2</v>
       </c>
-      <c r="N13" s="84">
+      <c r="N13" s="82">
         <v>9.1818999999999998E-2</v>
       </c>
-      <c r="O13" s="83">
+      <c r="O13" s="81">
         <v>0.3386087499999999</v>
       </c>
-      <c r="P13" s="85">
+      <c r="P13" s="83">
         <v>0.28402075000000004</v>
       </c>
-      <c r="Q13" s="86">
-        <v>0</v>
-      </c>
-      <c r="R13" s="84">
-        <v>0</v>
-      </c>
-      <c r="S13" s="84">
+      <c r="Q13" s="84">
+        <v>0</v>
+      </c>
+      <c r="R13" s="82">
+        <v>0</v>
+      </c>
+      <c r="S13" s="82">
         <v>1.4918499999999999E-2</v>
       </c>
-      <c r="T13" s="84">
+      <c r="T13" s="82">
         <v>9.3095000000000001E-3</v>
       </c>
-      <c r="U13" s="83">
+      <c r="U13" s="81">
         <v>0.92913724999999991</v>
       </c>
-      <c r="V13" s="85">
+      <c r="V13" s="83">
         <v>3.2415249999999993E-2</v>
       </c>
-      <c r="W13" s="82">
+      <c r="W13" s="80">
         <v>0.26482074999999999</v>
       </c>
-      <c r="X13" s="83">
+      <c r="X13" s="81">
         <v>0.62159975000000001</v>
       </c>
-      <c r="Y13" s="84">
+      <c r="Y13" s="82">
         <v>9.2665999999999998E-2</v>
       </c>
-      <c r="Z13" s="84">
+      <c r="Z13" s="82">
         <v>6.6940000000000003E-3</v>
       </c>
-      <c r="AA13" s="85">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="82">
+      <c r="AA13" s="83">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="80">
         <v>0.177205</v>
       </c>
-      <c r="AC13" s="84">
+      <c r="AC13" s="82">
         <v>2.2474000000000001E-2</v>
       </c>
-      <c r="AD13" s="83">
+      <c r="AD13" s="81">
         <v>0.68876649999999995</v>
       </c>
-      <c r="AE13" s="84">
+      <c r="AE13" s="82">
         <v>5.3232000000000002E-2</v>
       </c>
-      <c r="AF13" s="85">
+      <c r="AF13" s="83">
         <v>4.4103000000000003E-2</v>
       </c>
-      <c r="AG13" s="82">
+      <c r="AG13" s="80">
         <v>0.24598300000000001</v>
       </c>
-      <c r="AH13" s="84">
+      <c r="AH13" s="82">
         <v>2.6237E-2</v>
       </c>
-      <c r="AI13" s="84">
+      <c r="AI13" s="82">
         <v>9.2146000000000006E-2</v>
       </c>
-      <c r="AJ13" s="83">
+      <c r="AJ13" s="81">
         <v>0.33828224999999995</v>
       </c>
-      <c r="AK13" s="85">
+      <c r="AK13" s="83">
         <v>0.28313224999999997</v>
       </c>
-      <c r="AL13" s="86">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="84">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="84">
+      <c r="AL13" s="84">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="82">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="82">
         <v>1.4973E-2</v>
       </c>
-      <c r="AO13" s="84">
+      <c r="AO13" s="82">
         <v>9.3434999999999994E-3</v>
       </c>
-      <c r="AP13" s="83">
+      <c r="AP13" s="81">
         <v>0.92916699999999997</v>
       </c>
-      <c r="AQ13" s="85">
+      <c r="AQ13" s="83">
         <v>3.2296999999999999E-2</v>
       </c>
-      <c r="AR13" s="82">
+      <c r="AR13" s="80">
         <v>0.40971574999999999</v>
       </c>
-      <c r="AS13" s="83">
+      <c r="AS13" s="81">
         <v>0.51712974999999994</v>
       </c>
-      <c r="AT13" s="84">
+      <c r="AT13" s="82">
         <v>5.5032999999999999E-2</v>
       </c>
-      <c r="AU13" s="84">
+      <c r="AU13" s="82">
         <v>3.9020000000000001E-3</v>
       </c>
-      <c r="AV13" s="85">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="82">
+      <c r="AV13" s="83">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="80">
         <v>0.284721</v>
       </c>
-      <c r="AX13" s="84">
+      <c r="AX13" s="82">
         <v>3.8297999999999999E-2</v>
       </c>
-      <c r="AY13" s="83">
+      <c r="AY13" s="81">
         <v>0.60550850000000001</v>
       </c>
-      <c r="AZ13" s="84">
+      <c r="AZ13" s="82">
         <v>3.134E-2</v>
       </c>
-      <c r="BA13" s="85">
+      <c r="BA13" s="83">
         <v>2.5912999999999999E-2</v>
       </c>
-      <c r="BB13" s="82">
+      <c r="BB13" s="80">
         <v>0.38433200000000001</v>
       </c>
-      <c r="BC13" s="84">
+      <c r="BC13" s="82">
         <v>4.4648E-2</v>
       </c>
-      <c r="BD13" s="84">
+      <c r="BD13" s="82">
         <v>0.15301799999999999</v>
       </c>
-      <c r="BE13" s="83">
+      <c r="BE13" s="81">
         <v>0.22758199999999995</v>
       </c>
-      <c r="BF13" s="85">
+      <c r="BF13" s="83">
         <v>0.17620050000000001</v>
       </c>
-      <c r="BG13" s="86">
-        <v>0</v>
-      </c>
-      <c r="BH13" s="84">
-        <v>0</v>
-      </c>
-      <c r="BI13" s="84">
+      <c r="BG13" s="84">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="82">
+        <v>0</v>
+      </c>
+      <c r="BI13" s="82">
         <v>2.5549999999999996E-2</v>
       </c>
-      <c r="BJ13" s="84">
+      <c r="BJ13" s="82">
         <v>1.5996E-2</v>
       </c>
-      <c r="BK13" s="83">
+      <c r="BK13" s="81">
         <v>0.92580125000000002</v>
       </c>
-      <c r="BL13" s="85">
+      <c r="BL13" s="83">
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>233</v>
       </c>
-      <c r="B14" s="82">
+      <c r="B14" s="80">
         <v>0.26398274999999999</v>
       </c>
-      <c r="C14" s="83">
+      <c r="C14" s="81">
         <v>0.62208375000000005</v>
       </c>
-      <c r="D14" s="84">
+      <c r="D14" s="82">
         <v>9.2994999999999994E-2</v>
       </c>
-      <c r="E14" s="84">
+      <c r="E14" s="82">
         <v>6.7190000000000001E-3</v>
       </c>
-      <c r="F14" s="85">
-        <v>0</v>
-      </c>
-      <c r="G14" s="82">
+      <c r="F14" s="83">
+        <v>0</v>
+      </c>
+      <c r="G14" s="80">
         <v>0.17660799999999999</v>
       </c>
-      <c r="H14" s="84">
+      <c r="H14" s="82">
         <v>2.2391999999999999E-2</v>
       </c>
-      <c r="I14" s="83">
+      <c r="I14" s="81">
         <v>0.68909249999999989</v>
       </c>
-      <c r="J14" s="84">
+      <c r="J14" s="82">
         <v>5.3425E-2</v>
       </c>
-      <c r="K14" s="85">
+      <c r="K14" s="83">
         <v>4.4262999999999997E-2</v>
       </c>
-      <c r="L14" s="82">
+      <c r="L14" s="80">
         <v>0.24519099999999999</v>
       </c>
-      <c r="M14" s="84">
+      <c r="M14" s="82">
         <v>2.6141000000000001E-2</v>
       </c>
-      <c r="N14" s="84">
+      <c r="N14" s="82">
         <v>9.1818999999999998E-2</v>
       </c>
-      <c r="O14" s="83">
+      <c r="O14" s="81">
         <v>0.3386087499999999</v>
       </c>
-      <c r="P14" s="85">
+      <c r="P14" s="83">
         <v>0.28402075000000004</v>
       </c>
-      <c r="Q14" s="86">
-        <v>0</v>
-      </c>
-      <c r="R14" s="84">
-        <v>0</v>
-      </c>
-      <c r="S14" s="84">
+      <c r="Q14" s="84">
+        <v>0</v>
+      </c>
+      <c r="R14" s="82">
+        <v>0</v>
+      </c>
+      <c r="S14" s="82">
         <v>1.4918499999999999E-2</v>
       </c>
-      <c r="T14" s="84">
+      <c r="T14" s="82">
         <v>9.3095000000000001E-3</v>
       </c>
-      <c r="U14" s="83">
+      <c r="U14" s="81">
         <v>0.92913724999999991</v>
       </c>
-      <c r="V14" s="85">
+      <c r="V14" s="83">
         <v>3.2415249999999993E-2</v>
       </c>
-      <c r="W14" s="82">
+      <c r="W14" s="80">
         <v>0.26482074999999999</v>
       </c>
-      <c r="X14" s="83">
+      <c r="X14" s="81">
         <v>0.62159975000000001</v>
       </c>
-      <c r="Y14" s="84">
+      <c r="Y14" s="82">
         <v>9.2665999999999998E-2</v>
       </c>
-      <c r="Z14" s="84">
+      <c r="Z14" s="82">
         <v>6.6940000000000003E-3</v>
       </c>
-      <c r="AA14" s="85">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="82">
+      <c r="AA14" s="83">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="80">
         <v>0.177205</v>
       </c>
-      <c r="AC14" s="84">
+      <c r="AC14" s="82">
         <v>2.2474000000000001E-2</v>
       </c>
-      <c r="AD14" s="83">
+      <c r="AD14" s="81">
         <v>0.68876649999999995</v>
       </c>
-      <c r="AE14" s="84">
+      <c r="AE14" s="82">
         <v>5.3232000000000002E-2</v>
       </c>
-      <c r="AF14" s="85">
+      <c r="AF14" s="83">
         <v>4.4103000000000003E-2</v>
       </c>
-      <c r="AG14" s="82">
+      <c r="AG14" s="80">
         <v>0.24598300000000001</v>
       </c>
-      <c r="AH14" s="84">
+      <c r="AH14" s="82">
         <v>2.6237E-2</v>
       </c>
-      <c r="AI14" s="84">
+      <c r="AI14" s="82">
         <v>9.2146000000000006E-2</v>
       </c>
-      <c r="AJ14" s="83">
+      <c r="AJ14" s="81">
         <v>0.33828224999999995</v>
       </c>
-      <c r="AK14" s="85">
+      <c r="AK14" s="83">
         <v>0.28313224999999997</v>
       </c>
-      <c r="AL14" s="86">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="84">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="84">
+      <c r="AL14" s="84">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="82">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="82">
         <v>1.4973E-2</v>
       </c>
-      <c r="AO14" s="84">
+      <c r="AO14" s="82">
         <v>9.3434999999999994E-3</v>
       </c>
-      <c r="AP14" s="83">
+      <c r="AP14" s="81">
         <v>0.92916699999999997</v>
       </c>
-      <c r="AQ14" s="85">
+      <c r="AQ14" s="83">
         <v>3.2296999999999999E-2</v>
       </c>
-      <c r="AR14" s="82">
+      <c r="AR14" s="80">
         <v>0.40971574999999999</v>
       </c>
-      <c r="AS14" s="83">
+      <c r="AS14" s="81">
         <v>0.51712974999999994</v>
       </c>
-      <c r="AT14" s="84">
+      <c r="AT14" s="82">
         <v>5.5032999999999999E-2</v>
       </c>
-      <c r="AU14" s="84">
+      <c r="AU14" s="82">
         <v>3.9020000000000001E-3</v>
       </c>
-      <c r="AV14" s="85">
-        <v>0</v>
-      </c>
-      <c r="AW14" s="82">
+      <c r="AV14" s="83">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="80">
         <v>0.284721</v>
       </c>
-      <c r="AX14" s="84">
+      <c r="AX14" s="82">
         <v>3.8297999999999999E-2</v>
       </c>
-      <c r="AY14" s="83">
+      <c r="AY14" s="81">
         <v>0.60550850000000001</v>
       </c>
-      <c r="AZ14" s="84">
+      <c r="AZ14" s="82">
         <v>3.134E-2</v>
       </c>
-      <c r="BA14" s="85">
+      <c r="BA14" s="83">
         <v>2.5912999999999999E-2</v>
       </c>
-      <c r="BB14" s="82">
+      <c r="BB14" s="80">
         <v>0.38433200000000001</v>
       </c>
-      <c r="BC14" s="84">
+      <c r="BC14" s="82">
         <v>4.4648E-2</v>
       </c>
-      <c r="BD14" s="84">
+      <c r="BD14" s="82">
         <v>0.15301799999999999</v>
       </c>
-      <c r="BE14" s="83">
+      <c r="BE14" s="81">
         <v>0.22758199999999995</v>
       </c>
-      <c r="BF14" s="85">
+      <c r="BF14" s="83">
         <v>0.17620050000000001</v>
       </c>
-      <c r="BG14" s="86">
-        <v>0</v>
-      </c>
-      <c r="BH14" s="84">
-        <v>0</v>
-      </c>
-      <c r="BI14" s="84">
+      <c r="BG14" s="84">
+        <v>0</v>
+      </c>
+      <c r="BH14" s="82">
+        <v>0</v>
+      </c>
+      <c r="BI14" s="82">
         <v>2.5549999999999996E-2</v>
       </c>
-      <c r="BJ14" s="84">
+      <c r="BJ14" s="82">
         <v>1.5996E-2</v>
       </c>
-      <c r="BK14" s="83">
+      <c r="BK14" s="81">
         <v>0.92580125000000002</v>
       </c>
-      <c r="BL14" s="85">
+      <c r="BL14" s="83">
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>253</v>
       </c>
-      <c r="B15" s="82">
+      <c r="B15" s="80">
         <v>0.26398274999999999</v>
       </c>
-      <c r="C15" s="83">
+      <c r="C15" s="81">
         <v>0.62208375000000005</v>
       </c>
-      <c r="D15" s="84">
+      <c r="D15" s="82">
         <v>9.2994999999999994E-2</v>
       </c>
-      <c r="E15" s="84">
+      <c r="E15" s="82">
         <v>6.7190000000000001E-3</v>
       </c>
-      <c r="F15" s="85">
-        <v>0</v>
-      </c>
-      <c r="G15" s="82">
+      <c r="F15" s="83">
+        <v>0</v>
+      </c>
+      <c r="G15" s="80">
         <v>0.17660799999999999</v>
       </c>
-      <c r="H15" s="84">
+      <c r="H15" s="82">
         <v>2.2391999999999999E-2</v>
       </c>
-      <c r="I15" s="83">
+      <c r="I15" s="81">
         <v>0.68909249999999989</v>
       </c>
-      <c r="J15" s="84">
+      <c r="J15" s="82">
         <v>5.3425E-2</v>
       </c>
-      <c r="K15" s="85">
+      <c r="K15" s="83">
         <v>4.4262999999999997E-2</v>
       </c>
-      <c r="L15" s="82">
+      <c r="L15" s="80">
         <v>0.24519099999999999</v>
       </c>
-      <c r="M15" s="84">
+      <c r="M15" s="82">
         <v>2.6141000000000001E-2</v>
       </c>
-      <c r="N15" s="84">
+      <c r="N15" s="82">
         <v>9.1818999999999998E-2</v>
       </c>
-      <c r="O15" s="83">
+      <c r="O15" s="81">
         <v>0.3386087499999999</v>
       </c>
-      <c r="P15" s="85">
+      <c r="P15" s="83">
         <v>0.28402075000000004</v>
       </c>
-      <c r="Q15" s="86">
-        <v>0</v>
-      </c>
-      <c r="R15" s="84">
-        <v>0</v>
-      </c>
-      <c r="S15" s="84">
+      <c r="Q15" s="84">
+        <v>0</v>
+      </c>
+      <c r="R15" s="82">
+        <v>0</v>
+      </c>
+      <c r="S15" s="82">
         <v>1.4918499999999999E-2</v>
       </c>
-      <c r="T15" s="84">
+      <c r="T15" s="82">
         <v>9.3095000000000001E-3</v>
       </c>
-      <c r="U15" s="83">
+      <c r="U15" s="81">
         <v>0.92913724999999991</v>
       </c>
-      <c r="V15" s="85">
+      <c r="V15" s="83">
         <v>3.2415249999999993E-2</v>
       </c>
-      <c r="W15" s="82">
+      <c r="W15" s="80">
         <v>0.26482074999999999</v>
       </c>
-      <c r="X15" s="83">
+      <c r="X15" s="81">
         <v>0.62159975000000001</v>
       </c>
-      <c r="Y15" s="84">
+      <c r="Y15" s="82">
         <v>9.2665999999999998E-2</v>
       </c>
-      <c r="Z15" s="84">
+      <c r="Z15" s="82">
         <v>6.6940000000000003E-3</v>
       </c>
-      <c r="AA15" s="85">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="82">
+      <c r="AA15" s="83">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="80">
         <v>0.177205</v>
       </c>
-      <c r="AC15" s="84">
+      <c r="AC15" s="82">
         <v>2.2474000000000001E-2</v>
       </c>
-      <c r="AD15" s="83">
+      <c r="AD15" s="81">
         <v>0.68876649999999995</v>
       </c>
-      <c r="AE15" s="84">
+      <c r="AE15" s="82">
         <v>5.3232000000000002E-2</v>
       </c>
-      <c r="AF15" s="85">
+      <c r="AF15" s="83">
         <v>4.4103000000000003E-2</v>
       </c>
-      <c r="AG15" s="82">
+      <c r="AG15" s="80">
         <v>0.24598300000000001</v>
       </c>
-      <c r="AH15" s="84">
+      <c r="AH15" s="82">
         <v>2.6237E-2</v>
       </c>
-      <c r="AI15" s="84">
+      <c r="AI15" s="82">
         <v>9.2146000000000006E-2</v>
       </c>
-      <c r="AJ15" s="83">
+      <c r="AJ15" s="81">
         <v>0.33828224999999995</v>
       </c>
-      <c r="AK15" s="85">
+      <c r="AK15" s="83">
         <v>0.28313224999999997</v>
       </c>
-      <c r="AL15" s="86">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="84">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="84">
+      <c r="AL15" s="84">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="82">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="82">
         <v>1.4973E-2</v>
       </c>
-      <c r="AO15" s="84">
+      <c r="AO15" s="82">
         <v>9.3434999999999994E-3</v>
       </c>
-      <c r="AP15" s="83">
+      <c r="AP15" s="81">
         <v>0.92916699999999997</v>
       </c>
-      <c r="AQ15" s="85">
+      <c r="AQ15" s="83">
         <v>3.2296999999999999E-2</v>
       </c>
-      <c r="AR15" s="82">
+      <c r="AR15" s="80">
         <v>0.40971574999999999</v>
       </c>
-      <c r="AS15" s="83">
+      <c r="AS15" s="81">
         <v>0.51712974999999994</v>
       </c>
-      <c r="AT15" s="84">
+      <c r="AT15" s="82">
         <v>5.5032999999999999E-2</v>
       </c>
-      <c r="AU15" s="84">
+      <c r="AU15" s="82">
         <v>3.9020000000000001E-3</v>
       </c>
-      <c r="AV15" s="85">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="82">
+      <c r="AV15" s="83">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="80">
         <v>0.284721</v>
       </c>
-      <c r="AX15" s="84">
+      <c r="AX15" s="82">
         <v>3.8297999999999999E-2</v>
       </c>
-      <c r="AY15" s="83">
+      <c r="AY15" s="81">
         <v>0.60550850000000001</v>
       </c>
-      <c r="AZ15" s="84">
+      <c r="AZ15" s="82">
         <v>3.134E-2</v>
       </c>
-      <c r="BA15" s="85">
+      <c r="BA15" s="83">
         <v>2.5912999999999999E-2</v>
       </c>
-      <c r="BB15" s="82">
+      <c r="BB15" s="80">
         <v>0.38433200000000001</v>
       </c>
-      <c r="BC15" s="84">
+      <c r="BC15" s="82">
         <v>4.4648E-2</v>
       </c>
-      <c r="BD15" s="84">
+      <c r="BD15" s="82">
         <v>0.15301799999999999</v>
       </c>
-      <c r="BE15" s="83">
+      <c r="BE15" s="81">
         <v>0.22758199999999995</v>
       </c>
-      <c r="BF15" s="85">
+      <c r="BF15" s="83">
         <v>0.17620050000000001</v>
       </c>
-      <c r="BG15" s="86">
-        <v>0</v>
-      </c>
-      <c r="BH15" s="84">
-        <v>0</v>
-      </c>
-      <c r="BI15" s="84">
+      <c r="BG15" s="84">
+        <v>0</v>
+      </c>
+      <c r="BH15" s="82">
+        <v>0</v>
+      </c>
+      <c r="BI15" s="82">
         <v>2.5549999999999996E-2</v>
       </c>
-      <c r="BJ15" s="84">
+      <c r="BJ15" s="82">
         <v>1.5996E-2</v>
       </c>
-      <c r="BK15" s="83">
+      <c r="BK15" s="81">
         <v>0.92580125000000002</v>
       </c>
-      <c r="BL15" s="85">
+      <c r="BL15" s="83">
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>254</v>
       </c>
-      <c r="B16" s="82">
+      <c r="B16" s="80">
         <v>0.26398274999999999</v>
       </c>
-      <c r="C16" s="83">
+      <c r="C16" s="81">
         <v>0.62208375000000005</v>
       </c>
-      <c r="D16" s="84">
+      <c r="D16" s="82">
         <v>9.2994999999999994E-2</v>
       </c>
-      <c r="E16" s="84">
+      <c r="E16" s="82">
         <v>6.7190000000000001E-3</v>
       </c>
-      <c r="F16" s="85">
-        <v>0</v>
-      </c>
-      <c r="G16" s="82">
+      <c r="F16" s="83">
+        <v>0</v>
+      </c>
+      <c r="G16" s="80">
         <v>0.17660799999999999</v>
       </c>
-      <c r="H16" s="84">
+      <c r="H16" s="82">
         <v>2.2391999999999999E-2</v>
       </c>
-      <c r="I16" s="83">
+      <c r="I16" s="81">
         <v>0.68909249999999989</v>
       </c>
-      <c r="J16" s="84">
+      <c r="J16" s="82">
         <v>5.3425E-2</v>
       </c>
-      <c r="K16" s="85">
+      <c r="K16" s="83">
         <v>4.4262999999999997E-2</v>
       </c>
-      <c r="L16" s="82">
+      <c r="L16" s="80">
         <v>0.24519099999999999</v>
       </c>
-      <c r="M16" s="84">
+      <c r="M16" s="82">
         <v>2.6141000000000001E-2</v>
       </c>
-      <c r="N16" s="84">
+      <c r="N16" s="82">
         <v>9.1818999999999998E-2</v>
       </c>
-      <c r="O16" s="83">
+      <c r="O16" s="81">
         <v>0.3386087499999999</v>
       </c>
-      <c r="P16" s="85">
+      <c r="P16" s="83">
         <v>0.28402075000000004</v>
       </c>
-      <c r="Q16" s="86">
-        <v>0</v>
-      </c>
-      <c r="R16" s="84">
-        <v>0</v>
-      </c>
-      <c r="S16" s="84">
+      <c r="Q16" s="84">
+        <v>0</v>
+      </c>
+      <c r="R16" s="82">
+        <v>0</v>
+      </c>
+      <c r="S16" s="82">
         <v>1.4918499999999999E-2</v>
       </c>
-      <c r="T16" s="84">
+      <c r="T16" s="82">
         <v>9.3095000000000001E-3</v>
       </c>
-      <c r="U16" s="83">
+      <c r="U16" s="81">
         <v>0.92913724999999991</v>
       </c>
-      <c r="V16" s="85">
+      <c r="V16" s="83">
         <v>3.2415249999999993E-2</v>
       </c>
-      <c r="W16" s="82">
+      <c r="W16" s="80">
         <v>0.26482074999999999</v>
       </c>
-      <c r="X16" s="83">
+      <c r="X16" s="81">
         <v>0.62159975000000001</v>
       </c>
-      <c r="Y16" s="84">
+      <c r="Y16" s="82">
         <v>9.2665999999999998E-2</v>
       </c>
-      <c r="Z16" s="84">
+      <c r="Z16" s="82">
         <v>6.6940000000000003E-3</v>
       </c>
-      <c r="AA16" s="85">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="82">
+      <c r="AA16" s="83">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="80">
         <v>0.177205</v>
       </c>
-      <c r="AC16" s="84">
+      <c r="AC16" s="82">
         <v>2.2474000000000001E-2</v>
       </c>
-      <c r="AD16" s="83">
+      <c r="AD16" s="81">
         <v>0.68876649999999995</v>
       </c>
-      <c r="AE16" s="84">
+      <c r="AE16" s="82">
         <v>5.3232000000000002E-2</v>
       </c>
-      <c r="AF16" s="85">
+      <c r="AF16" s="83">
         <v>4.4103000000000003E-2</v>
       </c>
-      <c r="AG16" s="82">
+      <c r="AG16" s="80">
         <v>0.24598300000000001</v>
       </c>
-      <c r="AH16" s="84">
+      <c r="AH16" s="82">
         <v>2.6237E-2</v>
       </c>
-      <c r="AI16" s="84">
+      <c r="AI16" s="82">
         <v>9.2146000000000006E-2</v>
       </c>
-      <c r="AJ16" s="83">
+      <c r="AJ16" s="81">
         <v>0.33828224999999995</v>
       </c>
-      <c r="AK16" s="85">
+      <c r="AK16" s="83">
         <v>0.28313224999999997</v>
       </c>
-      <c r="AL16" s="86">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="84">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="84">
+      <c r="AL16" s="84">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="82">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="82">
         <v>1.4973E-2</v>
       </c>
-      <c r="AO16" s="84">
+      <c r="AO16" s="82">
         <v>9.3434999999999994E-3</v>
       </c>
-      <c r="AP16" s="83">
+      <c r="AP16" s="81">
         <v>0.92916699999999997</v>
       </c>
-      <c r="AQ16" s="85">
+      <c r="AQ16" s="83">
         <v>3.2296999999999999E-2</v>
       </c>
-      <c r="AR16" s="82">
+      <c r="AR16" s="80">
         <v>0.40971574999999999</v>
       </c>
-      <c r="AS16" s="83">
+      <c r="AS16" s="81">
         <v>0.51712974999999994</v>
       </c>
-      <c r="AT16" s="84">
+      <c r="AT16" s="82">
         <v>5.5032999999999999E-2</v>
       </c>
-      <c r="AU16" s="84">
+      <c r="AU16" s="82">
         <v>3.9020000000000001E-3</v>
       </c>
-      <c r="AV16" s="85">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="82">
+      <c r="AV16" s="83">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="80">
         <v>0.284721</v>
       </c>
-      <c r="AX16" s="84">
+      <c r="AX16" s="82">
         <v>3.8297999999999999E-2</v>
       </c>
-      <c r="AY16" s="83">
+      <c r="AY16" s="81">
         <v>0.60550850000000001</v>
       </c>
-      <c r="AZ16" s="84">
+      <c r="AZ16" s="82">
         <v>3.134E-2</v>
       </c>
-      <c r="BA16" s="85">
+      <c r="BA16" s="83">
         <v>2.5912999999999999E-2</v>
       </c>
-      <c r="BB16" s="82">
+      <c r="BB16" s="80">
         <v>0.38433200000000001</v>
       </c>
-      <c r="BC16" s="84">
+      <c r="BC16" s="82">
         <v>4.4648E-2</v>
       </c>
-      <c r="BD16" s="84">
+      <c r="BD16" s="82">
         <v>0.15301799999999999</v>
       </c>
-      <c r="BE16" s="83">
+      <c r="BE16" s="81">
         <v>0.22758199999999995</v>
       </c>
-      <c r="BF16" s="85">
+      <c r="BF16" s="83">
         <v>0.17620050000000001</v>
       </c>
-      <c r="BG16" s="86">
-        <v>0</v>
-      </c>
-      <c r="BH16" s="84">
-        <v>0</v>
-      </c>
-      <c r="BI16" s="84">
+      <c r="BG16" s="84">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="82">
+        <v>0</v>
+      </c>
+      <c r="BI16" s="82">
         <v>2.5549999999999996E-2</v>
       </c>
-      <c r="BJ16" s="84">
+      <c r="BJ16" s="82">
         <v>1.5996E-2</v>
       </c>
-      <c r="BK16" s="83">
+      <c r="BK16" s="81">
         <v>0.92580125000000002</v>
       </c>
-      <c r="BL16" s="85">
+      <c r="BL16" s="83">
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="87" t="s">
+    <row r="17" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="85" t="s">
         <v>307</v>
       </c>
-      <c r="B17" s="88">
+      <c r="B17" s="86">
         <v>0.23293700000000003</v>
       </c>
-      <c r="C17" s="89">
+      <c r="C17" s="87">
         <v>0.63785533333333333</v>
       </c>
-      <c r="D17" s="90">
+      <c r="D17" s="88">
         <v>9.2994999999999994E-2</v>
       </c>
-      <c r="E17" s="90">
+      <c r="E17" s="88">
         <v>6.7190000000000001E-3</v>
       </c>
-      <c r="F17" s="91">
-        <v>0</v>
-      </c>
-      <c r="G17" s="88">
+      <c r="F17" s="89">
+        <v>0</v>
+      </c>
+      <c r="G17" s="86">
         <v>0.17660799999999999</v>
       </c>
-      <c r="H17" s="90">
+      <c r="H17" s="88">
         <v>2.2391999999999999E-2</v>
       </c>
-      <c r="I17" s="89">
+      <c r="I17" s="87">
         <v>0.6738183333333333</v>
       </c>
-      <c r="J17" s="90">
+      <c r="J17" s="88">
         <v>5.3425E-2</v>
       </c>
-      <c r="K17" s="91">
+      <c r="K17" s="89">
         <v>4.4262999999999997E-2</v>
       </c>
-      <c r="L17" s="88">
+      <c r="L17" s="86">
         <v>0.24519100000000002</v>
       </c>
-      <c r="M17" s="90">
+      <c r="M17" s="88">
         <v>2.6141000000000001E-2</v>
       </c>
-      <c r="N17" s="90">
+      <c r="N17" s="88">
         <v>9.1818999999999998E-2</v>
       </c>
-      <c r="O17" s="89">
+      <c r="O17" s="87">
         <v>0.28246066666666664</v>
       </c>
-      <c r="P17" s="91">
+      <c r="P17" s="89">
         <v>0.32489466666666661</v>
       </c>
-      <c r="Q17" s="92">
-        <v>0</v>
-      </c>
-      <c r="R17" s="90">
-        <v>0</v>
-      </c>
-      <c r="S17" s="90">
+      <c r="Q17" s="90">
+        <v>0</v>
+      </c>
+      <c r="R17" s="88">
+        <v>0</v>
+      </c>
+      <c r="S17" s="88">
         <v>7.4450000000000002E-3</v>
       </c>
-      <c r="T17" s="90">
+      <c r="T17" s="88">
         <v>4.9616666666666672E-3</v>
       </c>
-      <c r="U17" s="89">
+      <c r="U17" s="87">
         <v>0.919902</v>
       </c>
-      <c r="V17" s="91">
+      <c r="V17" s="89">
         <v>3.8197666666666664E-2</v>
       </c>
-      <c r="W17" s="88">
+      <c r="W17" s="86">
         <v>0.23369500000000001</v>
       </c>
-      <c r="X17" s="89">
+      <c r="X17" s="87">
         <v>0.63745133333333326</v>
       </c>
-      <c r="Y17" s="90">
+      <c r="Y17" s="88">
         <v>9.2665999999999984E-2</v>
       </c>
-      <c r="Z17" s="90">
+      <c r="Z17" s="88">
         <v>6.6940000000000012E-3</v>
       </c>
-      <c r="AA17" s="91">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="88">
+      <c r="AA17" s="89">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="86">
         <v>0.17720499999999997</v>
       </c>
-      <c r="AC17" s="90">
+      <c r="AC17" s="88">
         <v>2.2474000000000004E-2</v>
       </c>
-      <c r="AD17" s="89">
+      <c r="AD17" s="87">
         <v>0.67349233333333325</v>
       </c>
-      <c r="AE17" s="90">
+      <c r="AE17" s="88">
         <v>5.3232000000000002E-2</v>
       </c>
-      <c r="AF17" s="91">
+      <c r="AF17" s="89">
         <v>4.4103000000000003E-2</v>
       </c>
-      <c r="AG17" s="88">
+      <c r="AG17" s="86">
         <v>0.24598299999999998</v>
       </c>
-      <c r="AH17" s="90">
+      <c r="AH17" s="88">
         <v>2.6237E-2</v>
       </c>
-      <c r="AI17" s="90">
+      <c r="AI17" s="88">
         <v>9.2146000000000006E-2</v>
       </c>
-      <c r="AJ17" s="89">
+      <c r="AJ17" s="87">
         <v>0.28223199999999998</v>
       </c>
-      <c r="AK17" s="91">
+      <c r="AK17" s="89">
         <v>0.3239083333333333</v>
       </c>
-      <c r="AL17" s="92">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="90">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="90">
+      <c r="AL17" s="90">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="88">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="88">
         <v>7.4720000000000003E-3</v>
       </c>
-      <c r="AO17" s="90">
+      <c r="AO17" s="88">
         <v>4.9800000000000001E-3</v>
       </c>
-      <c r="AP17" s="89">
+      <c r="AP17" s="87">
         <v>0.9199963333333333</v>
       </c>
-      <c r="AQ17" s="91">
+      <c r="AQ17" s="89">
         <v>3.8058000000000002E-2</v>
       </c>
-      <c r="AR17" s="88">
+      <c r="AR17" s="86">
         <v>0.36699399999999999</v>
       </c>
-      <c r="AS17" s="89">
+      <c r="AS17" s="87">
         <v>0.54457733333333325</v>
       </c>
-      <c r="AT17" s="90">
+      <c r="AT17" s="88">
         <v>5.5032999999999999E-2</v>
       </c>
-      <c r="AU17" s="90">
+      <c r="AU17" s="88">
         <v>3.9020000000000005E-3</v>
       </c>
-      <c r="AV17" s="91">
-        <v>0</v>
-      </c>
-      <c r="AW17" s="88">
+      <c r="AV17" s="89">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="86">
         <v>0.284721</v>
       </c>
-      <c r="AX17" s="90">
+      <c r="AX17" s="88">
         <v>3.8297999999999999E-2</v>
       </c>
-      <c r="AY17" s="89">
+      <c r="AY17" s="87">
         <v>0.59023433333333319</v>
       </c>
-      <c r="AZ17" s="90">
+      <c r="AZ17" s="88">
         <v>3.134E-2</v>
       </c>
-      <c r="BA17" s="91">
+      <c r="BA17" s="89">
         <v>2.5913000000000002E-2</v>
       </c>
-      <c r="BB17" s="88">
+      <c r="BB17" s="86">
         <v>0.38433199999999995</v>
       </c>
-      <c r="BC17" s="90">
+      <c r="BC17" s="88">
         <v>4.4648E-2</v>
       </c>
-      <c r="BD17" s="90">
+      <c r="BD17" s="88">
         <v>0.15301799999999999</v>
       </c>
-      <c r="BE17" s="89">
+      <c r="BE17" s="87">
         <v>0.18472799999999998</v>
       </c>
-      <c r="BF17" s="91">
+      <c r="BF17" s="89">
         <v>0.20378033333333334</v>
       </c>
-      <c r="BG17" s="92">
-        <v>0</v>
-      </c>
-      <c r="BH17" s="90">
-        <v>0</v>
-      </c>
-      <c r="BI17" s="90">
+      <c r="BG17" s="90">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="88">
+        <v>0</v>
+      </c>
+      <c r="BI17" s="88">
         <v>1.2801999999999999E-2</v>
       </c>
-      <c r="BJ17" s="90">
+      <c r="BJ17" s="88">
         <v>8.5379999999999987E-3</v>
       </c>
-      <c r="BK17" s="89">
+      <c r="BK17" s="87">
         <v>0.92741933333333326</v>
       </c>
-      <c r="BL17" s="91">
+      <c r="BL17" s="89">
         <v>2.1746999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="93" t="s">
+    <row r="18" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="B18" s="88">
+      <c r="B18" s="86">
         <v>0.23293700000000003</v>
       </c>
-      <c r="C18" s="89">
+      <c r="C18" s="87">
         <v>0.63785533333333333</v>
       </c>
-      <c r="D18" s="90">
+      <c r="D18" s="88">
         <v>9.2994999999999994E-2</v>
       </c>
-      <c r="E18" s="90">
+      <c r="E18" s="88">
         <v>6.7190000000000001E-3</v>
       </c>
-      <c r="F18" s="91">
-        <v>0</v>
-      </c>
-      <c r="G18" s="88">
+      <c r="F18" s="89">
+        <v>0</v>
+      </c>
+      <c r="G18" s="86">
         <v>0.17660799999999999</v>
       </c>
-      <c r="H18" s="90">
+      <c r="H18" s="88">
         <v>2.2391999999999999E-2</v>
       </c>
-      <c r="I18" s="89">
+      <c r="I18" s="87">
         <v>0.6738183333333333</v>
       </c>
-      <c r="J18" s="90">
+      <c r="J18" s="88">
         <v>5.3425E-2</v>
       </c>
-      <c r="K18" s="91">
+      <c r="K18" s="89">
         <v>4.4262999999999997E-2</v>
       </c>
-      <c r="L18" s="88">
+      <c r="L18" s="86">
         <v>0.24519100000000002</v>
       </c>
-      <c r="M18" s="90">
+      <c r="M18" s="88">
         <v>2.6141000000000001E-2</v>
       </c>
-      <c r="N18" s="90">
+      <c r="N18" s="88">
         <v>9.1818999999999998E-2</v>
       </c>
-      <c r="O18" s="89">
+      <c r="O18" s="87">
         <v>0.28246066666666664</v>
       </c>
-      <c r="P18" s="91">
+      <c r="P18" s="89">
         <v>0.32489466666666661</v>
       </c>
-      <c r="Q18" s="92">
-        <v>0</v>
-      </c>
-      <c r="R18" s="90">
-        <v>0</v>
-      </c>
-      <c r="S18" s="90">
+      <c r="Q18" s="90">
+        <v>0</v>
+      </c>
+      <c r="R18" s="88">
+        <v>0</v>
+      </c>
+      <c r="S18" s="88">
         <v>7.4450000000000002E-3</v>
       </c>
-      <c r="T18" s="90">
+      <c r="T18" s="88">
         <v>4.9616666666666672E-3</v>
       </c>
-      <c r="U18" s="89">
+      <c r="U18" s="87">
         <v>0.919902</v>
       </c>
-      <c r="V18" s="91">
+      <c r="V18" s="89">
         <v>3.8197666666666664E-2</v>
       </c>
-      <c r="W18" s="88">
+      <c r="W18" s="86">
         <v>0.23369500000000001</v>
       </c>
-      <c r="X18" s="89">
+      <c r="X18" s="87">
         <v>0.63745133333333326</v>
       </c>
-      <c r="Y18" s="90">
+      <c r="Y18" s="88">
         <v>9.2665999999999984E-2</v>
       </c>
-      <c r="Z18" s="90">
+      <c r="Z18" s="88">
         <v>6.6940000000000012E-3</v>
       </c>
-      <c r="AA18" s="91">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="88">
+      <c r="AA18" s="89">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="86">
         <v>0.17720499999999997</v>
       </c>
-      <c r="AC18" s="90">
+      <c r="AC18" s="88">
         <v>2.2474000000000004E-2</v>
       </c>
-      <c r="AD18" s="89">
+      <c r="AD18" s="87">
         <v>0.67349233333333325</v>
       </c>
-      <c r="AE18" s="90">
+      <c r="AE18" s="88">
         <v>5.3232000000000002E-2</v>
       </c>
-      <c r="AF18" s="91">
+      <c r="AF18" s="89">
         <v>4.4103000000000003E-2</v>
       </c>
-      <c r="AG18" s="88">
+      <c r="AG18" s="86">
         <v>0.24598299999999998</v>
       </c>
-      <c r="AH18" s="90">
+      <c r="AH18" s="88">
         <v>2.6237E-2</v>
       </c>
-      <c r="AI18" s="90">
+      <c r="AI18" s="88">
         <v>9.2146000000000006E-2</v>
       </c>
-      <c r="AJ18" s="89">
+      <c r="AJ18" s="87">
         <v>0.28223199999999998</v>
       </c>
-      <c r="AK18" s="91">
+      <c r="AK18" s="89">
         <v>0.3239083333333333</v>
       </c>
-      <c r="AL18" s="92">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="90">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="90">
+      <c r="AL18" s="90">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="88">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="88">
         <v>7.4720000000000003E-3</v>
       </c>
-      <c r="AO18" s="90">
+      <c r="AO18" s="88">
         <v>4.9800000000000001E-3</v>
       </c>
-      <c r="AP18" s="89">
+      <c r="AP18" s="87">
         <v>0.9199963333333333</v>
       </c>
-      <c r="AQ18" s="91">
+      <c r="AQ18" s="89">
         <v>3.8058000000000002E-2</v>
       </c>
-      <c r="AR18" s="88">
+      <c r="AR18" s="86">
         <v>0.36699399999999999</v>
       </c>
-      <c r="AS18" s="89">
+      <c r="AS18" s="87">
         <v>0.54457733333333325</v>
       </c>
-      <c r="AT18" s="90">
+      <c r="AT18" s="88">
         <v>5.5032999999999999E-2</v>
       </c>
-      <c r="AU18" s="90">
+      <c r="AU18" s="88">
         <v>3.9020000000000005E-3</v>
       </c>
-      <c r="AV18" s="91">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="88">
+      <c r="AV18" s="89">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="86">
         <v>0.284721</v>
       </c>
-      <c r="AX18" s="90">
+      <c r="AX18" s="88">
         <v>3.8297999999999999E-2</v>
       </c>
-      <c r="AY18" s="89">
+      <c r="AY18" s="87">
         <v>0.59023433333333319</v>
       </c>
-      <c r="AZ18" s="90">
+      <c r="AZ18" s="88">
         <v>3.134E-2</v>
       </c>
-      <c r="BA18" s="91">
+      <c r="BA18" s="89">
         <v>2.5913000000000002E-2</v>
       </c>
-      <c r="BB18" s="88">
+      <c r="BB18" s="86">
         <v>0.38433199999999995</v>
       </c>
-      <c r="BC18" s="90">
+      <c r="BC18" s="88">
         <v>4.4648E-2</v>
       </c>
-      <c r="BD18" s="90">
+      <c r="BD18" s="88">
         <v>0.15301799999999999</v>
       </c>
-      <c r="BE18" s="89">
+      <c r="BE18" s="87">
         <v>0.18472799999999998</v>
       </c>
-      <c r="BF18" s="91">
+      <c r="BF18" s="89">
         <v>0.20378033333333334</v>
       </c>
-      <c r="BG18" s="92">
-        <v>0</v>
-      </c>
-      <c r="BH18" s="90">
-        <v>0</v>
-      </c>
-      <c r="BI18" s="90">
+      <c r="BG18" s="90">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="88">
+        <v>0</v>
+      </c>
+      <c r="BI18" s="88">
         <v>1.2801999999999999E-2</v>
       </c>
-      <c r="BJ18" s="90">
+      <c r="BJ18" s="88">
         <v>8.5379999999999987E-3</v>
       </c>
-      <c r="BK18" s="89">
+      <c r="BK18" s="87">
         <v>0.92741933333333326</v>
       </c>
-      <c r="BL18" s="91">
+      <c r="BL18" s="89">
         <v>2.1746999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -7437,7 +7454,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>157</v>
       </c>
@@ -7445,7 +7462,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>322</v>
       </c>
@@ -7453,8 +7470,8 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:64" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="94" t="s">
+    <row r="27" spans="1:64" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="92" t="s">
         <v>262</v>
       </c>
       <c r="B27" s="41" t="s">
@@ -7509,7 +7526,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>309</v>
       </c>
@@ -7582,7 +7599,7 @@
         <v>1.1612666666666665E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>310</v>
       </c>
@@ -7638,8 +7655,8 @@
         <v>1.1612666666666665E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A30" s="73" t="s">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A30" s="71" t="s">
         <v>305</v>
       </c>
       <c r="B30" s="42">
@@ -7694,7 +7711,7 @@
         <v>1.1612666666666665E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>229</v>
       </c>
@@ -7750,7 +7767,7 @@
         <v>1.1612666666666665E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>230</v>
       </c>
@@ -7806,7 +7823,7 @@
         <v>1.1612666666666665E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>306</v>
       </c>
@@ -7862,7 +7879,7 @@
         <v>1.2279324999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -7918,7 +7935,7 @@
         <v>1.2279324999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -7974,7 +7991,7 @@
         <v>1.2279324999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -8030,7 +8047,7 @@
         <v>1.2279324999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -8086,7 +8103,7 @@
         <v>1.2279324999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>232</v>
       </c>
@@ -8142,7 +8159,7 @@
         <v>2.8196999999999996E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>233</v>
       </c>
@@ -8198,7 +8215,7 @@
         <v>2.8196999999999996E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>253</v>
       </c>
@@ -8254,7 +8271,7 @@
         <v>2.8196999999999996E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>254</v>
       </c>
@@ -8310,8 +8327,8 @@
         <v>2.8196999999999996E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A42" s="87" t="s">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="85" t="s">
         <v>307</v>
       </c>
       <c r="B42" s="42">
@@ -8366,8 +8383,8 @@
         <v>3.323453333333333E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A43" s="93" t="s">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="91" t="s">
         <v>308</v>
       </c>
       <c r="B43" s="42">
@@ -8422,205 +8439,205 @@
         <v>3.323453333333333E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="K44" s="66"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="K45" s="66"/>
-    </row>
-    <row r="46" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K46" s="66"/>
-    </row>
-    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="52"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="54" t="s">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K44" s="64"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K45" s="64"/>
+    </row>
+    <row r="46" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K46" s="64"/>
+    </row>
+    <row r="47" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="50"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="D47" s="55"/>
-      <c r="H47" s="66"/>
-      <c r="K47" s="66"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D47" s="53"/>
+      <c r="H47" s="64"/>
+      <c r="K47" s="64"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="47"/>
       <c r="B48" s="7"/>
-      <c r="C48" s="56" t="s">
+      <c r="C48" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="D48" s="59">
+      <c r="D48" s="57">
         <v>0.6</v>
       </c>
-      <c r="H48" s="66"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H48" s="64"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="47"/>
       <c r="B49" s="7"/>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="D49" s="60">
+      <c r="D49" s="58">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H49" s="66"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H49" s="64"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="47"/>
       <c r="B50" s="7"/>
-      <c r="C50" s="56" t="s">
+      <c r="C50" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="D50" s="60">
+      <c r="D50" s="58">
         <v>0.45</v>
       </c>
-      <c r="H50" s="66"/>
-    </row>
-    <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H50" s="64"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="49"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="58" t="s">
+      <c r="B51" s="55"/>
+      <c r="C51" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="D51" s="61">
+      <c r="D51" s="59">
         <v>0.3</v>
       </c>
-      <c r="H51" s="66"/>
-      <c r="I51" s="66"/>
-      <c r="J51" s="66"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H52" s="66"/>
-      <c r="I52" s="66"/>
-      <c r="J52" s="66"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H53" s="66"/>
-      <c r="I53" s="66"/>
-      <c r="J53" s="66"/>
-    </row>
-    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H52" s="64"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="64"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>244</v>
       </c>
-      <c r="H54" s="66"/>
-      <c r="I54" s="66"/>
-      <c r="J54" s="66"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" s="62" t="s">
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="64"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="B55" s="63">
+      <c r="B55" s="61">
         <v>1</v>
       </c>
       <c r="D55" t="s">
         <v>251</v>
       </c>
-      <c r="H55" s="66"/>
-      <c r="I55" s="66"/>
-      <c r="J55" s="66"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H55" s="64"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="B56" s="64">
+      <c r="B56" s="62">
         <v>1.8</v>
       </c>
       <c r="D56" t="s">
         <v>252</v>
       </c>
-      <c r="H56" s="66"/>
-      <c r="I56" s="66"/>
-      <c r="J56" s="66"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="B57" s="64">
+      <c r="B57" s="62">
         <v>2.6</v>
       </c>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
-      <c r="J57" s="66"/>
-    </row>
-    <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H57" s="64"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="64"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="B58" s="65">
+      <c r="B58" s="63">
         <v>5.5</v>
       </c>
-      <c r="H58" s="66"/>
-      <c r="I58" s="66"/>
-      <c r="J58" s="66"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H59" s="66"/>
-      <c r="I59" s="66"/>
-      <c r="J59" s="66"/>
-    </row>
-    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="64"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>245</v>
       </c>
-      <c r="H60" s="66"/>
-      <c r="I60" s="66"/>
-      <c r="J60" s="66"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A61" s="62" t="s">
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="B61" s="63">
+      <c r="B61" s="61">
         <v>1</v>
       </c>
       <c r="D61" t="s">
         <v>246</v>
       </c>
-      <c r="I61" s="66"/>
-      <c r="J61" s="66"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I61" s="64"/>
+      <c r="J61" s="64"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="B62" s="64">
+      <c r="B62" s="62">
         <v>1.75</v>
       </c>
       <c r="D62" t="s">
         <v>247</v>
       </c>
-      <c r="I62" s="66"/>
-      <c r="J62" s="66"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="B63" s="64">
+      <c r="B63" s="62">
         <v>2.2999999999999998</v>
       </c>
       <c r="D63" t="s">
         <v>248</v>
       </c>
-      <c r="I63" s="66"/>
-      <c r="J63" s="66"/>
-    </row>
-    <row r="64" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I63" s="64"/>
+      <c r="J63" s="64"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="B64" s="65">
+      <c r="B64" s="63">
         <v>2.66</v>
       </c>
       <c r="D64" t="s">
         <v>249</v>
       </c>
-      <c r="I64" s="66"/>
-      <c r="J64" s="66"/>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="I64" s="64"/>
+      <c r="J64" s="64"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="24" t="s">
         <v>250</v>
       </c>
@@ -8858,27 +8875,27 @@
       <selection activeCell="AD23" sqref="AD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
     <col min="10" max="10" width="36" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="38.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.1796875" customWidth="1"/>
-    <col min="20" max="23" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.6328125" customWidth="1"/>
+    <col min="13" max="13" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.140625" customWidth="1"/>
+    <col min="20" max="23" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" customWidth="1"/>
     <col min="26" max="26" width="32" customWidth="1"/>
-    <col min="27" max="29" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.453125" customWidth="1"/>
+    <col min="27" max="29" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="12" t="s">
         <v>58</v>
       </c>
@@ -8905,7 +8922,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>57</v>
       </c>
@@ -8960,7 +8977,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -9022,7 +9039,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>61</v>
       </c>
@@ -9078,7 +9095,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>106</v>
       </c>
@@ -9113,7 +9130,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B6" s="15"/>
       <c r="M6" s="4" t="s">
         <v>114</v>
@@ -9152,7 +9169,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="M7" s="3" t="s">
         <v>118</v>
       </c>
@@ -9183,7 +9200,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S8" s="3" t="s">
         <v>129</v>
       </c>
@@ -9208,7 +9225,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="Y9" s="3" t="s">
         <v>138</v>
       </c>
@@ -9216,12 +9233,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AD10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S11" s="24" t="s">
         <v>130</v>
       </c>
@@ -9232,7 +9249,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="K12" s="15"/>
       <c r="T12" s="24" t="s">
         <v>124</v>
@@ -9249,7 +9266,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S13" s="21" t="s">
         <v>119</v>
       </c>
@@ -9272,7 +9289,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S14" s="13" t="s">
         <v>120</v>
       </c>
@@ -9289,7 +9306,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S15" s="13" t="s">
         <v>121</v>
       </c>
@@ -9302,7 +9319,7 @@
       </c>
       <c r="W15" s="4"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S16" s="13" t="s">
         <v>122</v>
       </c>
@@ -9317,11 +9334,11 @@
       <c r="Y16" t="s">
         <v>260</v>
       </c>
-      <c r="Z16" s="67">
+      <c r="Z16" s="65">
         <v>0.09</v>
       </c>
     </row>
-    <row r="17" spans="19:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="19:27" x14ac:dyDescent="0.25">
       <c r="S17" s="13" t="s">
         <v>123</v>
       </c>
@@ -9341,18 +9358,18 @@
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="19:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="19:27" x14ac:dyDescent="0.25">
       <c r="S18" s="3" t="s">
         <v>129</v>
       </c>
       <c r="AA18" s="15"/>
     </row>
-    <row r="20" spans="19:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="19:27" x14ac:dyDescent="0.25">
       <c r="S20" s="24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="19:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="19:27" x14ac:dyDescent="0.25">
       <c r="T21" s="24" t="s">
         <v>124</v>
       </c>
@@ -9362,7 +9379,7 @@
       </c>
       <c r="W21" s="24"/>
     </row>
-    <row r="22" spans="19:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="19:27" x14ac:dyDescent="0.25">
       <c r="S22" s="21" t="s">
         <v>119</v>
       </c>
@@ -9379,7 +9396,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="19:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="19:27" x14ac:dyDescent="0.25">
       <c r="S23" s="13" t="s">
         <v>120</v>
       </c>
@@ -9396,7 +9413,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="24" spans="19:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="19:27" x14ac:dyDescent="0.25">
       <c r="S24" s="13" t="s">
         <v>121</v>
       </c>
@@ -9409,7 +9426,7 @@
       </c>
       <c r="W24" s="4"/>
     </row>
-    <row r="25" spans="19:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="19:27" x14ac:dyDescent="0.25">
       <c r="S25" s="13" t="s">
         <v>123</v>
       </c>
@@ -9426,7 +9443,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="26" spans="19:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="19:27" x14ac:dyDescent="0.25">
       <c r="S26" s="3" t="s">
         <v>129</v>
       </c>
@@ -9447,15 +9464,15 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" customWidth="1"/>
-    <col min="6" max="7" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -9472,7 +9489,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -9519,7 +9536,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -9567,7 +9584,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -9609,7 +9626,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -9642,7 +9659,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
@@ -9672,7 +9689,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
@@ -9693,7 +9710,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
@@ -9720,7 +9737,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -9748,7 +9765,7 @@
         <v>0.13824884792626729</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>26</v>
       </c>
@@ -9773,7 +9790,7 @@
         <v>9.8360655737704916E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -9791,10 +9808,10 @@
         <v>7.6E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>261</v>
       </c>
@@ -9811,18 +9828,18 @@
         <v>1.8800000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N26" t="s">
         <v>258</v>
       </c>
@@ -9842,28 +9859,28 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="41.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.6328125" customWidth="1"/>
-    <col min="25" max="25" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.54296875" customWidth="1"/>
-    <col min="31" max="31" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.5703125" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.5703125" customWidth="1"/>
+    <col min="31" max="31" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -9888,7 +9905,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
@@ -9951,7 +9968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
@@ -10015,7 +10032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
@@ -10079,7 +10096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -10119,7 +10136,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -10172,7 +10189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -10214,7 +10231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -10253,7 +10270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -10277,7 +10294,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -10310,7 +10327,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -10352,7 +10369,7 @@
         <v>0.74550000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -10381,7 +10398,7 @@
         <v>0.751</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>20</v>
       </c>
@@ -10412,7 +10429,7 @@
         <v>0.24271844660194175</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -10436,7 +10453,7 @@
         <v>0.12376237623762376</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="H15" s="7"/>
       <c r="N15" s="4" t="s">
         <v>67</v>
@@ -10454,21 +10471,21 @@
         <v>7.1225071225071226E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="H16" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>55</v>
       </c>
@@ -10476,7 +10493,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>1</v>
       </c>
@@ -10487,7 +10504,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -10498,12 +10515,12 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>47</v>
       </c>
@@ -10514,7 +10531,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>1</v>
       </c>
@@ -10531,7 +10548,7 @@
         <v>9.0833333333333339E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>34</v>
       </c>
@@ -10548,22 +10565,22 @@
         <v>6.6666666666666671E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>141</v>
       </c>
@@ -10571,7 +10588,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" s="22" t="s">
         <v>62</v>
       </c>
@@ -10591,7 +10608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>83</v>
       </c>
@@ -10620,7 +10637,7 @@
         <v>7.5000000000000002E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>88</v>
       </c>
@@ -10649,7 +10666,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>89</v>
       </c>
@@ -10678,7 +10695,7 @@
         <v>1.7499999999999998E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>91</v>
       </c>
@@ -10708,7 +10725,7 @@
         <v>3.2500000000000003E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>142</v>
       </c>
@@ -10716,7 +10733,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B44" s="22" t="s">
         <v>62</v>
       </c>
@@ -10736,7 +10753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>83</v>
       </c>
@@ -10765,7 +10782,7 @@
         <v>1.25E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>88</v>
       </c>
@@ -10794,7 +10811,7 @@
         <v>3.4999999999999996E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>89</v>
       </c>
@@ -10823,7 +10840,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>91</v>
       </c>
@@ -10852,21 +10869,21 @@
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>90</v>
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G51" s="23"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>92</v>
       </c>
@@ -10880,7 +10897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>96</v>
       </c>
@@ -10894,7 +10911,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>94</v>
       </c>
@@ -10908,7 +10925,7 @@
         <v>4.2699999999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>95</v>
       </c>
@@ -10922,12 +10939,12 @@
         <v>13.42</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>92</v>
       </c>
@@ -10941,7 +10958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>96</v>
       </c>
@@ -10955,7 +10972,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>94</v>
       </c>
@@ -10969,7 +10986,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>95</v>
       </c>
@@ -10999,14 +11016,14 @@
       <selection activeCell="B3" sqref="B3:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>237</v>
       </c>
@@ -11014,7 +11031,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>229</v>
       </c>
@@ -11028,7 +11045,7 @@
         <v>16.6279069767441</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>230</v>
       </c>
@@ -11042,7 +11059,7 @@
         <v>39.999999999999901</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>231</v>
       </c>
@@ -11056,7 +11073,7 @@
         <v>45.232558139534802</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -11070,7 +11087,7 @@
         <v>43.139534883720899</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -11084,7 +11101,7 @@
         <v>39.651162790697597</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -11098,7 +11115,7 @@
         <v>24.651162790697601</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>

--- a/HPVData.xlsx
+++ b/HPVData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\HHCoM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msharma1\Documents\HHCoM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HPV" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="336">
   <si>
     <t>Age</t>
   </si>
@@ -1025,6 +1025,18 @@
   </si>
   <si>
     <t>Weighted</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>Vaccine types</t>
+  </si>
+  <si>
+    <t>Non-Vaccine Types</t>
+  </si>
+  <si>
+    <t>HPV to Well (Natural Immunity)</t>
   </si>
 </sst>
 </file>
@@ -1680,7 +1692,511 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="85">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -3023,23 +3539,23 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.453125" customWidth="1"/>
+    <col min="7" max="7" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
-    <col min="17" max="18" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.54296875" customWidth="1"/>
+    <col min="17" max="18" width="49.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.54296875" customWidth="1"/>
+    <col min="21" max="21" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="24" t="s">
         <v>146</v>
       </c>
@@ -3050,7 +3566,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>147</v>
       </c>
@@ -3100,7 +3616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>16</v>
       </c>
@@ -3150,7 +3666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>18</v>
       </c>
@@ -3200,7 +3716,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>31</v>
       </c>
@@ -3248,7 +3764,7 @@
         <v>8.08</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>33</v>
       </c>
@@ -3295,7 +3811,7 @@
         <v>14.04</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3328,7 +3844,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>39</v>
       </c>
@@ -3369,7 +3885,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>51</v>
       </c>
@@ -3383,7 +3899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>56</v>
       </c>
@@ -3400,7 +3916,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G11" s="24" t="s">
         <v>180</v>
       </c>
@@ -3417,7 +3933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
         <v>147</v>
       </c>
@@ -3456,7 +3972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>160</v>
       </c>
@@ -3499,7 +4015,7 @@
         <v>0.24271844660194175</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>149</v>
       </c>
@@ -3542,7 +4058,7 @@
         <v>0.12376237623762376</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>234</v>
       </c>
@@ -3574,7 +4090,7 @@
         <v>7.1225071225071226E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G16" s="4" t="s">
         <v>159</v>
       </c>
@@ -3588,7 +4104,7 @@
         <v>1.7130000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G17" s="11" t="s">
         <v>162</v>
       </c>
@@ -3602,7 +4118,7 @@
         <v>1.863</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G18" s="11" t="s">
         <v>54</v>
       </c>
@@ -3619,7 +4135,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="44"/>
       <c r="B19" s="45" t="s">
         <v>238</v>
@@ -3642,7 +4158,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="47"/>
       <c r="B20" s="7" t="s">
         <v>47</v>
@@ -3672,7 +4188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="47" t="s">
         <v>198</v>
       </c>
@@ -3680,14 +4196,14 @@
         <v>1.2823314148397711</v>
       </c>
       <c r="C21" s="93">
-        <v>2.2168593054235246</v>
+        <v>2.9</v>
       </c>
       <c r="D21" s="95">
-        <v>2.4910309371738526</v>
+        <v>3.2</v>
       </c>
       <c r="E21" s="42">
         <f t="array" ref="E21:E24">0.7*C21:C24+0.3*D21:D24</f>
-        <v>2.2991107949486231</v>
+        <v>2.9899999999999998</v>
       </c>
       <c r="Q21" s="4" t="s">
         <v>174</v>
@@ -3702,7 +4218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="47" t="s">
         <v>199</v>
       </c>
@@ -3710,13 +4226,13 @@
         <v>1.190381294008237</v>
       </c>
       <c r="C22" s="93">
-        <v>2.0578984637555582</v>
+        <v>2.7</v>
       </c>
       <c r="D22" s="95">
-        <v>2.3124105017563474</v>
+        <v>3</v>
       </c>
       <c r="E22" s="42">
-        <v>2.134252075155795</v>
+        <v>2.79</v>
       </c>
       <c r="G22" s="24" t="s">
         <v>181</v>
@@ -3734,7 +4250,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="47" t="s">
         <v>241</v>
       </c>
@@ -3742,13 +4258,13 @@
         <v>1.0984311731767029</v>
       </c>
       <c r="C23" s="93">
-        <v>1.898937622087592</v>
+        <v>2.5</v>
       </c>
       <c r="D23" s="95">
-        <v>2.1337900663388423</v>
+        <v>2.8</v>
       </c>
       <c r="E23" s="42">
-        <v>1.9693933553629668</v>
+        <v>2.59</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>147</v>
@@ -3771,7 +4287,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="49" t="s">
         <v>201</v>
       </c>
@@ -3779,13 +4295,13 @@
         <v>1.006481052345169</v>
       </c>
       <c r="C24" s="94">
-        <v>1.7399767804196262</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D24" s="96">
-        <v>1.9551696309213371</v>
+        <v>2.5</v>
       </c>
       <c r="E24" s="42">
-        <v>1.8045346355701393</v>
+        <v>2.36</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>182</v>
@@ -3800,7 +4316,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G25" s="9" t="s">
         <v>183</v>
       </c>
@@ -3811,7 +4327,18 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C27" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>240</v>
+      </c>
       <c r="G27" s="24" t="s">
         <v>184</v>
       </c>
@@ -3819,7 +4346,13 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C28" s="93">
+        <v>2.2168593054235246</v>
+      </c>
+      <c r="D28" s="95">
+        <v>2.4910309371738526</v>
+      </c>
       <c r="H28" t="s">
         <v>185</v>
       </c>
@@ -3833,7 +4366,13 @@
         <v>202</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C29" s="93">
+        <v>2.0578984637555582</v>
+      </c>
+      <c r="D29" s="95">
+        <v>2.3124105017563474</v>
+      </c>
       <c r="G29" s="4" t="s">
         <v>169</v>
       </c>
@@ -3857,7 +4396,13 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C30" s="93">
+        <v>1.898937622087592</v>
+      </c>
+      <c r="D30" s="95">
+        <v>2.1337900663388423</v>
+      </c>
       <c r="G30" s="4" t="s">
         <v>170</v>
       </c>
@@ -3881,7 +4426,13 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C31" s="94">
+        <v>1.7399767804196262</v>
+      </c>
+      <c r="D31" s="96">
+        <v>1.9551696309213371</v>
+      </c>
       <c r="G31" s="11" t="s">
         <v>187</v>
       </c>
@@ -3906,7 +4457,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="Q32" t="s">
         <v>201</v>
       </c>
@@ -3914,7 +4465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:20" x14ac:dyDescent="0.35">
       <c r="G34" s="24" t="s">
         <v>179</v>
       </c>
@@ -3922,7 +4473,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:20" x14ac:dyDescent="0.35">
       <c r="G35" s="13" t="s">
         <v>147</v>
       </c>
@@ -3948,7 +4499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:20" x14ac:dyDescent="0.35">
       <c r="G36" s="4" t="s">
         <v>47</v>
       </c>
@@ -3981,7 +4532,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="37" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:20" x14ac:dyDescent="0.35">
       <c r="G37" s="4" t="s">
         <v>157</v>
       </c>
@@ -4014,7 +4565,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:20" x14ac:dyDescent="0.35">
       <c r="G38" s="4" t="s">
         <v>158</v>
       </c>
@@ -4035,7 +4586,7 @@
         <v>1.925E-2</v>
       </c>
     </row>
-    <row r="39" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:20" x14ac:dyDescent="0.35">
       <c r="G39" s="4" t="s">
         <v>159</v>
       </c>
@@ -4049,7 +4600,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="40" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:20" x14ac:dyDescent="0.35">
       <c r="G40" s="11" t="s">
         <v>162</v>
       </c>
@@ -4063,7 +4614,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="41" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:20" x14ac:dyDescent="0.35">
       <c r="G41" s="11" t="s">
         <v>54</v>
       </c>
@@ -4077,7 +4628,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:20" x14ac:dyDescent="0.35">
       <c r="G42" s="11" t="s">
         <v>163</v>
       </c>
@@ -4091,12 +4642,12 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="45" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:20" x14ac:dyDescent="0.35">
       <c r="G45" s="24" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="46" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:20" x14ac:dyDescent="0.35">
       <c r="G46" s="4" t="s">
         <v>62</v>
       </c>
@@ -4107,7 +4658,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="47" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:20" x14ac:dyDescent="0.35">
       <c r="G47" s="4">
         <v>0.48</v>
       </c>
@@ -4127,23 +4678,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:BL65"/>
+  <dimension ref="A1:BL86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T37" sqref="T37"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="17" max="17" width="12.5703125" customWidth="1"/>
+    <col min="5" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.54296875" customWidth="1"/>
+    <col min="26" max="27" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="24" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="66" t="s">
         <v>262</v>
       </c>
@@ -4337,7 +4890,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>309</v>
       </c>
@@ -4531,7 +5084,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>310</v>
       </c>
@@ -4725,7 +5278,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="71" t="s">
         <v>305</v>
       </c>
@@ -4919,7 +5472,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>229</v>
       </c>
@@ -5113,7 +5666,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>230</v>
       </c>
@@ -5307,7 +5860,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -5501,7 +6054,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -5695,7 +6248,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -5889,7 +6442,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -6083,7 +6636,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -6277,7 +6830,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>232</v>
       </c>
@@ -6471,7 +7024,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>233</v>
       </c>
@@ -6665,7 +7218,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>253</v>
       </c>
@@ -6859,7 +7412,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>254</v>
       </c>
@@ -7053,7 +7606,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="85" t="s">
         <v>307</v>
       </c>
@@ -7247,7 +7800,7 @@
         <v>2.1746999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="91" t="s">
         <v>308</v>
       </c>
@@ -7441,36 +7994,39 @@
         <v>2.1746999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>47</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
+        <f>0.5 / 0.9</f>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="24" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>157</v>
       </c>
       <c r="B24">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
+        <f>0.2 / 0.9</f>
+        <v>0.22222222222222224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>322</v>
       </c>
       <c r="B25">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:64" ht="45" x14ac:dyDescent="0.25">
+        <f>0.2/0.9</f>
+        <v>0.22222222222222224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:64" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="92" t="s">
         <v>262</v>
       </c>
@@ -7525,1339 +8081,3414 @@
       <c r="R27" s="41" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="V27" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="W27" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="X27" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y27" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z27" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA27" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB27" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="AC27" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="AD27" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="AE27" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF27" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="AG27" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="AH27" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="AI27" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="AJ27" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="AK27" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="AL27" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="AM27" s="41" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>309</v>
       </c>
-      <c r="B28" s="42">
+      <c r="B28" s="64">
         <f t="array" ref="B28:B43">B23*B3:B18+B24*W3:W18+B25*AR3:AR18</f>
-        <v>0.65020299999999998</v>
-      </c>
-      <c r="C28" s="42">
+        <v>0.63507222222222226</v>
+      </c>
+      <c r="C28" s="64">
         <f t="array" ref="C28:C43">B23*D3:D18+B24*Y3:Y18+B25*AT3:AT18</f>
-        <v>0.18433479999999999</v>
-      </c>
-      <c r="D28" s="42">
+        <v>0.1906882222222222</v>
+      </c>
+      <c r="D28" s="64">
         <f t="array" ref="D28:D43">B23*E3:E18+B24*Z3:Z18+B25*AU3:AU18</f>
-        <v>5.8382499999999997E-2</v>
-      </c>
-      <c r="E28" s="42">
+        <v>6.0511777777777782E-2</v>
+      </c>
+      <c r="E28" s="64">
         <f t="array" ref="E28:E43">B23*F3:F18+B24*AA3:AA18+B25*AV3:AV18</f>
         <v>0</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="64">
         <f t="array" ref="F28:F43">B23*G3:G18+B24*AB3:AB18+B25*AW3:AW18</f>
-        <v>0.20916129999999999</v>
-      </c>
-      <c r="G28" s="42">
+        <v>0.20076577777777777</v>
+      </c>
+      <c r="G28" s="64">
         <f t="array" ref="G28:G43">B23*H3:H18+B24*AB3:AB18+B25*AW3:AW18</f>
-        <v>0.13205329999999998</v>
-      </c>
-      <c r="H28" s="42">
+        <v>0.11509022222222222</v>
+      </c>
+      <c r="H28" s="64">
         <f t="array" ref="H28:H43">B23*J3:J18+B24*AE3:AE18+B25*AZ3:AZ18</f>
-        <v>3.0444700000000005E-2</v>
-      </c>
-      <c r="I28" s="42">
+        <v>3.1567555555555557E-2</v>
+      </c>
+      <c r="I28" s="64">
         <f t="array" ref="I28:I43">B23*K3:K18+B24*AF3:AF18+B25*BA3:BA18</f>
-        <v>3.0444700000000005E-2</v>
-      </c>
-      <c r="J28" s="42">
+        <v>3.1567555555555557E-2</v>
+      </c>
+      <c r="J28" s="64">
         <f t="array" ref="J28:J43">B23*L3:L18+B24*AG3:AG18+B25*BB3:BB18</f>
-        <v>0.28709169999999995</v>
-      </c>
-      <c r="K28" s="42">
+        <v>0.27628722222222224</v>
+      </c>
+      <c r="K28" s="64">
         <f t="array" ref="K28:K43">B23*M3:M18+B24*AH3:AH18+B25*BC3:BC18</f>
-        <v>3.1712299999999999E-2</v>
-      </c>
-      <c r="L28" s="42">
+        <v>3.0275000000000003E-2</v>
+      </c>
+      <c r="L28" s="64">
         <f t="array" ref="L28:L43">B23*N3:N18+B24*AI3:AI18+B25*BD3:BD18</f>
-        <v>0.11024409999999998</v>
-      </c>
-      <c r="M28" s="42">
+        <v>0.10549144444444444</v>
+      </c>
+      <c r="M28" s="64">
         <f t="array" ref="M28:M43">B23*P3:P18+B24*AK3:AK18+B25*BF3:BF18</f>
-        <v>0.116066</v>
-      </c>
-      <c r="N28" s="42">
+        <v>0.12019611111111113</v>
+      </c>
+      <c r="N28" s="64">
         <f t="array" ref="N28:N43">B23*Q3:Q18+B24*AL3:AL18+B25*BG3:BG18</f>
         <v>0</v>
       </c>
-      <c r="O28" s="42">
+      <c r="O28" s="64">
         <f t="array" ref="O28:O43">B23*Q3:Q18+B24*AM3:AM18+B25*BH3:BH18</f>
         <v>0</v>
       </c>
-      <c r="P28" s="42">
+      <c r="P28" s="64">
         <f t="array" ref="P28:P43">B23*S3:S18+B24*AN3:AN18+B25*BI3:BI18</f>
-        <v>6.3459000000000002E-2</v>
-      </c>
-      <c r="Q28" s="42">
+        <v>6.0638666666666667E-2</v>
+      </c>
+      <c r="Q28" s="64">
         <f t="array" ref="Q28:Q43">B23*T3:T18+B24*AO3:AO18+B25*BJ3:BJ18</f>
-        <v>4.5313499999999993E-2</v>
-      </c>
-      <c r="R28" s="42">
+        <v>4.3276666666666672E-2</v>
+      </c>
+      <c r="R28" s="64">
         <f t="array" ref="R28:R43">B23*V3:V18+B24*AQ3:AQ18+B25*BL3:BL18</f>
-        <v>1.1612666666666665E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
+        <v>1.2063703703703702E-3</v>
+      </c>
+      <c r="V28" t="s">
+        <v>309</v>
+      </c>
+      <c r="W28" s="72">
+        <v>0.78637999999999997</v>
+      </c>
+      <c r="X28" s="74">
+        <v>0.12715399999999999</v>
+      </c>
+      <c r="Y28" s="74">
+        <v>3.9218999999999997E-2</v>
+      </c>
+      <c r="Z28" s="42">
+        <f t="array" ref="Z28:Z43">W23*AA3:AA18+W24*AV3:AV18+W25*BQ3:BQ18</f>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="72">
+        <v>0.284721</v>
+      </c>
+      <c r="AB28" s="74">
+        <v>3.8297999999999999E-2</v>
+      </c>
+      <c r="AC28" s="74">
+        <v>2.0338999999999999E-2</v>
+      </c>
+      <c r="AD28" s="75">
+        <v>2.0338999999999999E-2</v>
+      </c>
+      <c r="AE28" s="72">
+        <v>0.38433199999999995</v>
+      </c>
+      <c r="AF28" s="74">
+        <v>4.4648E-2</v>
+      </c>
+      <c r="AG28" s="74">
+        <v>0.15301799999999999</v>
+      </c>
+      <c r="AH28" s="75">
+        <v>7.8895000000000007E-2</v>
+      </c>
+      <c r="AI28" s="42">
+        <f t="array" ref="AI28:AI43">W23*AL3:AL18+W24*BG3:BG18+W25*CB3:CB18</f>
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="42">
+        <f t="array" ref="AJ28:AJ43">W23*AL3:AL18+W24*BH3:BH18+W25*CC3:CC18</f>
+        <v>0</v>
+      </c>
+      <c r="AK28" s="77">
+        <v>8.8842000000000018E-2</v>
+      </c>
+      <c r="AL28" s="77">
+        <v>6.3644999999999993E-2</v>
+      </c>
+      <c r="AM28" s="79">
+        <v>7.5533333333333323E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B29" s="42">
-        <v>0.65020299999999998</v>
-      </c>
-      <c r="C29" s="42">
-        <v>0.18433479999999999</v>
-      </c>
-      <c r="D29" s="42">
-        <v>5.8382499999999997E-2</v>
-      </c>
-      <c r="E29" s="42">
-        <v>0</v>
-      </c>
-      <c r="F29" s="42">
-        <v>0.20916129999999999</v>
-      </c>
-      <c r="G29" s="42">
-        <v>0.13205329999999998</v>
-      </c>
-      <c r="H29" s="42">
-        <v>3.0444700000000005E-2</v>
-      </c>
-      <c r="I29" s="42">
-        <v>3.0444700000000005E-2</v>
-      </c>
-      <c r="J29" s="42">
-        <v>0.28709169999999995</v>
-      </c>
-      <c r="K29" s="42">
-        <v>3.1712299999999999E-2</v>
-      </c>
-      <c r="L29" s="42">
-        <v>0.11024409999999998</v>
-      </c>
-      <c r="M29" s="42">
-        <v>0.116066</v>
-      </c>
-      <c r="N29" s="42">
-        <v>0</v>
-      </c>
-      <c r="O29" s="42">
-        <v>0</v>
-      </c>
-      <c r="P29" s="42">
-        <v>6.3459000000000002E-2</v>
-      </c>
-      <c r="Q29" s="42">
-        <v>4.5313499999999993E-2</v>
-      </c>
-      <c r="R29" s="42">
-        <v>1.1612666666666665E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="B29" s="64">
+        <v>0.63507222222222226</v>
+      </c>
+      <c r="C29" s="64">
+        <v>0.1906882222222222</v>
+      </c>
+      <c r="D29" s="64">
+        <v>6.0511777777777782E-2</v>
+      </c>
+      <c r="E29" s="64">
+        <v>0</v>
+      </c>
+      <c r="F29" s="64">
+        <v>0.20076577777777777</v>
+      </c>
+      <c r="G29" s="64">
+        <v>0.11509022222222222</v>
+      </c>
+      <c r="H29" s="64">
+        <v>3.1567555555555557E-2</v>
+      </c>
+      <c r="I29" s="64">
+        <v>3.1567555555555557E-2</v>
+      </c>
+      <c r="J29" s="64">
+        <v>0.27628722222222224</v>
+      </c>
+      <c r="K29" s="64">
+        <v>3.0275000000000003E-2</v>
+      </c>
+      <c r="L29" s="64">
+        <v>0.10549144444444444</v>
+      </c>
+      <c r="M29" s="64">
+        <v>0.12019611111111113</v>
+      </c>
+      <c r="N29" s="64">
+        <v>0</v>
+      </c>
+      <c r="O29" s="64">
+        <v>0</v>
+      </c>
+      <c r="P29" s="64">
+        <v>6.0638666666666667E-2</v>
+      </c>
+      <c r="Q29" s="64">
+        <v>4.3276666666666672E-2</v>
+      </c>
+      <c r="R29" s="64">
+        <v>1.2063703703703702E-3</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="W29" s="72">
+        <v>0.78637999999999997</v>
+      </c>
+      <c r="X29" s="74">
+        <v>0.12715399999999999</v>
+      </c>
+      <c r="Y29" s="74">
+        <v>3.9218999999999997E-2</v>
+      </c>
+      <c r="Z29" s="42">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="72">
+        <v>0.284721</v>
+      </c>
+      <c r="AB29" s="74">
+        <v>3.8297999999999999E-2</v>
+      </c>
+      <c r="AC29" s="74">
+        <v>2.0338999999999999E-2</v>
+      </c>
+      <c r="AD29" s="75">
+        <v>2.0338999999999999E-2</v>
+      </c>
+      <c r="AE29" s="72">
+        <v>0.38433199999999995</v>
+      </c>
+      <c r="AF29" s="74">
+        <v>4.4648E-2</v>
+      </c>
+      <c r="AG29" s="74">
+        <v>0.15301799999999999</v>
+      </c>
+      <c r="AH29" s="75">
+        <v>7.8895000000000007E-2</v>
+      </c>
+      <c r="AI29" s="42">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="42">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="77">
+        <v>8.8842000000000018E-2</v>
+      </c>
+      <c r="AL29" s="77">
+        <v>6.3644999999999993E-2</v>
+      </c>
+      <c r="AM29" s="79">
+        <v>7.5533333333333323E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="71" t="s">
         <v>305</v>
       </c>
-      <c r="B30" s="42">
-        <v>0.65020299999999998</v>
-      </c>
-      <c r="C30" s="42">
-        <v>0.18433479999999999</v>
-      </c>
-      <c r="D30" s="42">
-        <v>5.8382499999999997E-2</v>
-      </c>
-      <c r="E30" s="42">
-        <v>0</v>
-      </c>
-      <c r="F30" s="42">
-        <v>0.20916129999999999</v>
-      </c>
-      <c r="G30" s="42">
-        <v>0.13205329999999998</v>
-      </c>
-      <c r="H30" s="42">
-        <v>3.0444700000000005E-2</v>
-      </c>
-      <c r="I30" s="42">
-        <v>3.0444700000000005E-2</v>
-      </c>
-      <c r="J30" s="42">
-        <v>0.28709169999999995</v>
-      </c>
-      <c r="K30" s="42">
-        <v>3.1712299999999999E-2</v>
-      </c>
-      <c r="L30" s="42">
-        <v>0.11024409999999998</v>
-      </c>
-      <c r="M30" s="42">
-        <v>0.116066</v>
-      </c>
-      <c r="N30" s="42">
-        <v>0</v>
-      </c>
-      <c r="O30" s="42">
-        <v>0</v>
-      </c>
-      <c r="P30" s="42">
-        <v>6.3459000000000002E-2</v>
-      </c>
-      <c r="Q30" s="42">
-        <v>4.5313499999999993E-2</v>
-      </c>
-      <c r="R30" s="42">
-        <v>1.1612666666666665E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="B30" s="64">
+        <v>0.63507222222222226</v>
+      </c>
+      <c r="C30" s="64">
+        <v>0.1906882222222222</v>
+      </c>
+      <c r="D30" s="64">
+        <v>6.0511777777777782E-2</v>
+      </c>
+      <c r="E30" s="64">
+        <v>0</v>
+      </c>
+      <c r="F30" s="64">
+        <v>0.20076577777777777</v>
+      </c>
+      <c r="G30" s="64">
+        <v>0.11509022222222222</v>
+      </c>
+      <c r="H30" s="64">
+        <v>3.1567555555555557E-2</v>
+      </c>
+      <c r="I30" s="64">
+        <v>3.1567555555555557E-2</v>
+      </c>
+      <c r="J30" s="64">
+        <v>0.27628722222222224</v>
+      </c>
+      <c r="K30" s="64">
+        <v>3.0275000000000003E-2</v>
+      </c>
+      <c r="L30" s="64">
+        <v>0.10549144444444444</v>
+      </c>
+      <c r="M30" s="64">
+        <v>0.12019611111111113</v>
+      </c>
+      <c r="N30" s="64">
+        <v>0</v>
+      </c>
+      <c r="O30" s="64">
+        <v>0</v>
+      </c>
+      <c r="P30" s="64">
+        <v>6.0638666666666667E-2</v>
+      </c>
+      <c r="Q30" s="64">
+        <v>4.3276666666666672E-2</v>
+      </c>
+      <c r="R30" s="64">
+        <v>1.2063703703703702E-3</v>
+      </c>
+      <c r="V30" s="71" t="s">
+        <v>305</v>
+      </c>
+      <c r="W30" s="72">
+        <v>0.78637999999999997</v>
+      </c>
+      <c r="X30" s="74">
+        <v>0.12715399999999999</v>
+      </c>
+      <c r="Y30" s="74">
+        <v>3.9218999999999997E-2</v>
+      </c>
+      <c r="Z30" s="42">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="72">
+        <v>0.284721</v>
+      </c>
+      <c r="AB30" s="74">
+        <v>3.8297999999999999E-2</v>
+      </c>
+      <c r="AC30" s="74">
+        <v>2.0338999999999999E-2</v>
+      </c>
+      <c r="AD30" s="75">
+        <v>2.0338999999999999E-2</v>
+      </c>
+      <c r="AE30" s="72">
+        <v>0.38433199999999995</v>
+      </c>
+      <c r="AF30" s="74">
+        <v>4.4648E-2</v>
+      </c>
+      <c r="AG30" s="74">
+        <v>0.15301799999999999</v>
+      </c>
+      <c r="AH30" s="75">
+        <v>7.8895000000000007E-2</v>
+      </c>
+      <c r="AI30" s="42">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="42">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="77">
+        <v>8.8842000000000018E-2</v>
+      </c>
+      <c r="AL30" s="77">
+        <v>6.3644999999999993E-2</v>
+      </c>
+      <c r="AM30" s="79">
+        <v>7.5533333333333323E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>229</v>
       </c>
-      <c r="B31" s="42">
-        <v>0.65020299999999998</v>
-      </c>
-      <c r="C31" s="42">
-        <v>0.18433479999999999</v>
-      </c>
-      <c r="D31" s="42">
-        <v>5.8382499999999997E-2</v>
-      </c>
-      <c r="E31" s="42">
-        <v>0</v>
-      </c>
-      <c r="F31" s="42">
-        <v>0.20916129999999999</v>
-      </c>
-      <c r="G31" s="42">
-        <v>0.13205329999999998</v>
-      </c>
-      <c r="H31" s="42">
-        <v>3.0444700000000005E-2</v>
-      </c>
-      <c r="I31" s="42">
-        <v>3.0444700000000005E-2</v>
-      </c>
-      <c r="J31" s="42">
-        <v>0.28709169999999995</v>
-      </c>
-      <c r="K31" s="42">
-        <v>3.1712299999999999E-2</v>
-      </c>
-      <c r="L31" s="42">
-        <v>0.11024409999999998</v>
-      </c>
-      <c r="M31" s="42">
-        <v>0.116066</v>
-      </c>
-      <c r="N31" s="42">
-        <v>0</v>
-      </c>
-      <c r="O31" s="42">
-        <v>0</v>
-      </c>
-      <c r="P31" s="42">
-        <v>6.3459000000000002E-2</v>
-      </c>
-      <c r="Q31" s="42">
-        <v>4.5313499999999993E-2</v>
-      </c>
-      <c r="R31" s="42">
-        <v>1.1612666666666665E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="B31" s="64">
+        <v>0.63507222222222226</v>
+      </c>
+      <c r="C31" s="64">
+        <v>0.1906882222222222</v>
+      </c>
+      <c r="D31" s="64">
+        <v>6.0511777777777782E-2</v>
+      </c>
+      <c r="E31" s="64">
+        <v>0</v>
+      </c>
+      <c r="F31" s="64">
+        <v>0.20076577777777777</v>
+      </c>
+      <c r="G31" s="64">
+        <v>0.11509022222222222</v>
+      </c>
+      <c r="H31" s="64">
+        <v>3.1567555555555557E-2</v>
+      </c>
+      <c r="I31" s="64">
+        <v>3.1567555555555557E-2</v>
+      </c>
+      <c r="J31" s="64">
+        <v>0.27628722222222224</v>
+      </c>
+      <c r="K31" s="64">
+        <v>3.0275000000000003E-2</v>
+      </c>
+      <c r="L31" s="64">
+        <v>0.10549144444444444</v>
+      </c>
+      <c r="M31" s="64">
+        <v>0.12019611111111113</v>
+      </c>
+      <c r="N31" s="64">
+        <v>0</v>
+      </c>
+      <c r="O31" s="64">
+        <v>0</v>
+      </c>
+      <c r="P31" s="64">
+        <v>6.0638666666666667E-2</v>
+      </c>
+      <c r="Q31" s="64">
+        <v>4.3276666666666672E-2</v>
+      </c>
+      <c r="R31" s="64">
+        <v>1.2063703703703702E-3</v>
+      </c>
+      <c r="V31" t="s">
+        <v>229</v>
+      </c>
+      <c r="W31" s="72">
+        <v>0.78637999999999997</v>
+      </c>
+      <c r="X31" s="74">
+        <v>0.12715399999999999</v>
+      </c>
+      <c r="Y31" s="74">
+        <v>3.9218999999999997E-2</v>
+      </c>
+      <c r="Z31" s="42">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="72">
+        <v>0.284721</v>
+      </c>
+      <c r="AB31" s="74">
+        <v>3.8297999999999999E-2</v>
+      </c>
+      <c r="AC31" s="74">
+        <v>2.0338999999999999E-2</v>
+      </c>
+      <c r="AD31" s="75">
+        <v>2.0338999999999999E-2</v>
+      </c>
+      <c r="AE31" s="72">
+        <v>0.38433199999999995</v>
+      </c>
+      <c r="AF31" s="74">
+        <v>4.4648E-2</v>
+      </c>
+      <c r="AG31" s="74">
+        <v>0.15301799999999999</v>
+      </c>
+      <c r="AH31" s="75">
+        <v>7.8895000000000007E-2</v>
+      </c>
+      <c r="AI31" s="42">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="42">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="77">
+        <v>8.8842000000000018E-2</v>
+      </c>
+      <c r="AL31" s="77">
+        <v>6.3644999999999993E-2</v>
+      </c>
+      <c r="AM31" s="79">
+        <v>7.5533333333333323E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>230</v>
       </c>
-      <c r="B32" s="42">
-        <v>0.65020299999999998</v>
-      </c>
-      <c r="C32" s="42">
-        <v>0.18433479999999999</v>
-      </c>
-      <c r="D32" s="42">
-        <v>5.8382499999999997E-2</v>
-      </c>
-      <c r="E32" s="42">
-        <v>0</v>
-      </c>
-      <c r="F32" s="42">
-        <v>0.20916129999999999</v>
-      </c>
-      <c r="G32" s="42">
-        <v>0.13205329999999998</v>
-      </c>
-      <c r="H32" s="42">
-        <v>3.0444700000000005E-2</v>
-      </c>
-      <c r="I32" s="42">
-        <v>3.0444700000000005E-2</v>
-      </c>
-      <c r="J32" s="42">
-        <v>0.28709169999999995</v>
-      </c>
-      <c r="K32" s="42">
-        <v>3.1712299999999999E-2</v>
-      </c>
-      <c r="L32" s="42">
-        <v>0.11024409999999998</v>
-      </c>
-      <c r="M32" s="42">
-        <v>0.116066</v>
-      </c>
-      <c r="N32" s="42">
-        <v>0</v>
-      </c>
-      <c r="O32" s="42">
-        <v>0</v>
-      </c>
-      <c r="P32" s="42">
-        <v>6.3459000000000002E-2</v>
-      </c>
-      <c r="Q32" s="42">
-        <v>4.5313499999999993E-2</v>
-      </c>
-      <c r="R32" s="42">
-        <v>1.1612666666666665E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="64">
+        <v>0.63507222222222226</v>
+      </c>
+      <c r="C32" s="64">
+        <v>0.1906882222222222</v>
+      </c>
+      <c r="D32" s="64">
+        <v>6.0511777777777782E-2</v>
+      </c>
+      <c r="E32" s="64">
+        <v>0</v>
+      </c>
+      <c r="F32" s="64">
+        <v>0.20076577777777777</v>
+      </c>
+      <c r="G32" s="64">
+        <v>0.11509022222222222</v>
+      </c>
+      <c r="H32" s="64">
+        <v>3.1567555555555557E-2</v>
+      </c>
+      <c r="I32" s="64">
+        <v>3.1567555555555557E-2</v>
+      </c>
+      <c r="J32" s="64">
+        <v>0.27628722222222224</v>
+      </c>
+      <c r="K32" s="64">
+        <v>3.0275000000000003E-2</v>
+      </c>
+      <c r="L32" s="64">
+        <v>0.10549144444444444</v>
+      </c>
+      <c r="M32" s="64">
+        <v>0.12019611111111113</v>
+      </c>
+      <c r="N32" s="64">
+        <v>0</v>
+      </c>
+      <c r="O32" s="64">
+        <v>0</v>
+      </c>
+      <c r="P32" s="64">
+        <v>6.0638666666666667E-2</v>
+      </c>
+      <c r="Q32" s="64">
+        <v>4.3276666666666672E-2</v>
+      </c>
+      <c r="R32" s="64">
+        <v>1.2063703703703702E-3</v>
+      </c>
+      <c r="V32" t="s">
+        <v>230</v>
+      </c>
+      <c r="W32" s="72">
+        <v>0.78637999999999997</v>
+      </c>
+      <c r="X32" s="74">
+        <v>0.12715399999999999</v>
+      </c>
+      <c r="Y32" s="74">
+        <v>3.9218999999999997E-2</v>
+      </c>
+      <c r="Z32" s="42">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="72">
+        <v>0.284721</v>
+      </c>
+      <c r="AB32" s="74">
+        <v>3.8297999999999999E-2</v>
+      </c>
+      <c r="AC32" s="74">
+        <v>2.0338999999999999E-2</v>
+      </c>
+      <c r="AD32" s="75">
+        <v>2.0338999999999999E-2</v>
+      </c>
+      <c r="AE32" s="72">
+        <v>0.38433199999999995</v>
+      </c>
+      <c r="AF32" s="74">
+        <v>4.4648E-2</v>
+      </c>
+      <c r="AG32" s="74">
+        <v>0.15301799999999999</v>
+      </c>
+      <c r="AH32" s="75">
+        <v>7.8895000000000007E-2</v>
+      </c>
+      <c r="AI32" s="42">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="42">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="77">
+        <v>8.8842000000000018E-2</v>
+      </c>
+      <c r="AL32" s="77">
+        <v>6.3644999999999993E-2</v>
+      </c>
+      <c r="AM32" s="79">
+        <v>7.5533333333333323E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>306</v>
       </c>
-      <c r="B33" s="42">
-        <v>0.4940909</v>
-      </c>
-      <c r="C33" s="42">
-        <v>0.10458600000000001</v>
-      </c>
-      <c r="D33" s="42">
-        <v>1.7583599999999998E-2</v>
-      </c>
-      <c r="E33" s="42">
-        <v>0</v>
-      </c>
-      <c r="F33" s="42">
-        <v>0.20916129999999999</v>
-      </c>
-      <c r="G33" s="42">
-        <v>0.13205329999999998</v>
-      </c>
-      <c r="H33" s="42">
-        <v>3.5112200000000003E-2</v>
-      </c>
-      <c r="I33" s="42">
-        <v>3.6015649999999996E-2</v>
-      </c>
-      <c r="J33" s="42">
-        <v>0.28709170000000001</v>
-      </c>
-      <c r="K33" s="42">
-        <v>3.1712299999999999E-2</v>
-      </c>
-      <c r="L33" s="42">
-        <v>0.11024409999999998</v>
-      </c>
-      <c r="M33" s="42">
-        <v>0.18994195</v>
-      </c>
-      <c r="N33" s="42">
-        <v>0</v>
-      </c>
-      <c r="O33" s="42">
-        <v>0</v>
-      </c>
-      <c r="P33" s="42">
-        <v>4.5319600000000002E-2</v>
-      </c>
-      <c r="Q33" s="42">
-        <v>3.8514424999999998E-2</v>
-      </c>
-      <c r="R33" s="42">
-        <v>1.2279324999999999E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B33" s="64">
+        <v>0.47923902777777783</v>
+      </c>
+      <c r="C33" s="64">
+        <v>0.10832644444444445</v>
+      </c>
+      <c r="D33" s="64">
+        <v>1.8234888888888887E-2</v>
+      </c>
+      <c r="E33" s="64">
+        <v>0</v>
+      </c>
+      <c r="F33" s="64">
+        <v>0.20076577777777777</v>
+      </c>
+      <c r="G33" s="64">
+        <v>0.11509022222222223</v>
+      </c>
+      <c r="H33" s="64">
+        <v>3.6404888888888889E-2</v>
+      </c>
+      <c r="I33" s="64">
+        <v>3.7341083333333337E-2</v>
+      </c>
+      <c r="J33" s="64">
+        <v>0.27628722222222224</v>
+      </c>
+      <c r="K33" s="64">
+        <v>3.0275000000000003E-2</v>
+      </c>
+      <c r="L33" s="64">
+        <v>0.10549144444444444</v>
+      </c>
+      <c r="M33" s="64">
+        <v>0.19646522222222224</v>
+      </c>
+      <c r="N33" s="64">
+        <v>0</v>
+      </c>
+      <c r="O33" s="64">
+        <v>0</v>
+      </c>
+      <c r="P33" s="64">
+        <v>4.3291777777777776E-2</v>
+      </c>
+      <c r="Q33" s="64">
+        <v>3.6779833333333331E-2</v>
+      </c>
+      <c r="R33" s="64">
+        <v>1.2754222222222222E-2</v>
+      </c>
+      <c r="V33" t="s">
+        <v>306</v>
+      </c>
+      <c r="W33" s="80">
+        <v>0.62775775</v>
+      </c>
+      <c r="X33" s="82">
+        <v>7.0921999999999999E-2</v>
+      </c>
+      <c r="Y33" s="82">
+        <v>1.1722E-2</v>
+      </c>
+      <c r="Z33" s="42">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="80">
+        <v>0.284721</v>
+      </c>
+      <c r="AB33" s="82">
+        <v>3.8297999999999999E-2</v>
+      </c>
+      <c r="AC33" s="82">
+        <v>2.3477999999999999E-2</v>
+      </c>
+      <c r="AD33" s="83">
+        <v>2.4086749999999997E-2</v>
+      </c>
+      <c r="AE33" s="80">
+        <v>0.38433200000000001</v>
+      </c>
+      <c r="AF33" s="82">
+        <v>4.4648E-2</v>
+      </c>
+      <c r="AG33" s="82">
+        <v>0.15301799999999999</v>
+      </c>
+      <c r="AH33" s="83">
+        <v>0.1312325</v>
+      </c>
+      <c r="AI33" s="42">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="42">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="82">
+        <v>6.3570000000000002E-2</v>
+      </c>
+      <c r="AL33" s="82">
+        <v>5.4125749999999993E-2</v>
+      </c>
+      <c r="AM33" s="83">
+        <v>8.0052500000000002E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="42">
-        <v>0.4940909</v>
-      </c>
-      <c r="C34" s="42">
-        <v>0.10458600000000001</v>
-      </c>
-      <c r="D34" s="42">
-        <v>1.7583599999999998E-2</v>
-      </c>
-      <c r="E34" s="42">
-        <v>0</v>
-      </c>
-      <c r="F34" s="42">
-        <v>0.20916129999999999</v>
-      </c>
-      <c r="G34" s="42">
-        <v>0.13205329999999998</v>
-      </c>
-      <c r="H34" s="42">
-        <v>3.5112200000000003E-2</v>
-      </c>
-      <c r="I34" s="42">
-        <v>3.6015649999999996E-2</v>
-      </c>
-      <c r="J34" s="42">
-        <v>0.28709170000000001</v>
-      </c>
-      <c r="K34" s="42">
-        <v>3.1712299999999999E-2</v>
-      </c>
-      <c r="L34" s="42">
-        <v>0.11024409999999998</v>
-      </c>
-      <c r="M34" s="42">
-        <v>0.18994195</v>
-      </c>
-      <c r="N34" s="42">
-        <v>0</v>
-      </c>
-      <c r="O34" s="42">
-        <v>0</v>
-      </c>
-      <c r="P34" s="42">
-        <v>4.5319600000000002E-2</v>
-      </c>
-      <c r="Q34" s="42">
-        <v>3.8514424999999998E-2</v>
-      </c>
-      <c r="R34" s="42">
-        <v>1.2279324999999999E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B34" s="64">
+        <v>0.47923902777777783</v>
+      </c>
+      <c r="C34" s="64">
+        <v>0.10832644444444445</v>
+      </c>
+      <c r="D34" s="64">
+        <v>1.8234888888888887E-2</v>
+      </c>
+      <c r="E34" s="64">
+        <v>0</v>
+      </c>
+      <c r="F34" s="64">
+        <v>0.20076577777777777</v>
+      </c>
+      <c r="G34" s="64">
+        <v>0.11509022222222223</v>
+      </c>
+      <c r="H34" s="64">
+        <v>3.6404888888888889E-2</v>
+      </c>
+      <c r="I34" s="64">
+        <v>3.7341083333333337E-2</v>
+      </c>
+      <c r="J34" s="64">
+        <v>0.27628722222222224</v>
+      </c>
+      <c r="K34" s="64">
+        <v>3.0275000000000003E-2</v>
+      </c>
+      <c r="L34" s="64">
+        <v>0.10549144444444444</v>
+      </c>
+      <c r="M34" s="64">
+        <v>0.19646522222222224</v>
+      </c>
+      <c r="N34" s="64">
+        <v>0</v>
+      </c>
+      <c r="O34" s="64">
+        <v>0</v>
+      </c>
+      <c r="P34" s="64">
+        <v>4.3291777777777776E-2</v>
+      </c>
+      <c r="Q34" s="64">
+        <v>3.6779833333333331E-2</v>
+      </c>
+      <c r="R34" s="64">
+        <v>1.2754222222222222E-2</v>
+      </c>
+      <c r="V34" t="s">
+        <v>10</v>
+      </c>
+      <c r="W34" s="80">
+        <v>0.62775775</v>
+      </c>
+      <c r="X34" s="82">
+        <v>7.0921999999999999E-2</v>
+      </c>
+      <c r="Y34" s="82">
+        <v>1.1722E-2</v>
+      </c>
+      <c r="Z34" s="42">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="80">
+        <v>0.284721</v>
+      </c>
+      <c r="AB34" s="82">
+        <v>3.8297999999999999E-2</v>
+      </c>
+      <c r="AC34" s="82">
+        <v>2.3477999999999999E-2</v>
+      </c>
+      <c r="AD34" s="83">
+        <v>2.4086749999999997E-2</v>
+      </c>
+      <c r="AE34" s="80">
+        <v>0.38433200000000001</v>
+      </c>
+      <c r="AF34" s="82">
+        <v>4.4648E-2</v>
+      </c>
+      <c r="AG34" s="82">
+        <v>0.15301799999999999</v>
+      </c>
+      <c r="AH34" s="83">
+        <v>0.1312325</v>
+      </c>
+      <c r="AI34" s="42">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="42">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="82">
+        <v>6.3570000000000002E-2</v>
+      </c>
+      <c r="AL34" s="82">
+        <v>5.4125749999999993E-2</v>
+      </c>
+      <c r="AM34" s="83">
+        <v>8.0052500000000002E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="42">
-        <v>0.4940909</v>
-      </c>
-      <c r="C35" s="42">
-        <v>0.10458600000000001</v>
-      </c>
-      <c r="D35" s="42">
-        <v>1.7583599999999998E-2</v>
-      </c>
-      <c r="E35" s="42">
-        <v>0</v>
-      </c>
-      <c r="F35" s="42">
-        <v>0.20916129999999999</v>
-      </c>
-      <c r="G35" s="42">
-        <v>0.13205329999999998</v>
-      </c>
-      <c r="H35" s="42">
-        <v>3.5112200000000003E-2</v>
-      </c>
-      <c r="I35" s="42">
-        <v>3.6015649999999996E-2</v>
-      </c>
-      <c r="J35" s="42">
-        <v>0.28709170000000001</v>
-      </c>
-      <c r="K35" s="42">
-        <v>3.1712299999999999E-2</v>
-      </c>
-      <c r="L35" s="42">
-        <v>0.11024409999999998</v>
-      </c>
-      <c r="M35" s="42">
-        <v>0.18994195</v>
-      </c>
-      <c r="N35" s="42">
-        <v>0</v>
-      </c>
-      <c r="O35" s="42">
-        <v>0</v>
-      </c>
-      <c r="P35" s="42">
-        <v>4.5319600000000002E-2</v>
-      </c>
-      <c r="Q35" s="42">
-        <v>3.8514424999999998E-2</v>
-      </c>
-      <c r="R35" s="42">
-        <v>1.2279324999999999E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B35" s="64">
+        <v>0.47923902777777783</v>
+      </c>
+      <c r="C35" s="64">
+        <v>0.10832644444444445</v>
+      </c>
+      <c r="D35" s="64">
+        <v>1.8234888888888887E-2</v>
+      </c>
+      <c r="E35" s="64">
+        <v>0</v>
+      </c>
+      <c r="F35" s="64">
+        <v>0.20076577777777777</v>
+      </c>
+      <c r="G35" s="64">
+        <v>0.11509022222222223</v>
+      </c>
+      <c r="H35" s="64">
+        <v>3.6404888888888889E-2</v>
+      </c>
+      <c r="I35" s="64">
+        <v>3.7341083333333337E-2</v>
+      </c>
+      <c r="J35" s="64">
+        <v>0.27628722222222224</v>
+      </c>
+      <c r="K35" s="64">
+        <v>3.0275000000000003E-2</v>
+      </c>
+      <c r="L35" s="64">
+        <v>0.10549144444444444</v>
+      </c>
+      <c r="M35" s="64">
+        <v>0.19646522222222224</v>
+      </c>
+      <c r="N35" s="64">
+        <v>0</v>
+      </c>
+      <c r="O35" s="64">
+        <v>0</v>
+      </c>
+      <c r="P35" s="64">
+        <v>4.3291777777777776E-2</v>
+      </c>
+      <c r="Q35" s="64">
+        <v>3.6779833333333331E-2</v>
+      </c>
+      <c r="R35" s="64">
+        <v>1.2754222222222222E-2</v>
+      </c>
+      <c r="V35" t="s">
+        <v>11</v>
+      </c>
+      <c r="W35" s="80">
+        <v>0.62775775</v>
+      </c>
+      <c r="X35" s="82">
+        <v>7.0921999999999999E-2</v>
+      </c>
+      <c r="Y35" s="82">
+        <v>1.1722E-2</v>
+      </c>
+      <c r="Z35" s="42">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="80">
+        <v>0.284721</v>
+      </c>
+      <c r="AB35" s="82">
+        <v>3.8297999999999999E-2</v>
+      </c>
+      <c r="AC35" s="82">
+        <v>2.3477999999999999E-2</v>
+      </c>
+      <c r="AD35" s="83">
+        <v>2.4086749999999997E-2</v>
+      </c>
+      <c r="AE35" s="80">
+        <v>0.38433200000000001</v>
+      </c>
+      <c r="AF35" s="82">
+        <v>4.4648E-2</v>
+      </c>
+      <c r="AG35" s="82">
+        <v>0.15301799999999999</v>
+      </c>
+      <c r="AH35" s="83">
+        <v>0.1312325</v>
+      </c>
+      <c r="AI35" s="42">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="42">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="82">
+        <v>6.3570000000000002E-2</v>
+      </c>
+      <c r="AL35" s="82">
+        <v>5.4125749999999993E-2</v>
+      </c>
+      <c r="AM35" s="83">
+        <v>8.0052500000000002E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="42">
-        <v>0.4940909</v>
-      </c>
-      <c r="C36" s="42">
-        <v>0.10458600000000001</v>
-      </c>
-      <c r="D36" s="42">
-        <v>1.7583599999999998E-2</v>
-      </c>
-      <c r="E36" s="42">
-        <v>0</v>
-      </c>
-      <c r="F36" s="42">
-        <v>0.20916129999999999</v>
-      </c>
-      <c r="G36" s="42">
-        <v>0.13205329999999998</v>
-      </c>
-      <c r="H36" s="42">
-        <v>3.5112200000000003E-2</v>
-      </c>
-      <c r="I36" s="42">
-        <v>3.6015649999999996E-2</v>
-      </c>
-      <c r="J36" s="42">
-        <v>0.28709170000000001</v>
-      </c>
-      <c r="K36" s="42">
-        <v>3.1712299999999999E-2</v>
-      </c>
-      <c r="L36" s="42">
-        <v>0.11024409999999998</v>
-      </c>
-      <c r="M36" s="42">
-        <v>0.18994195</v>
-      </c>
-      <c r="N36" s="42">
-        <v>0</v>
-      </c>
-      <c r="O36" s="42">
-        <v>0</v>
-      </c>
-      <c r="P36" s="42">
-        <v>4.5319600000000002E-2</v>
-      </c>
-      <c r="Q36" s="42">
-        <v>3.8514424999999998E-2</v>
-      </c>
-      <c r="R36" s="42">
-        <v>1.2279324999999999E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B36" s="64">
+        <v>0.47923902777777783</v>
+      </c>
+      <c r="C36" s="64">
+        <v>0.10832644444444445</v>
+      </c>
+      <c r="D36" s="64">
+        <v>1.8234888888888887E-2</v>
+      </c>
+      <c r="E36" s="64">
+        <v>0</v>
+      </c>
+      <c r="F36" s="64">
+        <v>0.20076577777777777</v>
+      </c>
+      <c r="G36" s="64">
+        <v>0.11509022222222223</v>
+      </c>
+      <c r="H36" s="64">
+        <v>3.6404888888888889E-2</v>
+      </c>
+      <c r="I36" s="64">
+        <v>3.7341083333333337E-2</v>
+      </c>
+      <c r="J36" s="64">
+        <v>0.27628722222222224</v>
+      </c>
+      <c r="K36" s="64">
+        <v>3.0275000000000003E-2</v>
+      </c>
+      <c r="L36" s="64">
+        <v>0.10549144444444444</v>
+      </c>
+      <c r="M36" s="64">
+        <v>0.19646522222222224</v>
+      </c>
+      <c r="N36" s="64">
+        <v>0</v>
+      </c>
+      <c r="O36" s="64">
+        <v>0</v>
+      </c>
+      <c r="P36" s="64">
+        <v>4.3291777777777776E-2</v>
+      </c>
+      <c r="Q36" s="64">
+        <v>3.6779833333333331E-2</v>
+      </c>
+      <c r="R36" s="64">
+        <v>1.2754222222222222E-2</v>
+      </c>
+      <c r="V36" t="s">
+        <v>12</v>
+      </c>
+      <c r="W36" s="80">
+        <v>0.62775775</v>
+      </c>
+      <c r="X36" s="82">
+        <v>7.0921999999999999E-2</v>
+      </c>
+      <c r="Y36" s="82">
+        <v>1.1722E-2</v>
+      </c>
+      <c r="Z36" s="42">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="80">
+        <v>0.284721</v>
+      </c>
+      <c r="AB36" s="82">
+        <v>3.8297999999999999E-2</v>
+      </c>
+      <c r="AC36" s="82">
+        <v>2.3477999999999999E-2</v>
+      </c>
+      <c r="AD36" s="83">
+        <v>2.4086749999999997E-2</v>
+      </c>
+      <c r="AE36" s="80">
+        <v>0.38433200000000001</v>
+      </c>
+      <c r="AF36" s="82">
+        <v>4.4648E-2</v>
+      </c>
+      <c r="AG36" s="82">
+        <v>0.15301799999999999</v>
+      </c>
+      <c r="AH36" s="83">
+        <v>0.1312325</v>
+      </c>
+      <c r="AI36" s="42">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="42">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="82">
+        <v>6.3570000000000002E-2</v>
+      </c>
+      <c r="AL36" s="82">
+        <v>5.4125749999999993E-2</v>
+      </c>
+      <c r="AM36" s="83">
+        <v>8.0052500000000002E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="42">
-        <v>0.4940909</v>
-      </c>
-      <c r="C37" s="42">
-        <v>0.10458600000000001</v>
-      </c>
-      <c r="D37" s="42">
-        <v>1.7583599999999998E-2</v>
-      </c>
-      <c r="E37" s="42">
-        <v>0</v>
-      </c>
-      <c r="F37" s="42">
-        <v>0.20916129999999999</v>
-      </c>
-      <c r="G37" s="42">
-        <v>0.13205329999999998</v>
-      </c>
-      <c r="H37" s="42">
-        <v>3.5112200000000003E-2</v>
-      </c>
-      <c r="I37" s="42">
-        <v>3.6015649999999996E-2</v>
-      </c>
-      <c r="J37" s="42">
-        <v>0.28709170000000001</v>
-      </c>
-      <c r="K37" s="42">
-        <v>3.1712299999999999E-2</v>
-      </c>
-      <c r="L37" s="42">
-        <v>0.11024409999999998</v>
-      </c>
-      <c r="M37" s="42">
-        <v>0.18994195</v>
-      </c>
-      <c r="N37" s="42">
-        <v>0</v>
-      </c>
-      <c r="O37" s="42">
-        <v>0</v>
-      </c>
-      <c r="P37" s="42">
-        <v>4.5319600000000002E-2</v>
-      </c>
-      <c r="Q37" s="42">
-        <v>3.8514424999999998E-2</v>
-      </c>
-      <c r="R37" s="42">
-        <v>1.2279324999999999E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B37" s="64">
+        <v>0.47923902777777783</v>
+      </c>
+      <c r="C37" s="64">
+        <v>0.10832644444444445</v>
+      </c>
+      <c r="D37" s="64">
+        <v>1.8234888888888887E-2</v>
+      </c>
+      <c r="E37" s="64">
+        <v>0</v>
+      </c>
+      <c r="F37" s="64">
+        <v>0.20076577777777777</v>
+      </c>
+      <c r="G37" s="64">
+        <v>0.11509022222222223</v>
+      </c>
+      <c r="H37" s="64">
+        <v>3.6404888888888889E-2</v>
+      </c>
+      <c r="I37" s="64">
+        <v>3.7341083333333337E-2</v>
+      </c>
+      <c r="J37" s="64">
+        <v>0.27628722222222224</v>
+      </c>
+      <c r="K37" s="64">
+        <v>3.0275000000000003E-2</v>
+      </c>
+      <c r="L37" s="64">
+        <v>0.10549144444444444</v>
+      </c>
+      <c r="M37" s="64">
+        <v>0.19646522222222224</v>
+      </c>
+      <c r="N37" s="64">
+        <v>0</v>
+      </c>
+      <c r="O37" s="64">
+        <v>0</v>
+      </c>
+      <c r="P37" s="64">
+        <v>4.3291777777777776E-2</v>
+      </c>
+      <c r="Q37" s="64">
+        <v>3.6779833333333331E-2</v>
+      </c>
+      <c r="R37" s="64">
+        <v>1.2754222222222222E-2</v>
+      </c>
+      <c r="V37" t="s">
+        <v>13</v>
+      </c>
+      <c r="W37" s="80">
+        <v>0.62775775</v>
+      </c>
+      <c r="X37" s="82">
+        <v>7.0921999999999999E-2</v>
+      </c>
+      <c r="Y37" s="82">
+        <v>1.1722E-2</v>
+      </c>
+      <c r="Z37" s="42">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="80">
+        <v>0.284721</v>
+      </c>
+      <c r="AB37" s="82">
+        <v>3.8297999999999999E-2</v>
+      </c>
+      <c r="AC37" s="82">
+        <v>2.3477999999999999E-2</v>
+      </c>
+      <c r="AD37" s="83">
+        <v>2.4086749999999997E-2</v>
+      </c>
+      <c r="AE37" s="80">
+        <v>0.38433200000000001</v>
+      </c>
+      <c r="AF37" s="82">
+        <v>4.4648E-2</v>
+      </c>
+      <c r="AG37" s="82">
+        <v>0.15301799999999999</v>
+      </c>
+      <c r="AH37" s="83">
+        <v>0.1312325</v>
+      </c>
+      <c r="AI37" s="42">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="42">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="82">
+        <v>6.3570000000000002E-2</v>
+      </c>
+      <c r="AL37" s="82">
+        <v>5.4125749999999993E-2</v>
+      </c>
+      <c r="AM37" s="83">
+        <v>8.0052500000000002E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>232</v>
       </c>
-      <c r="B38" s="42">
-        <v>0.30787025000000001</v>
-      </c>
-      <c r="C38" s="42">
-        <v>8.1540599999999991E-2</v>
-      </c>
-      <c r="D38" s="42">
-        <v>5.8689000000000007E-3</v>
-      </c>
-      <c r="E38" s="42">
-        <v>0</v>
-      </c>
-      <c r="F38" s="42">
-        <v>0.20916129999999999</v>
-      </c>
-      <c r="G38" s="42">
-        <v>0.13205329999999998</v>
-      </c>
-      <c r="H38" s="42">
-        <v>4.6760900000000001E-2</v>
-      </c>
-      <c r="I38" s="42">
-        <v>3.8725999999999997E-2</v>
-      </c>
-      <c r="J38" s="42">
-        <v>0.28709170000000001</v>
-      </c>
-      <c r="K38" s="42">
-        <v>3.1712299999999999E-2</v>
-      </c>
-      <c r="L38" s="42">
-        <v>0.11024409999999998</v>
-      </c>
-      <c r="M38" s="42">
-        <v>0.25149697500000001</v>
-      </c>
-      <c r="N38" s="42">
-        <v>0</v>
-      </c>
-      <c r="O38" s="42">
-        <v>0</v>
-      </c>
-      <c r="P38" s="42">
-        <v>1.8118849999999999E-2</v>
-      </c>
-      <c r="Q38" s="42">
-        <v>1.1322249999999999E-2</v>
-      </c>
-      <c r="R38" s="42">
-        <v>2.8196999999999996E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B38" s="64">
+        <v>0.29655408333333333</v>
+      </c>
+      <c r="C38" s="64">
+        <v>8.4485888888888888E-2</v>
+      </c>
+      <c r="D38" s="64">
+        <v>6.0874444444444448E-3</v>
+      </c>
+      <c r="E38" s="64">
+        <v>0</v>
+      </c>
+      <c r="F38" s="64">
+        <v>0.20076577777777777</v>
+      </c>
+      <c r="G38" s="64">
+        <v>0.11509022222222223</v>
+      </c>
+      <c r="H38" s="64">
+        <v>4.8474333333333335E-2</v>
+      </c>
+      <c r="I38" s="64">
+        <v>4.0149666666666667E-2</v>
+      </c>
+      <c r="J38" s="64">
+        <v>0.27628722222222224</v>
+      </c>
+      <c r="K38" s="64">
+        <v>3.0275000000000003E-2</v>
+      </c>
+      <c r="L38" s="64">
+        <v>0.10549144444444444</v>
+      </c>
+      <c r="M38" s="64">
+        <v>0.25986325000000005</v>
+      </c>
+      <c r="N38" s="64">
+        <v>0</v>
+      </c>
+      <c r="O38" s="64">
+        <v>0</v>
+      </c>
+      <c r="P38" s="64">
+        <v>1.7293166666666665E-2</v>
+      </c>
+      <c r="Q38" s="64">
+        <v>1.0802944444444445E-2</v>
+      </c>
+      <c r="R38" s="64">
+        <v>2.9281861111111109E-2</v>
+      </c>
+      <c r="V38" t="s">
+        <v>232</v>
+      </c>
+      <c r="W38" s="80">
+        <v>0.40971574999999999</v>
+      </c>
+      <c r="X38" s="82">
+        <v>5.5032999999999999E-2</v>
+      </c>
+      <c r="Y38" s="82">
+        <v>3.9020000000000001E-3</v>
+      </c>
+      <c r="Z38" s="42">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="80">
+        <v>0.284721</v>
+      </c>
+      <c r="AB38" s="82">
+        <v>3.8297999999999999E-2</v>
+      </c>
+      <c r="AC38" s="82">
+        <v>3.134E-2</v>
+      </c>
+      <c r="AD38" s="83">
+        <v>2.5912999999999999E-2</v>
+      </c>
+      <c r="AE38" s="80">
+        <v>0.38433200000000001</v>
+      </c>
+      <c r="AF38" s="82">
+        <v>4.4648E-2</v>
+      </c>
+      <c r="AG38" s="82">
+        <v>0.15301799999999999</v>
+      </c>
+      <c r="AH38" s="83">
+        <v>0.17620050000000001</v>
+      </c>
+      <c r="AI38" s="42">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="42">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="82">
+        <v>2.5549999999999996E-2</v>
+      </c>
+      <c r="AL38" s="82">
+        <v>1.5996E-2</v>
+      </c>
+      <c r="AM38" s="83">
+        <v>1.8433249999999998E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>233</v>
       </c>
-      <c r="B39" s="42">
-        <v>0.30787025000000001</v>
-      </c>
-      <c r="C39" s="42">
-        <v>8.1540599999999991E-2</v>
-      </c>
-      <c r="D39" s="42">
-        <v>5.8689000000000007E-3</v>
-      </c>
-      <c r="E39" s="42">
-        <v>0</v>
-      </c>
-      <c r="F39" s="42">
-        <v>0.20916129999999999</v>
-      </c>
-      <c r="G39" s="42">
-        <v>0.13205329999999998</v>
-      </c>
-      <c r="H39" s="42">
-        <v>4.6760900000000001E-2</v>
-      </c>
-      <c r="I39" s="42">
-        <v>3.8725999999999997E-2</v>
-      </c>
-      <c r="J39" s="42">
-        <v>0.28709170000000001</v>
-      </c>
-      <c r="K39" s="42">
-        <v>3.1712299999999999E-2</v>
-      </c>
-      <c r="L39" s="42">
-        <v>0.11024409999999998</v>
-      </c>
-      <c r="M39" s="42">
-        <v>0.25149697500000001</v>
-      </c>
-      <c r="N39" s="42">
-        <v>0</v>
-      </c>
-      <c r="O39" s="42">
-        <v>0</v>
-      </c>
-      <c r="P39" s="42">
-        <v>1.8118849999999999E-2</v>
-      </c>
-      <c r="Q39" s="42">
-        <v>1.1322249999999999E-2</v>
-      </c>
-      <c r="R39" s="42">
-        <v>2.8196999999999996E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B39" s="64">
+        <v>0.29655408333333333</v>
+      </c>
+      <c r="C39" s="64">
+        <v>8.4485888888888888E-2</v>
+      </c>
+      <c r="D39" s="64">
+        <v>6.0874444444444448E-3</v>
+      </c>
+      <c r="E39" s="64">
+        <v>0</v>
+      </c>
+      <c r="F39" s="64">
+        <v>0.20076577777777777</v>
+      </c>
+      <c r="G39" s="64">
+        <v>0.11509022222222223</v>
+      </c>
+      <c r="H39" s="64">
+        <v>4.8474333333333335E-2</v>
+      </c>
+      <c r="I39" s="64">
+        <v>4.0149666666666667E-2</v>
+      </c>
+      <c r="J39" s="64">
+        <v>0.27628722222222224</v>
+      </c>
+      <c r="K39" s="64">
+        <v>3.0275000000000003E-2</v>
+      </c>
+      <c r="L39" s="64">
+        <v>0.10549144444444444</v>
+      </c>
+      <c r="M39" s="64">
+        <v>0.25986325000000005</v>
+      </c>
+      <c r="N39" s="64">
+        <v>0</v>
+      </c>
+      <c r="O39" s="64">
+        <v>0</v>
+      </c>
+      <c r="P39" s="64">
+        <v>1.7293166666666665E-2</v>
+      </c>
+      <c r="Q39" s="64">
+        <v>1.0802944444444445E-2</v>
+      </c>
+      <c r="R39" s="64">
+        <v>2.9281861111111109E-2</v>
+      </c>
+      <c r="V39" t="s">
+        <v>233</v>
+      </c>
+      <c r="W39" s="80">
+        <v>0.40971574999999999</v>
+      </c>
+      <c r="X39" s="82">
+        <v>5.5032999999999999E-2</v>
+      </c>
+      <c r="Y39" s="82">
+        <v>3.9020000000000001E-3</v>
+      </c>
+      <c r="Z39" s="42">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="80">
+        <v>0.284721</v>
+      </c>
+      <c r="AB39" s="82">
+        <v>3.8297999999999999E-2</v>
+      </c>
+      <c r="AC39" s="82">
+        <v>3.134E-2</v>
+      </c>
+      <c r="AD39" s="83">
+        <v>2.5912999999999999E-2</v>
+      </c>
+      <c r="AE39" s="80">
+        <v>0.38433200000000001</v>
+      </c>
+      <c r="AF39" s="82">
+        <v>4.4648E-2</v>
+      </c>
+      <c r="AG39" s="82">
+        <v>0.15301799999999999</v>
+      </c>
+      <c r="AH39" s="83">
+        <v>0.17620050000000001</v>
+      </c>
+      <c r="AI39" s="42">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="42">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="82">
+        <v>2.5549999999999996E-2</v>
+      </c>
+      <c r="AL39" s="82">
+        <v>1.5996E-2</v>
+      </c>
+      <c r="AM39" s="83">
+        <v>1.8433249999999998E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>253</v>
       </c>
-      <c r="B40" s="42">
-        <v>0.30787025000000001</v>
-      </c>
-      <c r="C40" s="42">
-        <v>8.1540599999999991E-2</v>
-      </c>
-      <c r="D40" s="42">
-        <v>5.8689000000000007E-3</v>
-      </c>
-      <c r="E40" s="42">
-        <v>0</v>
-      </c>
-      <c r="F40" s="42">
-        <v>0.20916129999999999</v>
-      </c>
-      <c r="G40" s="42">
-        <v>0.13205329999999998</v>
-      </c>
-      <c r="H40" s="42">
-        <v>4.6760900000000001E-2</v>
-      </c>
-      <c r="I40" s="42">
-        <v>3.8725999999999997E-2</v>
-      </c>
-      <c r="J40" s="42">
-        <v>0.28709170000000001</v>
-      </c>
-      <c r="K40" s="42">
-        <v>3.1712299999999999E-2</v>
-      </c>
-      <c r="L40" s="42">
-        <v>0.11024409999999998</v>
-      </c>
-      <c r="M40" s="42">
-        <v>0.25149697500000001</v>
-      </c>
-      <c r="N40" s="42">
-        <v>0</v>
-      </c>
-      <c r="O40" s="42">
-        <v>0</v>
-      </c>
-      <c r="P40" s="42">
-        <v>1.8118849999999999E-2</v>
-      </c>
-      <c r="Q40" s="42">
-        <v>1.1322249999999999E-2</v>
-      </c>
-      <c r="R40" s="42">
-        <v>2.8196999999999996E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B40" s="64">
+        <v>0.29655408333333333</v>
+      </c>
+      <c r="C40" s="64">
+        <v>8.4485888888888888E-2</v>
+      </c>
+      <c r="D40" s="64">
+        <v>6.0874444444444448E-3</v>
+      </c>
+      <c r="E40" s="64">
+        <v>0</v>
+      </c>
+      <c r="F40" s="64">
+        <v>0.20076577777777777</v>
+      </c>
+      <c r="G40" s="64">
+        <v>0.11509022222222223</v>
+      </c>
+      <c r="H40" s="64">
+        <v>4.8474333333333335E-2</v>
+      </c>
+      <c r="I40" s="64">
+        <v>4.0149666666666667E-2</v>
+      </c>
+      <c r="J40" s="64">
+        <v>0.27628722222222224</v>
+      </c>
+      <c r="K40" s="64">
+        <v>3.0275000000000003E-2</v>
+      </c>
+      <c r="L40" s="64">
+        <v>0.10549144444444444</v>
+      </c>
+      <c r="M40" s="64">
+        <v>0.25986325000000005</v>
+      </c>
+      <c r="N40" s="64">
+        <v>0</v>
+      </c>
+      <c r="O40" s="64">
+        <v>0</v>
+      </c>
+      <c r="P40" s="64">
+        <v>1.7293166666666665E-2</v>
+      </c>
+      <c r="Q40" s="64">
+        <v>1.0802944444444445E-2</v>
+      </c>
+      <c r="R40" s="64">
+        <v>2.9281861111111109E-2</v>
+      </c>
+      <c r="V40" t="s">
+        <v>253</v>
+      </c>
+      <c r="W40" s="80">
+        <v>0.40971574999999999</v>
+      </c>
+      <c r="X40" s="82">
+        <v>5.5032999999999999E-2</v>
+      </c>
+      <c r="Y40" s="82">
+        <v>3.9020000000000001E-3</v>
+      </c>
+      <c r="Z40" s="42">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="80">
+        <v>0.284721</v>
+      </c>
+      <c r="AB40" s="82">
+        <v>3.8297999999999999E-2</v>
+      </c>
+      <c r="AC40" s="82">
+        <v>3.134E-2</v>
+      </c>
+      <c r="AD40" s="83">
+        <v>2.5912999999999999E-2</v>
+      </c>
+      <c r="AE40" s="80">
+        <v>0.38433200000000001</v>
+      </c>
+      <c r="AF40" s="82">
+        <v>4.4648E-2</v>
+      </c>
+      <c r="AG40" s="82">
+        <v>0.15301799999999999</v>
+      </c>
+      <c r="AH40" s="83">
+        <v>0.17620050000000001</v>
+      </c>
+      <c r="AI40" s="42">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="42">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="82">
+        <v>2.5549999999999996E-2</v>
+      </c>
+      <c r="AL40" s="82">
+        <v>1.5996E-2</v>
+      </c>
+      <c r="AM40" s="83">
+        <v>1.8433249999999998E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>254</v>
       </c>
-      <c r="B41" s="42">
-        <v>0.30787025000000001</v>
-      </c>
-      <c r="C41" s="42">
-        <v>8.1540599999999991E-2</v>
-      </c>
-      <c r="D41" s="42">
-        <v>5.8689000000000007E-3</v>
-      </c>
-      <c r="E41" s="42">
-        <v>0</v>
-      </c>
-      <c r="F41" s="42">
-        <v>0.20916129999999999</v>
-      </c>
-      <c r="G41" s="42">
-        <v>0.13205329999999998</v>
-      </c>
-      <c r="H41" s="42">
-        <v>4.6760900000000001E-2</v>
-      </c>
-      <c r="I41" s="42">
-        <v>3.8725999999999997E-2</v>
-      </c>
-      <c r="J41" s="42">
-        <v>0.28709170000000001</v>
-      </c>
-      <c r="K41" s="42">
-        <v>3.1712299999999999E-2</v>
-      </c>
-      <c r="L41" s="42">
-        <v>0.11024409999999998</v>
-      </c>
-      <c r="M41" s="42">
-        <v>0.25149697500000001</v>
-      </c>
-      <c r="N41" s="42">
-        <v>0</v>
-      </c>
-      <c r="O41" s="42">
-        <v>0</v>
-      </c>
-      <c r="P41" s="42">
-        <v>1.8118849999999999E-2</v>
-      </c>
-      <c r="Q41" s="42">
-        <v>1.1322249999999999E-2</v>
-      </c>
-      <c r="R41" s="42">
-        <v>2.8196999999999996E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B41" s="64">
+        <v>0.29655408333333333</v>
+      </c>
+      <c r="C41" s="64">
+        <v>8.4485888888888888E-2</v>
+      </c>
+      <c r="D41" s="64">
+        <v>6.0874444444444448E-3</v>
+      </c>
+      <c r="E41" s="64">
+        <v>0</v>
+      </c>
+      <c r="F41" s="64">
+        <v>0.20076577777777777</v>
+      </c>
+      <c r="G41" s="64">
+        <v>0.11509022222222223</v>
+      </c>
+      <c r="H41" s="64">
+        <v>4.8474333333333335E-2</v>
+      </c>
+      <c r="I41" s="64">
+        <v>4.0149666666666667E-2</v>
+      </c>
+      <c r="J41" s="64">
+        <v>0.27628722222222224</v>
+      </c>
+      <c r="K41" s="64">
+        <v>3.0275000000000003E-2</v>
+      </c>
+      <c r="L41" s="64">
+        <v>0.10549144444444444</v>
+      </c>
+      <c r="M41" s="64">
+        <v>0.25986325000000005</v>
+      </c>
+      <c r="N41" s="64">
+        <v>0</v>
+      </c>
+      <c r="O41" s="64">
+        <v>0</v>
+      </c>
+      <c r="P41" s="64">
+        <v>1.7293166666666665E-2</v>
+      </c>
+      <c r="Q41" s="64">
+        <v>1.0802944444444445E-2</v>
+      </c>
+      <c r="R41" s="64">
+        <v>2.9281861111111109E-2</v>
+      </c>
+      <c r="V41" t="s">
+        <v>254</v>
+      </c>
+      <c r="W41" s="80">
+        <v>0.40971574999999999</v>
+      </c>
+      <c r="X41" s="82">
+        <v>5.5032999999999999E-2</v>
+      </c>
+      <c r="Y41" s="82">
+        <v>3.9020000000000001E-3</v>
+      </c>
+      <c r="Z41" s="42">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="80">
+        <v>0.284721</v>
+      </c>
+      <c r="AB41" s="82">
+        <v>3.8297999999999999E-2</v>
+      </c>
+      <c r="AC41" s="82">
+        <v>3.134E-2</v>
+      </c>
+      <c r="AD41" s="83">
+        <v>2.5912999999999999E-2</v>
+      </c>
+      <c r="AE41" s="80">
+        <v>0.38433200000000001</v>
+      </c>
+      <c r="AF41" s="82">
+        <v>4.4648E-2</v>
+      </c>
+      <c r="AG41" s="82">
+        <v>0.15301799999999999</v>
+      </c>
+      <c r="AH41" s="83">
+        <v>0.17620050000000001</v>
+      </c>
+      <c r="AI41" s="42">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="42">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="82">
+        <v>2.5549999999999996E-2</v>
+      </c>
+      <c r="AL41" s="82">
+        <v>1.5996E-2</v>
+      </c>
+      <c r="AM41" s="83">
+        <v>1.8433249999999998E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="85" t="s">
         <v>307</v>
       </c>
-      <c r="B42" s="42">
-        <v>0.27330569999999998</v>
-      </c>
-      <c r="C42" s="42">
-        <v>8.1540599999999991E-2</v>
-      </c>
-      <c r="D42" s="42">
-        <v>5.8689000000000007E-3</v>
-      </c>
-      <c r="E42" s="42">
-        <v>0</v>
-      </c>
-      <c r="F42" s="42">
-        <v>0.20916129999999999</v>
-      </c>
-      <c r="G42" s="42">
-        <v>0.13205329999999998</v>
-      </c>
-      <c r="H42" s="42">
-        <v>4.6760900000000001E-2</v>
-      </c>
-      <c r="I42" s="42">
-        <v>3.8725999999999997E-2</v>
-      </c>
-      <c r="J42" s="42">
-        <v>0.28709169999999995</v>
-      </c>
-      <c r="K42" s="42">
-        <v>3.1712299999999999E-2</v>
-      </c>
-      <c r="L42" s="42">
-        <v>0.11024409999999998</v>
-      </c>
-      <c r="M42" s="42">
-        <v>0.28836309999999998</v>
-      </c>
-      <c r="N42" s="42">
-        <v>0</v>
-      </c>
-      <c r="O42" s="42">
-        <v>0</v>
-      </c>
-      <c r="P42" s="42">
-        <v>9.0574999999999996E-3</v>
-      </c>
-      <c r="Q42" s="42">
-        <v>6.0382333333333336E-3</v>
-      </c>
-      <c r="R42" s="42">
-        <v>3.323453333333333E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B42" s="64">
+        <v>0.26289588888888893</v>
+      </c>
+      <c r="C42" s="64">
+        <v>8.4485888888888888E-2</v>
+      </c>
+      <c r="D42" s="64">
+        <v>6.0874444444444448E-3</v>
+      </c>
+      <c r="E42" s="64">
+        <v>0</v>
+      </c>
+      <c r="F42" s="64">
+        <v>0.20076577777777777</v>
+      </c>
+      <c r="G42" s="64">
+        <v>0.11509022222222222</v>
+      </c>
+      <c r="H42" s="64">
+        <v>4.8474333333333335E-2</v>
+      </c>
+      <c r="I42" s="64">
+        <v>4.0149666666666674E-2</v>
+      </c>
+      <c r="J42" s="64">
+        <v>0.27628722222222224</v>
+      </c>
+      <c r="K42" s="64">
+        <v>3.0275000000000003E-2</v>
+      </c>
+      <c r="L42" s="64">
+        <v>0.10549144444444444</v>
+      </c>
+      <c r="M42" s="64">
+        <v>0.29776118518518513</v>
+      </c>
+      <c r="N42" s="64">
+        <v>0</v>
+      </c>
+      <c r="O42" s="64">
+        <v>0</v>
+      </c>
+      <c r="P42" s="64">
+        <v>8.6414444444444447E-3</v>
+      </c>
+      <c r="Q42" s="64">
+        <v>5.7604814814814819E-3</v>
+      </c>
+      <c r="R42" s="64">
+        <v>3.4510925925925924E-2</v>
+      </c>
+      <c r="V42" s="85" t="s">
+        <v>307</v>
+      </c>
+      <c r="W42" s="86">
+        <v>0.36699399999999999</v>
+      </c>
+      <c r="X42" s="88">
+        <v>5.5032999999999999E-2</v>
+      </c>
+      <c r="Y42" s="88">
+        <v>3.9020000000000005E-3</v>
+      </c>
+      <c r="Z42" s="42">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="86">
+        <v>0.284721</v>
+      </c>
+      <c r="AB42" s="88">
+        <v>3.8297999999999999E-2</v>
+      </c>
+      <c r="AC42" s="88">
+        <v>3.134E-2</v>
+      </c>
+      <c r="AD42" s="89">
+        <v>2.5913000000000002E-2</v>
+      </c>
+      <c r="AE42" s="86">
+        <v>0.38433199999999995</v>
+      </c>
+      <c r="AF42" s="88">
+        <v>4.4648E-2</v>
+      </c>
+      <c r="AG42" s="88">
+        <v>0.15301799999999999</v>
+      </c>
+      <c r="AH42" s="89">
+        <v>0.20378033333333334</v>
+      </c>
+      <c r="AI42" s="42">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="42">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="88">
+        <v>1.2801999999999999E-2</v>
+      </c>
+      <c r="AL42" s="88">
+        <v>8.5379999999999987E-3</v>
+      </c>
+      <c r="AM42" s="89">
+        <v>2.1746999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="B43" s="42">
-        <v>0.27330569999999998</v>
-      </c>
-      <c r="C43" s="42">
-        <v>8.1540599999999991E-2</v>
-      </c>
-      <c r="D43" s="42">
-        <v>5.8689000000000007E-3</v>
-      </c>
-      <c r="E43" s="42">
-        <v>0</v>
-      </c>
-      <c r="F43" s="42">
-        <v>0.20916129999999999</v>
-      </c>
-      <c r="G43" s="42">
-        <v>0.13205329999999998</v>
-      </c>
-      <c r="H43" s="42">
-        <v>4.6760900000000001E-2</v>
-      </c>
-      <c r="I43" s="42">
-        <v>3.8725999999999997E-2</v>
-      </c>
-      <c r="J43" s="42">
-        <v>0.28709169999999995</v>
-      </c>
-      <c r="K43" s="42">
-        <v>3.1712299999999999E-2</v>
-      </c>
-      <c r="L43" s="42">
-        <v>0.11024409999999998</v>
-      </c>
-      <c r="M43" s="42">
-        <v>0.28836309999999998</v>
-      </c>
-      <c r="N43" s="42">
-        <v>0</v>
-      </c>
-      <c r="O43" s="42">
-        <v>0</v>
-      </c>
-      <c r="P43" s="42">
-        <v>9.0574999999999996E-3</v>
-      </c>
-      <c r="Q43" s="42">
-        <v>6.0382333333333336E-3</v>
-      </c>
-      <c r="R43" s="42">
-        <v>3.323453333333333E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B43" s="64">
+        <v>0.26289588888888893</v>
+      </c>
+      <c r="C43" s="64">
+        <v>8.4485888888888888E-2</v>
+      </c>
+      <c r="D43" s="64">
+        <v>6.0874444444444448E-3</v>
+      </c>
+      <c r="E43" s="64">
+        <v>0</v>
+      </c>
+      <c r="F43" s="64">
+        <v>0.20076577777777777</v>
+      </c>
+      <c r="G43" s="64">
+        <v>0.11509022222222222</v>
+      </c>
+      <c r="H43" s="64">
+        <v>4.8474333333333335E-2</v>
+      </c>
+      <c r="I43" s="64">
+        <v>4.0149666666666674E-2</v>
+      </c>
+      <c r="J43" s="64">
+        <v>0.27628722222222224</v>
+      </c>
+      <c r="K43" s="64">
+        <v>3.0275000000000003E-2</v>
+      </c>
+      <c r="L43" s="64">
+        <v>0.10549144444444444</v>
+      </c>
+      <c r="M43" s="64">
+        <v>0.29776118518518513</v>
+      </c>
+      <c r="N43" s="64">
+        <v>0</v>
+      </c>
+      <c r="O43" s="64">
+        <v>0</v>
+      </c>
+      <c r="P43" s="64">
+        <v>8.6414444444444447E-3</v>
+      </c>
+      <c r="Q43" s="64">
+        <v>5.7604814814814819E-3</v>
+      </c>
+      <c r="R43" s="64">
+        <v>3.4510925925925924E-2</v>
+      </c>
+      <c r="V43" s="91" t="s">
+        <v>308</v>
+      </c>
+      <c r="W43" s="86">
+        <v>0.36699399999999999</v>
+      </c>
+      <c r="X43" s="88">
+        <v>5.5032999999999999E-2</v>
+      </c>
+      <c r="Y43" s="88">
+        <v>3.9020000000000005E-3</v>
+      </c>
+      <c r="Z43" s="42">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="86">
+        <v>0.284721</v>
+      </c>
+      <c r="AB43" s="88">
+        <v>3.8297999999999999E-2</v>
+      </c>
+      <c r="AC43" s="88">
+        <v>3.134E-2</v>
+      </c>
+      <c r="AD43" s="89">
+        <v>2.5913000000000002E-2</v>
+      </c>
+      <c r="AE43" s="86">
+        <v>0.38433199999999995</v>
+      </c>
+      <c r="AF43" s="88">
+        <v>4.4648E-2</v>
+      </c>
+      <c r="AG43" s="88">
+        <v>0.15301799999999999</v>
+      </c>
+      <c r="AH43" s="89">
+        <v>0.20378033333333334</v>
+      </c>
+      <c r="AI43" s="42">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="42">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="88">
+        <v>1.2801999999999999E-2</v>
+      </c>
+      <c r="AL43" s="88">
+        <v>8.5379999999999987E-3</v>
+      </c>
+      <c r="AM43" s="89">
+        <v>2.1746999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.35">
       <c r="K44" s="64"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K45" s="64"/>
-    </row>
-    <row r="46" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K46" s="64"/>
-    </row>
-    <row r="47" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="50"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="D47" s="53"/>
-      <c r="H47" s="64"/>
-      <c r="K47" s="64"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="D48" s="57">
-        <v>0.6</v>
-      </c>
-      <c r="H48" s="64"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="54" t="s">
-        <v>241</v>
-      </c>
-      <c r="D49" s="58">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H49" s="64"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="D50" s="58">
-        <v>0.45</v>
-      </c>
-      <c r="H50" s="64"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="49"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="D51" s="59">
-        <v>0.3</v>
-      </c>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H52" s="64"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="64"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="64"/>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>333</v>
+      </c>
+      <c r="V45" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="F46" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="G46" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="H46" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="I46" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="V46" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="W46" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="X46" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y46" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z46" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="AA46" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB46" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="AC46" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD46" s="41" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>309</v>
+      </c>
+      <c r="B47" s="42">
+        <f t="array" ref="B47:B62">((C28:C43+D28:D43) +C28:C43)/2</f>
+        <v>0.22094411111111109</v>
+      </c>
+      <c r="C47" s="42">
+        <f t="array" ref="C47:C62">(H28:H43*2+I28:I43)/2</f>
+        <v>4.7351333333333336E-2</v>
+      </c>
+      <c r="D47" s="42">
+        <v>0.12019611111111113</v>
+      </c>
+      <c r="E47" s="42">
+        <v>1.2063703703703702E-3</v>
+      </c>
+      <c r="F47" s="42">
+        <v>0.63507222222222226</v>
+      </c>
+      <c r="G47" s="42">
+        <f t="array" ref="G47:G62">(F28:F43*2+G28:G43)/2</f>
+        <v>0.25831088888888887</v>
+      </c>
+      <c r="H47" s="42">
+        <f t="array" ref="H47:H62">(L28:L43+2*J28:J43)/2</f>
+        <v>0.32903294444444448</v>
+      </c>
+      <c r="I47" s="42">
+        <f t="array" ref="I47:I62">(Q28:Q43+2*P28:P43)/2</f>
+        <v>8.2277000000000003E-2</v>
+      </c>
+      <c r="V47" t="s">
+        <v>309</v>
+      </c>
+      <c r="W47" s="42">
+        <f t="array" ref="W47:W62">((X28:X43+Y28:Y43) +X28:X43)/2</f>
+        <v>0.14676349999999999</v>
+      </c>
+      <c r="X47" s="42">
+        <f t="array" ref="X47:X62">(AC28:AC43*2+AD28:AD43)/2</f>
+        <v>3.0508500000000001E-2</v>
+      </c>
+      <c r="Y47" s="42">
+        <v>0.12019611111111113</v>
+      </c>
+      <c r="Z47" s="42">
+        <v>1.2063703703703702E-3</v>
+      </c>
+      <c r="AA47" s="42">
+        <v>0.63507222222222226</v>
+      </c>
+      <c r="AB47" s="42">
+        <f t="array" ref="AB47:AB62">(AA28:AA43*2+AB28:AB43)/2</f>
+        <v>0.30386999999999997</v>
+      </c>
+      <c r="AC47" s="42">
+        <f t="array" ref="AC47:AC62">(AG28:AG43+2*AE28:AE43)/2</f>
+        <v>0.46084099999999995</v>
+      </c>
+      <c r="AD47" s="42">
+        <f t="array" ref="AD47:AD62">(AL28:AL43+2*AK28:AK43)/2</f>
+        <v>0.12066450000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B48" s="42">
+        <v>0.22094411111111109</v>
+      </c>
+      <c r="C48" s="42">
+        <v>4.7351333333333336E-2</v>
+      </c>
+      <c r="D48" s="42">
+        <v>0.12019611111111113</v>
+      </c>
+      <c r="E48" s="42">
+        <v>1.2063703703703702E-3</v>
+      </c>
+      <c r="F48" s="42">
+        <v>0.63507222222222226</v>
+      </c>
+      <c r="G48" s="42">
+        <v>0.25831088888888887</v>
+      </c>
+      <c r="H48" s="42">
+        <v>0.32903294444444448</v>
+      </c>
+      <c r="I48" s="42">
+        <v>8.2277000000000003E-2</v>
+      </c>
+      <c r="V48" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="W48" s="42">
+        <v>0.14676349999999999</v>
+      </c>
+      <c r="X48" s="42">
+        <v>3.0508500000000001E-2</v>
+      </c>
+      <c r="Y48" s="42">
+        <v>0.12019611111111113</v>
+      </c>
+      <c r="Z48" s="42">
+        <v>1.2063703703703702E-3</v>
+      </c>
+      <c r="AA48" s="42">
+        <v>0.63507222222222226</v>
+      </c>
+      <c r="AB48" s="42">
+        <v>0.30386999999999997</v>
+      </c>
+      <c r="AC48" s="42">
+        <v>0.46084099999999995</v>
+      </c>
+      <c r="AD48" s="42">
+        <v>0.12066450000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A49" s="71" t="s">
+        <v>305</v>
+      </c>
+      <c r="B49" s="42">
+        <v>0.22094411111111109</v>
+      </c>
+      <c r="C49" s="42">
+        <v>4.7351333333333336E-2</v>
+      </c>
+      <c r="D49" s="42">
+        <v>0.12019611111111113</v>
+      </c>
+      <c r="E49" s="42">
+        <v>1.2063703703703702E-3</v>
+      </c>
+      <c r="F49" s="42">
+        <v>0.63507222222222226</v>
+      </c>
+      <c r="G49" s="42">
+        <v>0.25831088888888887</v>
+      </c>
+      <c r="H49" s="42">
+        <v>0.32903294444444448</v>
+      </c>
+      <c r="I49" s="42">
+        <v>8.2277000000000003E-2</v>
+      </c>
+      <c r="V49" s="71" t="s">
+        <v>305</v>
+      </c>
+      <c r="W49" s="42">
+        <v>0.14676349999999999</v>
+      </c>
+      <c r="X49" s="42">
+        <v>3.0508500000000001E-2</v>
+      </c>
+      <c r="Y49" s="42">
+        <v>0.12019611111111113</v>
+      </c>
+      <c r="Z49" s="42">
+        <v>1.2063703703703702E-3</v>
+      </c>
+      <c r="AA49" s="42">
+        <v>0.63507222222222226</v>
+      </c>
+      <c r="AB49" s="42">
+        <v>0.30386999999999997</v>
+      </c>
+      <c r="AC49" s="42">
+        <v>0.46084099999999995</v>
+      </c>
+      <c r="AD49" s="42">
+        <v>0.12066450000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>229</v>
+      </c>
+      <c r="B50" s="42">
+        <v>0.22094411111111109</v>
+      </c>
+      <c r="C50" s="42">
+        <v>4.7351333333333336E-2</v>
+      </c>
+      <c r="D50" s="42">
+        <v>0.12019611111111113</v>
+      </c>
+      <c r="E50" s="42">
+        <v>1.2063703703703702E-3</v>
+      </c>
+      <c r="F50" s="42">
+        <v>0.63507222222222226</v>
+      </c>
+      <c r="G50" s="42">
+        <v>0.25831088888888887</v>
+      </c>
+      <c r="H50" s="42">
+        <v>0.32903294444444448</v>
+      </c>
+      <c r="I50" s="42">
+        <v>8.2277000000000003E-2</v>
+      </c>
+      <c r="V50" t="s">
+        <v>229</v>
+      </c>
+      <c r="W50" s="42">
+        <v>0.14676349999999999</v>
+      </c>
+      <c r="X50" s="42">
+        <v>3.0508500000000001E-2</v>
+      </c>
+      <c r="Y50" s="42">
+        <v>0.12019611111111113</v>
+      </c>
+      <c r="Z50" s="42">
+        <v>1.2063703703703702E-3</v>
+      </c>
+      <c r="AA50" s="42">
+        <v>0.63507222222222226</v>
+      </c>
+      <c r="AB50" s="42">
+        <v>0.30386999999999997</v>
+      </c>
+      <c r="AC50" s="42">
+        <v>0.46084099999999995</v>
+      </c>
+      <c r="AD50" s="42">
+        <v>0.12066450000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>230</v>
+      </c>
+      <c r="B51" s="42">
+        <v>0.22094411111111109</v>
+      </c>
+      <c r="C51" s="42">
+        <v>4.7351333333333336E-2</v>
+      </c>
+      <c r="D51" s="42">
+        <v>0.12019611111111113</v>
+      </c>
+      <c r="E51" s="42">
+        <v>1.2063703703703702E-3</v>
+      </c>
+      <c r="F51" s="42">
+        <v>0.63507222222222226</v>
+      </c>
+      <c r="G51" s="42">
+        <v>0.25831088888888887</v>
+      </c>
+      <c r="H51" s="42">
+        <v>0.32903294444444448</v>
+      </c>
+      <c r="I51" s="42">
+        <v>8.2277000000000003E-2</v>
+      </c>
+      <c r="V51" t="s">
+        <v>230</v>
+      </c>
+      <c r="W51" s="42">
+        <v>0.14676349999999999</v>
+      </c>
+      <c r="X51" s="42">
+        <v>3.0508500000000001E-2</v>
+      </c>
+      <c r="Y51" s="42">
+        <v>0.12019611111111113</v>
+      </c>
+      <c r="Z51" s="42">
+        <v>1.2063703703703702E-3</v>
+      </c>
+      <c r="AA51" s="42">
+        <v>0.63507222222222226</v>
+      </c>
+      <c r="AB51" s="42">
+        <v>0.30386999999999997</v>
+      </c>
+      <c r="AC51" s="42">
+        <v>0.46084099999999995</v>
+      </c>
+      <c r="AD51" s="42">
+        <v>0.12066450000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>306</v>
+      </c>
+      <c r="B52" s="42">
+        <v>0.11744388888888889</v>
+      </c>
+      <c r="C52" s="42">
+        <v>5.5075430555555555E-2</v>
+      </c>
+      <c r="D52" s="42">
+        <v>0.19646522222222224</v>
+      </c>
+      <c r="E52" s="42">
+        <v>1.2754222222222222E-2</v>
+      </c>
+      <c r="F52" s="42">
+        <v>0.47923902777777783</v>
+      </c>
+      <c r="G52" s="42">
+        <v>0.25831088888888887</v>
+      </c>
+      <c r="H52" s="42">
+        <v>0.32903294444444448</v>
+      </c>
+      <c r="I52" s="42">
+        <v>6.1681694444444442E-2</v>
+      </c>
+      <c r="V52" t="s">
+        <v>306</v>
+      </c>
+      <c r="W52" s="42">
+        <v>7.678299999999999E-2</v>
+      </c>
+      <c r="X52" s="42">
+        <v>3.5521374999999994E-2</v>
+      </c>
+      <c r="Y52" s="42">
+        <v>0.19646522222222224</v>
+      </c>
+      <c r="Z52" s="42">
+        <v>1.2754222222222222E-2</v>
+      </c>
+      <c r="AA52" s="42">
+        <v>0.47923902777777783</v>
+      </c>
+      <c r="AB52" s="42">
+        <v>0.30386999999999997</v>
+      </c>
+      <c r="AC52" s="42">
+        <v>0.460841</v>
+      </c>
+      <c r="AD52" s="42">
+        <v>9.0632875000000002E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="42">
+        <v>0.11744388888888889</v>
+      </c>
+      <c r="C53" s="42">
+        <v>5.5075430555555555E-2</v>
+      </c>
+      <c r="D53" s="42">
+        <v>0.19646522222222224</v>
+      </c>
+      <c r="E53" s="42">
+        <v>1.2754222222222222E-2</v>
+      </c>
+      <c r="F53" s="42">
+        <v>0.47923902777777783</v>
+      </c>
+      <c r="G53" s="42">
+        <v>0.25831088888888887</v>
+      </c>
+      <c r="H53" s="42">
+        <v>0.32903294444444448</v>
+      </c>
+      <c r="I53" s="42">
+        <v>6.1681694444444442E-2</v>
+      </c>
+      <c r="V53" t="s">
+        <v>10</v>
+      </c>
+      <c r="W53" s="42">
+        <v>7.678299999999999E-2</v>
+      </c>
+      <c r="X53" s="42">
+        <v>3.5521374999999994E-2</v>
+      </c>
+      <c r="Y53" s="42">
+        <v>0.19646522222222224</v>
+      </c>
+      <c r="Z53" s="42">
+        <v>1.2754222222222222E-2</v>
+      </c>
+      <c r="AA53" s="42">
+        <v>0.47923902777777783</v>
+      </c>
+      <c r="AB53" s="42">
+        <v>0.30386999999999997</v>
+      </c>
+      <c r="AC53" s="42">
+        <v>0.460841</v>
+      </c>
+      <c r="AD53" s="42">
+        <v>9.0632875000000002E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>244</v>
-      </c>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="64"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="B55" s="61">
-        <v>1</v>
-      </c>
-      <c r="D55" t="s">
-        <v>251</v>
-      </c>
-      <c r="H55" s="64"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="64"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="47" t="s">
-        <v>241</v>
-      </c>
-      <c r="B56" s="62">
-        <v>1.8</v>
-      </c>
-      <c r="D56" t="s">
-        <v>252</v>
-      </c>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="64"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="B57" s="62">
-        <v>2.6</v>
-      </c>
-      <c r="H57" s="64"/>
-      <c r="I57" s="64"/>
-      <c r="J57" s="64"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="B58" s="63">
-        <v>5.5</v>
-      </c>
-      <c r="H58" s="64"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="64"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H59" s="64"/>
-      <c r="I59" s="64"/>
-      <c r="J59" s="64"/>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="B54" s="42">
+        <v>0.11744388888888889</v>
+      </c>
+      <c r="C54" s="42">
+        <v>5.5075430555555555E-2</v>
+      </c>
+      <c r="D54" s="42">
+        <v>0.19646522222222224</v>
+      </c>
+      <c r="E54" s="42">
+        <v>1.2754222222222222E-2</v>
+      </c>
+      <c r="F54" s="42">
+        <v>0.47923902777777783</v>
+      </c>
+      <c r="G54" s="42">
+        <v>0.25831088888888887</v>
+      </c>
+      <c r="H54" s="42">
+        <v>0.32903294444444448</v>
+      </c>
+      <c r="I54" s="42">
+        <v>6.1681694444444442E-2</v>
+      </c>
+      <c r="V54" t="s">
+        <v>11</v>
+      </c>
+      <c r="W54" s="42">
+        <v>7.678299999999999E-2</v>
+      </c>
+      <c r="X54" s="42">
+        <v>3.5521374999999994E-2</v>
+      </c>
+      <c r="Y54" s="42">
+        <v>0.19646522222222224</v>
+      </c>
+      <c r="Z54" s="42">
+        <v>1.2754222222222222E-2</v>
+      </c>
+      <c r="AA54" s="42">
+        <v>0.47923902777777783</v>
+      </c>
+      <c r="AB54" s="42">
+        <v>0.30386999999999997</v>
+      </c>
+      <c r="AC54" s="42">
+        <v>0.460841</v>
+      </c>
+      <c r="AD54" s="42">
+        <v>9.0632875000000002E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="42">
+        <v>0.11744388888888889</v>
+      </c>
+      <c r="C55" s="42">
+        <v>5.5075430555555555E-2</v>
+      </c>
+      <c r="D55" s="42">
+        <v>0.19646522222222224</v>
+      </c>
+      <c r="E55" s="42">
+        <v>1.2754222222222222E-2</v>
+      </c>
+      <c r="F55" s="42">
+        <v>0.47923902777777783</v>
+      </c>
+      <c r="G55" s="42">
+        <v>0.25831088888888887</v>
+      </c>
+      <c r="H55" s="42">
+        <v>0.32903294444444448</v>
+      </c>
+      <c r="I55" s="42">
+        <v>6.1681694444444442E-2</v>
+      </c>
+      <c r="V55" t="s">
+        <v>12</v>
+      </c>
+      <c r="W55" s="42">
+        <v>7.678299999999999E-2</v>
+      </c>
+      <c r="X55" s="42">
+        <v>3.5521374999999994E-2</v>
+      </c>
+      <c r="Y55" s="42">
+        <v>0.19646522222222224</v>
+      </c>
+      <c r="Z55" s="42">
+        <v>1.2754222222222222E-2</v>
+      </c>
+      <c r="AA55" s="42">
+        <v>0.47923902777777783</v>
+      </c>
+      <c r="AB55" s="42">
+        <v>0.30386999999999997</v>
+      </c>
+      <c r="AC55" s="42">
+        <v>0.460841</v>
+      </c>
+      <c r="AD55" s="42">
+        <v>9.0632875000000002E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="42">
+        <v>0.11744388888888889</v>
+      </c>
+      <c r="C56" s="42">
+        <v>5.5075430555555555E-2</v>
+      </c>
+      <c r="D56" s="42">
+        <v>0.19646522222222224</v>
+      </c>
+      <c r="E56" s="42">
+        <v>1.2754222222222222E-2</v>
+      </c>
+      <c r="F56" s="42">
+        <v>0.47923902777777783</v>
+      </c>
+      <c r="G56" s="42">
+        <v>0.25831088888888887</v>
+      </c>
+      <c r="H56" s="42">
+        <v>0.32903294444444448</v>
+      </c>
+      <c r="I56" s="42">
+        <v>6.1681694444444442E-2</v>
+      </c>
+      <c r="V56" t="s">
+        <v>13</v>
+      </c>
+      <c r="W56" s="42">
+        <v>7.678299999999999E-2</v>
+      </c>
+      <c r="X56" s="42">
+        <v>3.5521374999999994E-2</v>
+      </c>
+      <c r="Y56" s="42">
+        <v>0.19646522222222224</v>
+      </c>
+      <c r="Z56" s="42">
+        <v>1.2754222222222222E-2</v>
+      </c>
+      <c r="AA56" s="42">
+        <v>0.47923902777777783</v>
+      </c>
+      <c r="AB56" s="42">
+        <v>0.30386999999999997</v>
+      </c>
+      <c r="AC56" s="42">
+        <v>0.460841</v>
+      </c>
+      <c r="AD56" s="42">
+        <v>9.0632875000000002E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>232</v>
+      </c>
+      <c r="B57" s="42">
+        <v>8.7529611111111114E-2</v>
+      </c>
+      <c r="C57" s="42">
+        <v>6.8549166666666661E-2</v>
+      </c>
+      <c r="D57" s="42">
+        <v>0.25986325000000005</v>
+      </c>
+      <c r="E57" s="42">
+        <v>2.9281861111111109E-2</v>
+      </c>
+      <c r="F57" s="42">
+        <v>0.29655408333333333</v>
+      </c>
+      <c r="G57" s="42">
+        <v>0.25831088888888887</v>
+      </c>
+      <c r="H57" s="42">
+        <v>0.32903294444444448</v>
+      </c>
+      <c r="I57" s="42">
+        <v>2.2694638888888889E-2</v>
+      </c>
+      <c r="V57" t="s">
+        <v>232</v>
+      </c>
+      <c r="W57" s="42">
+        <v>5.6984E-2</v>
+      </c>
+      <c r="X57" s="42">
+        <v>4.4296500000000003E-2</v>
+      </c>
+      <c r="Y57" s="42">
+        <v>0.25986325000000005</v>
+      </c>
+      <c r="Z57" s="42">
+        <v>2.9281861111111109E-2</v>
+      </c>
+      <c r="AA57" s="42">
+        <v>0.29655408333333333</v>
+      </c>
+      <c r="AB57" s="42">
+        <v>0.30386999999999997</v>
+      </c>
+      <c r="AC57" s="42">
+        <v>0.460841</v>
+      </c>
+      <c r="AD57" s="42">
+        <v>3.3547999999999994E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>233</v>
+      </c>
+      <c r="B58" s="42">
+        <v>8.7529611111111114E-2</v>
+      </c>
+      <c r="C58" s="42">
+        <v>6.8549166666666661E-2</v>
+      </c>
+      <c r="D58" s="42">
+        <v>0.25986325000000005</v>
+      </c>
+      <c r="E58" s="42">
+        <v>2.9281861111111109E-2</v>
+      </c>
+      <c r="F58" s="42">
+        <v>0.29655408333333333</v>
+      </c>
+      <c r="G58" s="42">
+        <v>0.25831088888888887</v>
+      </c>
+      <c r="H58" s="42">
+        <v>0.32903294444444448</v>
+      </c>
+      <c r="I58" s="42">
+        <v>2.2694638888888889E-2</v>
+      </c>
+      <c r="V58" t="s">
+        <v>233</v>
+      </c>
+      <c r="W58" s="42">
+        <v>5.6984E-2</v>
+      </c>
+      <c r="X58" s="42">
+        <v>4.4296500000000003E-2</v>
+      </c>
+      <c r="Y58" s="42">
+        <v>0.25986325000000005</v>
+      </c>
+      <c r="Z58" s="42">
+        <v>2.9281861111111109E-2</v>
+      </c>
+      <c r="AA58" s="42">
+        <v>0.29655408333333333</v>
+      </c>
+      <c r="AB58" s="42">
+        <v>0.30386999999999997</v>
+      </c>
+      <c r="AC58" s="42">
+        <v>0.460841</v>
+      </c>
+      <c r="AD58" s="42">
+        <v>3.3547999999999994E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>253</v>
+      </c>
+      <c r="B59" s="42">
+        <v>8.7529611111111114E-2</v>
+      </c>
+      <c r="C59" s="42">
+        <v>6.8549166666666661E-2</v>
+      </c>
+      <c r="D59" s="42">
+        <v>0.25986325000000005</v>
+      </c>
+      <c r="E59" s="42">
+        <v>2.9281861111111109E-2</v>
+      </c>
+      <c r="F59" s="42">
+        <v>0.29655408333333333</v>
+      </c>
+      <c r="G59" s="42">
+        <v>0.25831088888888887</v>
+      </c>
+      <c r="H59" s="42">
+        <v>0.32903294444444448</v>
+      </c>
+      <c r="I59" s="42">
+        <v>2.2694638888888889E-2</v>
+      </c>
+      <c r="V59" t="s">
+        <v>253</v>
+      </c>
+      <c r="W59" s="42">
+        <v>5.6984E-2</v>
+      </c>
+      <c r="X59" s="42">
+        <v>4.4296500000000003E-2</v>
+      </c>
+      <c r="Y59" s="42">
+        <v>0.25986325000000005</v>
+      </c>
+      <c r="Z59" s="42">
+        <v>2.9281861111111109E-2</v>
+      </c>
+      <c r="AA59" s="42">
+        <v>0.29655408333333333</v>
+      </c>
+      <c r="AB59" s="42">
+        <v>0.30386999999999997</v>
+      </c>
+      <c r="AC59" s="42">
+        <v>0.460841</v>
+      </c>
+      <c r="AD59" s="42">
+        <v>3.3547999999999994E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>245</v>
-      </c>
-      <c r="H60" s="64"/>
-      <c r="I60" s="64"/>
-      <c r="J60" s="64"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="B61" s="61">
-        <v>1</v>
-      </c>
-      <c r="D61" t="s">
-        <v>246</v>
-      </c>
-      <c r="I61" s="64"/>
-      <c r="J61" s="64"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="47" t="s">
-        <v>241</v>
-      </c>
-      <c r="B62" s="62">
-        <v>1.75</v>
-      </c>
-      <c r="D62" t="s">
-        <v>247</v>
-      </c>
-      <c r="I62" s="64"/>
-      <c r="J62" s="64"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="B63" s="62">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D63" t="s">
-        <v>248</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B60" s="42">
+        <v>8.7529611111111114E-2</v>
+      </c>
+      <c r="C60" s="42">
+        <v>6.8549166666666661E-2</v>
+      </c>
+      <c r="D60" s="42">
+        <v>0.25986325000000005</v>
+      </c>
+      <c r="E60" s="42">
+        <v>2.9281861111111109E-2</v>
+      </c>
+      <c r="F60" s="42">
+        <v>0.29655408333333333</v>
+      </c>
+      <c r="G60" s="42">
+        <v>0.25831088888888887</v>
+      </c>
+      <c r="H60" s="42">
+        <v>0.32903294444444448</v>
+      </c>
+      <c r="I60" s="42">
+        <v>2.2694638888888889E-2</v>
+      </c>
+      <c r="V60" t="s">
+        <v>254</v>
+      </c>
+      <c r="W60" s="42">
+        <v>5.6984E-2</v>
+      </c>
+      <c r="X60" s="42">
+        <v>4.4296500000000003E-2</v>
+      </c>
+      <c r="Y60" s="42">
+        <v>0.25986325000000005</v>
+      </c>
+      <c r="Z60" s="42">
+        <v>2.9281861111111109E-2</v>
+      </c>
+      <c r="AA60" s="42">
+        <v>0.29655408333333333</v>
+      </c>
+      <c r="AB60" s="42">
+        <v>0.30386999999999997</v>
+      </c>
+      <c r="AC60" s="42">
+        <v>0.460841</v>
+      </c>
+      <c r="AD60" s="42">
+        <v>3.3547999999999994E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A61" s="85" t="s">
+        <v>307</v>
+      </c>
+      <c r="B61" s="42">
+        <v>8.7529611111111114E-2</v>
+      </c>
+      <c r="C61" s="42">
+        <v>6.8549166666666675E-2</v>
+      </c>
+      <c r="D61" s="42">
+        <v>0.29776118518518513</v>
+      </c>
+      <c r="E61" s="42">
+        <v>3.4510925925925924E-2</v>
+      </c>
+      <c r="F61" s="42">
+        <v>0.26289588888888893</v>
+      </c>
+      <c r="G61" s="42">
+        <v>0.25831088888888887</v>
+      </c>
+      <c r="H61" s="42">
+        <v>0.32903294444444448</v>
+      </c>
+      <c r="I61" s="42">
+        <v>1.1521685185185185E-2</v>
+      </c>
+      <c r="V61" s="85" t="s">
+        <v>307</v>
+      </c>
+      <c r="W61" s="42">
+        <v>5.6984E-2</v>
+      </c>
+      <c r="X61" s="42">
+        <v>4.4296500000000003E-2</v>
+      </c>
+      <c r="Y61" s="42">
+        <v>0.29776118518518513</v>
+      </c>
+      <c r="Z61" s="42">
+        <v>3.4510925925925924E-2</v>
+      </c>
+      <c r="AA61" s="42">
+        <v>0.26289588888888893</v>
+      </c>
+      <c r="AB61" s="42">
+        <v>0.30386999999999997</v>
+      </c>
+      <c r="AC61" s="42">
+        <v>0.46084099999999995</v>
+      </c>
+      <c r="AD61" s="42">
+        <v>1.7070999999999999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A62" s="91" t="s">
+        <v>308</v>
+      </c>
+      <c r="B62" s="42">
+        <v>8.7529611111111114E-2</v>
+      </c>
+      <c r="C62" s="42">
+        <v>6.8549166666666675E-2</v>
+      </c>
+      <c r="D62" s="42">
+        <v>0.29776118518518513</v>
+      </c>
+      <c r="E62" s="42">
+        <v>3.4510925925925924E-2</v>
+      </c>
+      <c r="F62" s="42">
+        <v>0.26289588888888893</v>
+      </c>
+      <c r="G62" s="42">
+        <v>0.25831088888888887</v>
+      </c>
+      <c r="H62" s="42">
+        <v>0.32903294444444448</v>
+      </c>
+      <c r="I62" s="42">
+        <v>1.1521685185185185E-2</v>
+      </c>
+      <c r="V62" s="91" t="s">
+        <v>308</v>
+      </c>
+      <c r="W62" s="42">
+        <v>5.6984E-2</v>
+      </c>
+      <c r="X62" s="42">
+        <v>4.4296500000000003E-2</v>
+      </c>
+      <c r="Y62" s="42">
+        <v>0.29776118518518513</v>
+      </c>
+      <c r="Z62" s="42">
+        <v>3.4510925925925924E-2</v>
+      </c>
+      <c r="AA62" s="42">
+        <v>0.26289588888888893</v>
+      </c>
+      <c r="AB62" s="42">
+        <v>0.30386999999999997</v>
+      </c>
+      <c r="AC62" s="42">
+        <v>0.46084099999999995</v>
+      </c>
+      <c r="AD62" s="42">
+        <v>1.7070999999999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
       <c r="I63" s="64"/>
       <c r="J63" s="64"/>
     </row>
-    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="B64" s="63">
-        <v>2.66</v>
-      </c>
-      <c r="D64" t="s">
-        <v>249</v>
-      </c>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
       <c r="I64" s="64"/>
       <c r="J64" s="64"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D65" s="24" t="s">
+    <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="50"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="D67" s="53"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="47"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="D68" s="57">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="47"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="D69" s="58">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="47"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D70" s="58">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="49"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="D71" s="59">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H73" s="64"/>
+    </row>
+    <row r="74" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>244</v>
+      </c>
+      <c r="H74" s="64"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="B75" s="61">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>251</v>
+      </c>
+      <c r="H75" s="64"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="B76" s="62">
+        <v>1.8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>252</v>
+      </c>
+      <c r="H76" s="64"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B77" s="62">
+        <v>2.6</v>
+      </c>
+      <c r="H77" s="64"/>
+    </row>
+    <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="B78" s="63">
+        <v>5.5</v>
+      </c>
+      <c r="H78" s="64"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H79" s="64"/>
+    </row>
+    <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>245</v>
+      </c>
+      <c r="H80" s="64"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="B81" s="61">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>246</v>
+      </c>
+      <c r="H81" s="64"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="B82" s="62">
+        <v>1.75</v>
+      </c>
+      <c r="D82" t="s">
+        <v>247</v>
+      </c>
+      <c r="H82" s="64"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B83" s="62">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D83" t="s">
+        <v>248</v>
+      </c>
+      <c r="H83" s="64"/>
+    </row>
+    <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="B84" s="63">
+        <v>2.66</v>
+      </c>
+      <c r="D84" t="s">
+        <v>249</v>
+      </c>
+      <c r="H84" s="64"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D85" s="24" t="s">
         <v>250</v>
       </c>
+      <c r="H85" s="64"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H86" s="64"/>
     </row>
   </sheetData>
   <sortState ref="H107:J120">
     <sortCondition descending="1" ref="H102"/>
   </sortState>
   <conditionalFormatting sqref="BI17:BI18">
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="44" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:BL4">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="43" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:BL16">
-    <cfRule type="cellIs" dxfId="40" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="85" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB2:BH2 BJ2:BL2">
-    <cfRule type="cellIs" dxfId="39" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="84" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW2:BA2">
-    <cfRule type="cellIs" dxfId="38" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="83" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AF2">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="80" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR2:AV2">
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="82" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:AA2">
-    <cfRule type="cellIs" dxfId="35" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="79" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG2:AQ2">
-    <cfRule type="cellIs" dxfId="34" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="81" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:V2">
-    <cfRule type="cellIs" dxfId="33" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="78" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:K2">
-    <cfRule type="cellIs" dxfId="32" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="77" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F2">
-    <cfRule type="cellIs" dxfId="31" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="76" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI2">
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="75" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E18">
-    <cfRule type="cellIs" dxfId="29" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="67" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I18">
-    <cfRule type="cellIs" dxfId="28" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="66" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ17:AJ18">
-    <cfRule type="cellIs" dxfId="27" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="63" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:J18">
-    <cfRule type="cellIs" dxfId="26" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="65" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO17:AO18">
-    <cfRule type="cellIs" dxfId="25" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="62" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ17:AQ18 AK17:AN18 AG17:AI18">
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="64" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C18">
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="68" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AP18">
-    <cfRule type="cellIs" dxfId="22" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="61" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AF18 AB17:AC18">
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="60" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V17:V18 P17:S18 L17:N18">
-    <cfRule type="cellIs" dxfId="20" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="74" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:O18">
-    <cfRule type="cellIs" dxfId="19" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="73" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:T18">
-    <cfRule type="cellIs" dxfId="18" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="72" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U17:U18">
-    <cfRule type="cellIs" dxfId="17" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="71" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD17:AD18">
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="56" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:K18 G17:H18">
-    <cfRule type="cellIs" dxfId="15" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="70" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK17:BK18">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="51" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL17:BL18 BF17:BH18 BB17:BD18">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="54" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D18 F17:F18 B17:B18">
-    <cfRule type="cellIs" dxfId="12" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="69" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY17:AY18">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="46" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ17:AZ18">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="45" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y17:Y18 AA17:AA18 W17:W18">
-    <cfRule type="cellIs" dxfId="9" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="59" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X17:X18">
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="58" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z17:Z18">
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="57" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE17:AE18">
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="55" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE17:BE18">
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="53" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ17:BJ18">
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="52" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA17:BA18 AW17:AX18">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="50" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT17:AT18 AV17:AV18 AR17:AR18">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="49" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS17:AS18">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="48" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU17:AU18">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="47" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W28:W29">
+    <cfRule type="cellIs" dxfId="41" priority="40" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W30:W41">
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W42:W43">
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X28:X29">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X30:X41">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X42:X43">
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y28:Y29">
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y30:Y41">
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y42:Y43">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA28:AA29">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA30:AA41">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA42:AA43">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB28:AB29">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB30:AB41">
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB42:AB43">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC28:AC29">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC30:AC41">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC42:AC43">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD28:AD29">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD30:AD41">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD42:AD43">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE28:AE29">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE30:AE41">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE42:AE43">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF28:AF29">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF30:AF41">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF42:AF43">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG28:AG29">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG30:AG41">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG42:AG43">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH28:AH29">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH30:AH41">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH42:AH43">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK42:AK43">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK28:AK29">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK30:AK41">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL28:AL29">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL30:AL41">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL42:AL43">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM28:AM29">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM30:AM41">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM42:AM43">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8875,27 +11506,27 @@
       <selection activeCell="AD23" sqref="AD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.54296875" customWidth="1"/>
     <col min="10" max="10" width="36" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.140625" customWidth="1"/>
-    <col min="20" max="23" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="38.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.1796875" customWidth="1"/>
+    <col min="20" max="23" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.54296875" customWidth="1"/>
     <col min="26" max="26" width="32" customWidth="1"/>
-    <col min="27" max="29" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.42578125" customWidth="1"/>
+    <col min="27" max="29" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="B1" s="12" t="s">
         <v>58</v>
       </c>
@@ -8922,7 +11553,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>57</v>
       </c>
@@ -8977,7 +11608,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -9039,7 +11670,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>61</v>
       </c>
@@ -9095,7 +11726,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>106</v>
       </c>
@@ -9130,7 +11761,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B6" s="15"/>
       <c r="M6" s="4" t="s">
         <v>114</v>
@@ -9169,7 +11800,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="M7" s="3" t="s">
         <v>118</v>
       </c>
@@ -9200,7 +11831,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="S8" s="3" t="s">
         <v>129</v>
       </c>
@@ -9225,7 +11856,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="Y9" s="3" t="s">
         <v>138</v>
       </c>
@@ -9233,12 +11864,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="AD10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="S11" s="24" t="s">
         <v>130</v>
       </c>
@@ -9249,7 +11880,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="K12" s="15"/>
       <c r="T12" s="24" t="s">
         <v>124</v>
@@ -9266,7 +11897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="S13" s="21" t="s">
         <v>119</v>
       </c>
@@ -9289,7 +11920,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="S14" s="13" t="s">
         <v>120</v>
       </c>
@@ -9306,7 +11937,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="S15" s="13" t="s">
         <v>121</v>
       </c>
@@ -9319,7 +11950,7 @@
       </c>
       <c r="W15" s="4"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="S16" s="13" t="s">
         <v>122</v>
       </c>
@@ -9338,7 +11969,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="17" spans="19:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="19:27" x14ac:dyDescent="0.35">
       <c r="S17" s="13" t="s">
         <v>123</v>
       </c>
@@ -9358,18 +11989,18 @@
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="19:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="19:27" x14ac:dyDescent="0.35">
       <c r="S18" s="3" t="s">
         <v>129</v>
       </c>
       <c r="AA18" s="15"/>
     </row>
-    <row r="20" spans="19:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="19:27" x14ac:dyDescent="0.35">
       <c r="S20" s="24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="19:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="19:27" x14ac:dyDescent="0.35">
       <c r="T21" s="24" t="s">
         <v>124</v>
       </c>
@@ -9379,7 +12010,7 @@
       </c>
       <c r="W21" s="24"/>
     </row>
-    <row r="22" spans="19:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="19:27" x14ac:dyDescent="0.35">
       <c r="S22" s="21" t="s">
         <v>119</v>
       </c>
@@ -9396,7 +12027,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="19:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="19:27" x14ac:dyDescent="0.35">
       <c r="S23" s="13" t="s">
         <v>120</v>
       </c>
@@ -9413,7 +12044,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="24" spans="19:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="19:27" x14ac:dyDescent="0.35">
       <c r="S24" s="13" t="s">
         <v>121</v>
       </c>
@@ -9426,7 +12057,7 @@
       </c>
       <c r="W24" s="4"/>
     </row>
-    <row r="25" spans="19:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="19:27" x14ac:dyDescent="0.35">
       <c r="S25" s="13" t="s">
         <v>123</v>
       </c>
@@ -9443,7 +12074,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="26" spans="19:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="19:27" x14ac:dyDescent="0.35">
       <c r="S26" s="3" t="s">
         <v>129</v>
       </c>
@@ -9464,15 +12095,15 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" customWidth="1"/>
+    <col min="6" max="7" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -9489,7 +12120,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -9536,7 +12167,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -9584,7 +12215,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -9626,7 +12257,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -9659,7 +12290,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
@@ -9689,7 +12320,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
@@ -9710,7 +12341,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
@@ -9737,7 +12368,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -9765,7 +12396,7 @@
         <v>0.13824884792626729</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>26</v>
       </c>
@@ -9790,7 +12421,7 @@
         <v>9.8360655737704916E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -9808,10 +12439,10 @@
         <v>7.6E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>261</v>
       </c>
@@ -9828,18 +12459,18 @@
         <v>1.8800000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="N26" t="s">
         <v>258</v>
       </c>
@@ -9859,28 +12490,28 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.5703125" customWidth="1"/>
-    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.5703125" customWidth="1"/>
-    <col min="31" max="31" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="41.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.54296875" customWidth="1"/>
+    <col min="25" max="25" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.54296875" customWidth="1"/>
+    <col min="31" max="31" width="17.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -9905,7 +12536,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
@@ -9968,7 +12599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
@@ -10032,7 +12663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
@@ -10096,7 +12727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -10136,7 +12767,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -10189,7 +12820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -10231,7 +12862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -10270,7 +12901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -10294,7 +12925,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -10327,7 +12958,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -10369,7 +13000,7 @@
         <v>0.74550000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -10398,7 +13029,7 @@
         <v>0.751</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>20</v>
       </c>
@@ -10429,7 +13060,7 @@
         <v>0.24271844660194175</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -10453,7 +13084,7 @@
         <v>0.12376237623762376</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="H15" s="7"/>
       <c r="N15" s="4" t="s">
         <v>67</v>
@@ -10471,21 +13102,21 @@
         <v>7.1225071225071226E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="H16" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>55</v>
       </c>
@@ -10493,7 +13124,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>1</v>
       </c>
@@ -10504,7 +13135,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -10515,12 +13146,12 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B25" s="6" t="s">
         <v>47</v>
       </c>
@@ -10531,7 +13162,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>1</v>
       </c>
@@ -10548,7 +13179,7 @@
         <v>9.0833333333333339E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>34</v>
       </c>
@@ -10565,22 +13196,22 @@
         <v>6.6666666666666671E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
         <v>141</v>
       </c>
@@ -10588,7 +13219,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B37" s="22" t="s">
         <v>62</v>
       </c>
@@ -10608,7 +13239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
         <v>83</v>
       </c>
@@ -10637,7 +13268,7 @@
         <v>7.5000000000000002E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
         <v>88</v>
       </c>
@@ -10666,7 +13297,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
         <v>89</v>
       </c>
@@ -10695,7 +13326,7 @@
         <v>1.7499999999999998E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
         <v>91</v>
       </c>
@@ -10725,7 +13356,7 @@
         <v>3.2500000000000003E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
         <v>142</v>
       </c>
@@ -10733,7 +13364,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B44" s="22" t="s">
         <v>62</v>
       </c>
@@ -10753,7 +13384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>83</v>
       </c>
@@ -10782,7 +13413,7 @@
         <v>1.25E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="s">
         <v>88</v>
       </c>
@@ -10811,7 +13442,7 @@
         <v>3.4999999999999996E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="s">
         <v>89</v>
       </c>
@@ -10840,7 +13471,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
         <v>91</v>
       </c>
@@ -10869,21 +13500,21 @@
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>90</v>
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G51" s="23"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="24" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
         <v>92</v>
       </c>
@@ -10897,7 +13528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
         <v>96</v>
       </c>
@@ -10911,7 +13542,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="s">
         <v>94</v>
       </c>
@@ -10925,7 +13556,7 @@
         <v>4.2699999999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="13" t="s">
         <v>95</v>
       </c>
@@ -10939,12 +13570,12 @@
         <v>13.42</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="24" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="s">
         <v>92</v>
       </c>
@@ -10958,7 +13589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="13" t="s">
         <v>96</v>
       </c>
@@ -10972,7 +13603,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="13" t="s">
         <v>94</v>
       </c>
@@ -10986,7 +13617,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="13" t="s">
         <v>95</v>
       </c>
@@ -11016,14 +13647,14 @@
       <selection activeCell="B3" sqref="B3:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>237</v>
       </c>
@@ -11031,7 +13662,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="43" t="s">
         <v>229</v>
       </c>
@@ -11045,7 +13676,7 @@
         <v>16.6279069767441</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>230</v>
       </c>
@@ -11059,7 +13690,7 @@
         <v>39.999999999999901</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>231</v>
       </c>
@@ -11073,7 +13704,7 @@
         <v>45.232558139534802</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -11087,7 +13718,7 @@
         <v>43.139534883720899</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -11101,7 +13732,7 @@
         <v>39.651162790697597</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -11115,7 +13746,7 @@
         <v>24.651162790697601</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>

--- a/HPVData.xlsx
+++ b/HPVData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HPV" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="341">
   <si>
     <t>Age</t>
   </si>
@@ -1037,6 +1037,21 @@
   </si>
   <si>
     <t>HPV to Well (Natural Immunity)</t>
+  </si>
+  <si>
+    <t>Stage 1</t>
+  </si>
+  <si>
+    <t>Stage 2-3</t>
+  </si>
+  <si>
+    <t>Stage 4</t>
+  </si>
+  <si>
+    <t>Sankar</t>
+  </si>
+  <si>
+    <t>Sankar multiplied by Coghill 2015 HR (HIV+ vs HIV-)</t>
   </si>
 </sst>
 </file>
@@ -1692,7 +1707,43 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="85">
+  <dxfs count="88">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -3539,8 +3590,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4680,8 +4731,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BL86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9927,7 +9978,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:39" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="92" t="s">
         <v>262</v>
       </c>
@@ -10005,8 +10056,8 @@
         <v>0.63507222222222226</v>
       </c>
       <c r="G47" s="42">
-        <f t="array" ref="G47:G62">(F28:F43*2+G28:G43)/2</f>
-        <v>0.25831088888888887</v>
+        <f t="array" ref="G47:G62">(F28:F43+G28:G43)/2</f>
+        <v>0.15792799999999999</v>
       </c>
       <c r="H47" s="42">
         <f t="array" ref="H47:H62">(L28:L43+2*J28:J43)/2</f>
@@ -10034,11 +10085,11 @@
         <v>1.2063703703703702E-3</v>
       </c>
       <c r="AA47" s="42">
-        <v>0.63507222222222226</v>
+        <v>0.78637999999999997</v>
       </c>
       <c r="AB47" s="42">
-        <f t="array" ref="AB47:AB62">(AA28:AA43*2+AB28:AB43)/2</f>
-        <v>0.30386999999999997</v>
+        <f t="array" ref="AB47:AB62">(AA28:AA43+AB28:AB43)/2</f>
+        <v>0.1615095</v>
       </c>
       <c r="AC47" s="42">
         <f t="array" ref="AC47:AC62">(AG28:AG43+2*AE28:AE43)/2</f>
@@ -10069,7 +10120,7 @@
         <v>0.63507222222222226</v>
       </c>
       <c r="G48" s="42">
-        <v>0.25831088888888887</v>
+        <v>0.15792799999999999</v>
       </c>
       <c r="H48" s="42">
         <v>0.32903294444444448</v>
@@ -10093,10 +10144,10 @@
         <v>1.2063703703703702E-3</v>
       </c>
       <c r="AA48" s="42">
-        <v>0.63507222222222226</v>
+        <v>0.78637999999999997</v>
       </c>
       <c r="AB48" s="42">
-        <v>0.30386999999999997</v>
+        <v>0.1615095</v>
       </c>
       <c r="AC48" s="42">
         <v>0.46084099999999995</v>
@@ -10125,7 +10176,7 @@
         <v>0.63507222222222226</v>
       </c>
       <c r="G49" s="42">
-        <v>0.25831088888888887</v>
+        <v>0.15792799999999999</v>
       </c>
       <c r="H49" s="42">
         <v>0.32903294444444448</v>
@@ -10149,10 +10200,10 @@
         <v>1.2063703703703702E-3</v>
       </c>
       <c r="AA49" s="42">
-        <v>0.63507222222222226</v>
+        <v>0.78637999999999997</v>
       </c>
       <c r="AB49" s="42">
-        <v>0.30386999999999997</v>
+        <v>0.1615095</v>
       </c>
       <c r="AC49" s="42">
         <v>0.46084099999999995</v>
@@ -10181,7 +10232,7 @@
         <v>0.63507222222222226</v>
       </c>
       <c r="G50" s="42">
-        <v>0.25831088888888887</v>
+        <v>0.15792799999999999</v>
       </c>
       <c r="H50" s="42">
         <v>0.32903294444444448</v>
@@ -10205,10 +10256,10 @@
         <v>1.2063703703703702E-3</v>
       </c>
       <c r="AA50" s="42">
-        <v>0.63507222222222226</v>
+        <v>0.78637999999999997</v>
       </c>
       <c r="AB50" s="42">
-        <v>0.30386999999999997</v>
+        <v>0.1615095</v>
       </c>
       <c r="AC50" s="42">
         <v>0.46084099999999995</v>
@@ -10237,7 +10288,7 @@
         <v>0.63507222222222226</v>
       </c>
       <c r="G51" s="42">
-        <v>0.25831088888888887</v>
+        <v>0.15792799999999999</v>
       </c>
       <c r="H51" s="42">
         <v>0.32903294444444448</v>
@@ -10261,10 +10312,10 @@
         <v>1.2063703703703702E-3</v>
       </c>
       <c r="AA51" s="42">
-        <v>0.63507222222222226</v>
+        <v>0.78637999999999997</v>
       </c>
       <c r="AB51" s="42">
-        <v>0.30386999999999997</v>
+        <v>0.1615095</v>
       </c>
       <c r="AC51" s="42">
         <v>0.46084099999999995</v>
@@ -10293,7 +10344,7 @@
         <v>0.47923902777777783</v>
       </c>
       <c r="G52" s="42">
-        <v>0.25831088888888887</v>
+        <v>0.15792800000000001</v>
       </c>
       <c r="H52" s="42">
         <v>0.32903294444444448</v>
@@ -10317,10 +10368,10 @@
         <v>1.2754222222222222E-2</v>
       </c>
       <c r="AA52" s="42">
-        <v>0.47923902777777783</v>
+        <v>0.62775775</v>
       </c>
       <c r="AB52" s="42">
-        <v>0.30386999999999997</v>
+        <v>0.1615095</v>
       </c>
       <c r="AC52" s="42">
         <v>0.460841</v>
@@ -10349,7 +10400,7 @@
         <v>0.47923902777777783</v>
       </c>
       <c r="G53" s="42">
-        <v>0.25831088888888887</v>
+        <v>0.15792800000000001</v>
       </c>
       <c r="H53" s="42">
         <v>0.32903294444444448</v>
@@ -10373,10 +10424,10 @@
         <v>1.2754222222222222E-2</v>
       </c>
       <c r="AA53" s="42">
-        <v>0.47923902777777783</v>
+        <v>0.62775775</v>
       </c>
       <c r="AB53" s="42">
-        <v>0.30386999999999997</v>
+        <v>0.1615095</v>
       </c>
       <c r="AC53" s="42">
         <v>0.460841</v>
@@ -10405,7 +10456,7 @@
         <v>0.47923902777777783</v>
       </c>
       <c r="G54" s="42">
-        <v>0.25831088888888887</v>
+        <v>0.15792800000000001</v>
       </c>
       <c r="H54" s="42">
         <v>0.32903294444444448</v>
@@ -10429,10 +10480,10 @@
         <v>1.2754222222222222E-2</v>
       </c>
       <c r="AA54" s="42">
-        <v>0.47923902777777783</v>
+        <v>0.62775775</v>
       </c>
       <c r="AB54" s="42">
-        <v>0.30386999999999997</v>
+        <v>0.1615095</v>
       </c>
       <c r="AC54" s="42">
         <v>0.460841</v>
@@ -10461,7 +10512,7 @@
         <v>0.47923902777777783</v>
       </c>
       <c r="G55" s="42">
-        <v>0.25831088888888887</v>
+        <v>0.15792800000000001</v>
       </c>
       <c r="H55" s="42">
         <v>0.32903294444444448</v>
@@ -10485,10 +10536,10 @@
         <v>1.2754222222222222E-2</v>
       </c>
       <c r="AA55" s="42">
-        <v>0.47923902777777783</v>
+        <v>0.62775775</v>
       </c>
       <c r="AB55" s="42">
-        <v>0.30386999999999997</v>
+        <v>0.1615095</v>
       </c>
       <c r="AC55" s="42">
         <v>0.460841</v>
@@ -10517,7 +10568,7 @@
         <v>0.47923902777777783</v>
       </c>
       <c r="G56" s="42">
-        <v>0.25831088888888887</v>
+        <v>0.15792800000000001</v>
       </c>
       <c r="H56" s="42">
         <v>0.32903294444444448</v>
@@ -10541,10 +10592,10 @@
         <v>1.2754222222222222E-2</v>
       </c>
       <c r="AA56" s="42">
-        <v>0.47923902777777783</v>
+        <v>0.62775775</v>
       </c>
       <c r="AB56" s="42">
-        <v>0.30386999999999997</v>
+        <v>0.1615095</v>
       </c>
       <c r="AC56" s="42">
         <v>0.460841</v>
@@ -10573,7 +10624,7 @@
         <v>0.29655408333333333</v>
       </c>
       <c r="G57" s="42">
-        <v>0.25831088888888887</v>
+        <v>0.15792800000000001</v>
       </c>
       <c r="H57" s="42">
         <v>0.32903294444444448</v>
@@ -10597,10 +10648,10 @@
         <v>2.9281861111111109E-2</v>
       </c>
       <c r="AA57" s="42">
-        <v>0.29655408333333333</v>
+        <v>0.40971574999999999</v>
       </c>
       <c r="AB57" s="42">
-        <v>0.30386999999999997</v>
+        <v>0.1615095</v>
       </c>
       <c r="AC57" s="42">
         <v>0.460841</v>
@@ -10629,7 +10680,7 @@
         <v>0.29655408333333333</v>
       </c>
       <c r="G58" s="42">
-        <v>0.25831088888888887</v>
+        <v>0.15792800000000001</v>
       </c>
       <c r="H58" s="42">
         <v>0.32903294444444448</v>
@@ -10653,10 +10704,10 @@
         <v>2.9281861111111109E-2</v>
       </c>
       <c r="AA58" s="42">
-        <v>0.29655408333333333</v>
+        <v>0.40971574999999999</v>
       </c>
       <c r="AB58" s="42">
-        <v>0.30386999999999997</v>
+        <v>0.1615095</v>
       </c>
       <c r="AC58" s="42">
         <v>0.460841</v>
@@ -10685,7 +10736,7 @@
         <v>0.29655408333333333</v>
       </c>
       <c r="G59" s="42">
-        <v>0.25831088888888887</v>
+        <v>0.15792800000000001</v>
       </c>
       <c r="H59" s="42">
         <v>0.32903294444444448</v>
@@ -10709,10 +10760,10 @@
         <v>2.9281861111111109E-2</v>
       </c>
       <c r="AA59" s="42">
-        <v>0.29655408333333333</v>
+        <v>0.40971574999999999</v>
       </c>
       <c r="AB59" s="42">
-        <v>0.30386999999999997</v>
+        <v>0.1615095</v>
       </c>
       <c r="AC59" s="42">
         <v>0.460841</v>
@@ -10741,7 +10792,7 @@
         <v>0.29655408333333333</v>
       </c>
       <c r="G60" s="42">
-        <v>0.25831088888888887</v>
+        <v>0.15792800000000001</v>
       </c>
       <c r="H60" s="42">
         <v>0.32903294444444448</v>
@@ -10765,10 +10816,10 @@
         <v>2.9281861111111109E-2</v>
       </c>
       <c r="AA60" s="42">
-        <v>0.29655408333333333</v>
+        <v>0.40971574999999999</v>
       </c>
       <c r="AB60" s="42">
-        <v>0.30386999999999997</v>
+        <v>0.1615095</v>
       </c>
       <c r="AC60" s="42">
         <v>0.460841</v>
@@ -10797,7 +10848,7 @@
         <v>0.26289588888888893</v>
       </c>
       <c r="G61" s="42">
-        <v>0.25831088888888887</v>
+        <v>0.15792799999999999</v>
       </c>
       <c r="H61" s="42">
         <v>0.32903294444444448</v>
@@ -10821,10 +10872,10 @@
         <v>3.4510925925925924E-2</v>
       </c>
       <c r="AA61" s="42">
-        <v>0.26289588888888893</v>
+        <v>0.36699399999999999</v>
       </c>
       <c r="AB61" s="42">
-        <v>0.30386999999999997</v>
+        <v>0.1615095</v>
       </c>
       <c r="AC61" s="42">
         <v>0.46084099999999995</v>
@@ -10853,7 +10904,7 @@
         <v>0.26289588888888893</v>
       </c>
       <c r="G62" s="42">
-        <v>0.25831088888888887</v>
+        <v>0.15792799999999999</v>
       </c>
       <c r="H62" s="42">
         <v>0.32903294444444448</v>
@@ -10877,10 +10928,10 @@
         <v>3.4510925925925924E-2</v>
       </c>
       <c r="AA62" s="42">
-        <v>0.26289588888888893</v>
+        <v>0.36699399999999999</v>
       </c>
       <c r="AB62" s="42">
-        <v>0.30386999999999997</v>
+        <v>0.1615095</v>
       </c>
       <c r="AC62" s="42">
         <v>0.46084099999999995</v>
@@ -10913,6 +10964,7 @@
         <v>201</v>
       </c>
       <c r="D68" s="57">
+        <f>0.6</f>
         <v>0.6</v>
       </c>
     </row>
@@ -10923,6 +10975,7 @@
         <v>241</v>
       </c>
       <c r="D69" s="58">
+        <f>0.55</f>
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -10933,6 +10986,7 @@
         <v>199</v>
       </c>
       <c r="D70" s="58">
+        <f>0.45</f>
         <v>0.45</v>
       </c>
     </row>
@@ -10943,6 +10997,7 @@
         <v>243</v>
       </c>
       <c r="D71" s="59">
+        <f>0.3</f>
         <v>0.3</v>
       </c>
     </row>
@@ -11068,427 +11123,427 @@
     <sortCondition descending="1" ref="H102"/>
   </sortState>
   <conditionalFormatting sqref="BI17:BI18">
-    <cfRule type="cellIs" dxfId="84" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="44" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:BL4">
-    <cfRule type="cellIs" dxfId="83" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="43" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:BL16">
-    <cfRule type="cellIs" dxfId="82" priority="85" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="85" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB2:BH2 BJ2:BL2">
-    <cfRule type="cellIs" dxfId="81" priority="84" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="84" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW2:BA2">
-    <cfRule type="cellIs" dxfId="80" priority="83" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="83" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AF2">
-    <cfRule type="cellIs" dxfId="79" priority="80" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="80" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR2:AV2">
-    <cfRule type="cellIs" dxfId="78" priority="82" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="82" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:AA2">
-    <cfRule type="cellIs" dxfId="77" priority="79" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="79" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG2:AQ2">
-    <cfRule type="cellIs" dxfId="76" priority="81" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="81" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:V2">
-    <cfRule type="cellIs" dxfId="75" priority="78" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="78" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:K2">
-    <cfRule type="cellIs" dxfId="74" priority="77" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="77" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F2">
-    <cfRule type="cellIs" dxfId="73" priority="76" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="76" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI2">
-    <cfRule type="cellIs" dxfId="72" priority="75" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="75" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E18">
-    <cfRule type="cellIs" dxfId="71" priority="67" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="67" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I18">
-    <cfRule type="cellIs" dxfId="70" priority="66" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="66" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ17:AJ18">
-    <cfRule type="cellIs" dxfId="69" priority="63" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="63" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:J18">
-    <cfRule type="cellIs" dxfId="68" priority="65" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="65" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO17:AO18">
-    <cfRule type="cellIs" dxfId="67" priority="62" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="62" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ17:AQ18 AK17:AN18 AG17:AI18">
-    <cfRule type="cellIs" dxfId="66" priority="64" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="64" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C18">
-    <cfRule type="cellIs" dxfId="65" priority="68" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="68" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:AP18">
-    <cfRule type="cellIs" dxfId="64" priority="61" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="61" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AF18 AB17:AC18">
-    <cfRule type="cellIs" dxfId="63" priority="60" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="60" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V17:V18 P17:S18 L17:N18">
-    <cfRule type="cellIs" dxfId="62" priority="74" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="74" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:O18">
-    <cfRule type="cellIs" dxfId="61" priority="73" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="73" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:T18">
-    <cfRule type="cellIs" dxfId="60" priority="72" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="72" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U17:U18">
-    <cfRule type="cellIs" dxfId="59" priority="71" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="71" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD17:AD18">
-    <cfRule type="cellIs" dxfId="58" priority="56" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="56" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:K18 G17:H18">
-    <cfRule type="cellIs" dxfId="57" priority="70" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="70" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK17:BK18">
-    <cfRule type="cellIs" dxfId="56" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="51" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL17:BL18 BF17:BH18 BB17:BD18">
-    <cfRule type="cellIs" dxfId="55" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="54" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D18 F17:F18 B17:B18">
-    <cfRule type="cellIs" dxfId="54" priority="69" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="69" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY17:AY18">
-    <cfRule type="cellIs" dxfId="53" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="46" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ17:AZ18">
-    <cfRule type="cellIs" dxfId="52" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="45" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y17:Y18 AA17:AA18 W17:W18">
-    <cfRule type="cellIs" dxfId="51" priority="59" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="59" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X17:X18">
-    <cfRule type="cellIs" dxfId="50" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="58" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z17:Z18">
-    <cfRule type="cellIs" dxfId="49" priority="57" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="57" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE17:AE18">
-    <cfRule type="cellIs" dxfId="48" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="55" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE17:BE18">
-    <cfRule type="cellIs" dxfId="47" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="53" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ17:BJ18">
-    <cfRule type="cellIs" dxfId="46" priority="52" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="52" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA17:BA18 AW17:AX18">
-    <cfRule type="cellIs" dxfId="45" priority="50" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="50" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT17:AT18 AV17:AV18 AR17:AR18">
-    <cfRule type="cellIs" dxfId="44" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="49" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS17:AS18">
-    <cfRule type="cellIs" dxfId="43" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="48" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU17:AU18">
-    <cfRule type="cellIs" dxfId="42" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W28:W29">
-    <cfRule type="cellIs" dxfId="41" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W30:W41">
-    <cfRule type="cellIs" dxfId="40" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W42:W43">
-    <cfRule type="cellIs" dxfId="39" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="41" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X28:X29">
-    <cfRule type="cellIs" dxfId="38" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X30:X41">
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X42:X43">
-    <cfRule type="cellIs" dxfId="36" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y28:Y29">
-    <cfRule type="cellIs" dxfId="35" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y30:Y41">
-    <cfRule type="cellIs" dxfId="34" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y42:Y43">
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA28:AA29">
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA30:AA41">
-    <cfRule type="cellIs" dxfId="31" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA42:AA43">
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB28:AB29">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB30:AB41">
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="30" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB42:AB43">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC28:AC29">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC30:AC41">
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC42:AC43">
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD28:AD29">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD30:AD41">
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD42:AD43">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE28:AE29">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE30:AE41">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE42:AE43">
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF28:AF29">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF30:AF41">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF42:AF43">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG28:AG29">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG30:AG41">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG42:AG43">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH28:AH29">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH30:AH41">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH42:AH43">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK42:AK43">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK28:AK29">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK30:AK41">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL28:AL29">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL30:AL41">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL42:AL43">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM28:AM29">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM30:AM41">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM42:AM43">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12091,8 +12146,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12446,15 +12501,15 @@
       <c r="A13" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="64">
         <f>AVERAGE(C3:C5)</f>
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="64">
         <f>AVERAGE(D3:D5)</f>
         <v>6.9666666666666661E-3</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="64">
         <f>AVERAGE(E3:E5)</f>
         <v>1.8800000000000001E-2</v>
       </c>
@@ -12468,6 +12523,51 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>336</v>
+      </c>
+      <c r="D23" t="s">
+        <v>337</v>
+      </c>
+      <c r="E23" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>339</v>
+      </c>
+      <c r="C24" s="42">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="D24" s="42">
+        <v>1.2513E-2</v>
+      </c>
+      <c r="E24" s="42">
+        <v>4.3395000000000003E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" t="s">
+        <v>340</v>
+      </c>
+      <c r="C25" s="42">
+        <v>8.6829999999999997E-3</v>
+      </c>
+      <c r="D25" s="42">
+        <v>2.0896999999999999E-2</v>
+      </c>
+      <c r="E25" s="42">
+        <v>7.2469000000000006E-2</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">

--- a/HPVData.xlsx
+++ b/HPVData.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicktzr\Google Drive\ICRC\CISNET\HHCoM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\HHCoM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HPV" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="346">
   <si>
     <t>Age</t>
   </si>
@@ -1039,9 +1039,6 @@
     <t>Sankar</t>
   </si>
   <si>
-    <t>Sankar multiplied by Coghill 2015 HR (HIV+ vs HIV-)</t>
-  </si>
-  <si>
     <t>Vaccine types</t>
   </si>
   <si>
@@ -1049,6 +1046,27 @@
   </si>
   <si>
     <t>HPV to Well (Natural Immunity)</t>
+  </si>
+  <si>
+    <t>HIV + on ART</t>
+  </si>
+  <si>
+    <t>HIV + CD4 &gt;500</t>
+  </si>
+  <si>
+    <t>HIV + CD4 350-500</t>
+  </si>
+  <si>
+    <t>HIV + CD4 250-350</t>
+  </si>
+  <si>
+    <t>HIV + CD4 &lt;250</t>
+  </si>
+  <si>
+    <t>Dryden-peterson</t>
+  </si>
+  <si>
+    <t>Montly CC Mortality Rates</t>
   </si>
 </sst>
 </file>
@@ -2751,23 +2769,23 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" customWidth="1"/>
-    <col min="7" max="7" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25" customWidth="1"/>
-    <col min="16" max="16" width="15.54296875" customWidth="1"/>
-    <col min="17" max="18" width="49.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.54296875" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="17" max="18" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>146</v>
       </c>
@@ -2778,7 +2796,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>147</v>
       </c>
@@ -2828,7 +2846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>16</v>
       </c>
@@ -2878,7 +2896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>18</v>
       </c>
@@ -2928,7 +2946,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>31</v>
       </c>
@@ -2976,7 +2994,7 @@
         <v>8.08</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>33</v>
       </c>
@@ -3023,7 +3041,7 @@
         <v>14.04</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3056,7 +3074,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>39</v>
       </c>
@@ -3097,7 +3115,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>51</v>
       </c>
@@ -3111,7 +3129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>56</v>
       </c>
@@ -3128,7 +3146,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G11" s="24" t="s">
         <v>180</v>
       </c>
@@ -3145,7 +3163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>147</v>
       </c>
@@ -3184,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>160</v>
       </c>
@@ -3227,7 +3245,7 @@
         <v>0.24271844660194175</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>149</v>
       </c>
@@ -3270,7 +3288,7 @@
         <v>0.12376237623762376</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>234</v>
       </c>
@@ -3302,7 +3320,7 @@
         <v>7.1225071225071226E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G16" s="4" t="s">
         <v>159</v>
       </c>
@@ -3316,7 +3334,7 @@
         <v>1.7130000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G17" s="11" t="s">
         <v>162</v>
       </c>
@@ -3330,7 +3348,7 @@
         <v>1.863</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="11" t="s">
         <v>54</v>
       </c>
@@ -3347,7 +3365,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
       <c r="B19" s="44" t="s">
         <v>238</v>
@@ -3370,7 +3388,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="46"/>
       <c r="B20" s="7" t="s">
         <v>47</v>
@@ -3400,7 +3418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="46" t="s">
         <v>198</v>
       </c>
@@ -3430,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="46" t="s">
         <v>199</v>
       </c>
@@ -3462,7 +3480,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="46" t="s">
         <v>241</v>
       </c>
@@ -3499,7 +3517,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="48" t="s">
         <v>201</v>
       </c>
@@ -3528,7 +3546,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G25" s="9" t="s">
         <v>183</v>
       </c>
@@ -3539,7 +3557,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G27" s="24" t="s">
         <v>184</v>
       </c>
@@ -3547,7 +3565,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
         <v>185</v>
       </c>
@@ -3561,7 +3579,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G29" s="4" t="s">
         <v>169</v>
       </c>
@@ -3585,7 +3603,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G30" s="4" t="s">
         <v>170</v>
       </c>
@@ -3609,7 +3627,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G31" s="11" t="s">
         <v>187</v>
       </c>
@@ -3634,7 +3652,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q32" t="s">
         <v>201</v>
       </c>
@@ -3642,7 +3660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G34" s="24" t="s">
         <v>179</v>
       </c>
@@ -3650,7 +3668,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G35" s="13" t="s">
         <v>147</v>
       </c>
@@ -3676,7 +3694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G36" s="4" t="s">
         <v>47</v>
       </c>
@@ -3709,7 +3727,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="37" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G37" s="4" t="s">
         <v>157</v>
       </c>
@@ -3742,7 +3760,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="38" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G38" s="4" t="s">
         <v>158</v>
       </c>
@@ -3763,7 +3781,7 @@
         <v>1.925E-2</v>
       </c>
     </row>
-    <row r="39" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G39" s="4" t="s">
         <v>159</v>
       </c>
@@ -3777,7 +3795,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="40" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G40" s="11" t="s">
         <v>162</v>
       </c>
@@ -3791,7 +3809,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="41" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G41" s="11" t="s">
         <v>54</v>
       </c>
@@ -3805,7 +3823,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G42" s="11" t="s">
         <v>163</v>
       </c>
@@ -3819,12 +3837,12 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="45" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G45" s="24" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="46" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G46" s="4" t="s">
         <v>62</v>
       </c>
@@ -3835,7 +3853,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="47" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G47" s="4">
         <v>0.48</v>
       </c>
@@ -3861,17 +3879,17 @@
       <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="55"/>
+    <col min="1" max="16384" width="8.7109375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:64" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
         <v>262</v>
       </c>
@@ -4065,7 +4083,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="55" t="s">
         <v>309</v>
       </c>
@@ -4259,7 +4277,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="71" t="s">
         <v>310</v>
       </c>
@@ -4453,7 +4471,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="72" t="s">
         <v>305</v>
       </c>
@@ -4647,7 +4665,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="55" t="s">
         <v>229</v>
       </c>
@@ -4841,7 +4859,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" s="55" t="s">
         <v>230</v>
       </c>
@@ -5035,7 +5053,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" s="55" t="s">
         <v>306</v>
       </c>
@@ -5229,7 +5247,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="55" t="s">
         <v>10</v>
       </c>
@@ -5423,7 +5441,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
         <v>11</v>
       </c>
@@ -5617,7 +5635,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" s="55" t="s">
         <v>12</v>
       </c>
@@ -5811,7 +5829,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" s="55" t="s">
         <v>13</v>
       </c>
@@ -6005,7 +6023,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
         <v>232</v>
       </c>
@@ -6199,7 +6217,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" s="55" t="s">
         <v>233</v>
       </c>
@@ -6393,7 +6411,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" s="55" t="s">
         <v>253</v>
       </c>
@@ -6587,7 +6605,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" s="55" t="s">
         <v>254</v>
       </c>
@@ -6781,7 +6799,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="78" t="s">
         <v>307</v>
       </c>
@@ -6975,7 +6993,7 @@
         <v>2.1746999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="55" t="s">
         <v>308</v>
       </c>
@@ -7169,12 +7187,12 @@
         <v>2.1746999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21" s="57" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A23" s="55" t="s">
         <v>47</v>
       </c>
@@ -7183,7 +7201,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24" s="55" t="s">
         <v>157</v>
       </c>
@@ -7192,7 +7210,7 @@
         <v>0.22222222222222224</v>
       </c>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" s="55" t="s">
         <v>322</v>
       </c>
@@ -7201,7 +7219,7 @@
         <v>0.22222222222222224</v>
       </c>
     </row>
-    <row r="27" spans="1:64" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:64" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="84" t="s">
         <v>262</v>
       </c>
@@ -7311,7 +7329,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="55" t="s">
         <v>309</v>
       </c>
@@ -7441,7 +7459,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="71" t="s">
         <v>310</v>
       </c>
@@ -7551,7 +7569,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="72" t="s">
         <v>305</v>
       </c>
@@ -7661,7 +7679,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="55" t="s">
         <v>229</v>
       </c>
@@ -7771,7 +7789,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32" s="55" t="s">
         <v>230</v>
       </c>
@@ -7881,7 +7899,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="55" t="s">
         <v>306</v>
       </c>
@@ -7991,7 +8009,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="55" t="s">
         <v>10</v>
       </c>
@@ -8101,7 +8119,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="55" t="s">
         <v>11</v>
       </c>
@@ -8211,7 +8229,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="55" t="s">
         <v>12</v>
       </c>
@@ -8321,7 +8339,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="55" t="s">
         <v>13</v>
       </c>
@@ -8431,7 +8449,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="55" t="s">
         <v>232</v>
       </c>
@@ -8541,7 +8559,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="55" t="s">
         <v>233</v>
       </c>
@@ -8651,7 +8669,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="55" t="s">
         <v>253</v>
       </c>
@@ -8761,7 +8779,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" s="55" t="s">
         <v>254</v>
       </c>
@@ -8871,7 +8889,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="78" t="s">
         <v>307</v>
       </c>
@@ -8981,7 +8999,7 @@
         <v>2.1746999999999999E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="55" t="s">
         <v>308</v>
       </c>
@@ -9091,15 +9109,15 @@
         <v>2.1746999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="55" t="s">
+        <v>336</v>
+      </c>
+      <c r="V45" s="55" t="s">
         <v>337</v>
       </c>
-      <c r="V45" s="55" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="46" spans="1:39" ht="72.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:39" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="84" t="s">
         <v>262</v>
       </c>
@@ -9116,7 +9134,7 @@
         <v>329</v>
       </c>
       <c r="F46" s="85" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G46" s="85" t="s">
         <v>318</v>
@@ -9143,7 +9161,7 @@
         <v>329</v>
       </c>
       <c r="AA46" s="85" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AB46" s="85" t="s">
         <v>318</v>
@@ -9155,7 +9173,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" s="55" t="s">
         <v>309</v>
       </c>
@@ -9221,7 +9239,7 @@
         <v>0.12066450000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="71" t="s">
         <v>310</v>
       </c>
@@ -9277,7 +9295,7 @@
         <v>0.12066450000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="72" t="s">
         <v>305</v>
       </c>
@@ -9333,7 +9351,7 @@
         <v>0.12066450000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="55" t="s">
         <v>229</v>
       </c>
@@ -9389,7 +9407,7 @@
         <v>0.12066450000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="55" t="s">
         <v>230</v>
       </c>
@@ -9445,7 +9463,7 @@
         <v>0.12066450000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="55" t="s">
         <v>306</v>
       </c>
@@ -9501,7 +9519,7 @@
         <v>9.0632875000000002E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="55" t="s">
         <v>10</v>
       </c>
@@ -9557,7 +9575,7 @@
         <v>9.0632875000000002E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="55" t="s">
         <v>11</v>
       </c>
@@ -9613,7 +9631,7 @@
         <v>9.0632875000000002E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="55" t="s">
         <v>12</v>
       </c>
@@ -9669,7 +9687,7 @@
         <v>9.0632875000000002E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="55" t="s">
         <v>13</v>
       </c>
@@ -9725,7 +9743,7 @@
         <v>9.0632875000000002E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="55" t="s">
         <v>232</v>
       </c>
@@ -9781,7 +9799,7 @@
         <v>3.3547999999999994E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="55" t="s">
         <v>233</v>
       </c>
@@ -9837,7 +9855,7 @@
         <v>3.3547999999999994E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="55" t="s">
         <v>253</v>
       </c>
@@ -9893,7 +9911,7 @@
         <v>3.3547999999999994E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="55" t="s">
         <v>254</v>
       </c>
@@ -9949,7 +9967,7 @@
         <v>3.3547999999999994E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="78" t="s">
         <v>307</v>
       </c>
@@ -10005,7 +10023,7 @@
         <v>1.7070999999999999E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="55" t="s">
         <v>308</v>
       </c>
@@ -10061,8 +10079,8 @@
         <v>1.7070999999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="86"/>
       <c r="B67" s="87"/>
       <c r="C67" s="88" t="s">
@@ -10070,7 +10088,7 @@
       </c>
       <c r="D67" s="89"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="90"/>
       <c r="C68" s="91" t="s">
         <v>201</v>
@@ -10080,7 +10098,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="90"/>
       <c r="C69" s="91" t="s">
         <v>241</v>
@@ -10090,7 +10108,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="90"/>
       <c r="C70" s="91" t="s">
         <v>199</v>
@@ -10100,7 +10118,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="94"/>
       <c r="B71" s="95"/>
       <c r="C71" s="96" t="s">
@@ -10111,12 +10129,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="55" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="98" t="s">
         <v>201</v>
       </c>
@@ -10127,7 +10145,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="90" t="s">
         <v>241</v>
       </c>
@@ -10138,7 +10156,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="90" t="s">
         <v>199</v>
       </c>
@@ -10146,7 +10164,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="94" t="s">
         <v>198</v>
       </c>
@@ -10154,12 +10172,12 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="55" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="98" t="s">
         <v>201</v>
       </c>
@@ -10170,7 +10188,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="90" t="s">
         <v>241</v>
       </c>
@@ -10181,7 +10199,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="90" t="s">
         <v>199</v>
       </c>
@@ -10192,7 +10210,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="94" t="s">
         <v>198</v>
       </c>
@@ -10203,7 +10221,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D85" s="57" t="s">
         <v>250</v>
       </c>
@@ -10226,27 +10244,27 @@
       <selection activeCell="AD23" sqref="AD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.54296875" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
     <col min="10" max="10" width="36" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="38.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.1796875" customWidth="1"/>
-    <col min="20" max="23" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.54296875" customWidth="1"/>
+    <col min="13" max="13" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.140625" customWidth="1"/>
+    <col min="20" max="23" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" customWidth="1"/>
     <col min="26" max="26" width="32" customWidth="1"/>
-    <col min="27" max="29" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.453125" customWidth="1"/>
+    <col min="27" max="29" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="12" t="s">
         <v>58</v>
       </c>
@@ -10273,7 +10291,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>57</v>
       </c>
@@ -10328,7 +10346,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -10390,7 +10408,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>61</v>
       </c>
@@ -10446,7 +10464,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>106</v>
       </c>
@@ -10481,7 +10499,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B6" s="15"/>
       <c r="M6" s="4" t="s">
         <v>114</v>
@@ -10520,7 +10538,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="M7" s="3" t="s">
         <v>118</v>
       </c>
@@ -10551,7 +10569,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S8" s="3" t="s">
         <v>129</v>
       </c>
@@ -10576,7 +10594,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="Y9" s="3" t="s">
         <v>138</v>
       </c>
@@ -10584,12 +10602,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AD10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S11" s="24" t="s">
         <v>130</v>
       </c>
@@ -10600,7 +10618,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="K12" s="15"/>
       <c r="T12" s="24" t="s">
         <v>124</v>
@@ -10617,7 +10635,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S13" s="21" t="s">
         <v>119</v>
       </c>
@@ -10640,7 +10658,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S14" s="13" t="s">
         <v>120</v>
       </c>
@@ -10657,7 +10675,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S15" s="13" t="s">
         <v>121</v>
       </c>
@@ -10670,7 +10688,7 @@
       </c>
       <c r="W15" s="4"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S16" s="13" t="s">
         <v>122</v>
       </c>
@@ -10689,7 +10707,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="17" spans="19:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="19:27" x14ac:dyDescent="0.25">
       <c r="S17" s="13" t="s">
         <v>123</v>
       </c>
@@ -10709,18 +10727,18 @@
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="19:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="19:27" x14ac:dyDescent="0.25">
       <c r="S18" s="3" t="s">
         <v>129</v>
       </c>
       <c r="AA18" s="15"/>
     </row>
-    <row r="20" spans="19:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="19:27" x14ac:dyDescent="0.25">
       <c r="S20" s="24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="19:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="19:27" x14ac:dyDescent="0.25">
       <c r="T21" s="24" t="s">
         <v>124</v>
       </c>
@@ -10730,7 +10748,7 @@
       </c>
       <c r="W21" s="24"/>
     </row>
-    <row r="22" spans="19:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="19:27" x14ac:dyDescent="0.25">
       <c r="S22" s="21" t="s">
         <v>119</v>
       </c>
@@ -10747,7 +10765,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="19:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="19:27" x14ac:dyDescent="0.25">
       <c r="S23" s="13" t="s">
         <v>120</v>
       </c>
@@ -10764,7 +10782,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="24" spans="19:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="19:27" x14ac:dyDescent="0.25">
       <c r="S24" s="13" t="s">
         <v>121</v>
       </c>
@@ -10777,7 +10795,7 @@
       </c>
       <c r="W24" s="4"/>
     </row>
-    <row r="25" spans="19:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="19:27" x14ac:dyDescent="0.25">
       <c r="S25" s="13" t="s">
         <v>123</v>
       </c>
@@ -10794,7 +10812,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="26" spans="19:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="19:27" x14ac:dyDescent="0.25">
       <c r="S26" s="3" t="s">
         <v>129</v>
       </c>
@@ -10809,21 +10827,22 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" customWidth="1"/>
-    <col min="6" max="7" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -10840,7 +10859,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -10887,7 +10906,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -10935,7 +10954,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -10977,7 +10996,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -11010,7 +11029,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
@@ -11040,7 +11059,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
@@ -11061,7 +11080,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
@@ -11088,7 +11107,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -11116,7 +11135,7 @@
         <v>0.13824884792626729</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>26</v>
       </c>
@@ -11141,7 +11160,7 @@
         <v>9.8360655737704916E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -11159,10 +11178,10 @@
         <v>7.6E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>261</v>
       </c>
@@ -11179,67 +11198,126 @@
         <v>1.8800000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>332</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="C23" t="s">
         <v>333</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="D23" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="55" t="s">
-        <v>335</v>
-      </c>
-      <c r="C24" s="56">
-        <v>5.1999999999999998E-3</v>
-      </c>
-      <c r="D24" s="56">
-        <v>1.2513E-2</v>
-      </c>
-      <c r="E24" s="56">
-        <v>4.3395000000000003E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" s="55" t="s">
-        <v>336</v>
-      </c>
-      <c r="C25" s="56">
-        <v>8.6829999999999997E-3</v>
-      </c>
-      <c r="D25" s="56">
-        <v>2.0896999999999999E-2</v>
-      </c>
-      <c r="E25" s="56">
-        <v>7.2469000000000006E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>340</v>
+      </c>
+      <c r="B24" s="41">
+        <v>8.0070000000000002E-3</v>
+      </c>
+      <c r="C24" s="41">
+        <v>1.9269999999999999E-2</v>
+      </c>
+      <c r="D24" s="41">
+        <v>6.6827999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>341</v>
+      </c>
+      <c r="B25" s="41">
+        <v>9.7230000000000007E-3</v>
+      </c>
+      <c r="C25" s="41">
+        <v>2.3399E-2</v>
+      </c>
+      <c r="D25" s="41">
+        <v>8.1147999999999998E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>342</v>
+      </c>
+      <c r="B26" s="41">
+        <v>1.1802999999999999E-2</v>
+      </c>
+      <c r="C26" s="41">
+        <v>2.8403999999999999E-2</v>
+      </c>
+      <c r="D26" s="41">
+        <v>9.8505999999999996E-2</v>
+      </c>
       <c r="N26" t="s">
         <v>258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>343</v>
+      </c>
+      <c r="B27" s="41">
+        <v>1.4298999999999999E-2</v>
+      </c>
+      <c r="C27" s="41">
+        <v>3.4410999999999997E-2</v>
+      </c>
+      <c r="D27" s="41">
+        <v>0.119336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>339</v>
+      </c>
+      <c r="B28" s="41">
+        <v>8.0070000000000002E-3</v>
+      </c>
+      <c r="C28" s="41">
+        <v>1.9269999999999999E-2</v>
+      </c>
+      <c r="D28" s="41">
+        <v>6.6827999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="41">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="C29" s="41">
+        <v>1.2513E-2</v>
+      </c>
+      <c r="D29" s="41">
+        <v>4.3395000000000003E-2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -11257,28 +11335,28 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="41.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.54296875" customWidth="1"/>
-    <col min="25" max="25" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.54296875" customWidth="1"/>
-    <col min="31" max="31" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.5703125" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.5703125" customWidth="1"/>
+    <col min="31" max="31" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -11303,7 +11381,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
@@ -11366,7 +11444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
@@ -11430,7 +11508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
@@ -11494,7 +11572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -11534,7 +11612,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -11587,7 +11665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -11629,7 +11707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -11668,7 +11746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -11692,7 +11770,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -11725,7 +11803,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -11767,7 +11845,7 @@
         <v>0.74550000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -11796,7 +11874,7 @@
         <v>0.751</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>20</v>
       </c>
@@ -11827,7 +11905,7 @@
         <v>0.24271844660194175</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -11851,7 +11929,7 @@
         <v>0.12376237623762376</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="H15" s="7"/>
       <c r="N15" s="4" t="s">
         <v>67</v>
@@ -11869,21 +11947,21 @@
         <v>7.1225071225071226E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="H16" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>55</v>
       </c>
@@ -11891,7 +11969,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>1</v>
       </c>
@@ -11902,7 +11980,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -11913,12 +11991,12 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>47</v>
       </c>
@@ -11929,7 +12007,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>1</v>
       </c>
@@ -11946,7 +12024,7 @@
         <v>9.0833333333333339E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>34</v>
       </c>
@@ -11963,22 +12041,22 @@
         <v>6.6666666666666671E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>141</v>
       </c>
@@ -11986,7 +12064,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" s="22" t="s">
         <v>62</v>
       </c>
@@ -12006,7 +12084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>83</v>
       </c>
@@ -12035,7 +12113,7 @@
         <v>7.5000000000000002E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>88</v>
       </c>
@@ -12064,7 +12142,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>89</v>
       </c>
@@ -12093,7 +12171,7 @@
         <v>1.7499999999999998E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>91</v>
       </c>
@@ -12123,7 +12201,7 @@
         <v>3.2500000000000003E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>142</v>
       </c>
@@ -12131,7 +12209,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B44" s="22" t="s">
         <v>62</v>
       </c>
@@ -12151,7 +12229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>83</v>
       </c>
@@ -12180,7 +12258,7 @@
         <v>1.25E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>88</v>
       </c>
@@ -12209,7 +12287,7 @@
         <v>3.4999999999999996E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>89</v>
       </c>
@@ -12238,7 +12316,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>91</v>
       </c>
@@ -12267,21 +12345,21 @@
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>90</v>
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G51" s="23"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>92</v>
       </c>
@@ -12295,7 +12373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>96</v>
       </c>
@@ -12309,7 +12387,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>94</v>
       </c>
@@ -12323,7 +12401,7 @@
         <v>4.2699999999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>95</v>
       </c>
@@ -12337,12 +12415,12 @@
         <v>13.42</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>92</v>
       </c>
@@ -12356,7 +12434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>96</v>
       </c>
@@ -12370,7 +12448,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>94</v>
       </c>
@@ -12384,7 +12462,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>95</v>
       </c>
@@ -12414,14 +12492,14 @@
       <selection activeCell="B3" sqref="B3:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>237</v>
       </c>
@@ -12429,7 +12507,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>229</v>
       </c>
@@ -12443,7 +12521,7 @@
         <v>16.6279069767441</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>230</v>
       </c>
@@ -12457,7 +12535,7 @@
         <v>39.999999999999901</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>231</v>
       </c>
@@ -12471,7 +12549,7 @@
         <v>45.232558139534802</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -12485,7 +12563,7 @@
         <v>43.139534883720899</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -12499,7 +12577,7 @@
         <v>39.651162790697597</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -12513,7 +12591,7 @@
         <v>24.651162790697601</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>

--- a/HPVData.xlsx
+++ b/HPVData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HPV" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="349">
   <si>
     <t>Age</t>
   </si>
@@ -1067,6 +1067,15 @@
   </si>
   <si>
     <t>Montly CC Mortality Rates</t>
+  </si>
+  <si>
+    <t>50% of all cervical cancer</t>
+  </si>
+  <si>
+    <t>20% of all cervical cancer</t>
+  </si>
+  <si>
+    <t>4v-Type Subgroup weighting</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1086,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1134,6 +1143,13 @@
       <i/>
       <sz val="11"/>
       <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1810,7 +1826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1939,6 +1955,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2769,7 +2787,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -3875,8 +3893,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BL85"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="N60" sqref="N60"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="AG52" sqref="AG52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7192,13 +7210,21 @@
         <v>312</v>
       </c>
     </row>
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="B22" s="102" t="s">
+        <v>348</v>
+      </c>
+    </row>
     <row r="23" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A23" s="55" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="55">
-        <f>0.5 / 0.9</f>
-        <v>0.55555555555555558</v>
+        <f>0.5/0.7</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D23" s="103" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:64" x14ac:dyDescent="0.25">
@@ -7206,8 +7232,11 @@
         <v>157</v>
       </c>
       <c r="B24" s="55">
-        <f>0.2 / 0.9</f>
-        <v>0.22222222222222224</v>
+        <f>0.2/0.7</f>
+        <v>0.28571428571428575</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:64" x14ac:dyDescent="0.25">
@@ -7215,8 +7244,8 @@
         <v>322</v>
       </c>
       <c r="B25" s="55">
-        <f>0.2/0.9</f>
-        <v>0.22222222222222224</v>
+        <f>0</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:64" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7335,15 +7364,15 @@
       </c>
       <c r="B28" s="55">
         <f t="array" ref="B28:B43">B23*B3:B18+B24*W3:W18+B25*AR3:AR18</f>
-        <v>0.63507222222222226</v>
+        <v>0.59184142857142863</v>
       </c>
       <c r="C28" s="55">
         <f t="array" ref="C28:C43">B23*D3:D18+B24*Y3:Y18+B25*AT3:AT18</f>
-        <v>0.1906882222222222</v>
+        <v>0.20884085714285716</v>
       </c>
       <c r="D28" s="55">
         <f t="array" ref="D28:D43">B23*E3:E18+B24*Z3:Z18+B25*AU3:AU18</f>
-        <v>6.0511777777777782E-2</v>
+        <v>6.6595428571428569E-2</v>
       </c>
       <c r="E28" s="55">
         <f t="array" ref="E28:E43">B23*F3:F18+B24*AA3:AA18+B25*AV3:AV18</f>
@@ -7351,35 +7380,35 @@
       </c>
       <c r="F28" s="55">
         <f t="array" ref="F28:F43">B23*G3:G18+B24*AB3:AB18+B25*AW3:AW18</f>
-        <v>0.20076577777777777</v>
+        <v>0.17677857142857142</v>
       </c>
       <c r="G28" s="55">
         <f t="array" ref="G28:G43">B23*H3:H18+B24*AB3:AB18+B25*AW3:AW18</f>
-        <v>0.11509022222222222</v>
+        <v>6.6624285714285719E-2</v>
       </c>
       <c r="H28" s="55">
         <f t="array" ref="H28:H43">B23*J3:J18+B24*AE3:AE18+B25*AZ3:AZ18</f>
-        <v>3.1567555555555557E-2</v>
+        <v>3.4775714285714292E-2</v>
       </c>
       <c r="I28" s="55">
         <f t="array" ref="I28:I43">B23*K3:K18+B24*AF3:AF18+B25*BA3:BA18</f>
-        <v>3.1567555555555557E-2</v>
+        <v>3.4775714285714292E-2</v>
       </c>
       <c r="J28" s="55">
         <f t="array" ref="J28:J43">B23*L3:L18+B24*AG3:AG18+B25*BB3:BB18</f>
-        <v>0.27628722222222224</v>
+        <v>0.24541728571428573</v>
       </c>
       <c r="K28" s="55">
         <f t="array" ref="K28:K43">B23*M3:M18+B24*AH3:AH18+B25*BC3:BC18</f>
-        <v>3.0275000000000003E-2</v>
+        <v>2.6168428571428575E-2</v>
       </c>
       <c r="L28" s="55">
         <f t="array" ref="L28:L43">B23*N3:N18+B24*AI3:AI18+B25*BD3:BD18</f>
-        <v>0.10549144444444444</v>
+        <v>9.1912428571428589E-2</v>
       </c>
       <c r="M28" s="55">
         <f t="array" ref="M28:M43">B23*P3:P18+B24*AK3:AK18+B25*BF3:BF18</f>
-        <v>0.12019611111111113</v>
+        <v>0.13199642857142857</v>
       </c>
       <c r="N28" s="55">
         <f t="array" ref="N28:N43">B23*Q3:Q18+B24*AL3:AL18+B25*BG3:BG18</f>
@@ -7391,15 +7420,15 @@
       </c>
       <c r="P28" s="55">
         <f t="array" ref="P28:P43">B23*S3:S18+B24*AN3:AN18+B25*BI3:BI18</f>
-        <v>6.0638666666666667E-2</v>
+        <v>5.2580571428571428E-2</v>
       </c>
       <c r="Q28" s="55">
         <f t="array" ref="Q28:Q43">B23*T3:T18+B24*AO3:AO18+B25*BJ3:BJ18</f>
-        <v>4.3276666666666672E-2</v>
+        <v>3.7457142857142862E-2</v>
       </c>
       <c r="R28" s="55">
         <f t="array" ref="R28:R43">B23*V3:V18+B24*AQ3:AQ18+B25*BL3:BL18</f>
-        <v>1.2063703703703702E-3</v>
+        <v>1.3352380952380953E-3</v>
       </c>
       <c r="V28" s="55" t="s">
         <v>309</v>
@@ -7464,40 +7493,40 @@
         <v>310</v>
       </c>
       <c r="B29" s="55">
-        <v>0.63507222222222226</v>
+        <v>0.59184142857142863</v>
       </c>
       <c r="C29" s="55">
-        <v>0.1906882222222222</v>
+        <v>0.20884085714285716</v>
       </c>
       <c r="D29" s="55">
-        <v>6.0511777777777782E-2</v>
+        <v>6.6595428571428569E-2</v>
       </c>
       <c r="E29" s="55">
         <v>0</v>
       </c>
       <c r="F29" s="55">
-        <v>0.20076577777777777</v>
+        <v>0.17677857142857142</v>
       </c>
       <c r="G29" s="55">
-        <v>0.11509022222222222</v>
+        <v>6.6624285714285719E-2</v>
       </c>
       <c r="H29" s="55">
-        <v>3.1567555555555557E-2</v>
+        <v>3.4775714285714292E-2</v>
       </c>
       <c r="I29" s="55">
-        <v>3.1567555555555557E-2</v>
+        <v>3.4775714285714292E-2</v>
       </c>
       <c r="J29" s="55">
-        <v>0.27628722222222224</v>
+        <v>0.24541728571428573</v>
       </c>
       <c r="K29" s="55">
-        <v>3.0275000000000003E-2</v>
+        <v>2.6168428571428575E-2</v>
       </c>
       <c r="L29" s="55">
-        <v>0.10549144444444444</v>
+        <v>9.1912428571428589E-2</v>
       </c>
       <c r="M29" s="55">
-        <v>0.12019611111111113</v>
+        <v>0.13199642857142857</v>
       </c>
       <c r="N29" s="55">
         <v>0</v>
@@ -7506,13 +7535,13 @@
         <v>0</v>
       </c>
       <c r="P29" s="55">
-        <v>6.0638666666666667E-2</v>
+        <v>5.2580571428571428E-2</v>
       </c>
       <c r="Q29" s="55">
-        <v>4.3276666666666672E-2</v>
+        <v>3.7457142857142862E-2</v>
       </c>
       <c r="R29" s="55">
-        <v>1.2063703703703702E-3</v>
+        <v>1.3352380952380953E-3</v>
       </c>
       <c r="V29" s="71" t="s">
         <v>310</v>
@@ -7574,40 +7603,40 @@
         <v>305</v>
       </c>
       <c r="B30" s="55">
-        <v>0.63507222222222226</v>
+        <v>0.59184142857142863</v>
       </c>
       <c r="C30" s="55">
-        <v>0.1906882222222222</v>
+        <v>0.20884085714285716</v>
       </c>
       <c r="D30" s="55">
-        <v>6.0511777777777782E-2</v>
+        <v>6.6595428571428569E-2</v>
       </c>
       <c r="E30" s="55">
         <v>0</v>
       </c>
       <c r="F30" s="55">
-        <v>0.20076577777777777</v>
+        <v>0.17677857142857142</v>
       </c>
       <c r="G30" s="55">
-        <v>0.11509022222222222</v>
+        <v>6.6624285714285719E-2</v>
       </c>
       <c r="H30" s="55">
-        <v>3.1567555555555557E-2</v>
+        <v>3.4775714285714292E-2</v>
       </c>
       <c r="I30" s="55">
-        <v>3.1567555555555557E-2</v>
+        <v>3.4775714285714292E-2</v>
       </c>
       <c r="J30" s="55">
-        <v>0.27628722222222224</v>
+        <v>0.24541728571428573</v>
       </c>
       <c r="K30" s="55">
-        <v>3.0275000000000003E-2</v>
+        <v>2.6168428571428575E-2</v>
       </c>
       <c r="L30" s="55">
-        <v>0.10549144444444444</v>
+        <v>9.1912428571428589E-2</v>
       </c>
       <c r="M30" s="55">
-        <v>0.12019611111111113</v>
+        <v>0.13199642857142857</v>
       </c>
       <c r="N30" s="55">
         <v>0</v>
@@ -7616,13 +7645,13 @@
         <v>0</v>
       </c>
       <c r="P30" s="55">
-        <v>6.0638666666666667E-2</v>
+        <v>5.2580571428571428E-2</v>
       </c>
       <c r="Q30" s="55">
-        <v>4.3276666666666672E-2</v>
+        <v>3.7457142857142862E-2</v>
       </c>
       <c r="R30" s="55">
-        <v>1.2063703703703702E-3</v>
+        <v>1.3352380952380953E-3</v>
       </c>
       <c r="V30" s="72" t="s">
         <v>305</v>
@@ -7684,40 +7713,40 @@
         <v>229</v>
       </c>
       <c r="B31" s="55">
-        <v>0.63507222222222226</v>
+        <v>0.59184142857142863</v>
       </c>
       <c r="C31" s="55">
-        <v>0.1906882222222222</v>
+        <v>0.20884085714285716</v>
       </c>
       <c r="D31" s="55">
-        <v>6.0511777777777782E-2</v>
+        <v>6.6595428571428569E-2</v>
       </c>
       <c r="E31" s="55">
         <v>0</v>
       </c>
       <c r="F31" s="55">
-        <v>0.20076577777777777</v>
+        <v>0.17677857142857142</v>
       </c>
       <c r="G31" s="55">
-        <v>0.11509022222222222</v>
+        <v>6.6624285714285719E-2</v>
       </c>
       <c r="H31" s="55">
-        <v>3.1567555555555557E-2</v>
+        <v>3.4775714285714292E-2</v>
       </c>
       <c r="I31" s="55">
-        <v>3.1567555555555557E-2</v>
+        <v>3.4775714285714292E-2</v>
       </c>
       <c r="J31" s="55">
-        <v>0.27628722222222224</v>
+        <v>0.24541728571428573</v>
       </c>
       <c r="K31" s="55">
-        <v>3.0275000000000003E-2</v>
+        <v>2.6168428571428575E-2</v>
       </c>
       <c r="L31" s="55">
-        <v>0.10549144444444444</v>
+        <v>9.1912428571428589E-2</v>
       </c>
       <c r="M31" s="55">
-        <v>0.12019611111111113</v>
+        <v>0.13199642857142857</v>
       </c>
       <c r="N31" s="55">
         <v>0</v>
@@ -7726,13 +7755,13 @@
         <v>0</v>
       </c>
       <c r="P31" s="55">
-        <v>6.0638666666666667E-2</v>
+        <v>5.2580571428571428E-2</v>
       </c>
       <c r="Q31" s="55">
-        <v>4.3276666666666672E-2</v>
+        <v>3.7457142857142862E-2</v>
       </c>
       <c r="R31" s="55">
-        <v>1.2063703703703702E-3</v>
+        <v>1.3352380952380953E-3</v>
       </c>
       <c r="V31" s="55" t="s">
         <v>229</v>
@@ -7794,40 +7823,40 @@
         <v>230</v>
       </c>
       <c r="B32" s="55">
-        <v>0.63507222222222226</v>
+        <v>0.59184142857142863</v>
       </c>
       <c r="C32" s="55">
-        <v>0.1906882222222222</v>
+        <v>0.20884085714285716</v>
       </c>
       <c r="D32" s="55">
-        <v>6.0511777777777782E-2</v>
+        <v>6.6595428571428569E-2</v>
       </c>
       <c r="E32" s="55">
         <v>0</v>
       </c>
       <c r="F32" s="55">
-        <v>0.20076577777777777</v>
+        <v>0.17677857142857142</v>
       </c>
       <c r="G32" s="55">
-        <v>0.11509022222222222</v>
+        <v>6.6624285714285719E-2</v>
       </c>
       <c r="H32" s="55">
-        <v>3.1567555555555557E-2</v>
+        <v>3.4775714285714292E-2</v>
       </c>
       <c r="I32" s="55">
-        <v>3.1567555555555557E-2</v>
+        <v>3.4775714285714292E-2</v>
       </c>
       <c r="J32" s="55">
-        <v>0.27628722222222224</v>
+        <v>0.24541728571428573</v>
       </c>
       <c r="K32" s="55">
-        <v>3.0275000000000003E-2</v>
+        <v>2.6168428571428575E-2</v>
       </c>
       <c r="L32" s="55">
-        <v>0.10549144444444444</v>
+        <v>9.1912428571428589E-2</v>
       </c>
       <c r="M32" s="55">
-        <v>0.12019611111111113</v>
+        <v>0.13199642857142857</v>
       </c>
       <c r="N32" s="55">
         <v>0</v>
@@ -7836,13 +7865,13 @@
         <v>0</v>
       </c>
       <c r="P32" s="55">
-        <v>6.0638666666666667E-2</v>
+        <v>5.2580571428571428E-2</v>
       </c>
       <c r="Q32" s="55">
-        <v>4.3276666666666672E-2</v>
+        <v>3.7457142857142862E-2</v>
       </c>
       <c r="R32" s="55">
-        <v>1.2063703703703702E-3</v>
+        <v>1.3352380952380953E-3</v>
       </c>
       <c r="V32" s="55" t="s">
         <v>230</v>
@@ -7904,40 +7933,40 @@
         <v>306</v>
       </c>
       <c r="B33" s="55">
-        <v>0.47923902777777783</v>
+        <v>0.43680510714285714</v>
       </c>
       <c r="C33" s="55">
-        <v>0.10832644444444445</v>
+        <v>0.11901342857142858</v>
       </c>
       <c r="D33" s="55">
-        <v>1.8234888888888887E-2</v>
+        <v>2.0095714285714286E-2</v>
       </c>
       <c r="E33" s="55">
         <v>0</v>
       </c>
       <c r="F33" s="55">
-        <v>0.20076577777777777</v>
+        <v>0.17677857142857142</v>
       </c>
       <c r="G33" s="55">
-        <v>0.11509022222222223</v>
+        <v>6.6624285714285719E-2</v>
       </c>
       <c r="H33" s="55">
-        <v>3.6404888888888889E-2</v>
+        <v>4.0098285714285718E-2</v>
       </c>
       <c r="I33" s="55">
-        <v>3.7341083333333337E-2</v>
+        <v>4.1128035714285714E-2</v>
       </c>
       <c r="J33" s="55">
-        <v>0.27628722222222224</v>
+        <v>0.24541728571428573</v>
       </c>
       <c r="K33" s="55">
-        <v>3.0275000000000003E-2</v>
+        <v>2.6168428571428575E-2</v>
       </c>
       <c r="L33" s="55">
-        <v>0.10549144444444444</v>
+        <v>9.1912428571428589E-2</v>
       </c>
       <c r="M33" s="55">
-        <v>0.19646522222222224</v>
+        <v>0.21510314285714285</v>
       </c>
       <c r="N33" s="55">
         <v>0</v>
@@ -7946,13 +7975,13 @@
         <v>0</v>
       </c>
       <c r="P33" s="55">
-        <v>4.3291777777777776E-2</v>
+        <v>3.7497999999999997E-2</v>
       </c>
       <c r="Q33" s="55">
-        <v>3.6779833333333331E-2</v>
+        <v>3.182385714285714E-2</v>
       </c>
       <c r="R33" s="55">
-        <v>1.2754222222222222E-2</v>
+        <v>1.4111071428571429E-2</v>
       </c>
       <c r="V33" s="55" t="s">
         <v>306</v>
@@ -8014,40 +8043,40 @@
         <v>10</v>
       </c>
       <c r="B34" s="55">
-        <v>0.47923902777777783</v>
+        <v>0.43680510714285714</v>
       </c>
       <c r="C34" s="55">
-        <v>0.10832644444444445</v>
+        <v>0.11901342857142858</v>
       </c>
       <c r="D34" s="55">
-        <v>1.8234888888888887E-2</v>
+        <v>2.0095714285714286E-2</v>
       </c>
       <c r="E34" s="55">
         <v>0</v>
       </c>
       <c r="F34" s="55">
-        <v>0.20076577777777777</v>
+        <v>0.17677857142857142</v>
       </c>
       <c r="G34" s="55">
-        <v>0.11509022222222223</v>
+        <v>6.6624285714285719E-2</v>
       </c>
       <c r="H34" s="55">
-        <v>3.6404888888888889E-2</v>
+        <v>4.0098285714285718E-2</v>
       </c>
       <c r="I34" s="55">
-        <v>3.7341083333333337E-2</v>
+        <v>4.1128035714285714E-2</v>
       </c>
       <c r="J34" s="55">
-        <v>0.27628722222222224</v>
+        <v>0.24541728571428573</v>
       </c>
       <c r="K34" s="55">
-        <v>3.0275000000000003E-2</v>
+        <v>2.6168428571428575E-2</v>
       </c>
       <c r="L34" s="55">
-        <v>0.10549144444444444</v>
+        <v>9.1912428571428589E-2</v>
       </c>
       <c r="M34" s="55">
-        <v>0.19646522222222224</v>
+        <v>0.21510314285714285</v>
       </c>
       <c r="N34" s="55">
         <v>0</v>
@@ -8056,13 +8085,13 @@
         <v>0</v>
       </c>
       <c r="P34" s="55">
-        <v>4.3291777777777776E-2</v>
+        <v>3.7497999999999997E-2</v>
       </c>
       <c r="Q34" s="55">
-        <v>3.6779833333333331E-2</v>
+        <v>3.182385714285714E-2</v>
       </c>
       <c r="R34" s="55">
-        <v>1.2754222222222222E-2</v>
+        <v>1.4111071428571429E-2</v>
       </c>
       <c r="V34" s="55" t="s">
         <v>10</v>
@@ -8124,40 +8153,40 @@
         <v>11</v>
       </c>
       <c r="B35" s="55">
-        <v>0.47923902777777783</v>
+        <v>0.43680510714285714</v>
       </c>
       <c r="C35" s="55">
-        <v>0.10832644444444445</v>
+        <v>0.11901342857142858</v>
       </c>
       <c r="D35" s="55">
-        <v>1.8234888888888887E-2</v>
+        <v>2.0095714285714286E-2</v>
       </c>
       <c r="E35" s="55">
         <v>0</v>
       </c>
       <c r="F35" s="55">
-        <v>0.20076577777777777</v>
+        <v>0.17677857142857142</v>
       </c>
       <c r="G35" s="55">
-        <v>0.11509022222222223</v>
+        <v>6.6624285714285719E-2</v>
       </c>
       <c r="H35" s="55">
-        <v>3.6404888888888889E-2</v>
+        <v>4.0098285714285718E-2</v>
       </c>
       <c r="I35" s="55">
-        <v>3.7341083333333337E-2</v>
+        <v>4.1128035714285714E-2</v>
       </c>
       <c r="J35" s="55">
-        <v>0.27628722222222224</v>
+        <v>0.24541728571428573</v>
       </c>
       <c r="K35" s="55">
-        <v>3.0275000000000003E-2</v>
+        <v>2.6168428571428575E-2</v>
       </c>
       <c r="L35" s="55">
-        <v>0.10549144444444444</v>
+        <v>9.1912428571428589E-2</v>
       </c>
       <c r="M35" s="55">
-        <v>0.19646522222222224</v>
+        <v>0.21510314285714285</v>
       </c>
       <c r="N35" s="55">
         <v>0</v>
@@ -8166,13 +8195,13 @@
         <v>0</v>
       </c>
       <c r="P35" s="55">
-        <v>4.3291777777777776E-2</v>
+        <v>3.7497999999999997E-2</v>
       </c>
       <c r="Q35" s="55">
-        <v>3.6779833333333331E-2</v>
+        <v>3.182385714285714E-2</v>
       </c>
       <c r="R35" s="55">
-        <v>1.2754222222222222E-2</v>
+        <v>1.4111071428571429E-2</v>
       </c>
       <c r="V35" s="55" t="s">
         <v>11</v>
@@ -8234,40 +8263,40 @@
         <v>12</v>
       </c>
       <c r="B36" s="55">
-        <v>0.47923902777777783</v>
+        <v>0.43680510714285714</v>
       </c>
       <c r="C36" s="55">
-        <v>0.10832644444444445</v>
+        <v>0.11901342857142858</v>
       </c>
       <c r="D36" s="55">
-        <v>1.8234888888888887E-2</v>
+        <v>2.0095714285714286E-2</v>
       </c>
       <c r="E36" s="55">
         <v>0</v>
       </c>
       <c r="F36" s="55">
-        <v>0.20076577777777777</v>
+        <v>0.17677857142857142</v>
       </c>
       <c r="G36" s="55">
-        <v>0.11509022222222223</v>
+        <v>6.6624285714285719E-2</v>
       </c>
       <c r="H36" s="55">
-        <v>3.6404888888888889E-2</v>
+        <v>4.0098285714285718E-2</v>
       </c>
       <c r="I36" s="55">
-        <v>3.7341083333333337E-2</v>
+        <v>4.1128035714285714E-2</v>
       </c>
       <c r="J36" s="55">
-        <v>0.27628722222222224</v>
+        <v>0.24541728571428573</v>
       </c>
       <c r="K36" s="55">
-        <v>3.0275000000000003E-2</v>
+        <v>2.6168428571428575E-2</v>
       </c>
       <c r="L36" s="55">
-        <v>0.10549144444444444</v>
+        <v>9.1912428571428589E-2</v>
       </c>
       <c r="M36" s="55">
-        <v>0.19646522222222224</v>
+        <v>0.21510314285714285</v>
       </c>
       <c r="N36" s="55">
         <v>0</v>
@@ -8276,13 +8305,13 @@
         <v>0</v>
       </c>
       <c r="P36" s="55">
-        <v>4.3291777777777776E-2</v>
+        <v>3.7497999999999997E-2</v>
       </c>
       <c r="Q36" s="55">
-        <v>3.6779833333333331E-2</v>
+        <v>3.182385714285714E-2</v>
       </c>
       <c r="R36" s="55">
-        <v>1.2754222222222222E-2</v>
+        <v>1.4111071428571429E-2</v>
       </c>
       <c r="V36" s="55" t="s">
         <v>12</v>
@@ -8344,40 +8373,40 @@
         <v>13</v>
       </c>
       <c r="B37" s="55">
-        <v>0.47923902777777783</v>
+        <v>0.43680510714285714</v>
       </c>
       <c r="C37" s="55">
-        <v>0.10832644444444445</v>
+        <v>0.11901342857142858</v>
       </c>
       <c r="D37" s="55">
-        <v>1.8234888888888887E-2</v>
+        <v>2.0095714285714286E-2</v>
       </c>
       <c r="E37" s="55">
         <v>0</v>
       </c>
       <c r="F37" s="55">
-        <v>0.20076577777777777</v>
+        <v>0.17677857142857142</v>
       </c>
       <c r="G37" s="55">
-        <v>0.11509022222222223</v>
+        <v>6.6624285714285719E-2</v>
       </c>
       <c r="H37" s="55">
-        <v>3.6404888888888889E-2</v>
+        <v>4.0098285714285718E-2</v>
       </c>
       <c r="I37" s="55">
-        <v>3.7341083333333337E-2</v>
+        <v>4.1128035714285714E-2</v>
       </c>
       <c r="J37" s="55">
-        <v>0.27628722222222224</v>
+        <v>0.24541728571428573</v>
       </c>
       <c r="K37" s="55">
-        <v>3.0275000000000003E-2</v>
+        <v>2.6168428571428575E-2</v>
       </c>
       <c r="L37" s="55">
-        <v>0.10549144444444444</v>
+        <v>9.1912428571428589E-2</v>
       </c>
       <c r="M37" s="55">
-        <v>0.19646522222222224</v>
+        <v>0.21510314285714285</v>
       </c>
       <c r="N37" s="55">
         <v>0</v>
@@ -8386,13 +8415,13 @@
         <v>0</v>
       </c>
       <c r="P37" s="55">
-        <v>4.3291777777777776E-2</v>
+        <v>3.7497999999999997E-2</v>
       </c>
       <c r="Q37" s="55">
-        <v>3.6779833333333331E-2</v>
+        <v>3.182385714285714E-2</v>
       </c>
       <c r="R37" s="55">
-        <v>1.2754222222222222E-2</v>
+        <v>1.4111071428571429E-2</v>
       </c>
       <c r="V37" s="55" t="s">
         <v>13</v>
@@ -8454,40 +8483,40 @@
         <v>232</v>
       </c>
       <c r="B38" s="55">
-        <v>0.29655408333333333</v>
+        <v>0.2642221785714286</v>
       </c>
       <c r="C38" s="55">
-        <v>8.4485888888888888E-2</v>
+        <v>9.2900999999999997E-2</v>
       </c>
       <c r="D38" s="55">
-        <v>6.0874444444444448E-3</v>
+        <v>6.7118571428571427E-3</v>
       </c>
       <c r="E38" s="55">
         <v>0</v>
       </c>
       <c r="F38" s="55">
-        <v>0.20076577777777777</v>
+        <v>0.17677857142857142</v>
       </c>
       <c r="G38" s="55">
-        <v>0.11509022222222223</v>
+        <v>6.6624285714285719E-2</v>
       </c>
       <c r="H38" s="55">
-        <v>4.8474333333333335E-2</v>
+        <v>5.3369857142857142E-2</v>
       </c>
       <c r="I38" s="55">
-        <v>4.0149666666666667E-2</v>
+        <v>4.4217285714285723E-2</v>
       </c>
       <c r="J38" s="55">
-        <v>0.27628722222222224</v>
+        <v>0.24541728571428573</v>
       </c>
       <c r="K38" s="55">
-        <v>3.0275000000000003E-2</v>
+        <v>2.6168428571428575E-2</v>
       </c>
       <c r="L38" s="55">
-        <v>0.10549144444444444</v>
+        <v>9.1912428571428589E-2</v>
       </c>
       <c r="M38" s="55">
-        <v>0.25986325000000005</v>
+        <v>0.28376689285714291</v>
       </c>
       <c r="N38" s="55">
         <v>0</v>
@@ -8496,13 +8525,13 @@
         <v>0</v>
       </c>
       <c r="P38" s="55">
-        <v>1.7293166666666665E-2</v>
+        <v>1.4934071428571428E-2</v>
       </c>
       <c r="Q38" s="55">
-        <v>1.0802944444444445E-2</v>
+        <v>9.3192142857142866E-3</v>
       </c>
       <c r="R38" s="55">
-        <v>2.9281861111111109E-2</v>
+        <v>3.2381464285714284E-2</v>
       </c>
       <c r="V38" s="55" t="s">
         <v>232</v>
@@ -8564,40 +8593,40 @@
         <v>233</v>
       </c>
       <c r="B39" s="55">
-        <v>0.29655408333333333</v>
+        <v>0.2642221785714286</v>
       </c>
       <c r="C39" s="55">
-        <v>8.4485888888888888E-2</v>
+        <v>9.2900999999999997E-2</v>
       </c>
       <c r="D39" s="55">
-        <v>6.0874444444444448E-3</v>
+        <v>6.7118571428571427E-3</v>
       </c>
       <c r="E39" s="55">
         <v>0</v>
       </c>
       <c r="F39" s="55">
-        <v>0.20076577777777777</v>
+        <v>0.17677857142857142</v>
       </c>
       <c r="G39" s="55">
-        <v>0.11509022222222223</v>
+        <v>6.6624285714285719E-2</v>
       </c>
       <c r="H39" s="55">
-        <v>4.8474333333333335E-2</v>
+        <v>5.3369857142857142E-2</v>
       </c>
       <c r="I39" s="55">
-        <v>4.0149666666666667E-2</v>
+        <v>4.4217285714285723E-2</v>
       </c>
       <c r="J39" s="55">
-        <v>0.27628722222222224</v>
+        <v>0.24541728571428573</v>
       </c>
       <c r="K39" s="55">
-        <v>3.0275000000000003E-2</v>
+        <v>2.6168428571428575E-2</v>
       </c>
       <c r="L39" s="55">
-        <v>0.10549144444444444</v>
+        <v>9.1912428571428589E-2</v>
       </c>
       <c r="M39" s="55">
-        <v>0.25986325000000005</v>
+        <v>0.28376689285714291</v>
       </c>
       <c r="N39" s="55">
         <v>0</v>
@@ -8606,13 +8635,13 @@
         <v>0</v>
       </c>
       <c r="P39" s="55">
-        <v>1.7293166666666665E-2</v>
+        <v>1.4934071428571428E-2</v>
       </c>
       <c r="Q39" s="55">
-        <v>1.0802944444444445E-2</v>
+        <v>9.3192142857142866E-3</v>
       </c>
       <c r="R39" s="55">
-        <v>2.9281861111111109E-2</v>
+        <v>3.2381464285714284E-2</v>
       </c>
       <c r="V39" s="55" t="s">
         <v>233</v>
@@ -8674,40 +8703,40 @@
         <v>253</v>
       </c>
       <c r="B40" s="55">
-        <v>0.29655408333333333</v>
+        <v>0.2642221785714286</v>
       </c>
       <c r="C40" s="55">
-        <v>8.4485888888888888E-2</v>
+        <v>9.2900999999999997E-2</v>
       </c>
       <c r="D40" s="55">
-        <v>6.0874444444444448E-3</v>
+        <v>6.7118571428571427E-3</v>
       </c>
       <c r="E40" s="55">
         <v>0</v>
       </c>
       <c r="F40" s="55">
-        <v>0.20076577777777777</v>
+        <v>0.17677857142857142</v>
       </c>
       <c r="G40" s="55">
-        <v>0.11509022222222223</v>
+        <v>6.6624285714285719E-2</v>
       </c>
       <c r="H40" s="55">
-        <v>4.8474333333333335E-2</v>
+        <v>5.3369857142857142E-2</v>
       </c>
       <c r="I40" s="55">
-        <v>4.0149666666666667E-2</v>
+        <v>4.4217285714285723E-2</v>
       </c>
       <c r="J40" s="55">
-        <v>0.27628722222222224</v>
+        <v>0.24541728571428573</v>
       </c>
       <c r="K40" s="55">
-        <v>3.0275000000000003E-2</v>
+        <v>2.6168428571428575E-2</v>
       </c>
       <c r="L40" s="55">
-        <v>0.10549144444444444</v>
+        <v>9.1912428571428589E-2</v>
       </c>
       <c r="M40" s="55">
-        <v>0.25986325000000005</v>
+        <v>0.28376689285714291</v>
       </c>
       <c r="N40" s="55">
         <v>0</v>
@@ -8716,13 +8745,13 @@
         <v>0</v>
       </c>
       <c r="P40" s="55">
-        <v>1.7293166666666665E-2</v>
+        <v>1.4934071428571428E-2</v>
       </c>
       <c r="Q40" s="55">
-        <v>1.0802944444444445E-2</v>
+        <v>9.3192142857142866E-3</v>
       </c>
       <c r="R40" s="55">
-        <v>2.9281861111111109E-2</v>
+        <v>3.2381464285714284E-2</v>
       </c>
       <c r="V40" s="55" t="s">
         <v>253</v>
@@ -8784,40 +8813,40 @@
         <v>254</v>
       </c>
       <c r="B41" s="55">
-        <v>0.29655408333333333</v>
+        <v>0.2642221785714286</v>
       </c>
       <c r="C41" s="55">
-        <v>8.4485888888888888E-2</v>
+        <v>9.2900999999999997E-2</v>
       </c>
       <c r="D41" s="55">
-        <v>6.0874444444444448E-3</v>
+        <v>6.7118571428571427E-3</v>
       </c>
       <c r="E41" s="55">
         <v>0</v>
       </c>
       <c r="F41" s="55">
-        <v>0.20076577777777777</v>
+        <v>0.17677857142857142</v>
       </c>
       <c r="G41" s="55">
-        <v>0.11509022222222223</v>
+        <v>6.6624285714285719E-2</v>
       </c>
       <c r="H41" s="55">
-        <v>4.8474333333333335E-2</v>
+        <v>5.3369857142857142E-2</v>
       </c>
       <c r="I41" s="55">
-        <v>4.0149666666666667E-2</v>
+        <v>4.4217285714285723E-2</v>
       </c>
       <c r="J41" s="55">
-        <v>0.27628722222222224</v>
+        <v>0.24541728571428573</v>
       </c>
       <c r="K41" s="55">
-        <v>3.0275000000000003E-2</v>
+        <v>2.6168428571428575E-2</v>
       </c>
       <c r="L41" s="55">
-        <v>0.10549144444444444</v>
+        <v>9.1912428571428589E-2</v>
       </c>
       <c r="M41" s="55">
-        <v>0.25986325000000005</v>
+        <v>0.28376689285714291</v>
       </c>
       <c r="N41" s="55">
         <v>0</v>
@@ -8826,13 +8855,13 @@
         <v>0</v>
       </c>
       <c r="P41" s="55">
-        <v>1.7293166666666665E-2</v>
+        <v>1.4934071428571428E-2</v>
       </c>
       <c r="Q41" s="55">
-        <v>1.0802944444444445E-2</v>
+        <v>9.3192142857142866E-3</v>
       </c>
       <c r="R41" s="55">
-        <v>2.9281861111111109E-2</v>
+        <v>3.2381464285714284E-2</v>
       </c>
       <c r="V41" s="55" t="s">
         <v>254</v>
@@ -8894,40 +8923,40 @@
         <v>307</v>
       </c>
       <c r="B42" s="55">
-        <v>0.26289588888888893</v>
+        <v>0.23315357142857146</v>
       </c>
       <c r="C42" s="55">
-        <v>8.4485888888888888E-2</v>
+        <v>9.2900999999999997E-2</v>
       </c>
       <c r="D42" s="55">
-        <v>6.0874444444444448E-3</v>
+        <v>6.7118571428571435E-3</v>
       </c>
       <c r="E42" s="55">
         <v>0</v>
       </c>
       <c r="F42" s="55">
-        <v>0.20076577777777777</v>
+        <v>0.17677857142857142</v>
       </c>
       <c r="G42" s="55">
-        <v>0.11509022222222222</v>
+        <v>6.6624285714285719E-2</v>
       </c>
       <c r="H42" s="55">
-        <v>4.8474333333333335E-2</v>
+        <v>5.3369857142857142E-2</v>
       </c>
       <c r="I42" s="55">
-        <v>4.0149666666666674E-2</v>
+        <v>4.4217285714285723E-2</v>
       </c>
       <c r="J42" s="55">
-        <v>0.27628722222222224</v>
+        <v>0.24541728571428573</v>
       </c>
       <c r="K42" s="55">
-        <v>3.0275000000000003E-2</v>
+        <v>2.6168428571428575E-2</v>
       </c>
       <c r="L42" s="55">
-        <v>0.10549144444444444</v>
+        <v>9.1912428571428589E-2</v>
       </c>
       <c r="M42" s="55">
-        <v>0.29776118518518513</v>
+        <v>0.32461285714285715</v>
       </c>
       <c r="N42" s="55">
         <v>0</v>
@@ -8936,13 +8965,13 @@
         <v>0</v>
       </c>
       <c r="P42" s="55">
-        <v>8.6414444444444447E-3</v>
+        <v>7.4527142857142865E-3</v>
       </c>
       <c r="Q42" s="55">
-        <v>5.7604814814814819E-3</v>
+        <v>4.9669047619047627E-3</v>
       </c>
       <c r="R42" s="55">
-        <v>3.4510925925925924E-2</v>
+        <v>3.8157761904761903E-2</v>
       </c>
       <c r="V42" s="78" t="s">
         <v>307</v>
@@ -9004,40 +9033,40 @@
         <v>308</v>
       </c>
       <c r="B43" s="55">
-        <v>0.26289588888888893</v>
+        <v>0.23315357142857146</v>
       </c>
       <c r="C43" s="55">
-        <v>8.4485888888888888E-2</v>
+        <v>9.2900999999999997E-2</v>
       </c>
       <c r="D43" s="55">
-        <v>6.0874444444444448E-3</v>
+        <v>6.7118571428571435E-3</v>
       </c>
       <c r="E43" s="55">
         <v>0</v>
       </c>
       <c r="F43" s="55">
-        <v>0.20076577777777777</v>
+        <v>0.17677857142857142</v>
       </c>
       <c r="G43" s="55">
-        <v>0.11509022222222222</v>
+        <v>6.6624285714285719E-2</v>
       </c>
       <c r="H43" s="55">
-        <v>4.8474333333333335E-2</v>
+        <v>5.3369857142857142E-2</v>
       </c>
       <c r="I43" s="55">
-        <v>4.0149666666666674E-2</v>
+        <v>4.4217285714285723E-2</v>
       </c>
       <c r="J43" s="55">
-        <v>0.27628722222222224</v>
+        <v>0.24541728571428573</v>
       </c>
       <c r="K43" s="55">
-        <v>3.0275000000000003E-2</v>
+        <v>2.6168428571428575E-2</v>
       </c>
       <c r="L43" s="55">
-        <v>0.10549144444444444</v>
+        <v>9.1912428571428589E-2</v>
       </c>
       <c r="M43" s="55">
-        <v>0.29776118518518513</v>
+        <v>0.32461285714285715</v>
       </c>
       <c r="N43" s="55">
         <v>0</v>
@@ -9046,13 +9075,13 @@
         <v>0</v>
       </c>
       <c r="P43" s="55">
-        <v>8.6414444444444447E-3</v>
+        <v>7.4527142857142865E-3</v>
       </c>
       <c r="Q43" s="55">
-        <v>5.7604814814814819E-3</v>
+        <v>4.9669047619047627E-3</v>
       </c>
       <c r="R43" s="55">
-        <v>3.4510925925925924E-2</v>
+        <v>3.8157761904761903E-2</v>
       </c>
       <c r="V43" s="55" t="s">
         <v>308</v>
@@ -9179,32 +9208,34 @@
       </c>
       <c r="B47" s="56">
         <f t="array" ref="B47:B62">((C28:C43+D28:D43) +C28:C43)/2</f>
-        <v>0.22094411111111109</v>
+        <v>0.24213857142857145</v>
       </c>
       <c r="C47" s="56">
         <f t="array" ref="C47:C62">(H28:H43*2+I28:I43)/2</f>
-        <v>4.7351333333333336E-2</v>
+        <v>5.2163571428571434E-2</v>
       </c>
       <c r="D47" s="56">
         <v>0.12019611111111113</v>
       </c>
       <c r="E47" s="56">
-        <v>1.2063703703703702E-3</v>
+        <f t="array" ref="E47:E62">R28:R43</f>
+        <v>1.3352380952380953E-3</v>
       </c>
       <c r="F47" s="56">
-        <v>0.63507222222222226</v>
+        <f t="array" ref="F47:F62">B28:B43</f>
+        <v>0.59184142857142863</v>
       </c>
       <c r="G47" s="56">
         <f t="array" ref="G47:G62">(F28:F43+G28:G43)/2</f>
-        <v>0.15792799999999999</v>
+        <v>0.12170142857142857</v>
       </c>
       <c r="H47" s="56">
         <f t="array" ref="H47:H62">(L28:L43+2*J28:J43)/2</f>
-        <v>0.32903294444444448</v>
+        <v>0.29137350000000001</v>
       </c>
       <c r="I47" s="56">
         <f t="array" ref="I47:I62">(Q28:Q43+2*P28:P43)/2</f>
-        <v>8.2277000000000003E-2</v>
+        <v>7.1309142857142863E-2</v>
       </c>
       <c r="V47" s="55" t="s">
         <v>309</v>
@@ -9218,12 +9249,15 @@
         <v>3.0508500000000001E-2</v>
       </c>
       <c r="Y47" s="56">
-        <v>0.12019611111111113</v>
+        <f t="array" ref="Y47:Y62">AH28:AH43</f>
+        <v>7.8895000000000007E-2</v>
       </c>
       <c r="Z47" s="56">
-        <v>1.2063703703703702E-3</v>
+        <f t="array" ref="Z47:Z62">AM28:AM43</f>
+        <v>7.5533333333333323E-4</v>
       </c>
       <c r="AA47" s="56">
+        <f t="array" ref="AA47:AA62">W28:W43</f>
         <v>0.78637999999999997</v>
       </c>
       <c r="AB47" s="56">
@@ -9244,28 +9278,28 @@
         <v>310</v>
       </c>
       <c r="B48" s="56">
-        <v>0.22094411111111109</v>
+        <v>0.24213857142857145</v>
       </c>
       <c r="C48" s="56">
-        <v>4.7351333333333336E-2</v>
+        <v>5.2163571428571434E-2</v>
       </c>
       <c r="D48" s="56">
         <v>0.12019611111111113</v>
       </c>
       <c r="E48" s="56">
-        <v>1.2063703703703702E-3</v>
+        <v>1.3352380952380953E-3</v>
       </c>
       <c r="F48" s="56">
-        <v>0.63507222222222226</v>
+        <v>0.59184142857142863</v>
       </c>
       <c r="G48" s="56">
-        <v>0.15792799999999999</v>
+        <v>0.12170142857142857</v>
       </c>
       <c r="H48" s="56">
-        <v>0.32903294444444448</v>
+        <v>0.29137350000000001</v>
       </c>
       <c r="I48" s="56">
-        <v>8.2277000000000003E-2</v>
+        <v>7.1309142857142863E-2</v>
       </c>
       <c r="V48" s="71" t="s">
         <v>310</v>
@@ -9277,10 +9311,10 @@
         <v>3.0508500000000001E-2</v>
       </c>
       <c r="Y48" s="56">
-        <v>0.12019611111111113</v>
+        <v>7.8895000000000007E-2</v>
       </c>
       <c r="Z48" s="56">
-        <v>1.2063703703703702E-3</v>
+        <v>7.5533333333333323E-4</v>
       </c>
       <c r="AA48" s="56">
         <v>0.78637999999999997</v>
@@ -9300,28 +9334,28 @@
         <v>305</v>
       </c>
       <c r="B49" s="56">
-        <v>0.22094411111111109</v>
+        <v>0.24213857142857145</v>
       </c>
       <c r="C49" s="56">
-        <v>4.7351333333333336E-2</v>
+        <v>5.2163571428571434E-2</v>
       </c>
       <c r="D49" s="56">
         <v>0.12019611111111113</v>
       </c>
       <c r="E49" s="56">
-        <v>1.2063703703703702E-3</v>
+        <v>1.3352380952380953E-3</v>
       </c>
       <c r="F49" s="56">
-        <v>0.63507222222222226</v>
+        <v>0.59184142857142863</v>
       </c>
       <c r="G49" s="56">
-        <v>0.15792799999999999</v>
+        <v>0.12170142857142857</v>
       </c>
       <c r="H49" s="56">
-        <v>0.32903294444444448</v>
+        <v>0.29137350000000001</v>
       </c>
       <c r="I49" s="56">
-        <v>8.2277000000000003E-2</v>
+        <v>7.1309142857142863E-2</v>
       </c>
       <c r="V49" s="72" t="s">
         <v>305</v>
@@ -9333,10 +9367,10 @@
         <v>3.0508500000000001E-2</v>
       </c>
       <c r="Y49" s="56">
-        <v>0.12019611111111113</v>
+        <v>7.8895000000000007E-2</v>
       </c>
       <c r="Z49" s="56">
-        <v>1.2063703703703702E-3</v>
+        <v>7.5533333333333323E-4</v>
       </c>
       <c r="AA49" s="56">
         <v>0.78637999999999997</v>
@@ -9356,28 +9390,28 @@
         <v>229</v>
       </c>
       <c r="B50" s="56">
-        <v>0.22094411111111109</v>
+        <v>0.24213857142857145</v>
       </c>
       <c r="C50" s="56">
-        <v>4.7351333333333336E-2</v>
+        <v>5.2163571428571434E-2</v>
       </c>
       <c r="D50" s="56">
         <v>0.12019611111111113</v>
       </c>
       <c r="E50" s="56">
-        <v>1.2063703703703702E-3</v>
+        <v>1.3352380952380953E-3</v>
       </c>
       <c r="F50" s="56">
-        <v>0.63507222222222226</v>
+        <v>0.59184142857142863</v>
       </c>
       <c r="G50" s="56">
-        <v>0.15792799999999999</v>
+        <v>0.12170142857142857</v>
       </c>
       <c r="H50" s="56">
-        <v>0.32903294444444448</v>
+        <v>0.29137350000000001</v>
       </c>
       <c r="I50" s="56">
-        <v>8.2277000000000003E-2</v>
+        <v>7.1309142857142863E-2</v>
       </c>
       <c r="V50" s="55" t="s">
         <v>229</v>
@@ -9389,10 +9423,10 @@
         <v>3.0508500000000001E-2</v>
       </c>
       <c r="Y50" s="56">
-        <v>0.12019611111111113</v>
+        <v>7.8895000000000007E-2</v>
       </c>
       <c r="Z50" s="56">
-        <v>1.2063703703703702E-3</v>
+        <v>7.5533333333333323E-4</v>
       </c>
       <c r="AA50" s="56">
         <v>0.78637999999999997</v>
@@ -9412,28 +9446,28 @@
         <v>230</v>
       </c>
       <c r="B51" s="56">
-        <v>0.22094411111111109</v>
+        <v>0.24213857142857145</v>
       </c>
       <c r="C51" s="56">
-        <v>4.7351333333333336E-2</v>
+        <v>5.2163571428571434E-2</v>
       </c>
       <c r="D51" s="56">
         <v>0.12019611111111113</v>
       </c>
       <c r="E51" s="56">
-        <v>1.2063703703703702E-3</v>
+        <v>1.3352380952380953E-3</v>
       </c>
       <c r="F51" s="56">
-        <v>0.63507222222222226</v>
+        <v>0.59184142857142863</v>
       </c>
       <c r="G51" s="56">
-        <v>0.15792799999999999</v>
+        <v>0.12170142857142857</v>
       </c>
       <c r="H51" s="56">
-        <v>0.32903294444444448</v>
+        <v>0.29137350000000001</v>
       </c>
       <c r="I51" s="56">
-        <v>8.2277000000000003E-2</v>
+        <v>7.1309142857142863E-2</v>
       </c>
       <c r="V51" s="55" t="s">
         <v>230</v>
@@ -9445,10 +9479,10 @@
         <v>3.0508500000000001E-2</v>
       </c>
       <c r="Y51" s="56">
-        <v>0.12019611111111113</v>
+        <v>7.8895000000000007E-2</v>
       </c>
       <c r="Z51" s="56">
-        <v>1.2063703703703702E-3</v>
+        <v>7.5533333333333323E-4</v>
       </c>
       <c r="AA51" s="56">
         <v>0.78637999999999997</v>
@@ -9468,28 +9502,28 @@
         <v>306</v>
       </c>
       <c r="B52" s="56">
-        <v>0.11744388888888889</v>
+        <v>0.12906128571428571</v>
       </c>
       <c r="C52" s="56">
-        <v>5.5075430555555555E-2</v>
+        <v>6.0662303571428572E-2</v>
       </c>
       <c r="D52" s="56">
         <v>0.19646522222222224</v>
       </c>
       <c r="E52" s="56">
-        <v>1.2754222222222222E-2</v>
+        <v>1.4111071428571429E-2</v>
       </c>
       <c r="F52" s="56">
-        <v>0.47923902777777783</v>
+        <v>0.43680510714285714</v>
       </c>
       <c r="G52" s="56">
-        <v>0.15792800000000001</v>
+        <v>0.12170142857142857</v>
       </c>
       <c r="H52" s="56">
-        <v>0.32903294444444448</v>
+        <v>0.29137350000000001</v>
       </c>
       <c r="I52" s="56">
-        <v>6.1681694444444442E-2</v>
+        <v>5.3409928571428567E-2</v>
       </c>
       <c r="V52" s="55" t="s">
         <v>306</v>
@@ -9501,10 +9535,10 @@
         <v>3.5521374999999994E-2</v>
       </c>
       <c r="Y52" s="56">
-        <v>0.19646522222222224</v>
+        <v>0.1312325</v>
       </c>
       <c r="Z52" s="56">
-        <v>1.2754222222222222E-2</v>
+        <v>8.0052500000000002E-3</v>
       </c>
       <c r="AA52" s="56">
         <v>0.62775775</v>
@@ -9524,28 +9558,28 @@
         <v>10</v>
       </c>
       <c r="B53" s="56">
-        <v>0.11744388888888889</v>
+        <v>0.12906128571428571</v>
       </c>
       <c r="C53" s="56">
-        <v>5.5075430555555555E-2</v>
+        <v>6.0662303571428572E-2</v>
       </c>
       <c r="D53" s="56">
         <v>0.19646522222222224</v>
       </c>
       <c r="E53" s="56">
-        <v>1.2754222222222222E-2</v>
+        <v>1.4111071428571429E-2</v>
       </c>
       <c r="F53" s="56">
-        <v>0.47923902777777783</v>
+        <v>0.43680510714285714</v>
       </c>
       <c r="G53" s="56">
-        <v>0.15792800000000001</v>
+        <v>0.12170142857142857</v>
       </c>
       <c r="H53" s="56">
-        <v>0.32903294444444448</v>
+        <v>0.29137350000000001</v>
       </c>
       <c r="I53" s="56">
-        <v>6.1681694444444442E-2</v>
+        <v>5.3409928571428567E-2</v>
       </c>
       <c r="V53" s="55" t="s">
         <v>10</v>
@@ -9557,10 +9591,10 @@
         <v>3.5521374999999994E-2</v>
       </c>
       <c r="Y53" s="56">
-        <v>0.19646522222222224</v>
+        <v>0.1312325</v>
       </c>
       <c r="Z53" s="56">
-        <v>1.2754222222222222E-2</v>
+        <v>8.0052500000000002E-3</v>
       </c>
       <c r="AA53" s="56">
         <v>0.62775775</v>
@@ -9580,28 +9614,28 @@
         <v>11</v>
       </c>
       <c r="B54" s="56">
-        <v>0.11744388888888889</v>
+        <v>0.12906128571428571</v>
       </c>
       <c r="C54" s="56">
-        <v>5.5075430555555555E-2</v>
+        <v>6.0662303571428572E-2</v>
       </c>
       <c r="D54" s="56">
         <v>0.19646522222222224</v>
       </c>
       <c r="E54" s="56">
-        <v>1.2754222222222222E-2</v>
+        <v>1.4111071428571429E-2</v>
       </c>
       <c r="F54" s="56">
-        <v>0.47923902777777783</v>
+        <v>0.43680510714285714</v>
       </c>
       <c r="G54" s="56">
-        <v>0.15792800000000001</v>
+        <v>0.12170142857142857</v>
       </c>
       <c r="H54" s="56">
-        <v>0.32903294444444448</v>
+        <v>0.29137350000000001</v>
       </c>
       <c r="I54" s="56">
-        <v>6.1681694444444442E-2</v>
+        <v>5.3409928571428567E-2</v>
       </c>
       <c r="V54" s="55" t="s">
         <v>11</v>
@@ -9613,10 +9647,10 @@
         <v>3.5521374999999994E-2</v>
       </c>
       <c r="Y54" s="56">
-        <v>0.19646522222222224</v>
+        <v>0.1312325</v>
       </c>
       <c r="Z54" s="56">
-        <v>1.2754222222222222E-2</v>
+        <v>8.0052500000000002E-3</v>
       </c>
       <c r="AA54" s="56">
         <v>0.62775775</v>
@@ -9636,28 +9670,28 @@
         <v>12</v>
       </c>
       <c r="B55" s="56">
-        <v>0.11744388888888889</v>
+        <v>0.12906128571428571</v>
       </c>
       <c r="C55" s="56">
-        <v>5.5075430555555555E-2</v>
+        <v>6.0662303571428572E-2</v>
       </c>
       <c r="D55" s="56">
         <v>0.19646522222222224</v>
       </c>
       <c r="E55" s="56">
-        <v>1.2754222222222222E-2</v>
+        <v>1.4111071428571429E-2</v>
       </c>
       <c r="F55" s="56">
-        <v>0.47923902777777783</v>
+        <v>0.43680510714285714</v>
       </c>
       <c r="G55" s="56">
-        <v>0.15792800000000001</v>
+        <v>0.12170142857142857</v>
       </c>
       <c r="H55" s="56">
-        <v>0.32903294444444448</v>
+        <v>0.29137350000000001</v>
       </c>
       <c r="I55" s="56">
-        <v>6.1681694444444442E-2</v>
+        <v>5.3409928571428567E-2</v>
       </c>
       <c r="V55" s="55" t="s">
         <v>12</v>
@@ -9669,10 +9703,10 @@
         <v>3.5521374999999994E-2</v>
       </c>
       <c r="Y55" s="56">
-        <v>0.19646522222222224</v>
+        <v>0.1312325</v>
       </c>
       <c r="Z55" s="56">
-        <v>1.2754222222222222E-2</v>
+        <v>8.0052500000000002E-3</v>
       </c>
       <c r="AA55" s="56">
         <v>0.62775775</v>
@@ -9692,28 +9726,28 @@
         <v>13</v>
       </c>
       <c r="B56" s="56">
-        <v>0.11744388888888889</v>
+        <v>0.12906128571428571</v>
       </c>
       <c r="C56" s="56">
-        <v>5.5075430555555555E-2</v>
+        <v>6.0662303571428572E-2</v>
       </c>
       <c r="D56" s="56">
         <v>0.19646522222222224</v>
       </c>
       <c r="E56" s="56">
-        <v>1.2754222222222222E-2</v>
+        <v>1.4111071428571429E-2</v>
       </c>
       <c r="F56" s="56">
-        <v>0.47923902777777783</v>
+        <v>0.43680510714285714</v>
       </c>
       <c r="G56" s="56">
-        <v>0.15792800000000001</v>
+        <v>0.12170142857142857</v>
       </c>
       <c r="H56" s="56">
-        <v>0.32903294444444448</v>
+        <v>0.29137350000000001</v>
       </c>
       <c r="I56" s="56">
-        <v>6.1681694444444442E-2</v>
+        <v>5.3409928571428567E-2</v>
       </c>
       <c r="V56" s="55" t="s">
         <v>13</v>
@@ -9725,10 +9759,10 @@
         <v>3.5521374999999994E-2</v>
       </c>
       <c r="Y56" s="56">
-        <v>0.19646522222222224</v>
+        <v>0.1312325</v>
       </c>
       <c r="Z56" s="56">
-        <v>1.2754222222222222E-2</v>
+        <v>8.0052500000000002E-3</v>
       </c>
       <c r="AA56" s="56">
         <v>0.62775775</v>
@@ -9748,28 +9782,28 @@
         <v>232</v>
       </c>
       <c r="B57" s="56">
-        <v>8.7529611111111114E-2</v>
+        <v>9.6256928571428563E-2</v>
       </c>
       <c r="C57" s="56">
-        <v>6.8549166666666661E-2</v>
+        <v>7.5478500000000004E-2</v>
       </c>
       <c r="D57" s="56">
         <v>0.25986325000000005</v>
       </c>
       <c r="E57" s="56">
-        <v>2.9281861111111109E-2</v>
+        <v>3.2381464285714284E-2</v>
       </c>
       <c r="F57" s="56">
-        <v>0.29655408333333333</v>
+        <v>0.2642221785714286</v>
       </c>
       <c r="G57" s="56">
-        <v>0.15792800000000001</v>
+        <v>0.12170142857142857</v>
       </c>
       <c r="H57" s="56">
-        <v>0.32903294444444448</v>
+        <v>0.29137350000000001</v>
       </c>
       <c r="I57" s="56">
-        <v>2.2694638888888889E-2</v>
+        <v>1.9593678571428571E-2</v>
       </c>
       <c r="V57" s="55" t="s">
         <v>232</v>
@@ -9781,10 +9815,10 @@
         <v>4.4296500000000003E-2</v>
       </c>
       <c r="Y57" s="56">
-        <v>0.25986325000000005</v>
+        <v>0.17620050000000001</v>
       </c>
       <c r="Z57" s="56">
-        <v>2.9281861111111109E-2</v>
+        <v>1.8433249999999998E-2</v>
       </c>
       <c r="AA57" s="56">
         <v>0.40971574999999999</v>
@@ -9804,28 +9838,28 @@
         <v>233</v>
       </c>
       <c r="B58" s="56">
-        <v>8.7529611111111114E-2</v>
+        <v>9.6256928571428563E-2</v>
       </c>
       <c r="C58" s="56">
-        <v>6.8549166666666661E-2</v>
+        <v>7.5478500000000004E-2</v>
       </c>
       <c r="D58" s="56">
         <v>0.25986325000000005</v>
       </c>
       <c r="E58" s="56">
-        <v>2.9281861111111109E-2</v>
+        <v>3.2381464285714284E-2</v>
       </c>
       <c r="F58" s="56">
-        <v>0.29655408333333333</v>
+        <v>0.2642221785714286</v>
       </c>
       <c r="G58" s="56">
-        <v>0.15792800000000001</v>
+        <v>0.12170142857142857</v>
       </c>
       <c r="H58" s="56">
-        <v>0.32903294444444448</v>
+        <v>0.29137350000000001</v>
       </c>
       <c r="I58" s="56">
-        <v>2.2694638888888889E-2</v>
+        <v>1.9593678571428571E-2</v>
       </c>
       <c r="V58" s="55" t="s">
         <v>233</v>
@@ -9837,10 +9871,10 @@
         <v>4.4296500000000003E-2</v>
       </c>
       <c r="Y58" s="56">
-        <v>0.25986325000000005</v>
+        <v>0.17620050000000001</v>
       </c>
       <c r="Z58" s="56">
-        <v>2.9281861111111109E-2</v>
+        <v>1.8433249999999998E-2</v>
       </c>
       <c r="AA58" s="56">
         <v>0.40971574999999999</v>
@@ -9860,28 +9894,28 @@
         <v>253</v>
       </c>
       <c r="B59" s="56">
-        <v>8.7529611111111114E-2</v>
+        <v>9.6256928571428563E-2</v>
       </c>
       <c r="C59" s="56">
-        <v>6.8549166666666661E-2</v>
+        <v>7.5478500000000004E-2</v>
       </c>
       <c r="D59" s="56">
         <v>0.25986325000000005</v>
       </c>
       <c r="E59" s="56">
-        <v>2.9281861111111109E-2</v>
+        <v>3.2381464285714284E-2</v>
       </c>
       <c r="F59" s="56">
-        <v>0.29655408333333333</v>
+        <v>0.2642221785714286</v>
       </c>
       <c r="G59" s="56">
-        <v>0.15792800000000001</v>
+        <v>0.12170142857142857</v>
       </c>
       <c r="H59" s="56">
-        <v>0.32903294444444448</v>
+        <v>0.29137350000000001</v>
       </c>
       <c r="I59" s="56">
-        <v>2.2694638888888889E-2</v>
+        <v>1.9593678571428571E-2</v>
       </c>
       <c r="V59" s="55" t="s">
         <v>253</v>
@@ -9893,10 +9927,10 @@
         <v>4.4296500000000003E-2</v>
       </c>
       <c r="Y59" s="56">
-        <v>0.25986325000000005</v>
+        <v>0.17620050000000001</v>
       </c>
       <c r="Z59" s="56">
-        <v>2.9281861111111109E-2</v>
+        <v>1.8433249999999998E-2</v>
       </c>
       <c r="AA59" s="56">
         <v>0.40971574999999999</v>
@@ -9916,28 +9950,28 @@
         <v>254</v>
       </c>
       <c r="B60" s="56">
-        <v>8.7529611111111114E-2</v>
+        <v>9.6256928571428563E-2</v>
       </c>
       <c r="C60" s="56">
-        <v>6.8549166666666661E-2</v>
+        <v>7.5478500000000004E-2</v>
       </c>
       <c r="D60" s="56">
         <v>0.25986325000000005</v>
       </c>
       <c r="E60" s="56">
-        <v>2.9281861111111109E-2</v>
+        <v>3.2381464285714284E-2</v>
       </c>
       <c r="F60" s="56">
-        <v>0.29655408333333333</v>
+        <v>0.2642221785714286</v>
       </c>
       <c r="G60" s="56">
-        <v>0.15792800000000001</v>
+        <v>0.12170142857142857</v>
       </c>
       <c r="H60" s="56">
-        <v>0.32903294444444448</v>
+        <v>0.29137350000000001</v>
       </c>
       <c r="I60" s="56">
-        <v>2.2694638888888889E-2</v>
+        <v>1.9593678571428571E-2</v>
       </c>
       <c r="V60" s="55" t="s">
         <v>254</v>
@@ -9949,10 +9983,10 @@
         <v>4.4296500000000003E-2</v>
       </c>
       <c r="Y60" s="56">
-        <v>0.25986325000000005</v>
+        <v>0.17620050000000001</v>
       </c>
       <c r="Z60" s="56">
-        <v>2.9281861111111109E-2</v>
+        <v>1.8433249999999998E-2</v>
       </c>
       <c r="AA60" s="56">
         <v>0.40971574999999999</v>
@@ -9972,28 +10006,28 @@
         <v>307</v>
       </c>
       <c r="B61" s="56">
-        <v>8.7529611111111114E-2</v>
+        <v>9.6256928571428563E-2</v>
       </c>
       <c r="C61" s="56">
-        <v>6.8549166666666675E-2</v>
+        <v>7.5478500000000004E-2</v>
       </c>
       <c r="D61" s="56">
         <v>0.29776118518518513</v>
       </c>
       <c r="E61" s="56">
-        <v>3.4510925925925924E-2</v>
+        <v>3.8157761904761903E-2</v>
       </c>
       <c r="F61" s="56">
-        <v>0.26289588888888893</v>
+        <v>0.23315357142857146</v>
       </c>
       <c r="G61" s="56">
-        <v>0.15792799999999999</v>
+        <v>0.12170142857142857</v>
       </c>
       <c r="H61" s="56">
-        <v>0.32903294444444448</v>
+        <v>0.29137350000000001</v>
       </c>
       <c r="I61" s="56">
-        <v>1.1521685185185185E-2</v>
+        <v>9.9361666666666678E-3</v>
       </c>
       <c r="V61" s="78" t="s">
         <v>307</v>
@@ -10005,10 +10039,10 @@
         <v>4.4296500000000003E-2</v>
       </c>
       <c r="Y61" s="56">
-        <v>0.29776118518518513</v>
+        <v>0.20378033333333334</v>
       </c>
       <c r="Z61" s="56">
-        <v>3.4510925925925924E-2</v>
+        <v>2.1746999999999999E-2</v>
       </c>
       <c r="AA61" s="56">
         <v>0.36699399999999999</v>
@@ -10028,28 +10062,28 @@
         <v>308</v>
       </c>
       <c r="B62" s="56">
-        <v>8.7529611111111114E-2</v>
+        <v>9.6256928571428563E-2</v>
       </c>
       <c r="C62" s="56">
-        <v>6.8549166666666675E-2</v>
+        <v>7.5478500000000004E-2</v>
       </c>
       <c r="D62" s="56">
         <v>0.29776118518518513</v>
       </c>
       <c r="E62" s="56">
-        <v>3.4510925925925924E-2</v>
+        <v>3.8157761904761903E-2</v>
       </c>
       <c r="F62" s="56">
-        <v>0.26289588888888893</v>
+        <v>0.23315357142857146</v>
       </c>
       <c r="G62" s="56">
-        <v>0.15792799999999999</v>
+        <v>0.12170142857142857</v>
       </c>
       <c r="H62" s="56">
-        <v>0.32903294444444448</v>
+        <v>0.29137350000000001</v>
       </c>
       <c r="I62" s="56">
-        <v>1.1521685185185185E-2</v>
+        <v>9.9361666666666678E-3</v>
       </c>
       <c r="V62" s="55" t="s">
         <v>308</v>
@@ -10061,10 +10095,10 @@
         <v>4.4296500000000003E-2</v>
       </c>
       <c r="Y62" s="56">
-        <v>0.29776118518518513</v>
+        <v>0.20378033333333334</v>
       </c>
       <c r="Z62" s="56">
-        <v>3.4510925925925924E-2</v>
+        <v>2.1746999999999999E-2</v>
       </c>
       <c r="AA62" s="56">
         <v>0.36699399999999999</v>
@@ -10829,8 +10863,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HPVData.xlsx
+++ b/HPVData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\HHCoM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicktzr\Google Drive\ICRC\CISNET\HHCoM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="350">
   <si>
     <t>Age</t>
   </si>
@@ -1039,9 +1039,6 @@
     <t>Sankar</t>
   </si>
   <si>
-    <t>Vaccine types</t>
-  </si>
-  <si>
     <t>Non-Vaccine Types</t>
   </si>
   <si>
@@ -1076,6 +1073,12 @@
   </si>
   <si>
     <t>4v-Type Subgroup weighting</t>
+  </si>
+  <si>
+    <t>Vaccine types (16/18)</t>
+  </si>
+  <si>
+    <t>Vaccine type (non-16/18)</t>
   </si>
 </sst>
 </file>
@@ -2791,19 +2794,19 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.453125" customWidth="1"/>
+    <col min="7" max="7" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
-    <col min="17" max="18" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.54296875" customWidth="1"/>
+    <col min="17" max="18" width="49.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.54296875" customWidth="1"/>
+    <col min="21" max="21" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="24" t="s">
         <v>146</v>
       </c>
@@ -2814,7 +2817,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>147</v>
       </c>
@@ -2864,7 +2867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>16</v>
       </c>
@@ -2914,7 +2917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>18</v>
       </c>
@@ -2964,7 +2967,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>31</v>
       </c>
@@ -3012,7 +3015,7 @@
         <v>8.08</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>33</v>
       </c>
@@ -3059,7 +3062,7 @@
         <v>14.04</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3092,7 +3095,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>39</v>
       </c>
@@ -3133,7 +3136,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>51</v>
       </c>
@@ -3147,7 +3150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>56</v>
       </c>
@@ -3164,7 +3167,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G11" s="24" t="s">
         <v>180</v>
       </c>
@@ -3181,7 +3184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
         <v>147</v>
       </c>
@@ -3220,7 +3223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>160</v>
       </c>
@@ -3263,7 +3266,7 @@
         <v>0.24271844660194175</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>149</v>
       </c>
@@ -3306,7 +3309,7 @@
         <v>0.12376237623762376</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>234</v>
       </c>
@@ -3338,7 +3341,7 @@
         <v>7.1225071225071226E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G16" s="4" t="s">
         <v>159</v>
       </c>
@@ -3352,7 +3355,7 @@
         <v>1.7130000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G17" s="11" t="s">
         <v>162</v>
       </c>
@@ -3366,7 +3369,7 @@
         <v>1.863</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G18" s="11" t="s">
         <v>54</v>
       </c>
@@ -3383,7 +3386,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="43"/>
       <c r="B19" s="44" t="s">
         <v>238</v>
@@ -3406,7 +3409,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="46"/>
       <c r="B20" s="7" t="s">
         <v>47</v>
@@ -3436,7 +3439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="46" t="s">
         <v>198</v>
       </c>
@@ -3466,7 +3469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="46" t="s">
         <v>199</v>
       </c>
@@ -3498,7 +3501,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="46" t="s">
         <v>241</v>
       </c>
@@ -3535,7 +3538,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="48" t="s">
         <v>201</v>
       </c>
@@ -3564,7 +3567,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G25" s="9" t="s">
         <v>183</v>
       </c>
@@ -3575,7 +3578,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G27" s="24" t="s">
         <v>184</v>
       </c>
@@ -3583,7 +3586,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="H28" t="s">
         <v>185</v>
       </c>
@@ -3597,7 +3600,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G29" s="4" t="s">
         <v>169</v>
       </c>
@@ -3621,7 +3624,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G30" s="4" t="s">
         <v>170</v>
       </c>
@@ -3645,7 +3648,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G31" s="11" t="s">
         <v>187</v>
       </c>
@@ -3670,7 +3673,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="Q32" t="s">
         <v>201</v>
       </c>
@@ -3678,7 +3681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:20" x14ac:dyDescent="0.35">
       <c r="G34" s="24" t="s">
         <v>179</v>
       </c>
@@ -3686,7 +3689,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:20" x14ac:dyDescent="0.35">
       <c r="G35" s="13" t="s">
         <v>147</v>
       </c>
@@ -3712,7 +3715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:20" x14ac:dyDescent="0.35">
       <c r="G36" s="4" t="s">
         <v>47</v>
       </c>
@@ -3745,7 +3748,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="37" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:20" x14ac:dyDescent="0.35">
       <c r="G37" s="4" t="s">
         <v>157</v>
       </c>
@@ -3778,7 +3781,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:20" x14ac:dyDescent="0.35">
       <c r="G38" s="4" t="s">
         <v>158</v>
       </c>
@@ -3799,7 +3802,7 @@
         <v>1.925E-2</v>
       </c>
     </row>
-    <row r="39" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:20" x14ac:dyDescent="0.35">
       <c r="G39" s="4" t="s">
         <v>159</v>
       </c>
@@ -3813,7 +3816,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="40" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:20" x14ac:dyDescent="0.35">
       <c r="G40" s="11" t="s">
         <v>162</v>
       </c>
@@ -3827,7 +3830,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="41" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:20" x14ac:dyDescent="0.35">
       <c r="G41" s="11" t="s">
         <v>54</v>
       </c>
@@ -3841,7 +3844,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:20" x14ac:dyDescent="0.35">
       <c r="G42" s="11" t="s">
         <v>163</v>
       </c>
@@ -3855,12 +3858,12 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="45" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:20" x14ac:dyDescent="0.35">
       <c r="G45" s="24" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="46" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:20" x14ac:dyDescent="0.35">
       <c r="G46" s="4" t="s">
         <v>62</v>
       </c>
@@ -3871,7 +3874,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="47" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:20" x14ac:dyDescent="0.35">
       <c r="G47" s="4">
         <v>0.48</v>
       </c>
@@ -3893,21 +3896,21 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BL85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="AG52" sqref="AG52"/>
+    <sheetView tabSelected="1" topLeftCell="O43" workbookViewId="0">
+      <selection activeCell="AF58" sqref="AF58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="55"/>
+    <col min="1" max="16384" width="8.7265625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="57" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="58" t="s">
         <v>262</v>
       </c>
@@ -4101,7 +4104,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="55" t="s">
         <v>309</v>
       </c>
@@ -4295,7 +4298,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="71" t="s">
         <v>310</v>
       </c>
@@ -4489,7 +4492,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="72" t="s">
         <v>305</v>
       </c>
@@ -4683,7 +4686,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="55" t="s">
         <v>229</v>
       </c>
@@ -4877,7 +4880,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A7" s="55" t="s">
         <v>230</v>
       </c>
@@ -5071,7 +5074,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A8" s="55" t="s">
         <v>306</v>
       </c>
@@ -5265,7 +5268,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A9" s="55" t="s">
         <v>10</v>
       </c>
@@ -5459,7 +5462,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A10" s="55" t="s">
         <v>11</v>
       </c>
@@ -5653,7 +5656,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A11" s="55" t="s">
         <v>12</v>
       </c>
@@ -5847,7 +5850,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A12" s="55" t="s">
         <v>13</v>
       </c>
@@ -6041,7 +6044,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A13" s="55" t="s">
         <v>232</v>
       </c>
@@ -6235,7 +6238,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A14" s="55" t="s">
         <v>233</v>
       </c>
@@ -6429,7 +6432,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A15" s="55" t="s">
         <v>253</v>
       </c>
@@ -6623,7 +6626,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A16" s="55" t="s">
         <v>254</v>
       </c>
@@ -6817,7 +6820,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="78" t="s">
         <v>307</v>
       </c>
@@ -7011,7 +7014,7 @@
         <v>2.1746999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="55" t="s">
         <v>308</v>
       </c>
@@ -7205,17 +7208,17 @@
         <v>2.1746999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A21" s="57" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.35">
       <c r="B22" s="102" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A23" s="55" t="s">
         <v>47</v>
       </c>
@@ -7224,10 +7227,10 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="D23" s="103" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A24" s="55" t="s">
         <v>157</v>
       </c>
@@ -7236,10 +7239,10 @@
         <v>0.28571428571428575</v>
       </c>
       <c r="D24" s="103" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A25" s="55" t="s">
         <v>322</v>
       </c>
@@ -7248,7 +7251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:64" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="84" t="s">
         <v>262</v>
       </c>
@@ -7358,7 +7361,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="55" t="s">
         <v>309</v>
       </c>
@@ -7488,7 +7491,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="71" t="s">
         <v>310</v>
       </c>
@@ -7598,7 +7601,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="72" t="s">
         <v>305</v>
       </c>
@@ -7708,7 +7711,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="55" t="s">
         <v>229</v>
       </c>
@@ -7818,7 +7821,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A32" s="55" t="s">
         <v>230</v>
       </c>
@@ -7928,7 +7931,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A33" s="55" t="s">
         <v>306</v>
       </c>
@@ -8038,7 +8041,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A34" s="55" t="s">
         <v>10</v>
       </c>
@@ -8148,7 +8151,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A35" s="55" t="s">
         <v>11</v>
       </c>
@@ -8258,7 +8261,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A36" s="55" t="s">
         <v>12</v>
       </c>
@@ -8368,7 +8371,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A37" s="55" t="s">
         <v>13</v>
       </c>
@@ -8478,7 +8481,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A38" s="55" t="s">
         <v>232</v>
       </c>
@@ -8588,7 +8591,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A39" s="55" t="s">
         <v>233</v>
       </c>
@@ -8698,7 +8701,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A40" s="55" t="s">
         <v>253</v>
       </c>
@@ -8808,7 +8811,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A41" s="55" t="s">
         <v>254</v>
       </c>
@@ -8918,7 +8921,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="78" t="s">
         <v>307</v>
       </c>
@@ -9028,7 +9031,7 @@
         <v>2.1746999999999999E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="55" t="s">
         <v>308</v>
       </c>
@@ -9138,15 +9141,18 @@
         <v>2.1746999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A45" s="55" t="s">
+        <v>348</v>
+      </c>
+      <c r="L45" s="55" t="s">
         <v>336</v>
       </c>
       <c r="V45" s="55" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="46" spans="1:39" ht="75" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A46" s="84" t="s">
         <v>262</v>
       </c>
@@ -9163,7 +9169,7 @@
         <v>329</v>
       </c>
       <c r="F46" s="85" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G46" s="85" t="s">
         <v>318</v>
@@ -9174,6 +9180,33 @@
       <c r="I46" s="85" t="s">
         <v>328</v>
       </c>
+      <c r="L46" s="84" t="s">
+        <v>262</v>
+      </c>
+      <c r="M46" s="85" t="s">
+        <v>314</v>
+      </c>
+      <c r="N46" s="85" t="s">
+        <v>319</v>
+      </c>
+      <c r="O46" s="85" t="s">
+        <v>325</v>
+      </c>
+      <c r="P46" s="85" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q46" s="85" t="s">
+        <v>337</v>
+      </c>
+      <c r="R46" s="85" t="s">
+        <v>318</v>
+      </c>
+      <c r="S46" s="85" t="s">
+        <v>324</v>
+      </c>
+      <c r="T46" s="85" t="s">
+        <v>328</v>
+      </c>
       <c r="V46" s="84" t="s">
         <v>262</v>
       </c>
@@ -9190,7 +9223,7 @@
         <v>329</v>
       </c>
       <c r="AA46" s="85" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AB46" s="85" t="s">
         <v>318</v>
@@ -9202,7 +9235,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A47" s="55" t="s">
         <v>309</v>
       </c>
@@ -9237,43 +9270,78 @@
         <f t="array" ref="I47:I62">(Q28:Q43+2*P28:P43)/2</f>
         <v>7.1309142857142863E-2</v>
       </c>
+      <c r="L47" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="M47" s="56">
+        <f t="array" ref="M47:M62">((X28:X43+Y28:Y43) +X28:X43)/2</f>
+        <v>0.14676349999999999</v>
+      </c>
+      <c r="N47" s="56">
+        <f t="array" ref="N47:N62">(AC28:AC43*2+AD28:AD43)/2</f>
+        <v>3.0508500000000001E-2</v>
+      </c>
+      <c r="O47" s="56">
+        <f t="array" ref="O47:O62">AH28:AH43</f>
+        <v>7.8895000000000007E-2</v>
+      </c>
+      <c r="P47" s="56">
+        <f t="array" ref="P47:P62">AM28:AM43</f>
+        <v>7.5533333333333323E-4</v>
+      </c>
+      <c r="Q47" s="56">
+        <f t="array" ref="Q47:Q62">W28:W43</f>
+        <v>0.78637999999999997</v>
+      </c>
+      <c r="R47" s="56">
+        <f t="array" ref="R47:R62">(AA28:AA43+AB28:AB43)/2</f>
+        <v>0.1615095</v>
+      </c>
+      <c r="S47" s="56">
+        <f t="array" ref="S47:S62">(AG28:AG43+2*AE28:AE43)/2</f>
+        <v>0.46084099999999995</v>
+      </c>
+      <c r="T47" s="56">
+        <f t="array" ref="T47:T62">(AL28:AL43+2*AK28:AK43)/2</f>
+        <v>0.12066450000000001</v>
+      </c>
       <c r="V47" s="55" t="s">
         <v>309</v>
       </c>
       <c r="W47" s="56">
-        <f t="array" ref="W47:W62">((X28:X43+Y28:Y43) +X28:X43)/2</f>
-        <v>0.14676349999999999</v>
+        <f t="array" ref="W47:W62">0.8*M47:M62</f>
+        <v>0.1174108</v>
       </c>
       <c r="X47" s="56">
-        <f t="array" ref="X47:X62">(AC28:AC43*2+AD28:AD43)/2</f>
-        <v>3.0508500000000001E-2</v>
+        <f t="array" ref="X47:X62">0.8*N47:N62</f>
+        <v>2.4406800000000003E-2</v>
       </c>
       <c r="Y47" s="56">
-        <f t="array" ref="Y47:Y62">AH28:AH43</f>
-        <v>7.8895000000000007E-2</v>
+        <f t="array" ref="Y47:Y62">0.8*O47:O62</f>
+        <v>6.3116000000000005E-2</v>
       </c>
       <c r="Z47" s="56">
-        <f t="array" ref="Z47:Z62">AM28:AM43</f>
-        <v>7.5533333333333323E-4</v>
+        <f t="array" ref="Z47:Z62">0.8*P47:P62</f>
+        <v>6.0426666666666665E-4</v>
       </c>
       <c r="AA47" s="56">
-        <f t="array" ref="AA47:AA62">W28:W43</f>
-        <v>0.78637999999999997</v>
+        <f t="array" ref="AA47:AA62">0.8*Q47:Q62</f>
+        <v>0.629104</v>
       </c>
       <c r="AB47" s="56">
-        <f t="array" ref="AB47:AB62">(AA28:AA43+AB28:AB43)/2</f>
-        <v>0.1615095</v>
+        <f t="array" ref="AB47:AB62">0.8*R47:R62</f>
+        <v>0.12920760000000001</v>
       </c>
       <c r="AC47" s="56">
-        <f t="array" ref="AC47:AC62">(AG28:AG43+2*AE28:AE43)/2</f>
-        <v>0.46084099999999995</v>
+        <f t="array" ref="AC47:AC62">0.8*S47:S62</f>
+        <v>0.36867279999999997</v>
       </c>
       <c r="AD47" s="56">
-        <f t="array" ref="AD47:AD62">(AL28:AL43+2*AK28:AK43)/2</f>
-        <v>0.12066450000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+        <f t="array" ref="AD47:AD62">0.8*T47:T62</f>
+        <v>9.6531600000000009E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A48" s="71" t="s">
         <v>310</v>
       </c>
@@ -9301,35 +9369,62 @@
       <c r="I48" s="56">
         <v>7.1309142857142863E-2</v>
       </c>
+      <c r="L48" s="71" t="s">
+        <v>310</v>
+      </c>
+      <c r="M48" s="56">
+        <v>0.14676349999999999</v>
+      </c>
+      <c r="N48" s="56">
+        <v>3.0508500000000001E-2</v>
+      </c>
+      <c r="O48" s="56">
+        <v>7.8895000000000007E-2</v>
+      </c>
+      <c r="P48" s="56">
+        <v>7.5533333333333323E-4</v>
+      </c>
+      <c r="Q48" s="56">
+        <v>0.78637999999999997</v>
+      </c>
+      <c r="R48" s="56">
+        <v>0.1615095</v>
+      </c>
+      <c r="S48" s="56">
+        <v>0.46084099999999995</v>
+      </c>
+      <c r="T48" s="56">
+        <v>0.12066450000000001</v>
+      </c>
       <c r="V48" s="71" t="s">
         <v>310</v>
       </c>
       <c r="W48" s="56">
-        <v>0.14676349999999999</v>
+        <v>0.1174108</v>
       </c>
       <c r="X48" s="56">
-        <v>3.0508500000000001E-2</v>
+        <v>2.4406800000000003E-2</v>
       </c>
       <c r="Y48" s="56">
-        <v>7.8895000000000007E-2</v>
+        <v>6.3116000000000005E-2</v>
       </c>
       <c r="Z48" s="56">
-        <v>7.5533333333333323E-4</v>
+        <v>6.0426666666666665E-4</v>
       </c>
       <c r="AA48" s="56">
-        <v>0.78637999999999997</v>
+        <v>0.629104</v>
       </c>
       <c r="AB48" s="56">
-        <v>0.1615095</v>
+        <v>0.12920760000000001</v>
       </c>
       <c r="AC48" s="56">
-        <v>0.46084099999999995</v>
+        <v>0.36867279999999997</v>
       </c>
       <c r="AD48" s="56">
-        <v>0.12066450000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+        <v>9.6531600000000009E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A49" s="72" t="s">
         <v>305</v>
       </c>
@@ -9357,35 +9452,62 @@
       <c r="I49" s="56">
         <v>7.1309142857142863E-2</v>
       </c>
+      <c r="L49" s="72" t="s">
+        <v>305</v>
+      </c>
+      <c r="M49" s="56">
+        <v>0.14676349999999999</v>
+      </c>
+      <c r="N49" s="56">
+        <v>3.0508500000000001E-2</v>
+      </c>
+      <c r="O49" s="56">
+        <v>7.8895000000000007E-2</v>
+      </c>
+      <c r="P49" s="56">
+        <v>7.5533333333333323E-4</v>
+      </c>
+      <c r="Q49" s="56">
+        <v>0.78637999999999997</v>
+      </c>
+      <c r="R49" s="56">
+        <v>0.1615095</v>
+      </c>
+      <c r="S49" s="56">
+        <v>0.46084099999999995</v>
+      </c>
+      <c r="T49" s="56">
+        <v>0.12066450000000001</v>
+      </c>
       <c r="V49" s="72" t="s">
         <v>305</v>
       </c>
       <c r="W49" s="56">
-        <v>0.14676349999999999</v>
+        <v>0.1174108</v>
       </c>
       <c r="X49" s="56">
-        <v>3.0508500000000001E-2</v>
+        <v>2.4406800000000003E-2</v>
       </c>
       <c r="Y49" s="56">
-        <v>7.8895000000000007E-2</v>
+        <v>6.3116000000000005E-2</v>
       </c>
       <c r="Z49" s="56">
-        <v>7.5533333333333323E-4</v>
+        <v>6.0426666666666665E-4</v>
       </c>
       <c r="AA49" s="56">
-        <v>0.78637999999999997</v>
+        <v>0.629104</v>
       </c>
       <c r="AB49" s="56">
-        <v>0.1615095</v>
+        <v>0.12920760000000001</v>
       </c>
       <c r="AC49" s="56">
-        <v>0.46084099999999995</v>
+        <v>0.36867279999999997</v>
       </c>
       <c r="AD49" s="56">
-        <v>0.12066450000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+        <v>9.6531600000000009E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A50" s="55" t="s">
         <v>229</v>
       </c>
@@ -9413,35 +9535,62 @@
       <c r="I50" s="56">
         <v>7.1309142857142863E-2</v>
       </c>
+      <c r="L50" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="M50" s="56">
+        <v>0.14676349999999999</v>
+      </c>
+      <c r="N50" s="56">
+        <v>3.0508500000000001E-2</v>
+      </c>
+      <c r="O50" s="56">
+        <v>7.8895000000000007E-2</v>
+      </c>
+      <c r="P50" s="56">
+        <v>7.5533333333333323E-4</v>
+      </c>
+      <c r="Q50" s="56">
+        <v>0.78637999999999997</v>
+      </c>
+      <c r="R50" s="56">
+        <v>0.1615095</v>
+      </c>
+      <c r="S50" s="56">
+        <v>0.46084099999999995</v>
+      </c>
+      <c r="T50" s="56">
+        <v>0.12066450000000001</v>
+      </c>
       <c r="V50" s="55" t="s">
         <v>229</v>
       </c>
       <c r="W50" s="56">
-        <v>0.14676349999999999</v>
+        <v>0.1174108</v>
       </c>
       <c r="X50" s="56">
-        <v>3.0508500000000001E-2</v>
+        <v>2.4406800000000003E-2</v>
       </c>
       <c r="Y50" s="56">
-        <v>7.8895000000000007E-2</v>
+        <v>6.3116000000000005E-2</v>
       </c>
       <c r="Z50" s="56">
-        <v>7.5533333333333323E-4</v>
+        <v>6.0426666666666665E-4</v>
       </c>
       <c r="AA50" s="56">
-        <v>0.78637999999999997</v>
+        <v>0.629104</v>
       </c>
       <c r="AB50" s="56">
-        <v>0.1615095</v>
+        <v>0.12920760000000001</v>
       </c>
       <c r="AC50" s="56">
-        <v>0.46084099999999995</v>
+        <v>0.36867279999999997</v>
       </c>
       <c r="AD50" s="56">
-        <v>0.12066450000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+        <v>9.6531600000000009E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A51" s="55" t="s">
         <v>230</v>
       </c>
@@ -9469,35 +9618,62 @@
       <c r="I51" s="56">
         <v>7.1309142857142863E-2</v>
       </c>
+      <c r="L51" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="M51" s="56">
+        <v>0.14676349999999999</v>
+      </c>
+      <c r="N51" s="56">
+        <v>3.0508500000000001E-2</v>
+      </c>
+      <c r="O51" s="56">
+        <v>7.8895000000000007E-2</v>
+      </c>
+      <c r="P51" s="56">
+        <v>7.5533333333333323E-4</v>
+      </c>
+      <c r="Q51" s="56">
+        <v>0.78637999999999997</v>
+      </c>
+      <c r="R51" s="56">
+        <v>0.1615095</v>
+      </c>
+      <c r="S51" s="56">
+        <v>0.46084099999999995</v>
+      </c>
+      <c r="T51" s="56">
+        <v>0.12066450000000001</v>
+      </c>
       <c r="V51" s="55" t="s">
         <v>230</v>
       </c>
       <c r="W51" s="56">
-        <v>0.14676349999999999</v>
+        <v>0.1174108</v>
       </c>
       <c r="X51" s="56">
-        <v>3.0508500000000001E-2</v>
+        <v>2.4406800000000003E-2</v>
       </c>
       <c r="Y51" s="56">
-        <v>7.8895000000000007E-2</v>
+        <v>6.3116000000000005E-2</v>
       </c>
       <c r="Z51" s="56">
-        <v>7.5533333333333323E-4</v>
+        <v>6.0426666666666665E-4</v>
       </c>
       <c r="AA51" s="56">
-        <v>0.78637999999999997</v>
+        <v>0.629104</v>
       </c>
       <c r="AB51" s="56">
-        <v>0.1615095</v>
+        <v>0.12920760000000001</v>
       </c>
       <c r="AC51" s="56">
-        <v>0.46084099999999995</v>
+        <v>0.36867279999999997</v>
       </c>
       <c r="AD51" s="56">
-        <v>0.12066450000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+        <v>9.6531600000000009E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A52" s="55" t="s">
         <v>306</v>
       </c>
@@ -9525,35 +9701,62 @@
       <c r="I52" s="56">
         <v>5.3409928571428567E-2</v>
       </c>
+      <c r="L52" s="55" t="s">
+        <v>306</v>
+      </c>
+      <c r="M52" s="56">
+        <v>7.678299999999999E-2</v>
+      </c>
+      <c r="N52" s="56">
+        <v>3.5521374999999994E-2</v>
+      </c>
+      <c r="O52" s="56">
+        <v>0.1312325</v>
+      </c>
+      <c r="P52" s="56">
+        <v>8.0052500000000002E-3</v>
+      </c>
+      <c r="Q52" s="56">
+        <v>0.62775775</v>
+      </c>
+      <c r="R52" s="56">
+        <v>0.1615095</v>
+      </c>
+      <c r="S52" s="56">
+        <v>0.460841</v>
+      </c>
+      <c r="T52" s="56">
+        <v>9.0632875000000002E-2</v>
+      </c>
       <c r="V52" s="55" t="s">
         <v>306</v>
       </c>
       <c r="W52" s="56">
-        <v>7.678299999999999E-2</v>
+        <v>6.1426399999999992E-2</v>
       </c>
       <c r="X52" s="56">
-        <v>3.5521374999999994E-2</v>
+        <v>2.8417099999999997E-2</v>
       </c>
       <c r="Y52" s="56">
-        <v>0.1312325</v>
+        <v>0.10498600000000001</v>
       </c>
       <c r="Z52" s="56">
-        <v>8.0052500000000002E-3</v>
+        <v>6.4042000000000005E-3</v>
       </c>
       <c r="AA52" s="56">
-        <v>0.62775775</v>
+        <v>0.50220620000000005</v>
       </c>
       <c r="AB52" s="56">
-        <v>0.1615095</v>
+        <v>0.12920760000000001</v>
       </c>
       <c r="AC52" s="56">
-        <v>0.460841</v>
+        <v>0.36867280000000002</v>
       </c>
       <c r="AD52" s="56">
-        <v>9.0632875000000002E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+        <v>7.250630000000001E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A53" s="55" t="s">
         <v>10</v>
       </c>
@@ -9581,35 +9784,62 @@
       <c r="I53" s="56">
         <v>5.3409928571428567E-2</v>
       </c>
+      <c r="L53" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="M53" s="56">
+        <v>7.678299999999999E-2</v>
+      </c>
+      <c r="N53" s="56">
+        <v>3.5521374999999994E-2</v>
+      </c>
+      <c r="O53" s="56">
+        <v>0.1312325</v>
+      </c>
+      <c r="P53" s="56">
+        <v>8.0052500000000002E-3</v>
+      </c>
+      <c r="Q53" s="56">
+        <v>0.62775775</v>
+      </c>
+      <c r="R53" s="56">
+        <v>0.1615095</v>
+      </c>
+      <c r="S53" s="56">
+        <v>0.460841</v>
+      </c>
+      <c r="T53" s="56">
+        <v>9.0632875000000002E-2</v>
+      </c>
       <c r="V53" s="55" t="s">
         <v>10</v>
       </c>
       <c r="W53" s="56">
-        <v>7.678299999999999E-2</v>
+        <v>6.1426399999999992E-2</v>
       </c>
       <c r="X53" s="56">
-        <v>3.5521374999999994E-2</v>
+        <v>2.8417099999999997E-2</v>
       </c>
       <c r="Y53" s="56">
-        <v>0.1312325</v>
+        <v>0.10498600000000001</v>
       </c>
       <c r="Z53" s="56">
-        <v>8.0052500000000002E-3</v>
+        <v>6.4042000000000005E-3</v>
       </c>
       <c r="AA53" s="56">
-        <v>0.62775775</v>
+        <v>0.50220620000000005</v>
       </c>
       <c r="AB53" s="56">
-        <v>0.1615095</v>
+        <v>0.12920760000000001</v>
       </c>
       <c r="AC53" s="56">
-        <v>0.460841</v>
+        <v>0.36867280000000002</v>
       </c>
       <c r="AD53" s="56">
-        <v>9.0632875000000002E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+        <v>7.250630000000001E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A54" s="55" t="s">
         <v>11</v>
       </c>
@@ -9637,35 +9867,62 @@
       <c r="I54" s="56">
         <v>5.3409928571428567E-2</v>
       </c>
+      <c r="L54" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="M54" s="56">
+        <v>7.678299999999999E-2</v>
+      </c>
+      <c r="N54" s="56">
+        <v>3.5521374999999994E-2</v>
+      </c>
+      <c r="O54" s="56">
+        <v>0.1312325</v>
+      </c>
+      <c r="P54" s="56">
+        <v>8.0052500000000002E-3</v>
+      </c>
+      <c r="Q54" s="56">
+        <v>0.62775775</v>
+      </c>
+      <c r="R54" s="56">
+        <v>0.1615095</v>
+      </c>
+      <c r="S54" s="56">
+        <v>0.460841</v>
+      </c>
+      <c r="T54" s="56">
+        <v>9.0632875000000002E-2</v>
+      </c>
       <c r="V54" s="55" t="s">
         <v>11</v>
       </c>
       <c r="W54" s="56">
-        <v>7.678299999999999E-2</v>
+        <v>6.1426399999999992E-2</v>
       </c>
       <c r="X54" s="56">
-        <v>3.5521374999999994E-2</v>
+        <v>2.8417099999999997E-2</v>
       </c>
       <c r="Y54" s="56">
-        <v>0.1312325</v>
+        <v>0.10498600000000001</v>
       </c>
       <c r="Z54" s="56">
-        <v>8.0052500000000002E-3</v>
+        <v>6.4042000000000005E-3</v>
       </c>
       <c r="AA54" s="56">
-        <v>0.62775775</v>
+        <v>0.50220620000000005</v>
       </c>
       <c r="AB54" s="56">
-        <v>0.1615095</v>
+        <v>0.12920760000000001</v>
       </c>
       <c r="AC54" s="56">
-        <v>0.460841</v>
+        <v>0.36867280000000002</v>
       </c>
       <c r="AD54" s="56">
-        <v>9.0632875000000002E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+        <v>7.250630000000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A55" s="55" t="s">
         <v>12</v>
       </c>
@@ -9693,35 +9950,62 @@
       <c r="I55" s="56">
         <v>5.3409928571428567E-2</v>
       </c>
+      <c r="L55" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="M55" s="56">
+        <v>7.678299999999999E-2</v>
+      </c>
+      <c r="N55" s="56">
+        <v>3.5521374999999994E-2</v>
+      </c>
+      <c r="O55" s="56">
+        <v>0.1312325</v>
+      </c>
+      <c r="P55" s="56">
+        <v>8.0052500000000002E-3</v>
+      </c>
+      <c r="Q55" s="56">
+        <v>0.62775775</v>
+      </c>
+      <c r="R55" s="56">
+        <v>0.1615095</v>
+      </c>
+      <c r="S55" s="56">
+        <v>0.460841</v>
+      </c>
+      <c r="T55" s="56">
+        <v>9.0632875000000002E-2</v>
+      </c>
       <c r="V55" s="55" t="s">
         <v>12</v>
       </c>
       <c r="W55" s="56">
-        <v>7.678299999999999E-2</v>
+        <v>6.1426399999999992E-2</v>
       </c>
       <c r="X55" s="56">
-        <v>3.5521374999999994E-2</v>
+        <v>2.8417099999999997E-2</v>
       </c>
       <c r="Y55" s="56">
-        <v>0.1312325</v>
+        <v>0.10498600000000001</v>
       </c>
       <c r="Z55" s="56">
-        <v>8.0052500000000002E-3</v>
+        <v>6.4042000000000005E-3</v>
       </c>
       <c r="AA55" s="56">
-        <v>0.62775775</v>
+        <v>0.50220620000000005</v>
       </c>
       <c r="AB55" s="56">
-        <v>0.1615095</v>
+        <v>0.12920760000000001</v>
       </c>
       <c r="AC55" s="56">
-        <v>0.460841</v>
+        <v>0.36867280000000002</v>
       </c>
       <c r="AD55" s="56">
-        <v>9.0632875000000002E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+        <v>7.250630000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A56" s="55" t="s">
         <v>13</v>
       </c>
@@ -9749,35 +10033,62 @@
       <c r="I56" s="56">
         <v>5.3409928571428567E-2</v>
       </c>
+      <c r="L56" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="M56" s="56">
+        <v>7.678299999999999E-2</v>
+      </c>
+      <c r="N56" s="56">
+        <v>3.5521374999999994E-2</v>
+      </c>
+      <c r="O56" s="56">
+        <v>0.1312325</v>
+      </c>
+      <c r="P56" s="56">
+        <v>8.0052500000000002E-3</v>
+      </c>
+      <c r="Q56" s="56">
+        <v>0.62775775</v>
+      </c>
+      <c r="R56" s="56">
+        <v>0.1615095</v>
+      </c>
+      <c r="S56" s="56">
+        <v>0.460841</v>
+      </c>
+      <c r="T56" s="56">
+        <v>9.0632875000000002E-2</v>
+      </c>
       <c r="V56" s="55" t="s">
         <v>13</v>
       </c>
       <c r="W56" s="56">
-        <v>7.678299999999999E-2</v>
+        <v>6.1426399999999992E-2</v>
       </c>
       <c r="X56" s="56">
-        <v>3.5521374999999994E-2</v>
+        <v>2.8417099999999997E-2</v>
       </c>
       <c r="Y56" s="56">
-        <v>0.1312325</v>
+        <v>0.10498600000000001</v>
       </c>
       <c r="Z56" s="56">
-        <v>8.0052500000000002E-3</v>
+        <v>6.4042000000000005E-3</v>
       </c>
       <c r="AA56" s="56">
-        <v>0.62775775</v>
+        <v>0.50220620000000005</v>
       </c>
       <c r="AB56" s="56">
-        <v>0.1615095</v>
+        <v>0.12920760000000001</v>
       </c>
       <c r="AC56" s="56">
-        <v>0.460841</v>
+        <v>0.36867280000000002</v>
       </c>
       <c r="AD56" s="56">
-        <v>9.0632875000000002E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+        <v>7.250630000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A57" s="55" t="s">
         <v>232</v>
       </c>
@@ -9805,35 +10116,62 @@
       <c r="I57" s="56">
         <v>1.9593678571428571E-2</v>
       </c>
+      <c r="L57" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="M57" s="56">
+        <v>5.6984E-2</v>
+      </c>
+      <c r="N57" s="56">
+        <v>4.4296500000000003E-2</v>
+      </c>
+      <c r="O57" s="56">
+        <v>0.17620050000000001</v>
+      </c>
+      <c r="P57" s="56">
+        <v>1.8433249999999998E-2</v>
+      </c>
+      <c r="Q57" s="56">
+        <v>0.40971574999999999</v>
+      </c>
+      <c r="R57" s="56">
+        <v>0.1615095</v>
+      </c>
+      <c r="S57" s="56">
+        <v>0.460841</v>
+      </c>
+      <c r="T57" s="56">
+        <v>3.3547999999999994E-2</v>
+      </c>
       <c r="V57" s="55" t="s">
         <v>232</v>
       </c>
       <c r="W57" s="56">
-        <v>5.6984E-2</v>
+        <v>4.5587200000000001E-2</v>
       </c>
       <c r="X57" s="56">
-        <v>4.4296500000000003E-2</v>
+        <v>3.5437200000000002E-2</v>
       </c>
       <c r="Y57" s="56">
-        <v>0.17620050000000001</v>
+        <v>0.14096040000000001</v>
       </c>
       <c r="Z57" s="56">
-        <v>1.8433249999999998E-2</v>
+        <v>1.4746599999999999E-2</v>
       </c>
       <c r="AA57" s="56">
-        <v>0.40971574999999999</v>
+        <v>0.32777260000000003</v>
       </c>
       <c r="AB57" s="56">
-        <v>0.1615095</v>
+        <v>0.12920760000000001</v>
       </c>
       <c r="AC57" s="56">
-        <v>0.460841</v>
+        <v>0.36867280000000002</v>
       </c>
       <c r="AD57" s="56">
-        <v>3.3547999999999994E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+        <v>2.6838399999999998E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A58" s="55" t="s">
         <v>233</v>
       </c>
@@ -9861,35 +10199,62 @@
       <c r="I58" s="56">
         <v>1.9593678571428571E-2</v>
       </c>
+      <c r="L58" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="M58" s="56">
+        <v>5.6984E-2</v>
+      </c>
+      <c r="N58" s="56">
+        <v>4.4296500000000003E-2</v>
+      </c>
+      <c r="O58" s="56">
+        <v>0.17620050000000001</v>
+      </c>
+      <c r="P58" s="56">
+        <v>1.8433249999999998E-2</v>
+      </c>
+      <c r="Q58" s="56">
+        <v>0.40971574999999999</v>
+      </c>
+      <c r="R58" s="56">
+        <v>0.1615095</v>
+      </c>
+      <c r="S58" s="56">
+        <v>0.460841</v>
+      </c>
+      <c r="T58" s="56">
+        <v>3.3547999999999994E-2</v>
+      </c>
       <c r="V58" s="55" t="s">
         <v>233</v>
       </c>
       <c r="W58" s="56">
-        <v>5.6984E-2</v>
+        <v>4.5587200000000001E-2</v>
       </c>
       <c r="X58" s="56">
-        <v>4.4296500000000003E-2</v>
+        <v>3.5437200000000002E-2</v>
       </c>
       <c r="Y58" s="56">
-        <v>0.17620050000000001</v>
+        <v>0.14096040000000001</v>
       </c>
       <c r="Z58" s="56">
-        <v>1.8433249999999998E-2</v>
+        <v>1.4746599999999999E-2</v>
       </c>
       <c r="AA58" s="56">
-        <v>0.40971574999999999</v>
+        <v>0.32777260000000003</v>
       </c>
       <c r="AB58" s="56">
-        <v>0.1615095</v>
+        <v>0.12920760000000001</v>
       </c>
       <c r="AC58" s="56">
-        <v>0.460841</v>
+        <v>0.36867280000000002</v>
       </c>
       <c r="AD58" s="56">
-        <v>3.3547999999999994E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+        <v>2.6838399999999998E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A59" s="55" t="s">
         <v>253</v>
       </c>
@@ -9917,35 +10282,62 @@
       <c r="I59" s="56">
         <v>1.9593678571428571E-2</v>
       </c>
+      <c r="L59" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="M59" s="56">
+        <v>5.6984E-2</v>
+      </c>
+      <c r="N59" s="56">
+        <v>4.4296500000000003E-2</v>
+      </c>
+      <c r="O59" s="56">
+        <v>0.17620050000000001</v>
+      </c>
+      <c r="P59" s="56">
+        <v>1.8433249999999998E-2</v>
+      </c>
+      <c r="Q59" s="56">
+        <v>0.40971574999999999</v>
+      </c>
+      <c r="R59" s="56">
+        <v>0.1615095</v>
+      </c>
+      <c r="S59" s="56">
+        <v>0.460841</v>
+      </c>
+      <c r="T59" s="56">
+        <v>3.3547999999999994E-2</v>
+      </c>
       <c r="V59" s="55" t="s">
         <v>253</v>
       </c>
       <c r="W59" s="56">
-        <v>5.6984E-2</v>
+        <v>4.5587200000000001E-2</v>
       </c>
       <c r="X59" s="56">
-        <v>4.4296500000000003E-2</v>
+        <v>3.5437200000000002E-2</v>
       </c>
       <c r="Y59" s="56">
-        <v>0.17620050000000001</v>
+        <v>0.14096040000000001</v>
       </c>
       <c r="Z59" s="56">
-        <v>1.8433249999999998E-2</v>
+        <v>1.4746599999999999E-2</v>
       </c>
       <c r="AA59" s="56">
-        <v>0.40971574999999999</v>
+        <v>0.32777260000000003</v>
       </c>
       <c r="AB59" s="56">
-        <v>0.1615095</v>
+        <v>0.12920760000000001</v>
       </c>
       <c r="AC59" s="56">
-        <v>0.460841</v>
+        <v>0.36867280000000002</v>
       </c>
       <c r="AD59" s="56">
-        <v>3.3547999999999994E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+        <v>2.6838399999999998E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A60" s="55" t="s">
         <v>254</v>
       </c>
@@ -9973,35 +10365,62 @@
       <c r="I60" s="56">
         <v>1.9593678571428571E-2</v>
       </c>
+      <c r="L60" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="M60" s="56">
+        <v>5.6984E-2</v>
+      </c>
+      <c r="N60" s="56">
+        <v>4.4296500000000003E-2</v>
+      </c>
+      <c r="O60" s="56">
+        <v>0.17620050000000001</v>
+      </c>
+      <c r="P60" s="56">
+        <v>1.8433249999999998E-2</v>
+      </c>
+      <c r="Q60" s="56">
+        <v>0.40971574999999999</v>
+      </c>
+      <c r="R60" s="56">
+        <v>0.1615095</v>
+      </c>
+      <c r="S60" s="56">
+        <v>0.460841</v>
+      </c>
+      <c r="T60" s="56">
+        <v>3.3547999999999994E-2</v>
+      </c>
       <c r="V60" s="55" t="s">
         <v>254</v>
       </c>
       <c r="W60" s="56">
-        <v>5.6984E-2</v>
+        <v>4.5587200000000001E-2</v>
       </c>
       <c r="X60" s="56">
-        <v>4.4296500000000003E-2</v>
+        <v>3.5437200000000002E-2</v>
       </c>
       <c r="Y60" s="56">
-        <v>0.17620050000000001</v>
+        <v>0.14096040000000001</v>
       </c>
       <c r="Z60" s="56">
-        <v>1.8433249999999998E-2</v>
+        <v>1.4746599999999999E-2</v>
       </c>
       <c r="AA60" s="56">
-        <v>0.40971574999999999</v>
+        <v>0.32777260000000003</v>
       </c>
       <c r="AB60" s="56">
-        <v>0.1615095</v>
+        <v>0.12920760000000001</v>
       </c>
       <c r="AC60" s="56">
-        <v>0.460841</v>
+        <v>0.36867280000000002</v>
       </c>
       <c r="AD60" s="56">
-        <v>3.3547999999999994E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+        <v>2.6838399999999998E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A61" s="78" t="s">
         <v>307</v>
       </c>
@@ -10029,35 +10448,62 @@
       <c r="I61" s="56">
         <v>9.9361666666666678E-3</v>
       </c>
+      <c r="L61" s="78" t="s">
+        <v>307</v>
+      </c>
+      <c r="M61" s="56">
+        <v>5.6984E-2</v>
+      </c>
+      <c r="N61" s="56">
+        <v>4.4296500000000003E-2</v>
+      </c>
+      <c r="O61" s="56">
+        <v>0.20378033333333334</v>
+      </c>
+      <c r="P61" s="56">
+        <v>2.1746999999999999E-2</v>
+      </c>
+      <c r="Q61" s="56">
+        <v>0.36699399999999999</v>
+      </c>
+      <c r="R61" s="56">
+        <v>0.1615095</v>
+      </c>
+      <c r="S61" s="56">
+        <v>0.46084099999999995</v>
+      </c>
+      <c r="T61" s="56">
+        <v>1.7070999999999999E-2</v>
+      </c>
       <c r="V61" s="78" t="s">
         <v>307</v>
       </c>
       <c r="W61" s="56">
-        <v>5.6984E-2</v>
+        <v>4.5587200000000001E-2</v>
       </c>
       <c r="X61" s="56">
-        <v>4.4296500000000003E-2</v>
+        <v>3.5437200000000002E-2</v>
       </c>
       <c r="Y61" s="56">
-        <v>0.20378033333333334</v>
+        <v>0.1630242666666667</v>
       </c>
       <c r="Z61" s="56">
-        <v>2.1746999999999999E-2</v>
+        <v>1.7397599999999999E-2</v>
       </c>
       <c r="AA61" s="56">
-        <v>0.36699399999999999</v>
+        <v>0.2935952</v>
       </c>
       <c r="AB61" s="56">
-        <v>0.1615095</v>
+        <v>0.12920760000000001</v>
       </c>
       <c r="AC61" s="56">
-        <v>0.46084099999999995</v>
+        <v>0.36867279999999997</v>
       </c>
       <c r="AD61" s="56">
-        <v>1.7070999999999999E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+        <v>1.36568E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A62" s="55" t="s">
         <v>308</v>
       </c>
@@ -10085,36 +10531,63 @@
       <c r="I62" s="56">
         <v>9.9361666666666678E-3</v>
       </c>
+      <c r="L62" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="M62" s="56">
+        <v>5.6984E-2</v>
+      </c>
+      <c r="N62" s="56">
+        <v>4.4296500000000003E-2</v>
+      </c>
+      <c r="O62" s="56">
+        <v>0.20378033333333334</v>
+      </c>
+      <c r="P62" s="56">
+        <v>2.1746999999999999E-2</v>
+      </c>
+      <c r="Q62" s="56">
+        <v>0.36699399999999999</v>
+      </c>
+      <c r="R62" s="56">
+        <v>0.1615095</v>
+      </c>
+      <c r="S62" s="56">
+        <v>0.46084099999999995</v>
+      </c>
+      <c r="T62" s="56">
+        <v>1.7070999999999999E-2</v>
+      </c>
       <c r="V62" s="55" t="s">
         <v>308</v>
       </c>
       <c r="W62" s="56">
-        <v>5.6984E-2</v>
+        <v>4.5587200000000001E-2</v>
       </c>
       <c r="X62" s="56">
-        <v>4.4296500000000003E-2</v>
+        <v>3.5437200000000002E-2</v>
       </c>
       <c r="Y62" s="56">
-        <v>0.20378033333333334</v>
+        <v>0.1630242666666667</v>
       </c>
       <c r="Z62" s="56">
-        <v>2.1746999999999999E-2</v>
+        <v>1.7397599999999999E-2</v>
       </c>
       <c r="AA62" s="56">
-        <v>0.36699399999999999</v>
+        <v>0.2935952</v>
       </c>
       <c r="AB62" s="56">
-        <v>0.1615095</v>
+        <v>0.12920760000000001</v>
       </c>
       <c r="AC62" s="56">
-        <v>0.46084099999999995</v>
+        <v>0.36867279999999997</v>
       </c>
       <c r="AD62" s="56">
-        <v>1.7070999999999999E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.36568E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="86"/>
       <c r="B67" s="87"/>
       <c r="C67" s="88" t="s">
@@ -10122,7 +10595,7 @@
       </c>
       <c r="D67" s="89"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="90"/>
       <c r="C68" s="91" t="s">
         <v>201</v>
@@ -10132,7 +10605,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="90"/>
       <c r="C69" s="91" t="s">
         <v>241</v>
@@ -10142,7 +10615,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="90"/>
       <c r="C70" s="91" t="s">
         <v>199</v>
@@ -10152,7 +10625,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="94"/>
       <c r="B71" s="95"/>
       <c r="C71" s="96" t="s">
@@ -10163,12 +10636,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="55" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="98" t="s">
         <v>201</v>
       </c>
@@ -10179,7 +10652,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="90" t="s">
         <v>241</v>
       </c>
@@ -10190,7 +10663,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="90" t="s">
         <v>199</v>
       </c>
@@ -10198,7 +10671,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="94" t="s">
         <v>198</v>
       </c>
@@ -10206,12 +10679,12 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="55" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="98" t="s">
         <v>201</v>
       </c>
@@ -10222,7 +10695,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="90" t="s">
         <v>241</v>
       </c>
@@ -10233,7 +10706,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="90" t="s">
         <v>199</v>
       </c>
@@ -10244,7 +10717,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="94" t="s">
         <v>198</v>
       </c>
@@ -10255,7 +10728,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D85" s="57" t="s">
         <v>250</v>
       </c>
@@ -10278,27 +10751,27 @@
       <selection activeCell="AD23" sqref="AD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.54296875" customWidth="1"/>
     <col min="10" max="10" width="36" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.140625" customWidth="1"/>
-    <col min="20" max="23" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="38.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.1796875" customWidth="1"/>
+    <col min="20" max="23" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.54296875" customWidth="1"/>
     <col min="26" max="26" width="32" customWidth="1"/>
-    <col min="27" max="29" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.42578125" customWidth="1"/>
+    <col min="27" max="29" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="B1" s="12" t="s">
         <v>58</v>
       </c>
@@ -10325,7 +10798,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>57</v>
       </c>
@@ -10380,7 +10853,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -10442,7 +10915,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>61</v>
       </c>
@@ -10498,7 +10971,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>106</v>
       </c>
@@ -10533,7 +11006,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B6" s="15"/>
       <c r="M6" s="4" t="s">
         <v>114</v>
@@ -10572,7 +11045,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="M7" s="3" t="s">
         <v>118</v>
       </c>
@@ -10603,7 +11076,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="S8" s="3" t="s">
         <v>129</v>
       </c>
@@ -10628,7 +11101,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="Y9" s="3" t="s">
         <v>138</v>
       </c>
@@ -10636,12 +11109,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="AD10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="S11" s="24" t="s">
         <v>130</v>
       </c>
@@ -10652,7 +11125,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="K12" s="15"/>
       <c r="T12" s="24" t="s">
         <v>124</v>
@@ -10669,7 +11142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="S13" s="21" t="s">
         <v>119</v>
       </c>
@@ -10692,7 +11165,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="S14" s="13" t="s">
         <v>120</v>
       </c>
@@ -10709,7 +11182,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="S15" s="13" t="s">
         <v>121</v>
       </c>
@@ -10722,7 +11195,7 @@
       </c>
       <c r="W15" s="4"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="S16" s="13" t="s">
         <v>122</v>
       </c>
@@ -10741,7 +11214,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="17" spans="19:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="19:27" x14ac:dyDescent="0.35">
       <c r="S17" s="13" t="s">
         <v>123</v>
       </c>
@@ -10761,18 +11234,18 @@
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="19:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="19:27" x14ac:dyDescent="0.35">
       <c r="S18" s="3" t="s">
         <v>129</v>
       </c>
       <c r="AA18" s="15"/>
     </row>
-    <row r="20" spans="19:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="19:27" x14ac:dyDescent="0.35">
       <c r="S20" s="24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="19:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="19:27" x14ac:dyDescent="0.35">
       <c r="T21" s="24" t="s">
         <v>124</v>
       </c>
@@ -10782,7 +11255,7 @@
       </c>
       <c r="W21" s="24"/>
     </row>
-    <row r="22" spans="19:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="19:27" x14ac:dyDescent="0.35">
       <c r="S22" s="21" t="s">
         <v>119</v>
       </c>
@@ -10799,7 +11272,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="19:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="19:27" x14ac:dyDescent="0.35">
       <c r="S23" s="13" t="s">
         <v>120</v>
       </c>
@@ -10816,7 +11289,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="24" spans="19:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="19:27" x14ac:dyDescent="0.35">
       <c r="S24" s="13" t="s">
         <v>121</v>
       </c>
@@ -10829,7 +11302,7 @@
       </c>
       <c r="W24" s="4"/>
     </row>
-    <row r="25" spans="19:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="19:27" x14ac:dyDescent="0.35">
       <c r="S25" s="13" t="s">
         <v>123</v>
       </c>
@@ -10846,7 +11319,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="26" spans="19:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="19:27" x14ac:dyDescent="0.35">
       <c r="S26" s="3" t="s">
         <v>129</v>
       </c>
@@ -10867,16 +11340,16 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" customWidth="1"/>
+    <col min="6" max="7" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -10893,7 +11366,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -10940,7 +11413,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -10988,7 +11461,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -11030,7 +11503,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -11063,7 +11536,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
@@ -11093,7 +11566,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
@@ -11114,7 +11587,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
@@ -11141,7 +11614,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -11169,7 +11642,7 @@
         <v>0.13824884792626729</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>26</v>
       </c>
@@ -11194,7 +11667,7 @@
         <v>9.8360655737704916E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -11212,10 +11685,10 @@
         <v>7.6E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>261</v>
       </c>
@@ -11232,23 +11705,23 @@
         <v>1.8800000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>332</v>
       </c>
@@ -11259,9 +11732,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B24" s="41">
         <v>8.0070000000000002E-3</v>
@@ -11273,9 +11746,9 @@
         <v>6.6827999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B25" s="41">
         <v>9.7230000000000007E-3</v>
@@ -11287,9 +11760,9 @@
         <v>8.1147999999999998E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B26" s="41">
         <v>1.1802999999999999E-2</v>
@@ -11304,9 +11777,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B27" s="41">
         <v>1.4298999999999999E-2</v>
@@ -11318,9 +11791,9 @@
         <v>0.119336</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B28" s="41">
         <v>8.0070000000000002E-3</v>
@@ -11332,7 +11805,7 @@
         <v>6.6827999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -11346,10 +11819,10 @@
         <v>4.3395000000000003E-2</v>
       </c>
       <c r="E29" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E30" t="s">
         <v>335</v>
       </c>
@@ -11369,28 +11842,28 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.5703125" customWidth="1"/>
-    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.5703125" customWidth="1"/>
-    <col min="31" max="31" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="41.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.54296875" customWidth="1"/>
+    <col min="25" max="25" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.54296875" customWidth="1"/>
+    <col min="31" max="31" width="17.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -11415,7 +11888,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
@@ -11478,7 +11951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
@@ -11542,7 +12015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
@@ -11606,7 +12079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -11646,7 +12119,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -11699,7 +12172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -11741,7 +12214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -11780,7 +12253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -11804,7 +12277,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -11837,7 +12310,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -11879,7 +12352,7 @@
         <v>0.74550000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -11908,7 +12381,7 @@
         <v>0.751</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>20</v>
       </c>
@@ -11939,7 +12412,7 @@
         <v>0.24271844660194175</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -11963,7 +12436,7 @@
         <v>0.12376237623762376</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="H15" s="7"/>
       <c r="N15" s="4" t="s">
         <v>67</v>
@@ -11981,21 +12454,21 @@
         <v>7.1225071225071226E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="H16" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>55</v>
       </c>
@@ -12003,7 +12476,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>1</v>
       </c>
@@ -12014,7 +12487,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -12025,12 +12498,12 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B25" s="6" t="s">
         <v>47</v>
       </c>
@@ -12041,7 +12514,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>1</v>
       </c>
@@ -12058,7 +12531,7 @@
         <v>9.0833333333333339E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>34</v>
       </c>
@@ -12075,22 +12548,22 @@
         <v>6.6666666666666671E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
         <v>141</v>
       </c>
@@ -12098,7 +12571,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B37" s="22" t="s">
         <v>62</v>
       </c>
@@ -12118,7 +12591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
         <v>83</v>
       </c>
@@ -12147,7 +12620,7 @@
         <v>7.5000000000000002E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
         <v>88</v>
       </c>
@@ -12176,7 +12649,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
         <v>89</v>
       </c>
@@ -12205,7 +12678,7 @@
         <v>1.7499999999999998E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
         <v>91</v>
       </c>
@@ -12235,7 +12708,7 @@
         <v>3.2500000000000003E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
         <v>142</v>
       </c>
@@ -12243,7 +12716,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B44" s="22" t="s">
         <v>62</v>
       </c>
@@ -12263,7 +12736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>83</v>
       </c>
@@ -12292,7 +12765,7 @@
         <v>1.25E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="s">
         <v>88</v>
       </c>
@@ -12321,7 +12794,7 @@
         <v>3.4999999999999996E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="s">
         <v>89</v>
       </c>
@@ -12350,7 +12823,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
         <v>91</v>
       </c>
@@ -12379,21 +12852,21 @@
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>90</v>
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G51" s="23"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="24" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
         <v>92</v>
       </c>
@@ -12407,7 +12880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
         <v>96</v>
       </c>
@@ -12421,7 +12894,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="s">
         <v>94</v>
       </c>
@@ -12435,7 +12908,7 @@
         <v>4.2699999999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="13" t="s">
         <v>95</v>
       </c>
@@ -12449,12 +12922,12 @@
         <v>13.42</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="24" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="s">
         <v>92</v>
       </c>
@@ -12468,7 +12941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="13" t="s">
         <v>96</v>
       </c>
@@ -12482,7 +12955,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="13" t="s">
         <v>94</v>
       </c>
@@ -12496,7 +12969,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="13" t="s">
         <v>95</v>
       </c>
@@ -12526,14 +12999,14 @@
       <selection activeCell="B3" sqref="B3:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>237</v>
       </c>
@@ -12541,7 +13014,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="42" t="s">
         <v>229</v>
       </c>
@@ -12555,7 +13028,7 @@
         <v>16.6279069767441</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>230</v>
       </c>
@@ -12569,7 +13042,7 @@
         <v>39.999999999999901</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>231</v>
       </c>
@@ -12583,7 +13056,7 @@
         <v>45.232558139534802</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -12597,7 +13070,7 @@
         <v>43.139534883720899</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -12611,7 +13084,7 @@
         <v>39.651162790697597</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -12625,7 +13098,7 @@
         <v>24.651162790697601</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>

--- a/HPVData.xlsx
+++ b/HPVData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicktzr\Google Drive\ICRC\CISNET\HHCoM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\HHCoM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="HPV" sheetId="6" r:id="rId1"/>
@@ -2790,8 +2790,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3896,8 +3896,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BL85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O43" workbookViewId="0">
-      <selection activeCell="AF58" sqref="AF58"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/HPVData.xlsx
+++ b/HPVData.xlsx
@@ -1157,7 +1157,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1173,6 +1173,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE4D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1829,7 +1835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1960,6 +1966,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2790,8 +2797,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3604,11 +3611,11 @@
       <c r="G29" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="104">
         <f>1/24.3*12</f>
         <v>0.49382716049382713</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="104">
         <v>0.75774999999999992</v>
       </c>
       <c r="Q29" t="s">
@@ -3628,11 +3635,11 @@
       <c r="G30" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="104">
         <f>1/24.3*12</f>
         <v>0.49382716049382713</v>
       </c>
-      <c r="I30" s="26">
+      <c r="I30" s="104">
         <v>1</v>
       </c>
       <c r="Q30" t="s">
@@ -3652,11 +3659,11 @@
       <c r="G31" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="H31" s="26">
+      <c r="H31" s="104">
         <f>MIN(H29:H30)</f>
         <v>0.49382716049382713</v>
       </c>
-      <c r="I31" s="26">
+      <c r="I31" s="104">
         <f>MIN(I29:I30)</f>
         <v>0.75774999999999992</v>
       </c>
